--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$798</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$821</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="1649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="1685">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6623,6 +6623,150 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/2P6u4LLaDzOhJs2veITG-w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑期追剧学AI (4) | 人工智能关键概念“神经网络”是什么？不信看完这个视频你还不懂！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Qcd-3zRuWIQpZoENgLDE2g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯 | 你家的网络摄像头可能也正被CIA监控，维基解密曝光CIA视频流窃听工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/5PeFM-D4tf3HnYEaqTG4ag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名 | 2017上海·大数据与分析创新峰会（八折优惠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/tZ1QxAXuaieRj5tl6vWycA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA2获胜的AI比AlphaGo厉害？还是媒体和马斯克在联合炒作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/D36Brk7oGO92hWiSY_MMEg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯坦福CS231n开放全部视频，文摘带你一起组团学习打怪，约吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/bWbq_bK5rKAkAKhhpKJYyw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯坦福CS231n Spring 2017开放全部课程视频（附大纲）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JgnlWrm41PbaJhTrZhnNjw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 为模型减减肥：谈谈移动／嵌入式端的深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/lO2UM04PfSM5VJYh6vINhw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | 如何通过CRF-RNN模型实现图像语义分割任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/v_TLYYq6cFWuwR9tXM8m-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | UC伯克利提出新型视觉描述系统，物体描述无需大量样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/VAEH_241IAuEH5S6H6ep5w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜斯坦福2017春季CS231n深度视觉识别课程视频（资源）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/CiVP7VZVb-joOqs8n4bVSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜必须掌握的10 大CV领域的深度学习架构（附代论文＋代码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/q4DD3tY1d6FTRFivjf2GYQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook：别因为骄傲而不屑于抄袭！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8UIEQF51nK9RaHQL5ATPbw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜Dota沦陷：OpenAI狂虐Dota2世界冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BKUT9DDJEKeidd2QdQeRdg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真相：澳洲教授用中文写“我无法容忍学生作弊”！我们是被歧视？还是玻璃心？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nWtyMLmVk94z-jAvDzwAew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenAI的人工智能进军DOTA2：影魔solo轻松击败顶级选手天才少年Dendi和Sumail！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Y27iVk3-bdjbATvtDcGvqQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 十问陆奇：百度要如何赢得AI的未来？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Qrltdak2aCZ91Ehud4FUIQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | CVPR2017精彩论文解读：直接处理三维点云的深度学习模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/BZPSXAsVi0MHAqXQUgI3dg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 一文为你解读谷歌与深度学习的不解之缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4SeDDmbo7ZTKelalnFa0_g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7508,42 +7652,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7571,6 +7679,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7578,6 +7707,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7963,23 +8107,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42959</v>
+        <v>42960</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="78" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
         <v>NSNG第32周行业资讯</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -7990,22 +8134,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72" t="str">
+      <c r="C5" s="60" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -8031,61 +8175,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="57" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="61" t="str">
+      <c r="B8" s="70" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="60" t="str">
+      <c r="C10" s="69" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="72" t="str">
+      <c r="C11" s="60" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -8112,60 +8256,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="69" t="str">
+      <c r="B13" s="57" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="61" t="str">
+      <c r="B14" s="70" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="60" t="str">
+      <c r="C16" s="69" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="72" t="str">
+      <c r="C17" s="60" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -8191,60 +8335,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="69" t="str">
+      <c r="B19" s="57" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="61" t="str">
+      <c r="B20" s="70" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="60" t="str">
+      <c r="C22" s="69" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="72" t="str">
+      <c r="C23" s="60" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -8270,60 +8414,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="69" t="str">
+      <c r="B25" s="57" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="61" t="str">
+      <c r="B26" s="70" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="60" t="str">
+      <c r="C28" s="69" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="72" t="str">
+      <c r="C29" s="60" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="62"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -8349,60 +8493,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="69" t="str">
+      <c r="B31" s="57" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="61" t="str">
+      <c r="B32" s="70" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="60" t="str">
+      <c r="C34" s="69" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="72" t="str">
+      <c r="C35" s="60" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="74"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -8428,60 +8572,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="69" t="str">
+      <c r="B37" s="57" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="61" t="str">
+      <c r="B38" s="70" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="60" t="str">
+      <c r="C40" s="69" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="72" t="str">
+      <c r="C41" s="60" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="62"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -8507,60 +8651,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="69" t="str">
+      <c r="B43" s="57" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="61" t="str">
+      <c r="B44" s="70" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="60" t="str">
+      <c r="C46" s="69" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="65"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="72" t="str">
+      <c r="C47" s="60" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="62"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -8586,60 +8730,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="69" t="str">
+      <c r="B49" s="57" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="61" t="str">
+      <c r="B50" s="70" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="72"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="60" t="str">
+      <c r="C52" s="69" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="77"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="72" t="str">
+      <c r="C53" s="60" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="74"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -8665,60 +8809,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="69" t="str">
+      <c r="B55" s="57" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="71"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="59"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="61" t="str">
+      <c r="B56" s="70" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="60" t="str">
+      <c r="C58" s="69" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="77"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="72" t="str">
+      <c r="C59" s="60" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="74"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="62"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -8744,60 +8888,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="69" t="str">
+      <c r="B61" s="57" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="59"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="61" t="str">
+      <c r="B62" s="70" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="72"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="57"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="59"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="60" t="str">
+      <c r="C64" s="69" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="60"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="77"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="72" t="str">
+      <c r="C65" s="60" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="74"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="62"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -8823,60 +8967,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="69" t="str">
+      <c r="B67" s="57" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="59"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="61" t="str">
+      <c r="B68" s="70" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="72"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="59"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="60" t="str">
+      <c r="C70" s="69" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="77"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="65"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="72" t="str">
+      <c r="C71" s="60" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="74"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="62"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -8902,60 +9046,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="69" t="str">
+      <c r="B73" s="57" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="59"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="61" t="str">
+      <c r="B74" s="70" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="72"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="57"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="59"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="68"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="60" t="str">
+      <c r="C76" s="69" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="77"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="72" t="str">
+      <c r="C77" s="60" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="62"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -8981,60 +9125,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="69" t="str">
+      <c r="B79" s="57" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="71"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="59"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="61" t="str">
+      <c r="B80" s="70" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="72"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="57"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="59"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="68"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="60" t="str">
+      <c r="C82" s="69" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="60"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="77"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="65"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="72" t="str">
+      <c r="C83" s="60" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="74"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="62"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -9060,60 +9204,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="69" t="str">
+      <c r="B85" s="57" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="71"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="59"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="61" t="str">
+      <c r="B86" s="70" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="72"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="57"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="59"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="68"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="60" t="str">
+      <c r="C88" s="69" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="60"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="77"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="65"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="72" t="str">
+      <c r="C89" s="60" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="74"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="62"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -9139,60 +9283,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="69" t="str">
+      <c r="B91" s="57" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="71"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="59"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="61" t="str">
+      <c r="B92" s="70" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="63"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="72"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="57"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="59"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="68"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="60" t="str">
+      <c r="C94" s="69" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="77"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="65"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="72" t="str">
+      <c r="C95" s="60" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="74"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="62"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -9218,60 +9362,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="69" t="str">
+      <c r="B97" s="57" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="71"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="59"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="61" t="str">
+      <c r="B98" s="70" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="63"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="72"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="59"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="68"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="60" t="str">
+      <c r="C100" s="69" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="60"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="77"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="65"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="72" t="str">
+      <c r="C101" s="60" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="74"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="62"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -9297,60 +9441,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="69" t="str">
+      <c r="B103" s="57" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="71"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="59"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="61" t="str">
+      <c r="B104" s="70" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="63"/>
+      <c r="C104" s="71"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="72"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="57"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="59"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="68"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="60" t="str">
+      <c r="C106" s="69" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="60"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="77"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="65"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="72" t="str">
+      <c r="C107" s="60" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="74"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="62"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -9376,60 +9520,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="69" t="str">
+      <c r="B109" s="57" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="71"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="59"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="61" t="str">
+      <c r="B110" s="70" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="63"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="72"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="57"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="59"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="68"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="60" t="str">
+      <c r="C112" s="69" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="60"/>
-      <c r="E112" s="75"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="77"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="65"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="72" t="str">
+      <c r="C113" s="60" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="74"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="62"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -9455,60 +9599,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="69" t="str">
+      <c r="B115" s="57" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="71"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="59"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="61" t="str">
+      <c r="B116" s="70" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="62"/>
-      <c r="G116" s="63"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="72"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="59"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="68"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="60" t="str">
+      <c r="C118" s="69" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="60"/>
-      <c r="E118" s="75"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="77"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="65"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="72" t="str">
+      <c r="C119" s="60" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="74"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="62"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -9534,60 +9678,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="69" t="str">
+      <c r="B121" s="57" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="70"/>
-      <c r="F121" s="70"/>
-      <c r="G121" s="71"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="58"/>
+      <c r="G121" s="59"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="61" t="str">
+      <c r="B122" s="70" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="62"/>
-      <c r="G122" s="63"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="72"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="57"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="58"/>
-      <c r="G123" s="59"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="68"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="60" t="str">
+      <c r="C124" s="69" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="60"/>
-      <c r="E124" s="75"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="77"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="63"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="65"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="72" t="str">
+      <c r="C125" s="60" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="74"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="62"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -9613,60 +9757,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="69" t="str">
+      <c r="B127" s="57" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="70"/>
-      <c r="D127" s="70"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="70"/>
-      <c r="G127" s="71"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="59"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="61" t="str">
+      <c r="B128" s="70" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="63"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="72"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="57"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="59"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="68"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="60" t="str">
+      <c r="C130" s="69" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="60"/>
-      <c r="E130" s="75"/>
-      <c r="F130" s="76"/>
-      <c r="G130" s="77"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="64"/>
+      <c r="G130" s="65"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="72" t="str">
+      <c r="C131" s="60" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="73"/>
-      <c r="E131" s="73"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="74"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="62"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -9692,60 +9836,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="69" t="str">
+      <c r="B133" s="57" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="70"/>
-      <c r="F133" s="70"/>
-      <c r="G133" s="71"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="58"/>
+      <c r="G133" s="59"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="61" t="str">
+      <c r="B134" s="70" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="63"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="72"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="57"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="58"/>
-      <c r="F135" s="58"/>
-      <c r="G135" s="59"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="68"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="60" t="str">
+      <c r="C136" s="69" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="60"/>
-      <c r="E136" s="75"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="77"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="65"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="72" t="str">
+      <c r="C137" s="60" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="74"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="62"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -9771,60 +9915,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="69" t="str">
+      <c r="B139" s="57" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="71"/>
+      <c r="C139" s="58"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="58"/>
+      <c r="F139" s="58"/>
+      <c r="G139" s="59"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="61" t="str">
+      <c r="B140" s="70" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="62"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="62"/>
-      <c r="F140" s="62"/>
-      <c r="G140" s="63"/>
+      <c r="C140" s="71"/>
+      <c r="D140" s="71"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="72"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="57"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
-      <c r="F141" s="58"/>
-      <c r="G141" s="59"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="68"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="60" t="str">
+      <c r="C142" s="69" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="60"/>
-      <c r="E142" s="75"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="77"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="63"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="65"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="72" t="str">
+      <c r="C143" s="60" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="74"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="62"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -9850,60 +9994,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="69" t="str">
+      <c r="B145" s="57" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="70"/>
-      <c r="F145" s="70"/>
-      <c r="G145" s="71"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="58"/>
+      <c r="G145" s="59"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="61" t="str">
+      <c r="B146" s="70" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="62"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="62"/>
-      <c r="F146" s="62"/>
-      <c r="G146" s="63"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="71"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="72"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="57"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="59"/>
+      <c r="B147" s="66"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="67"/>
+      <c r="G147" s="68"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="60" t="str">
+      <c r="C148" s="69" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="60"/>
-      <c r="E148" s="75"/>
-      <c r="F148" s="76"/>
-      <c r="G148" s="77"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="63"/>
+      <c r="F148" s="64"/>
+      <c r="G148" s="65"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="72" t="str">
+      <c r="C149" s="60" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="73"/>
-      <c r="E149" s="73"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="74"/>
+      <c r="D149" s="61"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="61"/>
+      <c r="G149" s="62"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -9929,60 +10073,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="69" t="str">
+      <c r="B151" s="57" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="70"/>
-      <c r="F151" s="70"/>
-      <c r="G151" s="71"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="59"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="61" t="str">
+      <c r="B152" s="70" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="62"/>
-      <c r="D152" s="62"/>
-      <c r="E152" s="62"/>
-      <c r="F152" s="62"/>
-      <c r="G152" s="63"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="71"/>
+      <c r="G152" s="72"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="57"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="58"/>
-      <c r="F153" s="58"/>
-      <c r="G153" s="59"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="67"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="68"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="60" t="str">
+      <c r="C154" s="69" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="60"/>
-      <c r="E154" s="75"/>
-      <c r="F154" s="76"/>
-      <c r="G154" s="77"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="64"/>
+      <c r="G154" s="65"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="72" t="str">
+      <c r="C155" s="60" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="73"/>
-      <c r="E155" s="73"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="74"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="61"/>
+      <c r="F155" s="61"/>
+      <c r="G155" s="62"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -10008,60 +10152,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="69" t="str">
+      <c r="B157" s="57" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="70"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="71"/>
+      <c r="C157" s="58"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="58"/>
+      <c r="G157" s="59"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="61" t="str">
+      <c r="B158" s="70" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="62"/>
-      <c r="D158" s="62"/>
-      <c r="E158" s="62"/>
-      <c r="F158" s="62"/>
-      <c r="G158" s="63"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="71"/>
+      <c r="F158" s="71"/>
+      <c r="G158" s="72"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="57"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="59"/>
+      <c r="B159" s="66"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="68"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="60" t="str">
+      <c r="C160" s="69" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="60"/>
-      <c r="E160" s="75"/>
-      <c r="F160" s="76"/>
-      <c r="G160" s="77"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="63"/>
+      <c r="F160" s="64"/>
+      <c r="G160" s="65"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="72" t="str">
+      <c r="C161" s="60" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="73"/>
-      <c r="E161" s="73"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="74"/>
+      <c r="D161" s="61"/>
+      <c r="E161" s="61"/>
+      <c r="F161" s="61"/>
+      <c r="G161" s="62"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -10087,60 +10231,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="69" t="str">
+      <c r="B163" s="57" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="70"/>
-      <c r="D163" s="70"/>
-      <c r="E163" s="70"/>
-      <c r="F163" s="70"/>
-      <c r="G163" s="71"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="58"/>
+      <c r="G163" s="59"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="61" t="str">
+      <c r="B164" s="70" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="62"/>
-      <c r="D164" s="62"/>
-      <c r="E164" s="62"/>
-      <c r="F164" s="62"/>
-      <c r="G164" s="63"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="71"/>
+      <c r="E164" s="71"/>
+      <c r="F164" s="71"/>
+      <c r="G164" s="72"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="57"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="59"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="67"/>
+      <c r="D165" s="67"/>
+      <c r="E165" s="67"/>
+      <c r="F165" s="67"/>
+      <c r="G165" s="68"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="60" t="str">
+      <c r="C166" s="69" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="60"/>
-      <c r="E166" s="75"/>
-      <c r="F166" s="76"/>
-      <c r="G166" s="77"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="63"/>
+      <c r="F166" s="64"/>
+      <c r="G166" s="65"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="72" t="str">
+      <c r="C167" s="60" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="73"/>
-      <c r="E167" s="73"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="74"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="61"/>
+      <c r="G167" s="62"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -10166,60 +10310,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="69" t="str">
+      <c r="B169" s="57" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="70"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="70"/>
-      <c r="F169" s="70"/>
-      <c r="G169" s="71"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="58"/>
+      <c r="G169" s="59"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="61" t="str">
+      <c r="B170" s="70" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="62"/>
-      <c r="D170" s="62"/>
-      <c r="E170" s="62"/>
-      <c r="F170" s="62"/>
-      <c r="G170" s="63"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="72"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="57"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="59"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="67"/>
+      <c r="D171" s="67"/>
+      <c r="E171" s="67"/>
+      <c r="F171" s="67"/>
+      <c r="G171" s="68"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="60" t="str">
+      <c r="C172" s="69" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="60"/>
-      <c r="E172" s="75"/>
-      <c r="F172" s="76"/>
-      <c r="G172" s="77"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="63"/>
+      <c r="F172" s="64"/>
+      <c r="G172" s="65"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="72" t="str">
+      <c r="C173" s="60" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="73"/>
-      <c r="E173" s="73"/>
-      <c r="F173" s="73"/>
-      <c r="G173" s="74"/>
+      <c r="D173" s="61"/>
+      <c r="E173" s="61"/>
+      <c r="F173" s="61"/>
+      <c r="G173" s="62"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -10245,60 +10389,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="69" t="str">
+      <c r="B175" s="57" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="70"/>
-      <c r="D175" s="70"/>
-      <c r="E175" s="70"/>
-      <c r="F175" s="70"/>
-      <c r="G175" s="71"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="59"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="61" t="str">
+      <c r="B176" s="70" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="62"/>
-      <c r="D176" s="62"/>
-      <c r="E176" s="62"/>
-      <c r="F176" s="62"/>
-      <c r="G176" s="63"/>
+      <c r="C176" s="71"/>
+      <c r="D176" s="71"/>
+      <c r="E176" s="71"/>
+      <c r="F176" s="71"/>
+      <c r="G176" s="72"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="57"/>
-      <c r="C177" s="58"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="59"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="67"/>
+      <c r="D177" s="67"/>
+      <c r="E177" s="67"/>
+      <c r="F177" s="67"/>
+      <c r="G177" s="68"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="60" t="str">
+      <c r="C178" s="69" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="60"/>
-      <c r="E178" s="75"/>
-      <c r="F178" s="76"/>
-      <c r="G178" s="77"/>
+      <c r="D178" s="69"/>
+      <c r="E178" s="63"/>
+      <c r="F178" s="64"/>
+      <c r="G178" s="65"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="72" t="str">
+      <c r="C179" s="60" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="73"/>
-      <c r="E179" s="73"/>
-      <c r="F179" s="73"/>
-      <c r="G179" s="74"/>
+      <c r="D179" s="61"/>
+      <c r="E179" s="61"/>
+      <c r="F179" s="61"/>
+      <c r="G179" s="62"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -10324,59 +10468,172 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="69" t="str">
+      <c r="B181" s="57" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="70"/>
-      <c r="D181" s="70"/>
-      <c r="E181" s="70"/>
-      <c r="F181" s="70"/>
-      <c r="G181" s="71"/>
+      <c r="C181" s="58"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="59"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="61" t="str">
+      <c r="B182" s="70" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="62"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="F182" s="62"/>
-      <c r="G182" s="63"/>
+      <c r="C182" s="71"/>
+      <c r="D182" s="71"/>
+      <c r="E182" s="71"/>
+      <c r="F182" s="71"/>
+      <c r="G182" s="72"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="78"/>
-      <c r="C183" s="79"/>
-      <c r="D183" s="79"/>
-      <c r="E183" s="79"/>
-      <c r="F183" s="79"/>
-      <c r="G183" s="80"/>
+      <c r="B183" s="73"/>
+      <c r="C183" s="74"/>
+      <c r="D183" s="74"/>
+      <c r="E183" s="74"/>
+      <c r="F183" s="74"/>
+      <c r="G183" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="E82:G82"/>
     <mergeCell ref="B75:G75"/>
@@ -10401,141 +10658,28 @@
     <mergeCell ref="C137:G137"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17029,10 +17173,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB807"/>
+  <dimension ref="A1:AB825"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A703" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E809" sqref="E809"/>
+    <sheetView tabSelected="1" topLeftCell="A544" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E827" sqref="E827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -31393,8 +31537,314 @@
         <v>1648</v>
       </c>
     </row>
+    <row r="808" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B808" s="45">
+        <v>42959</v>
+      </c>
+      <c r="C808" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F808" s="56" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="809" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B809" s="45">
+        <v>42959</v>
+      </c>
+      <c r="C809" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F809" s="56" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="810" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B810" s="45">
+        <v>42959</v>
+      </c>
+      <c r="C810" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F810" s="56" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="811" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B811" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C811" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F811" s="56" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="812" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B812" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C812" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F812" s="56" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="813" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B813" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C813" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D813" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F813" s="56" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="814" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B814" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C814" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D814" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F814" s="56" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="815" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B815" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C815" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D815" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F815" s="56" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="816" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B816" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C816" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D816" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F816" s="56" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="817" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B817" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C817" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D817" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F817" s="56" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="818" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B818" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C818" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D818" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F818" s="56" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="819" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B819" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C819" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D819" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F819" s="56" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="820" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B820" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C820" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D820" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F820" s="56" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="821" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B821" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C821" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D821" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F821" s="56" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="822" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B822" s="45">
+        <v>42959</v>
+      </c>
+      <c r="C822" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D822" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F822" s="56" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="823" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B823" s="45">
+        <v>42959</v>
+      </c>
+      <c r="C823" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D823" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F823" s="56" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="824" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B824" s="45">
+        <v>42959</v>
+      </c>
+      <c r="C824" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D824" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F824" s="56" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="825" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B825" s="45">
+        <v>42959</v>
+      </c>
+      <c r="C825" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D825" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F825" s="56" t="s">
+        <v>1684</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F798">
+  <autoFilter ref="A1:F821">
     <filterColumn colId="2">
       <filters>
         <filter val="AI科技评论"/>
@@ -32210,9 +32660,27 @@
     <hyperlink ref="F805" r:id="rId794"/>
     <hyperlink ref="F806" r:id="rId795"/>
     <hyperlink ref="F807" r:id="rId796"/>
+    <hyperlink ref="F808" r:id="rId797"/>
+    <hyperlink ref="F809" r:id="rId798"/>
+    <hyperlink ref="F810" r:id="rId799"/>
+    <hyperlink ref="F811" r:id="rId800"/>
+    <hyperlink ref="F812" r:id="rId801"/>
+    <hyperlink ref="F813" r:id="rId802"/>
+    <hyperlink ref="F814" r:id="rId803"/>
+    <hyperlink ref="F815" r:id="rId804"/>
+    <hyperlink ref="F816" r:id="rId805"/>
+    <hyperlink ref="F817" r:id="rId806"/>
+    <hyperlink ref="F818" r:id="rId807"/>
+    <hyperlink ref="F819" r:id="rId808"/>
+    <hyperlink ref="F820" r:id="rId809"/>
+    <hyperlink ref="F821" r:id="rId810"/>
+    <hyperlink ref="F822" r:id="rId811"/>
+    <hyperlink ref="F823" r:id="rId812"/>
+    <hyperlink ref="F824" r:id="rId813"/>
+    <hyperlink ref="F825" r:id="rId814"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId797"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId815"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$821</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$835</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="1685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="1710">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6767,6 +6767,106 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/4SeDDmbo7ZTKelalnFa0_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅！大数据告诉你：逃离北上广，他们都去了哪里？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/lvDkWCHeaX5JSly81s90iw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI投资｜8月上旬全球33家AI公司获得约6亿美元投资！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/xYLRtt24hQUtl0JUUyyg4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜数学工作者必须掌握的一个在线数学编辑器：mathcha！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AahQh7gdXKMEhLI_9O1TtA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜PyTorch tutorial 神经网络 教学（中文视频地址）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/s7SWALRCd_S6Iwkq7PIT0Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜最近7天最受欢迎的Top10 AI论文！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【中国战队包揽234却无缘冠军】OpenAI 的 Dota2 机器人强在哪？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/xEyNi3RZJa5v0S_c4mihqw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【斯坦福 CS231n 趣事】吴恩达访 Karpathy、林元庆和苹果 AI 负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JLcGO2Jyt_y1GlLqKs1Rmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一名在斯坦福教授TensorFlow教师的“忏悔”：我觉得自己像个骗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hdMZI7AKRghI3QI26kaJNw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【开源】谷歌发布deeplearn.js，浏览器端的强大机器学习库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/EqCY_WLZQIHEWLljQZ_sqg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI TOP 10】马斯克：AI威胁远胜朝鲜核武器；这只机器人竟然在衣服上爬来爬去！美国巨头收购AI公司谷歌排第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/tiyhBbde_7RYrRu6L9GWyg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDD 2017现场探营：务实、丰富，数据大爆炸的盛会即将开启 | KDD 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/zU3Oe_rco1JL5Zd_J4RPYw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | ACL论文精彩论文演讲：simGAN+domain tag训练出表现优异的半监督问答模型（图文全文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/6sELU1-kJcGgD3Qmx3g1kA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | IBM秀出并行训练肌肉：256个GPU还有95%的拓展效率，顺便刷新ImageNet-22K记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/b3i_u7e0eiOfjCj8EigRdQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7652,6 +7752,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7679,27 +7815,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7707,21 +7822,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8107,23 +8207,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42960</v>
+        <v>42961</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="66" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
-        <v>NSNG第32周行业资讯</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+        <v>NSNG第33周行业资讯</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -8134,22 +8234,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="60" t="str">
+      <c r="C5" s="72" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -8175,61 +8275,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="57" t="str">
+      <c r="B7" s="69" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="70" t="str">
+      <c r="B8" s="61" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="69" t="str">
+      <c r="C10" s="60" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="60" t="str">
+      <c r="C11" s="72" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -8256,60 +8356,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="57" t="str">
+      <c r="B13" s="69" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="70" t="str">
+      <c r="B14" s="61" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="69" t="str">
+      <c r="C16" s="60" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="60" t="str">
+      <c r="C17" s="72" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -8335,60 +8435,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="57" t="str">
+      <c r="B19" s="69" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="70" t="str">
+      <c r="B20" s="61" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="69" t="str">
+      <c r="C22" s="60" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="60" t="str">
+      <c r="C23" s="72" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -8414,60 +8514,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="57" t="str">
+      <c r="B25" s="69" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="70" t="str">
+      <c r="B26" s="61" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="69" t="str">
+      <c r="C28" s="60" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="60" t="str">
+      <c r="C29" s="72" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -8493,60 +8593,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="57" t="str">
+      <c r="B31" s="69" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="70" t="str">
+      <c r="B32" s="61" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="69" t="str">
+      <c r="C34" s="60" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="60" t="str">
+      <c r="C35" s="72" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="74"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -8572,60 +8672,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="57" t="str">
+      <c r="B37" s="69" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="70" t="str">
+      <c r="B38" s="61" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="69" t="str">
+      <c r="C40" s="60" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="60" t="str">
+      <c r="C41" s="72" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="62"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="74"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -8651,60 +8751,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="57" t="str">
+      <c r="B43" s="69" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="70" t="str">
+      <c r="B44" s="61" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="69" t="str">
+      <c r="C46" s="60" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="65"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="60" t="str">
+      <c r="C47" s="72" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="62"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="74"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -8730,60 +8830,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="57" t="str">
+      <c r="B49" s="69" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="70" t="str">
+      <c r="B50" s="61" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="72"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="68"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="69" t="str">
+      <c r="C52" s="60" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="77"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="60" t="str">
+      <c r="C53" s="72" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="62"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="74"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -8809,60 +8909,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="57" t="str">
+      <c r="B55" s="69" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="59"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="71"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="70" t="str">
+      <c r="B56" s="61" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="72"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="66"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="68"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="59"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="69" t="str">
+      <c r="C58" s="60" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="77"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="60" t="str">
+      <c r="C59" s="72" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="62"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="74"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -8888,60 +8988,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="57" t="str">
+      <c r="B61" s="69" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="59"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="71"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="70" t="str">
+      <c r="B62" s="61" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="72"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="68"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="59"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="69" t="str">
+      <c r="C64" s="60" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="69"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="77"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="60" t="str">
+      <c r="C65" s="72" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="74"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -8967,60 +9067,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="57" t="str">
+      <c r="B67" s="69" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="59"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="70" t="str">
+      <c r="B68" s="61" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="72"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="66"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="68"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="59"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="69" t="str">
+      <c r="C70" s="60" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="69"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="77"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="60" t="str">
+      <c r="C71" s="72" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="62"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="74"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -9046,60 +9146,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="57" t="str">
+      <c r="B73" s="69" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="59"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="70" t="str">
+      <c r="B74" s="61" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="72"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="66"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="68"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="59"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="69" t="str">
+      <c r="C76" s="60" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="69"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="77"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="60" t="str">
+      <c r="C77" s="72" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="62"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="74"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -9125,60 +9225,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="57" t="str">
+      <c r="B79" s="69" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="59"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="71"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="70" t="str">
+      <c r="B80" s="61" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="72"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="66"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="68"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="59"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="69" t="str">
+      <c r="C82" s="60" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="69"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="65"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="77"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="60" t="str">
+      <c r="C83" s="72" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="62"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="74"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -9204,60 +9304,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="57" t="str">
+      <c r="B85" s="69" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="59"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="71"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="70" t="str">
+      <c r="B86" s="61" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="72"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="66"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="68"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="59"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="69" t="str">
+      <c r="C88" s="60" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="69"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="65"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="77"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="60" t="str">
+      <c r="C89" s="72" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="62"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="74"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -9283,60 +9383,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="57" t="str">
+      <c r="B91" s="69" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="59"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="71"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="70" t="str">
+      <c r="B92" s="61" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="72"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="63"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="66"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="68"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="59"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="69" t="str">
+      <c r="C94" s="60" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="69"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="65"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="77"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="60" t="str">
+      <c r="C95" s="72" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="62"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="74"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -9362,60 +9462,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="57" t="str">
+      <c r="B97" s="69" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="58"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="59"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="71"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="70" t="str">
+      <c r="B98" s="61" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="72"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="63"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="66"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="68"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="59"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="69" t="str">
+      <c r="C100" s="60" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="69"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="65"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="77"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="60" t="str">
+      <c r="C101" s="72" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="62"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="74"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -9441,60 +9541,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="57" t="str">
+      <c r="B103" s="69" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="59"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="71"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="70" t="str">
+      <c r="B104" s="61" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="71"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="72"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="63"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="66"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="68"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="59"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="69" t="str">
+      <c r="C106" s="60" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="69"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="65"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="77"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="60" t="str">
+      <c r="C107" s="72" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="61"/>
-      <c r="E107" s="61"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="62"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="74"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -9520,60 +9620,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="57" t="str">
+      <c r="B109" s="69" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="58"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="59"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="71"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="70" t="str">
+      <c r="B110" s="61" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="71"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="72"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="63"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="66"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="68"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="59"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="69" t="str">
+      <c r="C112" s="60" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="69"/>
-      <c r="E112" s="63"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="77"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="60" t="str">
+      <c r="C113" s="72" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="61"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="62"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="74"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -9599,60 +9699,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="57" t="str">
+      <c r="B115" s="69" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="59"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="71"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="70" t="str">
+      <c r="B116" s="61" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="71"/>
-      <c r="D116" s="71"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="72"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="63"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="66"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="68"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="59"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="69" t="str">
+      <c r="C118" s="60" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="69"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="65"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="75"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="77"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="60" t="str">
+      <c r="C119" s="72" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="61"/>
-      <c r="E119" s="61"/>
-      <c r="F119" s="61"/>
-      <c r="G119" s="62"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="74"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -9678,60 +9778,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="57" t="str">
+      <c r="B121" s="69" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="58"/>
-      <c r="D121" s="58"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="59"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="71"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="70" t="str">
+      <c r="B122" s="61" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="71"/>
-      <c r="D122" s="71"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="72"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="63"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="66"/>
-      <c r="C123" s="67"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="68"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="58"/>
+      <c r="G123" s="59"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="69" t="str">
+      <c r="C124" s="60" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="69"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="64"/>
-      <c r="G124" s="65"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="75"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="77"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="60" t="str">
+      <c r="C125" s="72" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="61"/>
-      <c r="E125" s="61"/>
-      <c r="F125" s="61"/>
-      <c r="G125" s="62"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="73"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="74"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -9757,60 +9857,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="57" t="str">
+      <c r="B127" s="69" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="59"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="70"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="71"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="70" t="str">
+      <c r="B128" s="61" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="71"/>
-      <c r="D128" s="71"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="72"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="66"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="68"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="59"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="69" t="str">
+      <c r="C130" s="60" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="69"/>
-      <c r="E130" s="63"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="65"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="75"/>
+      <c r="F130" s="76"/>
+      <c r="G130" s="77"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="60" t="str">
+      <c r="C131" s="72" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="61"/>
-      <c r="E131" s="61"/>
-      <c r="F131" s="61"/>
-      <c r="G131" s="62"/>
+      <c r="D131" s="73"/>
+      <c r="E131" s="73"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="74"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -9836,60 +9936,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="57" t="str">
+      <c r="B133" s="69" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="58"/>
-      <c r="G133" s="59"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="70"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="71"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="70" t="str">
+      <c r="B134" s="61" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="72"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="62"/>
+      <c r="G134" s="63"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="66"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="68"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="58"/>
+      <c r="F135" s="58"/>
+      <c r="G135" s="59"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="69" t="str">
+      <c r="C136" s="60" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="69"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="65"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="75"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="77"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="60" t="str">
+      <c r="C137" s="72" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="61"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="61"/>
-      <c r="G137" s="62"/>
+      <c r="D137" s="73"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="74"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -9915,60 +10015,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="57" t="str">
+      <c r="B139" s="69" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="58"/>
-      <c r="D139" s="58"/>
-      <c r="E139" s="58"/>
-      <c r="F139" s="58"/>
-      <c r="G139" s="59"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="71"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="70" t="str">
+      <c r="B140" s="61" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="71"/>
-      <c r="D140" s="71"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="72"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="63"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="66"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="68"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="58"/>
+      <c r="F141" s="58"/>
+      <c r="G141" s="59"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="69" t="str">
+      <c r="C142" s="60" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="69"/>
-      <c r="E142" s="63"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="65"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="75"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="77"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="60" t="str">
+      <c r="C143" s="72" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="62"/>
+      <c r="D143" s="73"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="74"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -9994,60 +10094,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="57" t="str">
+      <c r="B145" s="69" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
-      <c r="F145" s="58"/>
-      <c r="G145" s="59"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="70"/>
+      <c r="F145" s="70"/>
+      <c r="G145" s="71"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="70" t="str">
+      <c r="B146" s="61" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="71"/>
-      <c r="D146" s="71"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="72"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="63"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="66"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="68"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="58"/>
+      <c r="G147" s="59"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="69" t="str">
+      <c r="C148" s="60" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="69"/>
-      <c r="E148" s="63"/>
-      <c r="F148" s="64"/>
-      <c r="G148" s="65"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="75"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="77"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="60" t="str">
+      <c r="C149" s="72" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="61"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="61"/>
-      <c r="G149" s="62"/>
+      <c r="D149" s="73"/>
+      <c r="E149" s="73"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="74"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -10073,60 +10173,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="57" t="str">
+      <c r="B151" s="69" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="58"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="58"/>
-      <c r="F151" s="58"/>
-      <c r="G151" s="59"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="70"/>
+      <c r="E151" s="70"/>
+      <c r="F151" s="70"/>
+      <c r="G151" s="71"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="70" t="str">
+      <c r="B152" s="61" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="72"/>
+      <c r="C152" s="62"/>
+      <c r="D152" s="62"/>
+      <c r="E152" s="62"/>
+      <c r="F152" s="62"/>
+      <c r="G152" s="63"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="66"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="68"/>
+      <c r="B153" s="57"/>
+      <c r="C153" s="58"/>
+      <c r="D153" s="58"/>
+      <c r="E153" s="58"/>
+      <c r="F153" s="58"/>
+      <c r="G153" s="59"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="69" t="str">
+      <c r="C154" s="60" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="69"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="65"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="75"/>
+      <c r="F154" s="76"/>
+      <c r="G154" s="77"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="60" t="str">
+      <c r="C155" s="72" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="61"/>
-      <c r="E155" s="61"/>
-      <c r="F155" s="61"/>
-      <c r="G155" s="62"/>
+      <c r="D155" s="73"/>
+      <c r="E155" s="73"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="74"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -10152,60 +10252,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="57" t="str">
+      <c r="B157" s="69" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="58"/>
-      <c r="F157" s="58"/>
-      <c r="G157" s="59"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="71"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="70" t="str">
+      <c r="B158" s="61" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="71"/>
-      <c r="D158" s="71"/>
-      <c r="E158" s="71"/>
-      <c r="F158" s="71"/>
-      <c r="G158" s="72"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="62"/>
+      <c r="E158" s="62"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="63"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="66"/>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="68"/>
+      <c r="B159" s="57"/>
+      <c r="C159" s="58"/>
+      <c r="D159" s="58"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="58"/>
+      <c r="G159" s="59"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="69" t="str">
+      <c r="C160" s="60" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="69"/>
-      <c r="E160" s="63"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="65"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="75"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="77"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="60" t="str">
+      <c r="C161" s="72" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="61"/>
-      <c r="E161" s="61"/>
-      <c r="F161" s="61"/>
-      <c r="G161" s="62"/>
+      <c r="D161" s="73"/>
+      <c r="E161" s="73"/>
+      <c r="F161" s="73"/>
+      <c r="G161" s="74"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -10231,60 +10331,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="57" t="str">
+      <c r="B163" s="69" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="58"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="58"/>
-      <c r="F163" s="58"/>
-      <c r="G163" s="59"/>
+      <c r="C163" s="70"/>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70"/>
+      <c r="F163" s="70"/>
+      <c r="G163" s="71"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="70" t="str">
+      <c r="B164" s="61" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="71"/>
-      <c r="D164" s="71"/>
-      <c r="E164" s="71"/>
-      <c r="F164" s="71"/>
-      <c r="G164" s="72"/>
+      <c r="C164" s="62"/>
+      <c r="D164" s="62"/>
+      <c r="E164" s="62"/>
+      <c r="F164" s="62"/>
+      <c r="G164" s="63"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="66"/>
-      <c r="C165" s="67"/>
-      <c r="D165" s="67"/>
-      <c r="E165" s="67"/>
-      <c r="F165" s="67"/>
-      <c r="G165" s="68"/>
+      <c r="B165" s="57"/>
+      <c r="C165" s="58"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="58"/>
+      <c r="F165" s="58"/>
+      <c r="G165" s="59"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="69" t="str">
+      <c r="C166" s="60" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="69"/>
-      <c r="E166" s="63"/>
-      <c r="F166" s="64"/>
-      <c r="G166" s="65"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="75"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="77"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="60" t="str">
+      <c r="C167" s="72" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="61"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="61"/>
-      <c r="G167" s="62"/>
+      <c r="D167" s="73"/>
+      <c r="E167" s="73"/>
+      <c r="F167" s="73"/>
+      <c r="G167" s="74"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -10310,60 +10410,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="57" t="str">
+      <c r="B169" s="69" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="59"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70"/>
+      <c r="G169" s="71"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="70" t="str">
+      <c r="B170" s="61" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="71"/>
-      <c r="D170" s="71"/>
-      <c r="E170" s="71"/>
-      <c r="F170" s="71"/>
-      <c r="G170" s="72"/>
+      <c r="C170" s="62"/>
+      <c r="D170" s="62"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="63"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="66"/>
-      <c r="C171" s="67"/>
-      <c r="D171" s="67"/>
-      <c r="E171" s="67"/>
-      <c r="F171" s="67"/>
-      <c r="G171" s="68"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="58"/>
+      <c r="D171" s="58"/>
+      <c r="E171" s="58"/>
+      <c r="F171" s="58"/>
+      <c r="G171" s="59"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="69" t="str">
+      <c r="C172" s="60" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="69"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="64"/>
-      <c r="G172" s="65"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="77"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="60" t="str">
+      <c r="C173" s="72" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="61"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="61"/>
-      <c r="G173" s="62"/>
+      <c r="D173" s="73"/>
+      <c r="E173" s="73"/>
+      <c r="F173" s="73"/>
+      <c r="G173" s="74"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -10389,60 +10489,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="57" t="str">
+      <c r="B175" s="69" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="58"/>
-      <c r="D175" s="58"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="58"/>
-      <c r="G175" s="59"/>
+      <c r="C175" s="70"/>
+      <c r="D175" s="70"/>
+      <c r="E175" s="70"/>
+      <c r="F175" s="70"/>
+      <c r="G175" s="71"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="70" t="str">
+      <c r="B176" s="61" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="71"/>
-      <c r="D176" s="71"/>
-      <c r="E176" s="71"/>
-      <c r="F176" s="71"/>
-      <c r="G176" s="72"/>
+      <c r="C176" s="62"/>
+      <c r="D176" s="62"/>
+      <c r="E176" s="62"/>
+      <c r="F176" s="62"/>
+      <c r="G176" s="63"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="66"/>
-      <c r="C177" s="67"/>
-      <c r="D177" s="67"/>
-      <c r="E177" s="67"/>
-      <c r="F177" s="67"/>
-      <c r="G177" s="68"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="59"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="69" t="str">
+      <c r="C178" s="60" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="69"/>
-      <c r="E178" s="63"/>
-      <c r="F178" s="64"/>
-      <c r="G178" s="65"/>
+      <c r="D178" s="60"/>
+      <c r="E178" s="75"/>
+      <c r="F178" s="76"/>
+      <c r="G178" s="77"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="60" t="str">
+      <c r="C179" s="72" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="61"/>
-      <c r="E179" s="61"/>
-      <c r="F179" s="61"/>
-      <c r="G179" s="62"/>
+      <c r="D179" s="73"/>
+      <c r="E179" s="73"/>
+      <c r="F179" s="73"/>
+      <c r="G179" s="74"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -10468,124 +10568,107 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="57" t="str">
+      <c r="B181" s="69" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="58"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="59"/>
+      <c r="C181" s="70"/>
+      <c r="D181" s="70"/>
+      <c r="E181" s="70"/>
+      <c r="F181" s="70"/>
+      <c r="G181" s="71"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="70" t="str">
+      <c r="B182" s="61" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="71"/>
-      <c r="D182" s="71"/>
-      <c r="E182" s="71"/>
-      <c r="F182" s="71"/>
-      <c r="G182" s="72"/>
+      <c r="C182" s="62"/>
+      <c r="D182" s="62"/>
+      <c r="E182" s="62"/>
+      <c r="F182" s="62"/>
+      <c r="G182" s="63"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="73"/>
-      <c r="C183" s="74"/>
-      <c r="D183" s="74"/>
-      <c r="E183" s="74"/>
-      <c r="F183" s="74"/>
-      <c r="G183" s="75"/>
+      <c r="B183" s="78"/>
+      <c r="C183" s="79"/>
+      <c r="D183" s="79"/>
+      <c r="E183" s="79"/>
+      <c r="F183" s="79"/>
+      <c r="G183" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="C95:G95"/>
@@ -10610,76 +10693,93 @@
     <mergeCell ref="E106:G106"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="E142:G142"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="C137:G137"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17173,10 +17273,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB825"/>
+  <dimension ref="A1:AB839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E827" sqref="E827"/>
+    <sheetView tabSelected="1" topLeftCell="A742" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E839" sqref="E839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -31843,8 +31943,233 @@
         <v>1684</v>
       </c>
     </row>
+    <row r="826" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B826" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C826" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D826" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F826" s="56" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="827" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B827" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C827" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D827" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F827" s="56" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="828" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B828" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C828" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D828" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F828" s="56" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="829" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B829" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C829" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D829" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F829" s="56" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="830" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B830" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C830" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D830" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F830" s="56" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="831" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B831" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C831" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D831" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F831" s="56" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="832" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B832" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C832" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D832" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F832" s="56" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="833" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B833" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C833" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D833" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F833" s="56" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="834" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B834" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C834" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D834" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F834" s="56" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="835" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B835" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C835" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D835" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F835" s="56" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="836" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B836" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C836" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D836" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F836" s="56" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="837" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B837" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C837" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D837" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F837" s="56" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="838" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B838" s="45">
+        <v>42960</v>
+      </c>
+      <c r="C838" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D838" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F838" s="56" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="839" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B839" s="45"/>
+      <c r="C839" s="33"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F821">
+  <autoFilter ref="A1:F835">
     <filterColumn colId="2">
       <filters>
         <filter val="AI科技评论"/>
@@ -32678,9 +33003,22 @@
     <hyperlink ref="F823" r:id="rId812"/>
     <hyperlink ref="F824" r:id="rId813"/>
     <hyperlink ref="F825" r:id="rId814"/>
+    <hyperlink ref="F826" r:id="rId815"/>
+    <hyperlink ref="F827" r:id="rId816"/>
+    <hyperlink ref="F828" r:id="rId817"/>
+    <hyperlink ref="F829" r:id="rId818"/>
+    <hyperlink ref="F830" r:id="rId819"/>
+    <hyperlink ref="F831" r:id="rId820"/>
+    <hyperlink ref="F832" r:id="rId821"/>
+    <hyperlink ref="F833" r:id="rId822"/>
+    <hyperlink ref="F834" r:id="rId823"/>
+    <hyperlink ref="F835" r:id="rId824"/>
+    <hyperlink ref="F836" r:id="rId825"/>
+    <hyperlink ref="F837" r:id="rId826"/>
+    <hyperlink ref="F838" r:id="rId827"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId815"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId828"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$835</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$850</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="1710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="1738">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6867,6 +6867,118 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/b3i_u7e0eiOfjCj8EigRdQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱票子也爱妹子：300万字歌词分析看中国rapper到底在唱什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/InzVE9EJixY-HqKUceUYJg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听腻了各种AI入门课？不如选定一个最酷的领域迅速逆袭！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nnzSxkSGnH-BPSbC-0zhCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳系相关图，教你优雅的打开“可视化”的大门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/i2Ex8Zmu2ZzHPcoPr-1Rlw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴恩达Deeplearning.ai课程学习全体验：深度学习必备课程（已获证书）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/SFSn1zplMmJAYf85EBxBkg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | Keras+OpenAI强化学习实践：行为-评判模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/H-oAETObn0SLUxK8--xudg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 滴滴KDD2017论文：基于组合优化的出租车分单模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/h8qkDt7fmFzVxQcKkwqRzQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | CMU&amp;FAIR ICCV论文：通过传递不变性实现自监督视觉表征学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/W4zwKqkVQN4v-IKzGrkudg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 创新•变革•突破——2017中国人工智能峰会（CAIS 2017）报名启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/e0fFbbJEnNFEsWCo5yD2JQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【田渊栋报告】游戏中的人工智能：成就与挑战 | ICML WorkShop（46PPT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/xnbNkKOomwvwYC_ThKPJ_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI巨头市值挑战万亿美元】初创企业对抗巨头碾压的5大策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/SRUKC6nEoP5ZbLgrf8cVzQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【用收购筑起帝国】2017收购AI初创公司 Top5 巨头，谷歌第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/26GURgwWdMoPjXHC6tK9iA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【资源】斯坦福CS231n 2017春季课程全公开，视频+PPT+英文字幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kKbq1eIoHqhrZJ5h4ASTqg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | 360副总裁颜水成博士:技术与产品并重，1×1卷积让深度学习更出彩 | CCF-GAIR 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Ct_n2REicMrH741DX6WOpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究 | 如何管教AI的行为举止？OpenAI早已开始研究，而这只是整个AI安全领域的前哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/QVxOMrjKkQUHqAScM6LerA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7752,42 +7864,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7815,6 +7891,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7822,6 +7919,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8207,23 +8319,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42961</v>
+        <v>42962</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="78" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
         <v>NSNG第33周行业资讯</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -8234,22 +8346,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72" t="str">
+      <c r="C5" s="60" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -8275,61 +8387,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="57" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="61" t="str">
+      <c r="B8" s="70" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="60" t="str">
+      <c r="C10" s="69" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="72" t="str">
+      <c r="C11" s="60" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -8356,60 +8468,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="69" t="str">
+      <c r="B13" s="57" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="61" t="str">
+      <c r="B14" s="70" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="60" t="str">
+      <c r="C16" s="69" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="72" t="str">
+      <c r="C17" s="60" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -8435,60 +8547,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="69" t="str">
+      <c r="B19" s="57" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="61" t="str">
+      <c r="B20" s="70" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="60" t="str">
+      <c r="C22" s="69" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="72" t="str">
+      <c r="C23" s="60" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -8514,60 +8626,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="69" t="str">
+      <c r="B25" s="57" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="61" t="str">
+      <c r="B26" s="70" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="60" t="str">
+      <c r="C28" s="69" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="72" t="str">
+      <c r="C29" s="60" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="62"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -8593,60 +8705,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="69" t="str">
+      <c r="B31" s="57" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="61" t="str">
+      <c r="B32" s="70" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="60" t="str">
+      <c r="C34" s="69" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="72" t="str">
+      <c r="C35" s="60" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="74"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -8672,60 +8784,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="69" t="str">
+      <c r="B37" s="57" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="61" t="str">
+      <c r="B38" s="70" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="60" t="str">
+      <c r="C40" s="69" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="72" t="str">
+      <c r="C41" s="60" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="62"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -8751,60 +8863,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="69" t="str">
+      <c r="B43" s="57" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="61" t="str">
+      <c r="B44" s="70" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="60" t="str">
+      <c r="C46" s="69" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="65"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="72" t="str">
+      <c r="C47" s="60" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="62"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -8830,60 +8942,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="69" t="str">
+      <c r="B49" s="57" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="61" t="str">
+      <c r="B50" s="70" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="72"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="60" t="str">
+      <c r="C52" s="69" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="77"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="72" t="str">
+      <c r="C53" s="60" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="74"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -8909,60 +9021,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="69" t="str">
+      <c r="B55" s="57" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="71"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="59"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="61" t="str">
+      <c r="B56" s="70" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="60" t="str">
+      <c r="C58" s="69" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="77"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="72" t="str">
+      <c r="C59" s="60" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="74"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="62"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -8988,60 +9100,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="69" t="str">
+      <c r="B61" s="57" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="59"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="61" t="str">
+      <c r="B62" s="70" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="72"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="57"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="59"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="60" t="str">
+      <c r="C64" s="69" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="60"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="77"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="72" t="str">
+      <c r="C65" s="60" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="74"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="62"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -9067,60 +9179,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="69" t="str">
+      <c r="B67" s="57" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="59"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="61" t="str">
+      <c r="B68" s="70" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="72"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="59"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="60" t="str">
+      <c r="C70" s="69" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="77"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="65"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="72" t="str">
+      <c r="C71" s="60" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="74"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="62"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -9146,60 +9258,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="69" t="str">
+      <c r="B73" s="57" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="59"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="61" t="str">
+      <c r="B74" s="70" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="72"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="57"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="59"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="68"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="60" t="str">
+      <c r="C76" s="69" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="77"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="72" t="str">
+      <c r="C77" s="60" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="62"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -9225,60 +9337,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="69" t="str">
+      <c r="B79" s="57" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="71"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="59"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="61" t="str">
+      <c r="B80" s="70" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="72"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="57"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="59"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="68"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="60" t="str">
+      <c r="C82" s="69" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="60"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="77"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="65"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="72" t="str">
+      <c r="C83" s="60" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="74"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="62"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -9304,60 +9416,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="69" t="str">
+      <c r="B85" s="57" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="71"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="59"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="61" t="str">
+      <c r="B86" s="70" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="72"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="57"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="59"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="68"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="60" t="str">
+      <c r="C88" s="69" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="60"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="77"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="65"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="72" t="str">
+      <c r="C89" s="60" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="74"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="62"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -9383,60 +9495,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="69" t="str">
+      <c r="B91" s="57" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="71"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="59"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="61" t="str">
+      <c r="B92" s="70" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="63"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="72"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="57"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="59"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="68"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="60" t="str">
+      <c r="C94" s="69" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="77"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="65"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="72" t="str">
+      <c r="C95" s="60" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="74"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="62"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -9462,60 +9574,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="69" t="str">
+      <c r="B97" s="57" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="71"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="59"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="61" t="str">
+      <c r="B98" s="70" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="63"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="72"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="59"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="68"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="60" t="str">
+      <c r="C100" s="69" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="60"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="77"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="65"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="72" t="str">
+      <c r="C101" s="60" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="74"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="62"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -9541,60 +9653,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="69" t="str">
+      <c r="B103" s="57" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="71"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="59"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="61" t="str">
+      <c r="B104" s="70" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="63"/>
+      <c r="C104" s="71"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="72"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="57"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="59"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="68"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="60" t="str">
+      <c r="C106" s="69" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="60"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="77"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="65"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="72" t="str">
+      <c r="C107" s="60" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="74"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="62"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -9620,60 +9732,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="69" t="str">
+      <c r="B109" s="57" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="71"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="59"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="61" t="str">
+      <c r="B110" s="70" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="63"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="72"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="57"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="59"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="68"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="60" t="str">
+      <c r="C112" s="69" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="60"/>
-      <c r="E112" s="75"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="77"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="65"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="72" t="str">
+      <c r="C113" s="60" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="74"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="62"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -9699,60 +9811,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="69" t="str">
+      <c r="B115" s="57" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="71"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="59"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="61" t="str">
+      <c r="B116" s="70" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="62"/>
-      <c r="G116" s="63"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="72"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="59"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="68"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="60" t="str">
+      <c r="C118" s="69" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="60"/>
-      <c r="E118" s="75"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="77"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="65"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="72" t="str">
+      <c r="C119" s="60" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="74"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="62"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -9778,60 +9890,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="69" t="str">
+      <c r="B121" s="57" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="70"/>
-      <c r="F121" s="70"/>
-      <c r="G121" s="71"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="58"/>
+      <c r="G121" s="59"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="61" t="str">
+      <c r="B122" s="70" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="62"/>
-      <c r="G122" s="63"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="72"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="57"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="58"/>
-      <c r="G123" s="59"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="68"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="60" t="str">
+      <c r="C124" s="69" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="60"/>
-      <c r="E124" s="75"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="77"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="63"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="65"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="72" t="str">
+      <c r="C125" s="60" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="74"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="62"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -9857,60 +9969,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="69" t="str">
+      <c r="B127" s="57" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="70"/>
-      <c r="D127" s="70"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="70"/>
-      <c r="G127" s="71"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="59"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="61" t="str">
+      <c r="B128" s="70" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="63"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="72"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="57"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="59"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="68"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="60" t="str">
+      <c r="C130" s="69" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="60"/>
-      <c r="E130" s="75"/>
-      <c r="F130" s="76"/>
-      <c r="G130" s="77"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="64"/>
+      <c r="G130" s="65"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="72" t="str">
+      <c r="C131" s="60" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="73"/>
-      <c r="E131" s="73"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="74"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="62"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -9936,60 +10048,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="69" t="str">
+      <c r="B133" s="57" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="70"/>
-      <c r="F133" s="70"/>
-      <c r="G133" s="71"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="58"/>
+      <c r="G133" s="59"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="61" t="str">
+      <c r="B134" s="70" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="63"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="72"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="57"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="58"/>
-      <c r="F135" s="58"/>
-      <c r="G135" s="59"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="68"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="60" t="str">
+      <c r="C136" s="69" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="60"/>
-      <c r="E136" s="75"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="77"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="65"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="72" t="str">
+      <c r="C137" s="60" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="74"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="62"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -10015,60 +10127,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="69" t="str">
+      <c r="B139" s="57" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="71"/>
+      <c r="C139" s="58"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="58"/>
+      <c r="F139" s="58"/>
+      <c r="G139" s="59"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="61" t="str">
+      <c r="B140" s="70" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="62"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="62"/>
-      <c r="F140" s="62"/>
-      <c r="G140" s="63"/>
+      <c r="C140" s="71"/>
+      <c r="D140" s="71"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="72"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="57"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
-      <c r="F141" s="58"/>
-      <c r="G141" s="59"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="68"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="60" t="str">
+      <c r="C142" s="69" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="60"/>
-      <c r="E142" s="75"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="77"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="63"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="65"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="72" t="str">
+      <c r="C143" s="60" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="74"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="62"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -10094,60 +10206,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="69" t="str">
+      <c r="B145" s="57" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="70"/>
-      <c r="F145" s="70"/>
-      <c r="G145" s="71"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="58"/>
+      <c r="G145" s="59"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="61" t="str">
+      <c r="B146" s="70" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="62"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="62"/>
-      <c r="F146" s="62"/>
-      <c r="G146" s="63"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="71"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="72"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="57"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="59"/>
+      <c r="B147" s="66"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="67"/>
+      <c r="G147" s="68"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="60" t="str">
+      <c r="C148" s="69" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="60"/>
-      <c r="E148" s="75"/>
-      <c r="F148" s="76"/>
-      <c r="G148" s="77"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="63"/>
+      <c r="F148" s="64"/>
+      <c r="G148" s="65"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="72" t="str">
+      <c r="C149" s="60" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="73"/>
-      <c r="E149" s="73"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="74"/>
+      <c r="D149" s="61"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="61"/>
+      <c r="G149" s="62"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -10173,60 +10285,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="69" t="str">
+      <c r="B151" s="57" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="70"/>
-      <c r="F151" s="70"/>
-      <c r="G151" s="71"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="59"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="61" t="str">
+      <c r="B152" s="70" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="62"/>
-      <c r="D152" s="62"/>
-      <c r="E152" s="62"/>
-      <c r="F152" s="62"/>
-      <c r="G152" s="63"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="71"/>
+      <c r="G152" s="72"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="57"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="58"/>
-      <c r="F153" s="58"/>
-      <c r="G153" s="59"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="67"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="68"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="60" t="str">
+      <c r="C154" s="69" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="60"/>
-      <c r="E154" s="75"/>
-      <c r="F154" s="76"/>
-      <c r="G154" s="77"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="64"/>
+      <c r="G154" s="65"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="72" t="str">
+      <c r="C155" s="60" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="73"/>
-      <c r="E155" s="73"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="74"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="61"/>
+      <c r="F155" s="61"/>
+      <c r="G155" s="62"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -10252,60 +10364,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="69" t="str">
+      <c r="B157" s="57" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="70"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="71"/>
+      <c r="C157" s="58"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="58"/>
+      <c r="G157" s="59"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="61" t="str">
+      <c r="B158" s="70" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="62"/>
-      <c r="D158" s="62"/>
-      <c r="E158" s="62"/>
-      <c r="F158" s="62"/>
-      <c r="G158" s="63"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="71"/>
+      <c r="F158" s="71"/>
+      <c r="G158" s="72"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="57"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="59"/>
+      <c r="B159" s="66"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="68"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="60" t="str">
+      <c r="C160" s="69" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="60"/>
-      <c r="E160" s="75"/>
-      <c r="F160" s="76"/>
-      <c r="G160" s="77"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="63"/>
+      <c r="F160" s="64"/>
+      <c r="G160" s="65"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="72" t="str">
+      <c r="C161" s="60" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="73"/>
-      <c r="E161" s="73"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="74"/>
+      <c r="D161" s="61"/>
+      <c r="E161" s="61"/>
+      <c r="F161" s="61"/>
+      <c r="G161" s="62"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -10331,60 +10443,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="69" t="str">
+      <c r="B163" s="57" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="70"/>
-      <c r="D163" s="70"/>
-      <c r="E163" s="70"/>
-      <c r="F163" s="70"/>
-      <c r="G163" s="71"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="58"/>
+      <c r="G163" s="59"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="61" t="str">
+      <c r="B164" s="70" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="62"/>
-      <c r="D164" s="62"/>
-      <c r="E164" s="62"/>
-      <c r="F164" s="62"/>
-      <c r="G164" s="63"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="71"/>
+      <c r="E164" s="71"/>
+      <c r="F164" s="71"/>
+      <c r="G164" s="72"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="57"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="59"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="67"/>
+      <c r="D165" s="67"/>
+      <c r="E165" s="67"/>
+      <c r="F165" s="67"/>
+      <c r="G165" s="68"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="60" t="str">
+      <c r="C166" s="69" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="60"/>
-      <c r="E166" s="75"/>
-      <c r="F166" s="76"/>
-      <c r="G166" s="77"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="63"/>
+      <c r="F166" s="64"/>
+      <c r="G166" s="65"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="72" t="str">
+      <c r="C167" s="60" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="73"/>
-      <c r="E167" s="73"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="74"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="61"/>
+      <c r="G167" s="62"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -10410,60 +10522,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="69" t="str">
+      <c r="B169" s="57" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="70"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="70"/>
-      <c r="F169" s="70"/>
-      <c r="G169" s="71"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="58"/>
+      <c r="G169" s="59"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="61" t="str">
+      <c r="B170" s="70" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="62"/>
-      <c r="D170" s="62"/>
-      <c r="E170" s="62"/>
-      <c r="F170" s="62"/>
-      <c r="G170" s="63"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="72"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="57"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="59"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="67"/>
+      <c r="D171" s="67"/>
+      <c r="E171" s="67"/>
+      <c r="F171" s="67"/>
+      <c r="G171" s="68"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="60" t="str">
+      <c r="C172" s="69" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="60"/>
-      <c r="E172" s="75"/>
-      <c r="F172" s="76"/>
-      <c r="G172" s="77"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="63"/>
+      <c r="F172" s="64"/>
+      <c r="G172" s="65"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="72" t="str">
+      <c r="C173" s="60" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="73"/>
-      <c r="E173" s="73"/>
-      <c r="F173" s="73"/>
-      <c r="G173" s="74"/>
+      <c r="D173" s="61"/>
+      <c r="E173" s="61"/>
+      <c r="F173" s="61"/>
+      <c r="G173" s="62"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -10489,60 +10601,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="69" t="str">
+      <c r="B175" s="57" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="70"/>
-      <c r="D175" s="70"/>
-      <c r="E175" s="70"/>
-      <c r="F175" s="70"/>
-      <c r="G175" s="71"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="59"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="61" t="str">
+      <c r="B176" s="70" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="62"/>
-      <c r="D176" s="62"/>
-      <c r="E176" s="62"/>
-      <c r="F176" s="62"/>
-      <c r="G176" s="63"/>
+      <c r="C176" s="71"/>
+      <c r="D176" s="71"/>
+      <c r="E176" s="71"/>
+      <c r="F176" s="71"/>
+      <c r="G176" s="72"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="57"/>
-      <c r="C177" s="58"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="59"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="67"/>
+      <c r="D177" s="67"/>
+      <c r="E177" s="67"/>
+      <c r="F177" s="67"/>
+      <c r="G177" s="68"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="60" t="str">
+      <c r="C178" s="69" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="60"/>
-      <c r="E178" s="75"/>
-      <c r="F178" s="76"/>
-      <c r="G178" s="77"/>
+      <c r="D178" s="69"/>
+      <c r="E178" s="63"/>
+      <c r="F178" s="64"/>
+      <c r="G178" s="65"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="72" t="str">
+      <c r="C179" s="60" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="73"/>
-      <c r="E179" s="73"/>
-      <c r="F179" s="73"/>
-      <c r="G179" s="74"/>
+      <c r="D179" s="61"/>
+      <c r="E179" s="61"/>
+      <c r="F179" s="61"/>
+      <c r="G179" s="62"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -10568,59 +10680,172 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="69" t="str">
+      <c r="B181" s="57" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="70"/>
-      <c r="D181" s="70"/>
-      <c r="E181" s="70"/>
-      <c r="F181" s="70"/>
-      <c r="G181" s="71"/>
+      <c r="C181" s="58"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="59"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="61" t="str">
+      <c r="B182" s="70" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="62"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="F182" s="62"/>
-      <c r="G182" s="63"/>
+      <c r="C182" s="71"/>
+      <c r="D182" s="71"/>
+      <c r="E182" s="71"/>
+      <c r="F182" s="71"/>
+      <c r="G182" s="72"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="78"/>
-      <c r="C183" s="79"/>
-      <c r="D183" s="79"/>
-      <c r="E183" s="79"/>
-      <c r="F183" s="79"/>
-      <c r="G183" s="80"/>
+      <c r="B183" s="73"/>
+      <c r="C183" s="74"/>
+      <c r="D183" s="74"/>
+      <c r="E183" s="74"/>
+      <c r="F183" s="74"/>
+      <c r="G183" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="E82:G82"/>
     <mergeCell ref="B75:G75"/>
@@ -10645,141 +10870,28 @@
     <mergeCell ref="C137:G137"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17273,10 +17385,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB839"/>
+  <dimension ref="A1:AB852"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A742" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E839" sqref="E839"/>
+    <sheetView tabSelected="1" topLeftCell="A541" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E855" sqref="E855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -32164,12 +32276,246 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="839" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B839" s="45"/>
-      <c r="C839" s="33"/>
+    <row r="839" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B839" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C839" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F839" s="56" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="840" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B840" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C840" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F840" s="56" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="841" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B841" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C841" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F841" s="56" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="842" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B842" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C842" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D842" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F842" s="56" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="843" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B843" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C843" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D843" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F843" s="56" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="844" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B844" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C844" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D844" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F844" s="56" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="845" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B845" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C845" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D845" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F845" s="56" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="846" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B846" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C846" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D846" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F846" s="56" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="847" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B847" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C847" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D847" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F847" s="56" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="848" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B848" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C848" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D848" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F848" s="56" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="849" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B849" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C849" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D849" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F849" s="56" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="850" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B850" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C850" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D850" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F850" s="56" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="851" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B851" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C851" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D851" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F851" s="56" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="852" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B852" s="45">
+        <v>42961</v>
+      </c>
+      <c r="C852" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D852" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F852" s="56" t="s">
+        <v>1737</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F835">
+  <autoFilter ref="A1:F850">
     <filterColumn colId="2">
       <filters>
         <filter val="AI科技评论"/>
@@ -33016,9 +33362,23 @@
     <hyperlink ref="F836" r:id="rId825"/>
     <hyperlink ref="F837" r:id="rId826"/>
     <hyperlink ref="F838" r:id="rId827"/>
+    <hyperlink ref="F839" r:id="rId828"/>
+    <hyperlink ref="F840" r:id="rId829"/>
+    <hyperlink ref="F841" r:id="rId830"/>
+    <hyperlink ref="F842" r:id="rId831"/>
+    <hyperlink ref="F843" r:id="rId832"/>
+    <hyperlink ref="F844" r:id="rId833"/>
+    <hyperlink ref="F845" r:id="rId834"/>
+    <hyperlink ref="F846" r:id="rId835"/>
+    <hyperlink ref="F847" r:id="rId836"/>
+    <hyperlink ref="F848" r:id="rId837"/>
+    <hyperlink ref="F849" r:id="rId838"/>
+    <hyperlink ref="F850" r:id="rId839"/>
+    <hyperlink ref="F851" r:id="rId840"/>
+    <hyperlink ref="F852" r:id="rId841"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId828"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId842"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$898</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3576" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="1829">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6979,6 +6979,370 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/QVxOMrjKkQUHqAScM6LerA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“未卜先知”、“自学成才”：GANs奇思妙想TOP10榜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/NfvLq_LBJeOA-h0Rg0HlCQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 视频卡到天荒地老？MIT最新算法Pensieve让你观影畅通无阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/UE5Zn5rNgPtDUYZsWFfrNw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | 全机器学习和Python的27个速查表（完整版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4Gt7KfzimopnZqLFS0fxRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名 | 大数据基础设施认知RONG论坛暨大数据基础设施研究中心成立仪式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vvE8g-xXj0eyVM2u_sXSvQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴恩达刚刚募集了1.5亿AI风投基金，新公司第二套组合拳开打？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/oC_SB-BArSofKwLXXTceZg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 你的神经网络不work? 这37个原因总有一款适合你！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_bHHh4LUwqGyi_BauR7hEw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | KDD2017现场：中国论坛直击（讲座完整PPT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/l29cYbNHd26hcUd8L9w8tQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDD 2017获奖论文公布：数据挖掘领域的顶级研究与应用成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/WrqJk0eUr13CONjbLJl4wQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访 | 三角兽首席科学家王宝勋：热度之下的对话生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Or6oDt0aZFlnlMr8EBr-xQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 阿里KDD2017论文：基于大规模图计算的本地算法对展示广告的行为预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nmLNKscP1qxyv_aoSrwEEw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前沿 | 减少30%流量，增加清晰度：MIT提出人工智能视频缓存新算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LAgDobWyK0SOH08GCLXG7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 马里兰大学论文：训练深度神经网络中的一致性难题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/SNfSY4CKhX1RDWd4itPx2Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴恩达注册人工智能风投基金AI Fund：三大项目之二？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4COdgo9i20vGF8wvp3H1ug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 腾讯AI Lab解析： ICML 2017 五大研究热点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ZUtSwV3Wr_WxgO3LM0IqHg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | ChainerCV：基于Chainer的深度学习计算机视觉实用库（内含工具集）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ITWJJnkNRbv1yBryzwPsAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 新型半参数变分自动编码器DeepCoder：可分层级编码人脸动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vAjWHpn5HP_lwSv49g71SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球招聘 | 机器之心面试问题：做AI=ML吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ECZdCet7z_-H4JQY3ks58w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警惕！"色情"哪里来？中小学教育不只是你们实现“财富梦想的工具”！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/yLA_3XlX7PInMdyiGoeXcg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜斯坦福CS224N（2017）深度学习自然语言处理课程（视频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/2Sq5X10rqo-eVeqBmdChHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI竞赛｜200万奖金!千万极数据!国内最大的AI挑战赛等着你！（附详细赛事说明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YzlcHSE9lvu_gLLsQeFfsQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌向苹果交30亿美元“保护费”：确保成为iOS设备的默认搜索引擎！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/a_wc_P8rUsRgbjgIj8Wlmw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度内部培训PPT《数据分析的道与术》】学习数据分析必备知识体系！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/CgGXf9WA22Fu139balyGLg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残酷！如果你35岁破产，你还有多大可能逆袭？（数据分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/uFtucr7Msns44aZYyeZ2Nw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要融资|AI创业者，这里有几百位AI业务投资人喊你来融资！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/jXG-Dii4PRAW-nWy-pfaiQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCST深度学习Deep Learning专辑，论文限时免费下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/7opwITqSn9n4Q1MnCEJKsQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没错！卷积神经网络实现图像识别，就这么简单！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI投资｜最近4天8家AI相关公司获2.8亿美元投资！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AlVc1ofhmKLcnc_qE0lzgg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【KDD最佳论文出炉】BAT、华为谷歌论文排行榜，中国包揽KDDCUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/TLsP4oJQy5C3nJ1h7Y47jA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【解密】谷歌内部机器学习系统Vizier曝光：用迁移学习自动优化超参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/QMQUBQ6J3lCk6JzK34NI0Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【对标TensorFlow】阿里公开内部超大规模分布式机器学习平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-sHu8yAhKBCBfXkBIfCnuQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【辟谣】模糊逻辑之父扎德仍然健在，感谢关心他的所有人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/SjOzacKz8AZasO7p6p7OVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI可能真的要代替插画师了】复旦同济用cGAN生成动画人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/uFa3C1zJ_jZ3OMm8FYYr1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【OpenAI对标DeepMind】马斯克要用开源对抗巨头，现在却饱受质疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Mh1RMg-ya5l254yZGpZRXw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脑拆机三部曲：为什么我支持马斯克，而人类应该畏惧人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ZfLUx3q-hQGh7bhwdI_neQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Manning主讲】斯坦福CS224n深度学习与NLP课程全部视频、PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/HiWGOY7_XRddzWFsBL7GZw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【曝光】Uber掌握了多少谷歌无人车机密？400多条短信首次公开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/oH9or2HWI1aeUNqQtXLmQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【火星2020】NASA自主化太空探测系统超越《2001太空漫游》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/g4xonX52ZAVYqbb1-CHSig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDD 2017奖项全公布，华人成最大赢家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/rCfNRBq48XDRt4mRvqDQGQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详解 | 滴滴大数据预测用户目的地，准确率超90% | KDD 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/deld3WZvRhYz1BYj3pKYbw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 中科院计算所王永庆详解IJCAI 17论文：如何用注意力机制RNN进行信息传播建模？｜IJCAI 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kJTNQx4hOdge1RPvvaBp_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | AI 大行其道，你准备好了吗？—谨送给徘徊于是否转行 AI 的程序员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/VRGTdEpnegcAoCqVmuO4CQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国今年包揽前三，KDD Cup 20年全回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/egZ0X3ppzWibYLxmUcY80A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态 | MIT CSAIL最新研究：将AI应用于流媒体视频，可获得更好的播放体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/VjcQVnQ_y11DATuGVnce7g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | 腾讯AI Lab独家解析ICML 2017五大研究热点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/KOrjGwYW3xV_p2RuI-pGPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家 | 抓住暑假的尾巴，来一次学术充电吧！GAIR大讲堂CVPR清华专场开启报名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Lq4XCTHM6cYKlF9s3x-sig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | KDD精彩论文解读：精准投放、动态定价、更多成交，阿里带来全新优化算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/jetBSUdgKwf-VPnUB-dIxw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7864,6 +8228,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7891,27 +8291,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7919,21 +8298,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8319,23 +8683,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42962</v>
+        <v>42963</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="66" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
         <v>NSNG第33周行业资讯</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -8346,22 +8710,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="60" t="str">
+      <c r="C5" s="72" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -8387,61 +8751,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="57" t="str">
+      <c r="B7" s="69" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="70" t="str">
+      <c r="B8" s="61" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="69" t="str">
+      <c r="C10" s="60" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="60" t="str">
+      <c r="C11" s="72" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -8468,60 +8832,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="57" t="str">
+      <c r="B13" s="69" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="70" t="str">
+      <c r="B14" s="61" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="69" t="str">
+      <c r="C16" s="60" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="60" t="str">
+      <c r="C17" s="72" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -8547,60 +8911,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="57" t="str">
+      <c r="B19" s="69" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="70" t="str">
+      <c r="B20" s="61" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="69" t="str">
+      <c r="C22" s="60" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="60" t="str">
+      <c r="C23" s="72" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -8626,60 +8990,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="57" t="str">
+      <c r="B25" s="69" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="70" t="str">
+      <c r="B26" s="61" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="69" t="str">
+      <c r="C28" s="60" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="60" t="str">
+      <c r="C29" s="72" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -8705,60 +9069,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="57" t="str">
+      <c r="B31" s="69" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="70" t="str">
+      <c r="B32" s="61" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="69" t="str">
+      <c r="C34" s="60" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="60" t="str">
+      <c r="C35" s="72" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="74"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -8784,60 +9148,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="57" t="str">
+      <c r="B37" s="69" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="70" t="str">
+      <c r="B38" s="61" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="69" t="str">
+      <c r="C40" s="60" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="60" t="str">
+      <c r="C41" s="72" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="62"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="74"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -8863,60 +9227,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="57" t="str">
+      <c r="B43" s="69" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="70" t="str">
+      <c r="B44" s="61" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="69" t="str">
+      <c r="C46" s="60" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="65"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="60" t="str">
+      <c r="C47" s="72" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="62"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="74"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -8942,60 +9306,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="57" t="str">
+      <c r="B49" s="69" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="70" t="str">
+      <c r="B50" s="61" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="72"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="68"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="69" t="str">
+      <c r="C52" s="60" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="77"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="60" t="str">
+      <c r="C53" s="72" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="62"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="74"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -9021,60 +9385,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="57" t="str">
+      <c r="B55" s="69" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="59"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="71"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="70" t="str">
+      <c r="B56" s="61" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="72"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="66"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="68"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="59"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="69" t="str">
+      <c r="C58" s="60" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="77"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="60" t="str">
+      <c r="C59" s="72" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="62"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="74"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -9100,60 +9464,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="57" t="str">
+      <c r="B61" s="69" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="59"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="71"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="70" t="str">
+      <c r="B62" s="61" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="72"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="68"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="59"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="69" t="str">
+      <c r="C64" s="60" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="69"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="77"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="60" t="str">
+      <c r="C65" s="72" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="74"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -9179,60 +9543,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="57" t="str">
+      <c r="B67" s="69" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="59"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="70" t="str">
+      <c r="B68" s="61" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="72"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="66"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="68"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="59"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="69" t="str">
+      <c r="C70" s="60" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="69"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="77"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="60" t="str">
+      <c r="C71" s="72" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="62"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="74"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -9258,60 +9622,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="57" t="str">
+      <c r="B73" s="69" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="59"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="70" t="str">
+      <c r="B74" s="61" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="72"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="66"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="68"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="59"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="69" t="str">
+      <c r="C76" s="60" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="69"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="77"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="60" t="str">
+      <c r="C77" s="72" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="62"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="74"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -9337,60 +9701,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="57" t="str">
+      <c r="B79" s="69" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="59"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="71"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="70" t="str">
+      <c r="B80" s="61" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="72"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="66"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="68"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="59"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="69" t="str">
+      <c r="C82" s="60" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="69"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="65"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="77"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="60" t="str">
+      <c r="C83" s="72" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="62"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="74"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -9416,60 +9780,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="57" t="str">
+      <c r="B85" s="69" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="59"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="71"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="70" t="str">
+      <c r="B86" s="61" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="72"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="66"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="68"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="59"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="69" t="str">
+      <c r="C88" s="60" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="69"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="65"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="77"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="60" t="str">
+      <c r="C89" s="72" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="62"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="74"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -9495,60 +9859,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="57" t="str">
+      <c r="B91" s="69" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="59"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="71"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="70" t="str">
+      <c r="B92" s="61" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="72"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="63"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="66"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="68"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="59"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="69" t="str">
+      <c r="C94" s="60" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="69"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="65"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="77"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="60" t="str">
+      <c r="C95" s="72" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="62"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="74"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -9574,60 +9938,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="57" t="str">
+      <c r="B97" s="69" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="58"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="59"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="71"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="70" t="str">
+      <c r="B98" s="61" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="72"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="63"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="66"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="68"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="59"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="69" t="str">
+      <c r="C100" s="60" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="69"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="65"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="77"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="60" t="str">
+      <c r="C101" s="72" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="62"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="74"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -9653,60 +10017,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="57" t="str">
+      <c r="B103" s="69" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="59"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="71"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="70" t="str">
+      <c r="B104" s="61" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="71"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="72"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="63"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="66"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="68"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="59"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="69" t="str">
+      <c r="C106" s="60" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="69"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="65"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="77"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="60" t="str">
+      <c r="C107" s="72" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="61"/>
-      <c r="E107" s="61"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="62"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="74"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -9732,60 +10096,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="57" t="str">
+      <c r="B109" s="69" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="58"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="59"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="71"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="70" t="str">
+      <c r="B110" s="61" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="71"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="72"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="63"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="66"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="68"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="59"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="69" t="str">
+      <c r="C112" s="60" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="69"/>
-      <c r="E112" s="63"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="77"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="60" t="str">
+      <c r="C113" s="72" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="61"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="62"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="74"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -9811,60 +10175,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="57" t="str">
+      <c r="B115" s="69" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="59"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="71"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="70" t="str">
+      <c r="B116" s="61" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="71"/>
-      <c r="D116" s="71"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="72"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="63"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="66"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="68"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="59"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="69" t="str">
+      <c r="C118" s="60" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="69"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="65"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="75"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="77"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="60" t="str">
+      <c r="C119" s="72" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="61"/>
-      <c r="E119" s="61"/>
-      <c r="F119" s="61"/>
-      <c r="G119" s="62"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="74"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -9890,60 +10254,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="57" t="str">
+      <c r="B121" s="69" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="58"/>
-      <c r="D121" s="58"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="59"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="71"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="70" t="str">
+      <c r="B122" s="61" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="71"/>
-      <c r="D122" s="71"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="72"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="63"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="66"/>
-      <c r="C123" s="67"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="68"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="58"/>
+      <c r="G123" s="59"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="69" t="str">
+      <c r="C124" s="60" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="69"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="64"/>
-      <c r="G124" s="65"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="75"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="77"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="60" t="str">
+      <c r="C125" s="72" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="61"/>
-      <c r="E125" s="61"/>
-      <c r="F125" s="61"/>
-      <c r="G125" s="62"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="73"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="74"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -9969,60 +10333,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="57" t="str">
+      <c r="B127" s="69" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="59"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="70"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="71"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="70" t="str">
+      <c r="B128" s="61" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="71"/>
-      <c r="D128" s="71"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="72"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="66"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="68"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="59"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="69" t="str">
+      <c r="C130" s="60" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="69"/>
-      <c r="E130" s="63"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="65"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="75"/>
+      <c r="F130" s="76"/>
+      <c r="G130" s="77"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="60" t="str">
+      <c r="C131" s="72" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="61"/>
-      <c r="E131" s="61"/>
-      <c r="F131" s="61"/>
-      <c r="G131" s="62"/>
+      <c r="D131" s="73"/>
+      <c r="E131" s="73"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="74"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -10048,60 +10412,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="57" t="str">
+      <c r="B133" s="69" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="58"/>
-      <c r="G133" s="59"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="70"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="71"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="70" t="str">
+      <c r="B134" s="61" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="72"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="62"/>
+      <c r="G134" s="63"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="66"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="68"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="58"/>
+      <c r="F135" s="58"/>
+      <c r="G135" s="59"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="69" t="str">
+      <c r="C136" s="60" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="69"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="65"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="75"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="77"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="60" t="str">
+      <c r="C137" s="72" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="61"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="61"/>
-      <c r="G137" s="62"/>
+      <c r="D137" s="73"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="74"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -10127,60 +10491,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="57" t="str">
+      <c r="B139" s="69" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="58"/>
-      <c r="D139" s="58"/>
-      <c r="E139" s="58"/>
-      <c r="F139" s="58"/>
-      <c r="G139" s="59"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="71"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="70" t="str">
+      <c r="B140" s="61" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="71"/>
-      <c r="D140" s="71"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="72"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="63"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="66"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="68"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="58"/>
+      <c r="F141" s="58"/>
+      <c r="G141" s="59"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="69" t="str">
+      <c r="C142" s="60" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="69"/>
-      <c r="E142" s="63"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="65"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="75"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="77"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="60" t="str">
+      <c r="C143" s="72" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="62"/>
+      <c r="D143" s="73"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="74"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -10206,60 +10570,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="57" t="str">
+      <c r="B145" s="69" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
-      <c r="F145" s="58"/>
-      <c r="G145" s="59"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="70"/>
+      <c r="F145" s="70"/>
+      <c r="G145" s="71"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="70" t="str">
+      <c r="B146" s="61" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="71"/>
-      <c r="D146" s="71"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="72"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="63"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="66"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="68"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="58"/>
+      <c r="G147" s="59"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="69" t="str">
+      <c r="C148" s="60" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="69"/>
-      <c r="E148" s="63"/>
-      <c r="F148" s="64"/>
-      <c r="G148" s="65"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="75"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="77"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="60" t="str">
+      <c r="C149" s="72" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="61"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="61"/>
-      <c r="G149" s="62"/>
+      <c r="D149" s="73"/>
+      <c r="E149" s="73"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="74"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -10285,60 +10649,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="57" t="str">
+      <c r="B151" s="69" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="58"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="58"/>
-      <c r="F151" s="58"/>
-      <c r="G151" s="59"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="70"/>
+      <c r="E151" s="70"/>
+      <c r="F151" s="70"/>
+      <c r="G151" s="71"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="70" t="str">
+      <c r="B152" s="61" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="72"/>
+      <c r="C152" s="62"/>
+      <c r="D152" s="62"/>
+      <c r="E152" s="62"/>
+      <c r="F152" s="62"/>
+      <c r="G152" s="63"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="66"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="68"/>
+      <c r="B153" s="57"/>
+      <c r="C153" s="58"/>
+      <c r="D153" s="58"/>
+      <c r="E153" s="58"/>
+      <c r="F153" s="58"/>
+      <c r="G153" s="59"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="69" t="str">
+      <c r="C154" s="60" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="69"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="65"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="75"/>
+      <c r="F154" s="76"/>
+      <c r="G154" s="77"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="60" t="str">
+      <c r="C155" s="72" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="61"/>
-      <c r="E155" s="61"/>
-      <c r="F155" s="61"/>
-      <c r="G155" s="62"/>
+      <c r="D155" s="73"/>
+      <c r="E155" s="73"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="74"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -10364,60 +10728,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="57" t="str">
+      <c r="B157" s="69" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="58"/>
-      <c r="F157" s="58"/>
-      <c r="G157" s="59"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="71"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="70" t="str">
+      <c r="B158" s="61" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="71"/>
-      <c r="D158" s="71"/>
-      <c r="E158" s="71"/>
-      <c r="F158" s="71"/>
-      <c r="G158" s="72"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="62"/>
+      <c r="E158" s="62"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="63"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="66"/>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="68"/>
+      <c r="B159" s="57"/>
+      <c r="C159" s="58"/>
+      <c r="D159" s="58"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="58"/>
+      <c r="G159" s="59"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="69" t="str">
+      <c r="C160" s="60" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="69"/>
-      <c r="E160" s="63"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="65"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="75"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="77"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="60" t="str">
+      <c r="C161" s="72" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="61"/>
-      <c r="E161" s="61"/>
-      <c r="F161" s="61"/>
-      <c r="G161" s="62"/>
+      <c r="D161" s="73"/>
+      <c r="E161" s="73"/>
+      <c r="F161" s="73"/>
+      <c r="G161" s="74"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -10443,60 +10807,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="57" t="str">
+      <c r="B163" s="69" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="58"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="58"/>
-      <c r="F163" s="58"/>
-      <c r="G163" s="59"/>
+      <c r="C163" s="70"/>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70"/>
+      <c r="F163" s="70"/>
+      <c r="G163" s="71"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="70" t="str">
+      <c r="B164" s="61" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="71"/>
-      <c r="D164" s="71"/>
-      <c r="E164" s="71"/>
-      <c r="F164" s="71"/>
-      <c r="G164" s="72"/>
+      <c r="C164" s="62"/>
+      <c r="D164" s="62"/>
+      <c r="E164" s="62"/>
+      <c r="F164" s="62"/>
+      <c r="G164" s="63"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="66"/>
-      <c r="C165" s="67"/>
-      <c r="D165" s="67"/>
-      <c r="E165" s="67"/>
-      <c r="F165" s="67"/>
-      <c r="G165" s="68"/>
+      <c r="B165" s="57"/>
+      <c r="C165" s="58"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="58"/>
+      <c r="F165" s="58"/>
+      <c r="G165" s="59"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="69" t="str">
+      <c r="C166" s="60" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="69"/>
-      <c r="E166" s="63"/>
-      <c r="F166" s="64"/>
-      <c r="G166" s="65"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="75"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="77"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="60" t="str">
+      <c r="C167" s="72" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="61"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="61"/>
-      <c r="G167" s="62"/>
+      <c r="D167" s="73"/>
+      <c r="E167" s="73"/>
+      <c r="F167" s="73"/>
+      <c r="G167" s="74"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -10522,60 +10886,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="57" t="str">
+      <c r="B169" s="69" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="59"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70"/>
+      <c r="G169" s="71"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="70" t="str">
+      <c r="B170" s="61" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="71"/>
-      <c r="D170" s="71"/>
-      <c r="E170" s="71"/>
-      <c r="F170" s="71"/>
-      <c r="G170" s="72"/>
+      <c r="C170" s="62"/>
+      <c r="D170" s="62"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="63"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="66"/>
-      <c r="C171" s="67"/>
-      <c r="D171" s="67"/>
-      <c r="E171" s="67"/>
-      <c r="F171" s="67"/>
-      <c r="G171" s="68"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="58"/>
+      <c r="D171" s="58"/>
+      <c r="E171" s="58"/>
+      <c r="F171" s="58"/>
+      <c r="G171" s="59"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="69" t="str">
+      <c r="C172" s="60" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="69"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="64"/>
-      <c r="G172" s="65"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="77"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="60" t="str">
+      <c r="C173" s="72" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="61"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="61"/>
-      <c r="G173" s="62"/>
+      <c r="D173" s="73"/>
+      <c r="E173" s="73"/>
+      <c r="F173" s="73"/>
+      <c r="G173" s="74"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -10601,60 +10965,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="57" t="str">
+      <c r="B175" s="69" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="58"/>
-      <c r="D175" s="58"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="58"/>
-      <c r="G175" s="59"/>
+      <c r="C175" s="70"/>
+      <c r="D175" s="70"/>
+      <c r="E175" s="70"/>
+      <c r="F175" s="70"/>
+      <c r="G175" s="71"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="70" t="str">
+      <c r="B176" s="61" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="71"/>
-      <c r="D176" s="71"/>
-      <c r="E176" s="71"/>
-      <c r="F176" s="71"/>
-      <c r="G176" s="72"/>
+      <c r="C176" s="62"/>
+      <c r="D176" s="62"/>
+      <c r="E176" s="62"/>
+      <c r="F176" s="62"/>
+      <c r="G176" s="63"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="66"/>
-      <c r="C177" s="67"/>
-      <c r="D177" s="67"/>
-      <c r="E177" s="67"/>
-      <c r="F177" s="67"/>
-      <c r="G177" s="68"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="59"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="69" t="str">
+      <c r="C178" s="60" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="69"/>
-      <c r="E178" s="63"/>
-      <c r="F178" s="64"/>
-      <c r="G178" s="65"/>
+      <c r="D178" s="60"/>
+      <c r="E178" s="75"/>
+      <c r="F178" s="76"/>
+      <c r="G178" s="77"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="60" t="str">
+      <c r="C179" s="72" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="61"/>
-      <c r="E179" s="61"/>
-      <c r="F179" s="61"/>
-      <c r="G179" s="62"/>
+      <c r="D179" s="73"/>
+      <c r="E179" s="73"/>
+      <c r="F179" s="73"/>
+      <c r="G179" s="74"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -10680,124 +11044,107 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="57" t="str">
+      <c r="B181" s="69" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="58"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="59"/>
+      <c r="C181" s="70"/>
+      <c r="D181" s="70"/>
+      <c r="E181" s="70"/>
+      <c r="F181" s="70"/>
+      <c r="G181" s="71"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="70" t="str">
+      <c r="B182" s="61" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="71"/>
-      <c r="D182" s="71"/>
-      <c r="E182" s="71"/>
-      <c r="F182" s="71"/>
-      <c r="G182" s="72"/>
+      <c r="C182" s="62"/>
+      <c r="D182" s="62"/>
+      <c r="E182" s="62"/>
+      <c r="F182" s="62"/>
+      <c r="G182" s="63"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="73"/>
-      <c r="C183" s="74"/>
-      <c r="D183" s="74"/>
-      <c r="E183" s="74"/>
-      <c r="F183" s="74"/>
-      <c r="G183" s="75"/>
+      <c r="B183" s="78"/>
+      <c r="C183" s="79"/>
+      <c r="D183" s="79"/>
+      <c r="E183" s="79"/>
+      <c r="F183" s="79"/>
+      <c r="G183" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="C95:G95"/>
@@ -10822,76 +11169,93 @@
     <mergeCell ref="E106:G106"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="E142:G142"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="C137:G137"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17385,10 +17749,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB852"/>
+  <dimension ref="A1:AB898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E855" sqref="E855"/>
+    <sheetView tabSelected="1" topLeftCell="A876" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E899" sqref="E899"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -18170,7 +18534,7 @@
       <c r="AA20" s="47"/>
       <c r="AB20" s="47"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="45">
         <v>42923</v>
@@ -18210,7 +18574,7 @@
       <c r="AA21" s="47"/>
       <c r="AB21" s="47"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="45">
         <v>42923</v>
@@ -18250,7 +18614,7 @@
       <c r="AA22" s="47"/>
       <c r="AB22" s="47"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="45">
         <v>42923</v>
@@ -18290,7 +18654,7 @@
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="45">
         <v>42923</v>
@@ -18330,7 +18694,7 @@
       <c r="AA24" s="47"/>
       <c r="AB24" s="47"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="45">
         <v>42923</v>
@@ -18370,7 +18734,7 @@
       <c r="AA25" s="47"/>
       <c r="AB25" s="47"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="45">
         <v>42923</v>
@@ -18410,7 +18774,7 @@
       <c r="AA26" s="47"/>
       <c r="AB26" s="47"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="33"/>
       <c r="B27" s="45">
         <v>42923</v>
@@ -18848,7 +19212,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="33"/>
       <c r="B52" s="45">
         <v>42924</v>
@@ -18866,7 +19230,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="45">
         <v>42924</v>
@@ -19154,7 +19518,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="33"/>
       <c r="B69" s="45">
         <v>42925</v>
@@ -19172,7 +19536,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="33"/>
       <c r="B70" s="45">
         <v>42925</v>
@@ -19190,7 +19554,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="33"/>
       <c r="B71" s="45">
         <v>42925</v>
@@ -19514,7 +19878,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="33"/>
       <c r="B89" s="45">
         <v>42926</v>
@@ -19532,7 +19896,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="33"/>
       <c r="B90" s="45">
         <v>42926</v>
@@ -19550,7 +19914,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="33"/>
       <c r="B91" s="45">
         <v>42926</v>
@@ -20035,7 +20399,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B119" s="45">
         <v>42927</v>
       </c>
@@ -20052,7 +20416,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B120" s="45">
         <v>42927</v>
       </c>
@@ -20069,7 +20433,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B121" s="45">
         <v>42927</v>
       </c>
@@ -20086,7 +20450,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B122" s="45">
         <v>42927</v>
       </c>
@@ -20324,7 +20688,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="45">
         <v>42928</v>
       </c>
@@ -20341,7 +20705,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B137" s="45">
         <v>42928</v>
       </c>
@@ -20358,7 +20722,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B138" s="45">
         <v>42928</v>
       </c>
@@ -20375,7 +20739,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B139" s="45">
         <v>42928</v>
       </c>
@@ -20681,7 +21045,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B157" s="45">
         <v>42929</v>
       </c>
@@ -20698,7 +21062,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B158" s="45">
         <v>42929</v>
       </c>
@@ -20715,7 +21079,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B159" s="45">
         <v>42929</v>
       </c>
@@ -20732,7 +21096,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="45">
         <v>42929</v>
       </c>
@@ -21429,7 +21793,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B201" s="45">
         <v>42930</v>
       </c>
@@ -21446,7 +21810,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B202" s="45">
         <v>42930</v>
       </c>
@@ -21463,7 +21827,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B203" s="45">
         <v>42930</v>
       </c>
@@ -21480,7 +21844,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B204" s="45">
         <v>42930</v>
       </c>
@@ -21497,7 +21861,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B205" s="45">
         <v>42931</v>
       </c>
@@ -21514,7 +21878,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B206" s="45">
         <v>42931</v>
       </c>
@@ -21531,7 +21895,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B207" s="45">
         <v>42931</v>
       </c>
@@ -21837,7 +22201,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B225" s="45">
         <v>42932</v>
       </c>
@@ -21854,7 +22218,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B226" s="45">
         <v>42932</v>
       </c>
@@ -21871,7 +22235,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B227" s="45">
         <v>42932</v>
       </c>
@@ -22177,7 +22541,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B245" s="45">
         <v>42933</v>
       </c>
@@ -22194,7 +22558,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B246" s="45">
         <v>42933</v>
       </c>
@@ -22211,7 +22575,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B247" s="45">
         <v>42933</v>
       </c>
@@ -22228,7 +22592,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B248" s="45">
         <v>42933</v>
       </c>
@@ -22551,7 +22915,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B267" s="45">
         <v>42934</v>
       </c>
@@ -22568,7 +22932,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B268" s="45">
         <v>42934</v>
       </c>
@@ -22585,7 +22949,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B269" s="45">
         <v>42934</v>
       </c>
@@ -22602,7 +22966,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B270" s="45">
         <v>42934</v>
       </c>
@@ -22908,7 +23272,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B288" s="45">
         <v>42935</v>
       </c>
@@ -22925,7 +23289,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B289" s="45">
         <v>42935</v>
       </c>
@@ -22942,7 +23306,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B290" s="45">
         <v>42935</v>
       </c>
@@ -22959,7 +23323,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B291" s="45">
         <v>42935</v>
       </c>
@@ -22976,7 +23340,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B292" s="45">
         <v>42935</v>
       </c>
@@ -23316,7 +23680,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B312" s="45">
         <v>42936</v>
       </c>
@@ -23333,7 +23697,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B313" s="45">
         <v>42936</v>
       </c>
@@ -23350,7 +23714,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B314" s="45">
         <v>42936</v>
       </c>
@@ -23367,7 +23731,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B315" s="45">
         <v>42936</v>
       </c>
@@ -23571,7 +23935,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B327" s="45">
         <v>42937</v>
       </c>
@@ -23588,7 +23952,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B328" s="45">
         <v>42937</v>
       </c>
@@ -23605,7 +23969,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B329" s="45">
         <v>42937</v>
       </c>
@@ -23622,7 +23986,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B330" s="45">
         <v>42937</v>
       </c>
@@ -24081,7 +24445,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B357" s="45">
         <v>42938</v>
       </c>
@@ -24099,7 +24463,7 @@
       </c>
       <c r="G357" s="56"/>
     </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B358" s="45">
         <v>42938</v>
       </c>
@@ -24116,7 +24480,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B359" s="45">
         <v>42938</v>
       </c>
@@ -24133,7 +24497,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B360" s="45">
         <v>42938</v>
       </c>
@@ -24643,7 +25007,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B390" s="45">
         <v>42939</v>
       </c>
@@ -24660,7 +25024,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B391" s="45">
         <v>42939</v>
       </c>
@@ -24677,7 +25041,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B392" s="45">
         <v>42939</v>
       </c>
@@ -24694,7 +25058,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B393" s="45">
         <v>42940</v>
       </c>
@@ -24711,7 +25075,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B394" s="45">
         <v>42940</v>
       </c>
@@ -24728,7 +25092,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B395" s="45">
         <v>42940</v>
       </c>
@@ -24745,7 +25109,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B396" s="45">
         <v>42940</v>
       </c>
@@ -24762,7 +25126,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B397" s="45">
         <v>42940</v>
       </c>
@@ -25102,7 +25466,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B417" s="45">
         <v>42941</v>
       </c>
@@ -25119,7 +25483,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B418" s="45">
         <v>42941</v>
       </c>
@@ -25136,7 +25500,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B419" s="45">
         <v>42941</v>
       </c>
@@ -25153,7 +25517,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B420" s="45">
         <v>42941</v>
       </c>
@@ -25170,7 +25534,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B421" s="45">
         <v>42941</v>
       </c>
@@ -27108,7 +27472,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B535" s="45">
         <v>42942</v>
       </c>
@@ -27125,7 +27489,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B536" s="45">
         <v>42942</v>
       </c>
@@ -27142,7 +27506,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B537" s="45">
         <v>42942</v>
       </c>
@@ -27159,7 +27523,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B538" s="45">
         <v>42942</v>
       </c>
@@ -27176,7 +27540,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B539" s="45">
         <v>42943</v>
       </c>
@@ -27193,7 +27557,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B540" s="45">
         <v>42943</v>
       </c>
@@ -27210,7 +27574,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B541" s="45">
         <v>42943</v>
       </c>
@@ -27227,7 +27591,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B542" s="45">
         <v>42943</v>
       </c>
@@ -27244,7 +27608,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B543" s="45">
         <v>42943</v>
       </c>
@@ -27261,7 +27625,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B544" s="45">
         <v>42944</v>
       </c>
@@ -27278,7 +27642,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B545" s="45">
         <v>42944</v>
       </c>
@@ -27295,7 +27659,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B546" s="45">
         <v>42944</v>
       </c>
@@ -27312,7 +27676,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B547" s="45">
         <v>42944</v>
       </c>
@@ -27329,7 +27693,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B548" s="45">
         <v>42944</v>
       </c>
@@ -27346,7 +27710,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B549" s="45">
         <v>42945</v>
       </c>
@@ -27363,7 +27727,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B550" s="45">
         <v>42945</v>
       </c>
@@ -27380,7 +27744,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B551" s="45">
         <v>42945</v>
       </c>
@@ -27397,7 +27761,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B552" s="45">
         <v>42945</v>
       </c>
@@ -27414,7 +27778,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B553" s="45">
         <v>42946</v>
       </c>
@@ -27431,7 +27795,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B554" s="45">
         <v>42946</v>
       </c>
@@ -27448,7 +27812,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B555" s="45">
         <v>42946</v>
       </c>
@@ -27465,7 +27829,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="556" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B556" s="45">
         <v>42946</v>
       </c>
@@ -27482,7 +27846,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B557" s="45">
         <v>42947</v>
       </c>
@@ -27499,7 +27863,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="558" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B558" s="45">
         <v>42947</v>
       </c>
@@ -27516,7 +27880,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B559" s="45">
         <v>42947</v>
       </c>
@@ -27754,7 +28118,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="573" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B573" s="45">
         <v>42948</v>
       </c>
@@ -27771,7 +28135,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="574" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B574" s="45">
         <v>42948</v>
       </c>
@@ -27788,7 +28152,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B575" s="45">
         <v>42948</v>
       </c>
@@ -27805,7 +28169,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B576" s="45">
         <v>42948</v>
       </c>
@@ -28128,7 +28492,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="595" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B595" s="45">
         <v>42949</v>
       </c>
@@ -28145,7 +28509,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="596" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B596" s="45">
         <v>42949</v>
       </c>
@@ -28162,7 +28526,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="597" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B597" s="45">
         <v>42949</v>
       </c>
@@ -28179,7 +28543,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="598" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B598" s="45">
         <v>42949</v>
       </c>
@@ -28196,7 +28560,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="599" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B599" s="45">
         <v>42949</v>
       </c>
@@ -29029,7 +29393,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="648" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="648" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B648" s="45">
         <v>42950</v>
       </c>
@@ -29046,7 +29410,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="649" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="649" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B649" s="45">
         <v>42950</v>
       </c>
@@ -29063,7 +29427,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="650" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="650" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B650" s="45">
         <v>42950</v>
       </c>
@@ -29080,7 +29444,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="651" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="651" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B651" s="45">
         <v>42950</v>
       </c>
@@ -29097,7 +29461,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="652" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="652" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B652" s="45">
         <v>42950</v>
       </c>
@@ -29114,7 +29478,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="653" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="653" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B653" s="45">
         <v>42951</v>
       </c>
@@ -29131,7 +29495,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="654" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="654" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B654" s="45">
         <v>42951</v>
       </c>
@@ -29148,7 +29512,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="655" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="655" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B655" s="45">
         <v>42951</v>
       </c>
@@ -29165,7 +29529,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="656" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="656" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B656" s="45">
         <v>42951</v>
       </c>
@@ -29182,7 +29546,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="657" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="657" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B657" s="45">
         <v>42951</v>
       </c>
@@ -29488,7 +29852,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="675" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B675" s="45">
         <v>42952</v>
       </c>
@@ -29505,7 +29869,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="676" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B676" s="45">
         <v>42952</v>
       </c>
@@ -29522,7 +29886,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="677" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B677" s="45">
         <v>42952</v>
       </c>
@@ -29539,7 +29903,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="678" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B678" s="45">
         <v>42952</v>
       </c>
@@ -29556,7 +29920,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="679" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B679" s="45">
         <v>42953</v>
       </c>
@@ -29573,7 +29937,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="680" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="680" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B680" s="45">
         <v>42953</v>
       </c>
@@ -29590,7 +29954,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="681" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="681" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B681" s="45">
         <v>42953</v>
       </c>
@@ -29607,7 +29971,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="682" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B682" s="45">
         <v>42953</v>
       </c>
@@ -29624,7 +29988,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="683" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="683" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B683" s="45">
         <v>42953</v>
       </c>
@@ -29896,7 +30260,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="699" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="699" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B699" s="45">
         <v>42954</v>
       </c>
@@ -29913,7 +30277,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="700" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="700" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B700" s="45">
         <v>42954</v>
       </c>
@@ -29930,7 +30294,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="701" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="701" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B701" s="45">
         <v>42954</v>
       </c>
@@ -29947,7 +30311,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="702" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="702" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B702" s="45">
         <v>42954</v>
       </c>
@@ -29964,7 +30328,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="703" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="703" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B703" s="45">
         <v>42954</v>
       </c>
@@ -30576,7 +30940,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="739" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="739" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B739" s="45">
         <v>42955</v>
       </c>
@@ -30593,7 +30957,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="740" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="740" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B740" s="45">
         <v>42955</v>
       </c>
@@ -30610,7 +30974,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="741" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="741" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B741" s="45">
         <v>42955</v>
       </c>
@@ -30627,7 +30991,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="742" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="742" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B742" s="45">
         <v>42955</v>
       </c>
@@ -30644,7 +31008,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="743" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="743" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B743" s="45">
         <v>42955</v>
       </c>
@@ -30661,7 +31025,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="744" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="744" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B744" s="45">
         <v>42956</v>
       </c>
@@ -30678,7 +31042,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="745" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="745" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B745" s="45">
         <v>42956</v>
       </c>
@@ -30695,7 +31059,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="746" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="746" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B746" s="45">
         <v>42956</v>
       </c>
@@ -30712,7 +31076,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="747" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="747" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B747" s="45">
         <v>42956</v>
       </c>
@@ -30729,7 +31093,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="748" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="748" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B748" s="45">
         <v>42956</v>
       </c>
@@ -31596,7 +31960,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="799" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="799" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B799" s="45">
         <v>42957</v>
       </c>
@@ -31613,7 +31977,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="800" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="800" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B800" s="45">
         <v>42957</v>
       </c>
@@ -31630,7 +31994,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="801" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="801" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B801" s="45">
         <v>42957</v>
       </c>
@@ -31647,7 +32011,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="802" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="802" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B802" s="45">
         <v>42957</v>
       </c>
@@ -31664,7 +32028,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="803" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="803" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B803" s="45">
         <v>42957</v>
       </c>
@@ -31681,7 +32045,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="804" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="804" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B804" s="45">
         <v>42958</v>
       </c>
@@ -31698,7 +32062,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="805" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="805" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B805" s="45">
         <v>42958</v>
       </c>
@@ -31715,7 +32079,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="806" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="806" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B806" s="45">
         <v>42958</v>
       </c>
@@ -31732,7 +32096,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="807" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="807" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B807" s="45">
         <v>42958</v>
       </c>
@@ -31987,7 +32351,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="822" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="822" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B822" s="45">
         <v>42959</v>
       </c>
@@ -32004,7 +32368,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="823" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="823" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B823" s="45">
         <v>42959</v>
       </c>
@@ -32021,7 +32385,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="824" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="824" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B824" s="45">
         <v>42959</v>
       </c>
@@ -32038,7 +32402,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="825" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="825" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B825" s="45">
         <v>42959</v>
       </c>
@@ -32055,7 +32419,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="826" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="826" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B826" s="45">
         <v>42961</v>
       </c>
@@ -32072,7 +32436,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="827" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B827" s="45">
         <v>42961</v>
       </c>
@@ -32089,7 +32453,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="828" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="828" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B828" s="45">
         <v>42961</v>
       </c>
@@ -32106,7 +32470,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="829" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="829" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B829" s="45">
         <v>42961</v>
       </c>
@@ -32123,7 +32487,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="830" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="830" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B830" s="45">
         <v>42961</v>
       </c>
@@ -32225,7 +32589,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="836" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="836" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B836" s="45">
         <v>42960</v>
       </c>
@@ -32242,7 +32606,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="837" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="837" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B837" s="45">
         <v>42960</v>
       </c>
@@ -32259,7 +32623,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="838" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="838" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B838" s="45">
         <v>42960</v>
       </c>
@@ -32276,7 +32640,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="839" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="839" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B839" s="45">
         <v>42961</v>
       </c>
@@ -32293,7 +32657,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="840" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="840" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B840" s="45">
         <v>42961</v>
       </c>
@@ -32310,7 +32674,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="841" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="841" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B841" s="45">
         <v>42961</v>
       </c>
@@ -32327,7 +32691,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="842" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="842" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B842" s="45">
         <v>42961</v>
       </c>
@@ -32344,7 +32708,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="843" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="843" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B843" s="45">
         <v>42961</v>
       </c>
@@ -32361,7 +32725,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="844" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="844" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B844" s="45">
         <v>42961</v>
       </c>
@@ -32378,7 +32742,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="845" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="845" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B845" s="45">
         <v>42961</v>
       </c>
@@ -32395,7 +32759,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="846" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="846" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B846" s="45">
         <v>42961</v>
       </c>
@@ -32412,7 +32776,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="847" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="847" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B847" s="45">
         <v>42961</v>
       </c>
@@ -32429,7 +32793,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="848" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="848" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B848" s="45">
         <v>42961</v>
       </c>
@@ -32446,7 +32810,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="849" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="849" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B849" s="45">
         <v>42961</v>
       </c>
@@ -32463,7 +32827,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="850" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="850" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B850" s="45">
         <v>42961</v>
       </c>
@@ -32514,11 +32878,795 @@
         <v>1737</v>
       </c>
     </row>
+    <row r="853" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B853" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C853" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F853" s="56" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="854" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B854" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C854" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F854" s="56" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="855" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B855" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C855" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F855" s="56" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="856" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B856" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C856" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F856" s="56" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="857" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B857" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C857" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F857" s="56" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="858" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B858" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C858" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F858" s="56" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="859" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B859" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C859" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F859" s="56" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="860" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B860" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C860" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D860" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F860" s="56" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="861" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B861" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C861" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D861" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F861" s="56" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="862" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B862" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C862" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D862" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F862" s="56" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="863" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B863" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C863" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D863" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F863" s="56" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="864" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B864" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C864" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D864" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F864" s="56" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="865" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B865" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C865" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D865" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F865" s="56" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="866" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B866" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C866" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D866" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F866" s="56" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="867" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B867" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C867" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D867" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F867" s="56" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="868" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B868" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C868" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D868" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F868" s="56" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="869" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B869" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C869" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D869" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F869" s="56" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="870" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B870" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C870" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D870" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F870" s="56" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="871" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B871" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C871" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D871" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F871" s="56" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="872" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B872" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C872" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D872" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F872" s="56" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="873" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B873" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C873" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D873" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F873" s="56" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="874" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B874" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C874" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D874" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F874" s="56" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="875" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B875" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C875" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D875" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F875" s="56" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="876" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B876" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C876" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D876" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F876" s="56" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="877" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B877" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C877" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D877" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F877" s="56" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="878" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B878" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C878" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D878" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F878" s="56" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="879" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B879" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C879" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D879" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F879" s="56" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="880" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B880" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C880" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D880" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F880" s="56" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="881" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B881" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C881" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D881" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F881" s="56" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="882" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B882" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C882" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D882" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F882" s="56" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="883" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B883" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C883" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D883" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F883" s="56" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="884" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B884" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C884" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D884" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F884" s="56" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="885" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B885" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C885" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D885" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F885" s="56" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="886" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B886" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C886" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D886" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F886" s="56" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="887" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B887" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C887" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D887" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F887" s="56" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="888" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B888" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C888" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D888" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F888" s="56" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="889" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B889" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C889" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D889" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F889" s="56" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="890" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B890" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C890" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D890" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F890" s="56" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="891" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B891" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C891" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D891" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F891" s="56" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="892" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B892" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C892" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D892" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F892" s="56" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="893" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B893" s="45">
+        <v>42962</v>
+      </c>
+      <c r="C893" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D893" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F893" s="56" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="894" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B894" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C894" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D894" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F894" s="56" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="895" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B895" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C895" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D895" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F895" s="56" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="896" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B896" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C896" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D896" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F896" s="56" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="897" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B897" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C897" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D897" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F897" s="56" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="898" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B898" s="45">
+        <v>42963</v>
+      </c>
+      <c r="C898" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D898" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F898" s="56" t="s">
+        <v>1828</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F850">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:F898">
+    <filterColumn colId="1">
       <filters>
-        <filter val="AI科技评论"/>
+        <dateGroupItem year="2017" month="8" day="14" dateTimeGrouping="day"/>
+        <dateGroupItem year="2017" month="8" day="15" dateTimeGrouping="day"/>
+        <dateGroupItem year="2017" month="8" day="16" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -33376,9 +34524,55 @@
     <hyperlink ref="F850" r:id="rId839"/>
     <hyperlink ref="F851" r:id="rId840"/>
     <hyperlink ref="F852" r:id="rId841"/>
+    <hyperlink ref="F853" r:id="rId842"/>
+    <hyperlink ref="F854" r:id="rId843"/>
+    <hyperlink ref="F855" r:id="rId844"/>
+    <hyperlink ref="F856" r:id="rId845"/>
+    <hyperlink ref="F857" r:id="rId846"/>
+    <hyperlink ref="F858" r:id="rId847"/>
+    <hyperlink ref="F859" r:id="rId848"/>
+    <hyperlink ref="F860" r:id="rId849"/>
+    <hyperlink ref="F861" r:id="rId850"/>
+    <hyperlink ref="F862" r:id="rId851"/>
+    <hyperlink ref="F863" r:id="rId852"/>
+    <hyperlink ref="F864" r:id="rId853"/>
+    <hyperlink ref="F865" r:id="rId854"/>
+    <hyperlink ref="F866" r:id="rId855"/>
+    <hyperlink ref="F867" r:id="rId856"/>
+    <hyperlink ref="F868" r:id="rId857"/>
+    <hyperlink ref="F869" r:id="rId858"/>
+    <hyperlink ref="F870" r:id="rId859"/>
+    <hyperlink ref="F871" r:id="rId860"/>
+    <hyperlink ref="F872" r:id="rId861"/>
+    <hyperlink ref="F873" r:id="rId862"/>
+    <hyperlink ref="F874" r:id="rId863"/>
+    <hyperlink ref="F875" r:id="rId864"/>
+    <hyperlink ref="F876" r:id="rId865"/>
+    <hyperlink ref="F877" r:id="rId866"/>
+    <hyperlink ref="F878" r:id="rId867"/>
+    <hyperlink ref="F879" r:id="rId868"/>
+    <hyperlink ref="F880" r:id="rId869"/>
+    <hyperlink ref="F881" r:id="rId870"/>
+    <hyperlink ref="F882" r:id="rId871"/>
+    <hyperlink ref="F883" r:id="rId872"/>
+    <hyperlink ref="F884" r:id="rId873"/>
+    <hyperlink ref="F885" r:id="rId874"/>
+    <hyperlink ref="F886" r:id="rId875"/>
+    <hyperlink ref="F887" r:id="rId876"/>
+    <hyperlink ref="F888" r:id="rId877"/>
+    <hyperlink ref="F889" r:id="rId878"/>
+    <hyperlink ref="F890" r:id="rId879"/>
+    <hyperlink ref="F891" r:id="rId880"/>
+    <hyperlink ref="F892" r:id="rId881"/>
+    <hyperlink ref="F893" r:id="rId882"/>
+    <hyperlink ref="F894" r:id="rId883"/>
+    <hyperlink ref="F895" r:id="rId884"/>
+    <hyperlink ref="F896" r:id="rId885"/>
+    <hyperlink ref="F897" r:id="rId886"/>
+    <hyperlink ref="F898" r:id="rId887"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId842"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId888"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$898</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$971</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="2011">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7343,6 +7343,734 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/jetBSUdgKwf-VPnUB-dIxw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA2中打败Dendi的AI如何炼出？OpenAI公布两周集训细节（含实战视频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/5Vg9RFvyNv6T7QkIfPm1aQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下 | 无骚气不程序：最IN的Geek Concert携VJ炫酷来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/sY4D4Nr-M4x1D1aPP4jtHg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | Python爆红的六大原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9VIZ1V0Kuaf59GByJfEVhw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干脆面君，你给我站住！你已经被TensorFlow盯上了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/EytvywrsgydXAJQhuUqKvg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 造辆皮卡？2020年特斯拉要实现的12个小目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/WpbeZW72aJMfJ6pONKAVyg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七夕特辑 | 和Geek谈一场48小时就分手的恋爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/KgTknPiFPKAuy3DgeX6zEw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个预测了Spotify，Palantir和Cloudera的VC算法刚刚出了一张新名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/oe5qHN9y4-7Zstoof5y7qg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯 | 国务院最新发文：普及中小学阶段人工智能、编程教育！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/zyRQ2NDJDUBpqaNaOhe2Ag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑期追剧学AI (5) | 降维打击！发射二向箔的正确姿势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1dOAHyQdyiAtvnsyXAFySQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成不了AI高手？因为你根本不懂数据！听听这位老教授多年心血练就的最实用统计学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/N7DE0kvf8THhJQwroHj4vA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从GPU、TPU到FPGA及其它：一文读懂神经网络硬件平台战局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Cy_vb0PpcvGTDmlMt1VkSw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | Apache MXNet 发布 v0.11.0版，支持苹果Core ML和Keras v1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/iZ0OpE4wYsMHTh6gV2LX3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 深度学习在NLP中的运用？从分词、词性到机器翻译、对话系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-gnzRjLerqIyLPLBkZNmcA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 473个模型试验告诉你文本分类中的最好编码方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/i4u4Ty8kC0zzUpmRqj8g7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call for Papers | 音频与音乐学术会议ISMIR 2017、CSMT2017 十月苏州开幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/i0ZIkixKaPVr47k3eDE2oQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成硬件优化内核：陈天奇等人发布深度学习编译器TVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/7JGLm-hkCZBNDLA98qvWNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 拟合目标函数后验分布的调参利器：贝叶斯优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AsZyjwUclEoxxl2VRBekHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 自然语言处理领域的前沿技术：EMNLP 2017最佳论文公布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/0L7bcr3GMEcsm24siYQwpQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 谷歌发布TensorFlow 1.3.0版本，新加多个分类器、回归器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JdGyMovAMDBuA1imUMUDMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 百万奖金等你来战——蚂蚁开发者大赛盛大开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/FyzAdvhFQWP4kogsS8WxNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需数学背景，读懂ResNet、Inception和Xception三大变革性架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/I94gGXXW_eE5hSHIBOsJFQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | OpenAI开源算法ACKTR与A2C：把可扩展的自然梯度应用到强化学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/R308ohdMU8b7Ap4CLofvDg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 谷歌提出多图像抠图算法，并弥补水印技术的一致性漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Y35r_UbNV1bekj9KVvi1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周论文 | 关于远程监督，我们来推荐几篇值得读的论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4rwPfqD2XjaFuUkKePCrSw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告 | 第四范式入股机器之心，共推AI普及与产业发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/XZ-Tvyr5--AlpOF_mZCvQg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继1小时训练ImageNet之后，大批量训练扩展到了3万2千个样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4Ii3um3jqfm5yKKxZAFdmA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | Geoffrey Hinton多伦多大学演讲：卷积神经网络的问题与对策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vCQY3xboVf7PojpkLVUdPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 编译器入门：没有siri的那些年，我们如何实现人机对话？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vOJPxzH_1SUyXzNeE85zHQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 宅男的福音：用GAN自动生成二次元萌妹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/OXN8Y5truLeslX8-Uwgqmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅！MIT2017年度TR35揭晓：阿里AI科学家王刚和柔宇CEO 刘自鸿等6位华人入选！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/mqYHRdukQ03O_qVnpkdsxA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜吴恩达建1.5亿美元AI基金！AI公司日均获得3.68亿元投资！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/aH64O15ifDUOZLGYvGa7VQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜分分钟学会基于深度学习的图像真实风格迁移！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BWBrso7O1O3Rfxa4QWZH4g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜关于机器学习算法 你必须了解的几点内容！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4O1_9ly5DxpdjzQ2Nilcpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI投资｜今日全球5家AI相关公司获投资，微软收购Cycle Computing！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/MdQjltQwydjW9M_6dFeJ5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害！科大讯飞市值奔1000亿，市盈率达400倍成“妖股”！BAT自愧不如！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/VLGMBCtHwgr-OLGBKsjtyA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLAM入门+典型SLAM应用及解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Tfqqs_aOBIObeAMfG-9e4w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时SLAM的未来以及深度学习与SLAM的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/97bIBKTADd2oIUBAabM04Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉目标检测和识别之过去，现在及可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LAy1LKGj5HOh_e9jPgvfQw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊：一个亏损20年的公司，却估值超2万亿，这是为什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YUiSwdg3vM_ce1N2cdctIg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐 ：如何选择一个合适的数据图表？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/XuoeOqGT_mJcFP08ZLq38g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCNN, Fast-RCNN, Faster-RCNN那些你必须知道的事！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JPCQqyzR8xIUyAdk_RI5dA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜谷歌发布TensorFlow 1.3.0版本，都更新了哪些内容？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_3pYh8R8czAESY1RAZE_Cg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 ：数据驱动决策的13种思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Fa7P3v969JRr6OOAyrGptA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害！阿里11篇论文入选IJCAI2017 人工智能领域捷报频传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/6ZEI1FNT8YAE2Ka-DwwlbA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜深度学习概念、架构和tensorflow的思维导图！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kMTMjlLgcR24DT7CXvezsA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策 | 国务院发文：普及中小学阶段人工智能、编程教育！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/80Q5Ykyqwu4gSvnF80qkLQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐｜Pornhub：数据显示90后对大胸的兴趣度低于平均水平！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/o8BKkV9nvBNBGQ6HR6he6w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI投资｜谷歌收购AIMatter！云知声、寒武纪等AI公司获数亿元投资！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/d0avUfji_OSkaVLeQY0dAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火爆了！全球最火爆的人脸识别技术应用： FaceDance Challenge！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/QmlkLUT5UEtmWS_h5v7hGg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android之父：AI是下一个重要操作系统！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ELNeLEgVMheORkpsOr2MLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜23个Python爬虫开源项目代码：爬取微信、淘宝、豆瓣、知乎、微博等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/yR_wENRSbxvfrcYr9O9BuQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜将 ResNet-50 的批量大小扩展到 32k来训练ImageNet！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会数据分析背后的挖掘思维，分析就完成了一半!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/g1PWYFvxyoEZ8uX_GBwKSQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/FUaeBIFUI2RyFIetiK0xbQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ImageNet最后的冠军】颜水成：像素级标注数据集将引领计算机视觉下一个时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/0_eF5-urC7dccKiozUQHHg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云知声再获 3 亿战略投资，将加大人工智能专用芯片 UniOne 研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/GRo20kpLBRojDmSbcAMqGQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【允悲】波士顿动力机器人跪了！搬箱子不成反摔倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ShHzMQyR8tK_GZhkBGIgIg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【彭博】中国称霸AI三大优势，一初创公司将打破商汤单笔融资最高纪录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/TsAfGLJIlag_PxhcmNGBjA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新智元20万读者大调查暨《深度学习》百本赠书获奖名单公布！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/pF9wjwfsyOP1ar9aen6BEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【独家】寒武纪A轮融资1亿美元，成全球AI芯片首个独角兽，阿里参投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/7Qnx4lCcs7b-GfppFVXtWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然语言处理顶会EMNLP最佳论文3项出炉：Facebook智能体创造“语言”获奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dcKD2UplT9yji3fKSATwFg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中科大骆清铭：开启“脑空间信息计划”，连接脑科学与类脑人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8qYBZbHydmZcb-MoJh-R8g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【人脑理解又突破】神经网络绘制大脑神经回路精度达到人类水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/35om1sz3Xm47rktLIwhwFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【中国AI实验室项目巡礼】中大HCPLab：基于注意力机制学习的人脸幻构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/DEJ0z2CahZIrhTE3VXNVvg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【IJCAI 2017】最佳学生论文属华人，领域主席欧美中三分天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/K1sGkGDiYdZrUqMweqWokg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复旦、清华和英特尔中国研究院ICCV新作：完全脱离预训练模型的目标检测方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/c2oMJfE95I1ciEtvdTlb4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【值得收藏的深度学习思维导图】全面梳理基本概念与11大模型关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qR1qagsS9YVxNye5DWG23Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【2017编程语言排行榜第一名】Python爆红的六大原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hB4oT-JhhGDlu-TTAz17Hw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【避免AI错把黑人识别为大猩猩】伯克利大学提出协同反向强化学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/W9yhj7_frLYWJocoBR1TMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Hinton碰撞LeCun】CNN有两大缺陷，要用capsule做下一代CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Tx9JJ0cIo_rH7BDjd_hkvw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【了不起的芯片2】盘点40+公司的深度学习处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/5WczQVX20GDw_obZzqQ7yQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于AI，传统行业CEO必须知道这5件事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/XgmsCNQ8WZbNasotJBdttA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【从头开始GAN】Goodfellow开山之作到DCGAN等变体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/5OG7vTPjfAsHQ3eVPKoLpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【打怪升级】这是一份为数据科学初学者准备的Kaggle竞赛指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/K3EVwRFBJufXK5QKSQsPbQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIT TR 35揭晓：阿里巴巴王刚、吴翰清等六位华人当选，Ian Goodfellow上榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/MDlCtjEPgAyTKI8MNSe1Og</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | 处女作就拿下 KDD 双料最佳论文候选，「半路出家」的他用深度学习研究气候问题（附讲解视频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qh1MoLBA0Ds7rhrPpMaVHw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | Alex Smola论文详解：准确稀疏可解释，三大优点兼具的序列数据预测算法LLA｜ ICML 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Tn5e8SaRiiLgplszz1u9rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 我做了12万条的影评分析，告诉你《战狼Ⅱ》都在说些啥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Hk1UBGrhmZ8ofIf1IAj8XA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访 | 清华胡事民：来CNCC，了解计算机一切领域前沿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/WdoBu7yXdKBp6RFeWOgM4Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 入选MIT TR 35的王刚是谁 他给阿里带来什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/wLsrVAYqkpt1sjnUVdwh-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 已经进驻天猫精灵的阿里KDD论文成果：新型文本语义编码算法conv-RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/u8ft_uqNEhGRqA11Q-Acyw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | Yann LeCun新作，中日韩文本分类到底要用哪种编码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/x_NDEkW7lrXyQd_3ljC3YQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 星际争霸2人工智能研究环境 SC2LE 初体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_sJih2Jgyqa23ZoLsO-kJw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据挖掘最强华人齐聚加拿大，干货满满亮点不断 | KDD 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/X3Q2shX3r6mwlWywBLe60g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | EMNLP 2017 最佳论文揭晓，「男人也爱逛商场」获最佳长论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/0DqX3zCwNQc7inp15_Guqw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态 | 迪士尼也来研究人工智能啦，将AI用于动画制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9LwF-0xqWIjWHp_KMvaHMg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | IJCAI 探营第一天，6个Tutorial ，13个Workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LFWQL10_HO69CM631-PjhA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | CNN 那么多网络有何区别？看这里了解 CNN 发展历程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/iBd8Byrexim_pXBJm7O93g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 如此逼真的高清图像居然是端到端网络生成的？GANs 自叹不如 | ICCV 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/KBBvQuqmJPYyg_CTCu5vtA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | AI 自动生成二次元妹子？或将替代插画师部分工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4rD5WFDAxzztK1aoEzx4MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | Hinton近日做报告，讲解其研究多年至今未发表的工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3BMY3rV-k3eyMlq_kxh57g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 图像学习之如何理解方向梯度直方图（Histogram Of Gradient）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4JGOIqhAFndoB-48vGaSpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8683,7 +9411,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42963</v>
+        <v>42968</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -8693,7 +9421,7 @@
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="66" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
-        <v>NSNG第33周行业资讯</v>
+        <v>NSNG第34周行业资讯</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -17749,10 +18477,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB898"/>
+  <dimension ref="A1:AB989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A876" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E899" sqref="E899"/>
+    <sheetView tabSelected="1" topLeftCell="B739" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E993" sqref="E993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -18534,7 +19262,7 @@
       <c r="AA20" s="47"/>
       <c r="AB20" s="47"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="45">
         <v>42923</v>
@@ -18574,7 +19302,7 @@
       <c r="AA21" s="47"/>
       <c r="AB21" s="47"/>
     </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="45">
         <v>42923</v>
@@ -18614,7 +19342,7 @@
       <c r="AA22" s="47"/>
       <c r="AB22" s="47"/>
     </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="45">
         <v>42923</v>
@@ -18654,7 +19382,7 @@
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
     </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="45">
         <v>42923</v>
@@ -18694,7 +19422,7 @@
       <c r="AA24" s="47"/>
       <c r="AB24" s="47"/>
     </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="45">
         <v>42923</v>
@@ -18734,7 +19462,7 @@
       <c r="AA25" s="47"/>
       <c r="AB25" s="47"/>
     </row>
-    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="45">
         <v>42923</v>
@@ -18774,7 +19502,7 @@
       <c r="AA26" s="47"/>
       <c r="AB26" s="47"/>
     </row>
-    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="33"/>
       <c r="B27" s="45">
         <v>42923</v>
@@ -19212,7 +19940,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="33"/>
       <c r="B52" s="45">
         <v>42924</v>
@@ -19230,7 +19958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="45">
         <v>42924</v>
@@ -19518,7 +20246,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="33"/>
       <c r="B69" s="45">
         <v>42925</v>
@@ -19536,7 +20264,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="33"/>
       <c r="B70" s="45">
         <v>42925</v>
@@ -19554,7 +20282,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="33"/>
       <c r="B71" s="45">
         <v>42925</v>
@@ -19878,7 +20606,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="33"/>
       <c r="B89" s="45">
         <v>42926</v>
@@ -19896,7 +20624,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="33"/>
       <c r="B90" s="45">
         <v>42926</v>
@@ -19914,7 +20642,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="33"/>
       <c r="B91" s="45">
         <v>42926</v>
@@ -20399,7 +21127,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" s="45">
         <v>42927</v>
       </c>
@@ -20416,7 +21144,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" s="45">
         <v>42927</v>
       </c>
@@ -20433,7 +21161,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B121" s="45">
         <v>42927</v>
       </c>
@@ -20450,7 +21178,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B122" s="45">
         <v>42927</v>
       </c>
@@ -20688,7 +21416,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B136" s="45">
         <v>42928</v>
       </c>
@@ -20705,7 +21433,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B137" s="45">
         <v>42928</v>
       </c>
@@ -20722,7 +21450,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B138" s="45">
         <v>42928</v>
       </c>
@@ -20739,7 +21467,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B139" s="45">
         <v>42928</v>
       </c>
@@ -21045,7 +21773,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B157" s="45">
         <v>42929</v>
       </c>
@@ -21062,7 +21790,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B158" s="45">
         <v>42929</v>
       </c>
@@ -21079,7 +21807,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B159" s="45">
         <v>42929</v>
       </c>
@@ -21096,7 +21824,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B160" s="45">
         <v>42929</v>
       </c>
@@ -21793,7 +22521,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="201" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B201" s="45">
         <v>42930</v>
       </c>
@@ -21810,7 +22538,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="202" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B202" s="45">
         <v>42930</v>
       </c>
@@ -21827,7 +22555,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="203" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B203" s="45">
         <v>42930</v>
       </c>
@@ -21844,7 +22572,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B204" s="45">
         <v>42930</v>
       </c>
@@ -21861,7 +22589,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B205" s="45">
         <v>42931</v>
       </c>
@@ -21878,7 +22606,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="206" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B206" s="45">
         <v>42931</v>
       </c>
@@ -21895,7 +22623,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="207" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B207" s="45">
         <v>42931</v>
       </c>
@@ -22201,7 +22929,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B225" s="45">
         <v>42932</v>
       </c>
@@ -22218,7 +22946,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B226" s="45">
         <v>42932</v>
       </c>
@@ -22235,7 +22963,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B227" s="45">
         <v>42932</v>
       </c>
@@ -22541,7 +23269,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="245" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B245" s="45">
         <v>42933</v>
       </c>
@@ -22558,7 +23286,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="246" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B246" s="45">
         <v>42933</v>
       </c>
@@ -22575,7 +23303,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="247" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B247" s="45">
         <v>42933</v>
       </c>
@@ -22592,7 +23320,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="248" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B248" s="45">
         <v>42933</v>
       </c>
@@ -22915,7 +23643,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="267" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B267" s="45">
         <v>42934</v>
       </c>
@@ -22932,7 +23660,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="268" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B268" s="45">
         <v>42934</v>
       </c>
@@ -22949,7 +23677,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="269" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B269" s="45">
         <v>42934</v>
       </c>
@@ -22966,7 +23694,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="270" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B270" s="45">
         <v>42934</v>
       </c>
@@ -23272,7 +24000,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="288" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B288" s="45">
         <v>42935</v>
       </c>
@@ -23289,7 +24017,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="289" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B289" s="45">
         <v>42935</v>
       </c>
@@ -23306,7 +24034,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="290" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B290" s="45">
         <v>42935</v>
       </c>
@@ -23323,7 +24051,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="291" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B291" s="45">
         <v>42935</v>
       </c>
@@ -23340,7 +24068,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="292" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B292" s="45">
         <v>42935</v>
       </c>
@@ -23680,7 +24408,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="312" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B312" s="45">
         <v>42936</v>
       </c>
@@ -23697,7 +24425,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="313" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B313" s="45">
         <v>42936</v>
       </c>
@@ -23714,7 +24442,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="314" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B314" s="45">
         <v>42936</v>
       </c>
@@ -23731,7 +24459,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="315" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B315" s="45">
         <v>42936</v>
       </c>
@@ -23935,7 +24663,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="327" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B327" s="45">
         <v>42937</v>
       </c>
@@ -23952,7 +24680,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="328" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B328" s="45">
         <v>42937</v>
       </c>
@@ -23969,7 +24697,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="329" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B329" s="45">
         <v>42937</v>
       </c>
@@ -23986,7 +24714,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B330" s="45">
         <v>42937</v>
       </c>
@@ -24445,7 +25173,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="357" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B357" s="45">
         <v>42938</v>
       </c>
@@ -24463,7 +25191,7 @@
       </c>
       <c r="G357" s="56"/>
     </row>
-    <row r="358" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B358" s="45">
         <v>42938</v>
       </c>
@@ -24480,7 +25208,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="359" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B359" s="45">
         <v>42938</v>
       </c>
@@ -24497,7 +25225,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="360" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B360" s="45">
         <v>42938</v>
       </c>
@@ -25007,7 +25735,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="390" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B390" s="45">
         <v>42939</v>
       </c>
@@ -25024,7 +25752,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="391" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B391" s="45">
         <v>42939</v>
       </c>
@@ -25041,7 +25769,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="392" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B392" s="45">
         <v>42939</v>
       </c>
@@ -25058,7 +25786,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="393" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B393" s="45">
         <v>42940</v>
       </c>
@@ -25075,7 +25803,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="394" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B394" s="45">
         <v>42940</v>
       </c>
@@ -25092,7 +25820,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="395" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B395" s="45">
         <v>42940</v>
       </c>
@@ -25109,7 +25837,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="396" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B396" s="45">
         <v>42940</v>
       </c>
@@ -25126,7 +25854,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="397" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B397" s="45">
         <v>42940</v>
       </c>
@@ -25466,7 +26194,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="417" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B417" s="45">
         <v>42941</v>
       </c>
@@ -25483,7 +26211,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="418" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B418" s="45">
         <v>42941</v>
       </c>
@@ -25500,7 +26228,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="419" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B419" s="45">
         <v>42941</v>
       </c>
@@ -25517,7 +26245,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="420" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B420" s="45">
         <v>42941</v>
       </c>
@@ -25534,7 +26262,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="421" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B421" s="45">
         <v>42941</v>
       </c>
@@ -27472,7 +28200,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="535" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B535" s="45">
         <v>42942</v>
       </c>
@@ -27489,7 +28217,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="536" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B536" s="45">
         <v>42942</v>
       </c>
@@ -27506,7 +28234,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="537" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B537" s="45">
         <v>42942</v>
       </c>
@@ -27523,7 +28251,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="538" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B538" s="45">
         <v>42942</v>
       </c>
@@ -27540,7 +28268,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="539" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B539" s="45">
         <v>42943</v>
       </c>
@@ -27557,7 +28285,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="540" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B540" s="45">
         <v>42943</v>
       </c>
@@ -27574,7 +28302,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="541" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B541" s="45">
         <v>42943</v>
       </c>
@@ -27591,7 +28319,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="542" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B542" s="45">
         <v>42943</v>
       </c>
@@ -27608,7 +28336,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="543" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B543" s="45">
         <v>42943</v>
       </c>
@@ -27625,7 +28353,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="544" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B544" s="45">
         <v>42944</v>
       </c>
@@ -27642,7 +28370,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="545" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B545" s="45">
         <v>42944</v>
       </c>
@@ -27659,7 +28387,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="546" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B546" s="45">
         <v>42944</v>
       </c>
@@ -27676,7 +28404,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="547" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B547" s="45">
         <v>42944</v>
       </c>
@@ -27693,7 +28421,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="548" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B548" s="45">
         <v>42944</v>
       </c>
@@ -27710,7 +28438,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="549" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B549" s="45">
         <v>42945</v>
       </c>
@@ -27727,7 +28455,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="550" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B550" s="45">
         <v>42945</v>
       </c>
@@ -27744,7 +28472,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="551" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B551" s="45">
         <v>42945</v>
       </c>
@@ -27761,7 +28489,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="552" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B552" s="45">
         <v>42945</v>
       </c>
@@ -27778,7 +28506,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="553" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B553" s="45">
         <v>42946</v>
       </c>
@@ -27795,7 +28523,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="554" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B554" s="45">
         <v>42946</v>
       </c>
@@ -27812,7 +28540,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="555" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B555" s="45">
         <v>42946</v>
       </c>
@@ -27829,7 +28557,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="556" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B556" s="45">
         <v>42946</v>
       </c>
@@ -27846,7 +28574,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="557" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B557" s="45">
         <v>42947</v>
       </c>
@@ -27863,7 +28591,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="558" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B558" s="45">
         <v>42947</v>
       </c>
@@ -27880,7 +28608,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="559" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B559" s="45">
         <v>42947</v>
       </c>
@@ -28118,7 +28846,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="573" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B573" s="45">
         <v>42948</v>
       </c>
@@ -28135,7 +28863,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="574" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B574" s="45">
         <v>42948</v>
       </c>
@@ -28152,7 +28880,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="575" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B575" s="45">
         <v>42948</v>
       </c>
@@ -28169,7 +28897,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="576" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B576" s="45">
         <v>42948</v>
       </c>
@@ -28492,7 +29220,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="595" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B595" s="45">
         <v>42949</v>
       </c>
@@ -28509,7 +29237,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="596" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B596" s="45">
         <v>42949</v>
       </c>
@@ -28526,7 +29254,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="597" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B597" s="45">
         <v>42949</v>
       </c>
@@ -28543,7 +29271,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="598" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B598" s="45">
         <v>42949</v>
       </c>
@@ -28560,7 +29288,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="599" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B599" s="45">
         <v>42949</v>
       </c>
@@ -29393,7 +30121,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="648" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B648" s="45">
         <v>42950</v>
       </c>
@@ -29410,7 +30138,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="649" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B649" s="45">
         <v>42950</v>
       </c>
@@ -29427,7 +30155,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="650" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B650" s="45">
         <v>42950</v>
       </c>
@@ -29444,7 +30172,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="651" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B651" s="45">
         <v>42950</v>
       </c>
@@ -29461,7 +30189,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="652" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B652" s="45">
         <v>42950</v>
       </c>
@@ -29478,7 +30206,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="653" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B653" s="45">
         <v>42951</v>
       </c>
@@ -29495,7 +30223,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="654" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B654" s="45">
         <v>42951</v>
       </c>
@@ -29512,7 +30240,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="655" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B655" s="45">
         <v>42951</v>
       </c>
@@ -29529,7 +30257,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="656" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B656" s="45">
         <v>42951</v>
       </c>
@@ -29546,7 +30274,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="657" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B657" s="45">
         <v>42951</v>
       </c>
@@ -29852,7 +30580,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="675" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B675" s="45">
         <v>42952</v>
       </c>
@@ -29869,7 +30597,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="676" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B676" s="45">
         <v>42952</v>
       </c>
@@ -29886,7 +30614,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="677" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B677" s="45">
         <v>42952</v>
       </c>
@@ -29903,7 +30631,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="678" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B678" s="45">
         <v>42952</v>
       </c>
@@ -29920,7 +30648,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="679" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B679" s="45">
         <v>42953</v>
       </c>
@@ -29937,7 +30665,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="680" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B680" s="45">
         <v>42953</v>
       </c>
@@ -29954,7 +30682,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="681" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B681" s="45">
         <v>42953</v>
       </c>
@@ -29971,7 +30699,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="682" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B682" s="45">
         <v>42953</v>
       </c>
@@ -29988,7 +30716,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="683" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B683" s="45">
         <v>42953</v>
       </c>
@@ -30260,7 +30988,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="699" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B699" s="45">
         <v>42954</v>
       </c>
@@ -30277,7 +31005,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="700" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B700" s="45">
         <v>42954</v>
       </c>
@@ -30294,7 +31022,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="701" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B701" s="45">
         <v>42954</v>
       </c>
@@ -30311,7 +31039,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="702" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B702" s="45">
         <v>42954</v>
       </c>
@@ -30328,7 +31056,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="703" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B703" s="45">
         <v>42954</v>
       </c>
@@ -30940,7 +31668,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="739" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B739" s="45">
         <v>42955</v>
       </c>
@@ -30957,7 +31685,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="740" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B740" s="45">
         <v>42955</v>
       </c>
@@ -30974,7 +31702,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="741" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="741" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B741" s="45">
         <v>42955</v>
       </c>
@@ -30991,7 +31719,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="742" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B742" s="45">
         <v>42955</v>
       </c>
@@ -31008,7 +31736,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="743" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="743" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B743" s="45">
         <v>42955</v>
       </c>
@@ -31025,7 +31753,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="744" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="744" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B744" s="45">
         <v>42956</v>
       </c>
@@ -31042,7 +31770,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="745" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B745" s="45">
         <v>42956</v>
       </c>
@@ -31059,7 +31787,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="746" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B746" s="45">
         <v>42956</v>
       </c>
@@ -31076,7 +31804,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="747" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B747" s="45">
         <v>42956</v>
       </c>
@@ -31093,7 +31821,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="748" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="748" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B748" s="45">
         <v>42956</v>
       </c>
@@ -31960,7 +32688,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="799" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B799" s="45">
         <v>42957</v>
       </c>
@@ -31977,7 +32705,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="800" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B800" s="45">
         <v>42957</v>
       </c>
@@ -31994,7 +32722,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="801" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B801" s="45">
         <v>42957</v>
       </c>
@@ -32011,7 +32739,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="802" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="802" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B802" s="45">
         <v>42957</v>
       </c>
@@ -32028,7 +32756,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="803" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="803" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B803" s="45">
         <v>42957</v>
       </c>
@@ -32045,7 +32773,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="804" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B804" s="45">
         <v>42958</v>
       </c>
@@ -32062,7 +32790,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="805" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B805" s="45">
         <v>42958</v>
       </c>
@@ -32079,7 +32807,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="806" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B806" s="45">
         <v>42958</v>
       </c>
@@ -32096,7 +32824,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="807" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B807" s="45">
         <v>42958</v>
       </c>
@@ -32351,7 +33079,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="822" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B822" s="45">
         <v>42959</v>
       </c>
@@ -32368,7 +33096,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="823" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B823" s="45">
         <v>42959</v>
       </c>
@@ -32385,7 +33113,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="824" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B824" s="45">
         <v>42959</v>
       </c>
@@ -32402,7 +33130,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="825" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B825" s="45">
         <v>42959</v>
       </c>
@@ -32419,7 +33147,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="826" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="826" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B826" s="45">
         <v>42961</v>
       </c>
@@ -32436,7 +33164,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="827" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="827" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B827" s="45">
         <v>42961</v>
       </c>
@@ -32453,7 +33181,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="828" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="828" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B828" s="45">
         <v>42961</v>
       </c>
@@ -32470,7 +33198,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="829" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="829" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B829" s="45">
         <v>42961</v>
       </c>
@@ -32487,7 +33215,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="830" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="830" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B830" s="45">
         <v>42961</v>
       </c>
@@ -32589,7 +33317,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="836" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="836" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B836" s="45">
         <v>42960</v>
       </c>
@@ -32606,7 +33334,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="837" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="837" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B837" s="45">
         <v>42960</v>
       </c>
@@ -32623,7 +33351,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="838" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="838" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B838" s="45">
         <v>42960</v>
       </c>
@@ -32640,7 +33368,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="839" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="839" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B839" s="45">
         <v>42961</v>
       </c>
@@ -32657,7 +33385,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="840" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="840" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B840" s="45">
         <v>42961</v>
       </c>
@@ -32674,7 +33402,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="841" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="841" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B841" s="45">
         <v>42961</v>
       </c>
@@ -32691,7 +33419,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="842" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="842" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B842" s="45">
         <v>42961</v>
       </c>
@@ -32708,7 +33436,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="843" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="843" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B843" s="45">
         <v>42961</v>
       </c>
@@ -32725,7 +33453,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="844" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="844" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B844" s="45">
         <v>42961</v>
       </c>
@@ -32742,7 +33470,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="845" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="845" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B845" s="45">
         <v>42961</v>
       </c>
@@ -32759,7 +33487,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="846" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="846" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B846" s="45">
         <v>42961</v>
       </c>
@@ -32776,7 +33504,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="847" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="847" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B847" s="45">
         <v>42961</v>
       </c>
@@ -32793,7 +33521,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="848" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="848" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B848" s="45">
         <v>42961</v>
       </c>
@@ -32810,7 +33538,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="849" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="849" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B849" s="45">
         <v>42961</v>
       </c>
@@ -32827,7 +33555,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="850" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="850" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B850" s="45">
         <v>42961</v>
       </c>
@@ -32878,7 +33606,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="853" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="853" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B853" s="45">
         <v>42962</v>
       </c>
@@ -32895,7 +33623,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="854" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="854" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B854" s="45">
         <v>42962</v>
       </c>
@@ -32912,7 +33640,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="855" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="855" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B855" s="45">
         <v>42962</v>
       </c>
@@ -32929,7 +33657,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="856" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="856" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B856" s="45">
         <v>42962</v>
       </c>
@@ -32946,7 +33674,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="857" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="857" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B857" s="45">
         <v>42963</v>
       </c>
@@ -32963,7 +33691,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="858" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="858" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B858" s="45">
         <v>42963</v>
       </c>
@@ -32980,7 +33708,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="859" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="859" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B859" s="45">
         <v>42963</v>
       </c>
@@ -32997,7 +33725,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="860" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="860" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B860" s="45">
         <v>42962</v>
       </c>
@@ -33014,7 +33742,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="861" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="861" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B861" s="45">
         <v>42962</v>
       </c>
@@ -33031,7 +33759,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="862" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="862" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B862" s="45">
         <v>42962</v>
       </c>
@@ -33048,7 +33776,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="863" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="863" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B863" s="45">
         <v>42962</v>
       </c>
@@ -33065,7 +33793,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="864" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="864" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B864" s="45">
         <v>42962</v>
       </c>
@@ -33082,7 +33810,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="865" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="865" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B865" s="45">
         <v>42963</v>
       </c>
@@ -33099,7 +33827,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="866" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="866" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B866" s="45">
         <v>42963</v>
       </c>
@@ -33116,7 +33844,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="867" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="867" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B867" s="45">
         <v>42963</v>
       </c>
@@ -33133,7 +33861,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="868" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="868" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B868" s="45">
         <v>42963</v>
       </c>
@@ -33150,7 +33878,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="869" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="869" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B869" s="45">
         <v>42963</v>
       </c>
@@ -33167,7 +33895,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="870" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="870" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B870" s="45">
         <v>42962</v>
       </c>
@@ -33184,7 +33912,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="871" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="871" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B871" s="45">
         <v>42962</v>
       </c>
@@ -33201,7 +33929,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="872" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="872" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B872" s="45">
         <v>42962</v>
       </c>
@@ -33218,7 +33946,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="873" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="873" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B873" s="45">
         <v>42962</v>
       </c>
@@ -33235,7 +33963,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="874" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="874" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B874" s="45">
         <v>42962</v>
       </c>
@@ -33252,7 +33980,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="875" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="875" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B875" s="45">
         <v>42963</v>
       </c>
@@ -33269,7 +33997,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="876" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="876" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B876" s="45">
         <v>42963</v>
       </c>
@@ -33286,7 +34014,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="877" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="877" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B877" s="45">
         <v>42963</v>
       </c>
@@ -33303,7 +34031,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="878" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="878" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B878" s="45">
         <v>42963</v>
       </c>
@@ -33320,7 +34048,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="879" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="879" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B879" s="45">
         <v>42963</v>
       </c>
@@ -33337,7 +34065,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="880" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="880" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B880" s="45">
         <v>42962</v>
       </c>
@@ -33354,7 +34082,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="881" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="881" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B881" s="45">
         <v>42962</v>
       </c>
@@ -33371,7 +34099,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="882" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="882" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B882" s="45">
         <v>42962</v>
       </c>
@@ -33388,7 +34116,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="883" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="883" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B883" s="45">
         <v>42962</v>
       </c>
@@ -33405,7 +34133,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="884" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="884" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B884" s="45">
         <v>42962</v>
       </c>
@@ -33422,7 +34150,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="885" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="885" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B885" s="45">
         <v>42963</v>
       </c>
@@ -33439,7 +34167,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="886" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="886" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B886" s="45">
         <v>42963</v>
       </c>
@@ -33456,7 +34184,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="887" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="887" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B887" s="45">
         <v>42963</v>
       </c>
@@ -33473,7 +34201,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="888" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="888" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B888" s="45">
         <v>42963</v>
       </c>
@@ -33490,7 +34218,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="889" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="889" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B889" s="45">
         <v>42963</v>
       </c>
@@ -33660,13 +34388,1558 @@
         <v>1828</v>
       </c>
     </row>
+    <row r="899" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B899" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C899" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F899" s="56" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="900" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B900" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C900" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E900" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F900" s="56" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="901" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B901" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C901" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E901" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F901" s="56" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="902" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B902" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C902" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E902" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F902" s="56" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="903" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B903" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C903" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E903" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F903" s="56" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="904" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B904" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C904" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E904" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F904" s="56" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="905" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B905" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C905" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E905" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F905" s="56" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="906" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B906" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C906" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E906" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F906" s="56" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="907" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B907" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C907" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E907" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F907" s="56" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="908" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B908" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C908" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E908" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F908" s="56" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="909" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B909" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C909" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D909" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E909" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F909" s="56" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="910" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B910" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C910" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D910" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E910" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F910" s="56" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="911" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B911" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C911" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D911" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E911" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F911" s="56" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="912" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B912" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C912" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D912" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E912" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F912" s="56" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="913" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B913" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C913" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D913" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E913" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F913" s="56" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="914" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B914" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C914" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D914" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E914" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F914" s="56" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="915" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B915" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C915" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D915" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E915" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F915" s="56" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="916" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B916" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C916" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D916" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E916" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F916" s="56" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="917" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B917" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C917" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D917" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E917" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F917" s="56" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="918" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B918" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C918" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D918" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E918" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F918" s="56" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="919" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B919" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C919" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D919" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E919" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F919" s="56" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="920" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B920" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C920" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D920" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F920" s="56" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="921" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B921" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C921" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D921" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F921" s="56" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="922" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B922" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C922" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D922" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F922" s="56" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="923" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B923" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C923" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D923" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F923" s="56" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="924" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B924" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C924" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D924" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E924" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F924" s="56" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="925" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B925" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C925" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D925" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E925" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F925" s="56" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="926" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B926" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C926" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D926" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E926" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F926" s="56" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="927" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B927" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C927" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D927" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F927" s="56" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="928" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B928" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C928" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D928" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F928" s="56" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="929" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B929" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C929" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D929" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F929" s="56" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="930" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B930" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C930" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D930" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F930" s="56" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="931" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B931" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C931" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D931" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F931" s="56" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="932" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B932" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C932" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D932" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F932" s="56" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="933" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B933" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C933" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D933" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E933" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F933" s="56" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="934" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B934" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C934" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D934" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E934" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F934" s="56" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="935" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B935" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C935" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D935" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E935" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F935" s="56" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="936" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B936" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C936" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D936" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E936" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F936" s="56" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="937" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B937" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C937" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D937" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E937" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F937" s="56" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="938" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B938" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C938" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D938" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F938" s="56" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="939" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B939" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C939" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D939" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F939" s="56" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="940" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B940" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C940" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D940" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F940" s="56" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="941" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B941" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C941" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D941" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E941" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F941" s="56" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="942" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B942" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C942" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D942" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F942" s="56" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="943" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B943" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C943" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D943" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F943" s="56" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="944" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B944" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C944" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D944" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F944" s="56" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="945" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B945" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C945" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D945" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E945" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F945" s="56" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="946" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B946" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C946" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D946" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F946" s="56" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="947" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B947" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C947" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D947" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F947" s="56" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="948" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B948" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C948" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D948" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F948" s="56" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="949" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B949" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C949" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D949" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F949" s="56" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="950" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B950" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C950" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D950" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F950" s="56" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="951" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B951" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C951" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D951" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E951" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F951" s="56" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="952" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B952" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C952" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D952" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F952" s="56" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="953" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B953" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C953" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D953" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E953" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F953" s="56" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="954" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B954" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C954" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D954" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E954" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F954" s="56" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="955" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B955" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C955" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D955" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E955" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F955" s="56" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="956" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B956" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C956" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D956" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E956" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F956" s="56" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="957" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B957" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C957" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D957" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F957" s="56" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="958" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B958" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C958" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D958" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F958" s="56" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="959" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B959" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C959" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D959" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E959" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F959" s="56" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="960" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B960" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C960" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D960" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F960" s="56" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="961" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B961" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C961" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D961" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F961" s="56" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="962" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B962" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C962" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D962" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E962" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F962" s="56" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="963" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B963" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C963" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D963" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E963" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F963" s="56" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="964" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B964" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C964" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D964" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E964" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F964" s="56" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="965" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B965" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C965" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D965" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E965" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F965" s="56" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="966" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B966" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C966" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D966" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E966" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F966" s="56" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="967" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B967" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C967" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D967" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E967" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F967" s="56" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="968" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B968" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C968" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D968" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F968" s="56" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="969" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B969" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C969" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D969" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F969" s="56" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="970" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B970" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C970" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D970" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F970" s="56" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="971" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B971" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C971" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D971" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F971" s="56" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="972" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B972" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C972" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D972" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F972" s="56" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="973" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B973" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C973" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D973" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F973" s="56" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="974" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B974" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C974" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D974" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F974" s="56" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="975" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B975" s="45">
+        <v>42964</v>
+      </c>
+      <c r="C975" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D975" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F975" s="56" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="976" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B976" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C976" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D976" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E976" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F976" s="56" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="977" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B977" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C977" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D977" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F977" s="56" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="978" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B978" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C978" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D978" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E978" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F978" s="56" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="979" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B979" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C979" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D979" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F979" s="56" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="980" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B980" s="45">
+        <v>42965</v>
+      </c>
+      <c r="C980" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D980" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F980" s="56" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="981" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B981" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C981" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D981" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F981" s="56" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="982" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B982" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C982" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D982" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F982" s="56" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="983" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B983" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C983" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D983" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F983" s="56" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="984" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B984" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C984" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D984" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F984" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="985" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B985" s="45">
+        <v>42966</v>
+      </c>
+      <c r="C985" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D985" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F985" s="56" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="986" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B986" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C986" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D986" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F986" s="56" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="987" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B987" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C987" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D987" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F987" s="56" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="988" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B988" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C988" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D988" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F988" s="56" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="989" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B989" s="45">
+        <v>42967</v>
+      </c>
+      <c r="C989" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D989" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E989" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F989" s="56" t="s">
+        <v>2010</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F898">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:F971">
+    <filterColumn colId="2">
       <filters>
-        <dateGroupItem year="2017" month="8" day="14" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="8" day="15" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="8" day="16" dateTimeGrouping="day"/>
+        <filter val="AI科技评论"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -34570,9 +36843,100 @@
     <hyperlink ref="F896" r:id="rId885"/>
     <hyperlink ref="F897" r:id="rId886"/>
     <hyperlink ref="F898" r:id="rId887"/>
+    <hyperlink ref="F899" r:id="rId888"/>
+    <hyperlink ref="F900" r:id="rId889"/>
+    <hyperlink ref="F901" r:id="rId890"/>
+    <hyperlink ref="F902" r:id="rId891"/>
+    <hyperlink ref="F903" r:id="rId892"/>
+    <hyperlink ref="F904" r:id="rId893"/>
+    <hyperlink ref="F905" r:id="rId894"/>
+    <hyperlink ref="F906" r:id="rId895"/>
+    <hyperlink ref="F907" r:id="rId896"/>
+    <hyperlink ref="F908" r:id="rId897"/>
+    <hyperlink ref="F909" r:id="rId898"/>
+    <hyperlink ref="F910" r:id="rId899"/>
+    <hyperlink ref="F911" r:id="rId900"/>
+    <hyperlink ref="F912" r:id="rId901"/>
+    <hyperlink ref="F913" r:id="rId902"/>
+    <hyperlink ref="F914" r:id="rId903"/>
+    <hyperlink ref="F915" r:id="rId904"/>
+    <hyperlink ref="F916" r:id="rId905"/>
+    <hyperlink ref="F917" r:id="rId906"/>
+    <hyperlink ref="F918" r:id="rId907"/>
+    <hyperlink ref="F919" r:id="rId908"/>
+    <hyperlink ref="F920" r:id="rId909"/>
+    <hyperlink ref="F921" r:id="rId910"/>
+    <hyperlink ref="F922" r:id="rId911"/>
+    <hyperlink ref="F923" r:id="rId912"/>
+    <hyperlink ref="F924" r:id="rId913"/>
+    <hyperlink ref="F925" r:id="rId914"/>
+    <hyperlink ref="F926" r:id="rId915"/>
+    <hyperlink ref="F927" r:id="rId916"/>
+    <hyperlink ref="F928" r:id="rId917"/>
+    <hyperlink ref="F929" r:id="rId918"/>
+    <hyperlink ref="F930" r:id="rId919"/>
+    <hyperlink ref="F931" r:id="rId920"/>
+    <hyperlink ref="F932" r:id="rId921"/>
+    <hyperlink ref="F933" r:id="rId922"/>
+    <hyperlink ref="F934" r:id="rId923"/>
+    <hyperlink ref="F935" r:id="rId924"/>
+    <hyperlink ref="F936" r:id="rId925"/>
+    <hyperlink ref="F937" r:id="rId926"/>
+    <hyperlink ref="F938" r:id="rId927"/>
+    <hyperlink ref="F939" r:id="rId928"/>
+    <hyperlink ref="F940" r:id="rId929"/>
+    <hyperlink ref="F941" r:id="rId930"/>
+    <hyperlink ref="F942" r:id="rId931"/>
+    <hyperlink ref="F943" r:id="rId932"/>
+    <hyperlink ref="F944" r:id="rId933"/>
+    <hyperlink ref="F945" r:id="rId934"/>
+    <hyperlink ref="F946" r:id="rId935"/>
+    <hyperlink ref="F947" r:id="rId936"/>
+    <hyperlink ref="F948" r:id="rId937"/>
+    <hyperlink ref="F949" r:id="rId938"/>
+    <hyperlink ref="F951" r:id="rId939"/>
+    <hyperlink ref="F950" r:id="rId940"/>
+    <hyperlink ref="F952" r:id="rId941"/>
+    <hyperlink ref="F953" r:id="rId942"/>
+    <hyperlink ref="F954" r:id="rId943"/>
+    <hyperlink ref="F955" r:id="rId944"/>
+    <hyperlink ref="F956" r:id="rId945"/>
+    <hyperlink ref="F957" r:id="rId946"/>
+    <hyperlink ref="F958" r:id="rId947"/>
+    <hyperlink ref="F959" r:id="rId948"/>
+    <hyperlink ref="F960" r:id="rId949"/>
+    <hyperlink ref="F961" r:id="rId950"/>
+    <hyperlink ref="F962" r:id="rId951"/>
+    <hyperlink ref="F963" r:id="rId952"/>
+    <hyperlink ref="F964" r:id="rId953"/>
+    <hyperlink ref="F965" r:id="rId954"/>
+    <hyperlink ref="F966" r:id="rId955"/>
+    <hyperlink ref="F967" r:id="rId956"/>
+    <hyperlink ref="F968" r:id="rId957"/>
+    <hyperlink ref="F969" r:id="rId958"/>
+    <hyperlink ref="F970" r:id="rId959"/>
+    <hyperlink ref="F971" r:id="rId960"/>
+    <hyperlink ref="F972" r:id="rId961"/>
+    <hyperlink ref="F973" r:id="rId962"/>
+    <hyperlink ref="F974" r:id="rId963"/>
+    <hyperlink ref="F975" r:id="rId964"/>
+    <hyperlink ref="F976" r:id="rId965"/>
+    <hyperlink ref="F977" r:id="rId966"/>
+    <hyperlink ref="F978" r:id="rId967"/>
+    <hyperlink ref="F979" r:id="rId968"/>
+    <hyperlink ref="F980" r:id="rId969"/>
+    <hyperlink ref="F981" r:id="rId970"/>
+    <hyperlink ref="F982" r:id="rId971"/>
+    <hyperlink ref="F983" r:id="rId972"/>
+    <hyperlink ref="F984" r:id="rId973"/>
+    <hyperlink ref="F985" r:id="rId974"/>
+    <hyperlink ref="F986" r:id="rId975"/>
+    <hyperlink ref="F987" r:id="rId976"/>
+    <hyperlink ref="F988" r:id="rId977"/>
+    <hyperlink ref="F989" r:id="rId978"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId888"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId979"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$971</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1017</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="2011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="2083">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7414,663 +7414,951 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>成不了AI高手？因为你根本不懂数据！听听这位老教授多年心血练就的最实用统计学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/N7DE0kvf8THhJQwroHj4vA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从GPU、TPU到FPGA及其它：一文读懂神经网络硬件平台战局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Cy_vb0PpcvGTDmlMt1VkSw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | Apache MXNet 发布 v0.11.0版，支持苹果Core ML和Keras v1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/iZ0OpE4wYsMHTh6gV2LX3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 深度学习在NLP中的运用？从分词、词性到机器翻译、对话系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-gnzRjLerqIyLPLBkZNmcA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 473个模型试验告诉你文本分类中的最好编码方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/i4u4Ty8kC0zzUpmRqj8g7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call for Papers | 音频与音乐学术会议ISMIR 2017、CSMT2017 十月苏州开幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/i0ZIkixKaPVr47k3eDE2oQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成硬件优化内核：陈天奇等人发布深度学习编译器TVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/7JGLm-hkCZBNDLA98qvWNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 拟合目标函数后验分布的调参利器：贝叶斯优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AsZyjwUclEoxxl2VRBekHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 自然语言处理领域的前沿技术：EMNLP 2017最佳论文公布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/0L7bcr3GMEcsm24siYQwpQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 谷歌发布TensorFlow 1.3.0版本，新加多个分类器、回归器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JdGyMovAMDBuA1imUMUDMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 百万奖金等你来战——蚂蚁开发者大赛盛大开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/FyzAdvhFQWP4kogsS8WxNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需数学背景，读懂ResNet、Inception和Xception三大变革性架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/I94gGXXW_eE5hSHIBOsJFQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | OpenAI开源算法ACKTR与A2C：把可扩展的自然梯度应用到强化学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/R308ohdMU8b7Ap4CLofvDg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 谷歌提出多图像抠图算法，并弥补水印技术的一致性漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Y35r_UbNV1bekj9KVvi1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周论文 | 关于远程监督，我们来推荐几篇值得读的论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4rwPfqD2XjaFuUkKePCrSw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告 | 第四范式入股机器之心，共推AI普及与产业发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/XZ-Tvyr5--AlpOF_mZCvQg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继1小时训练ImageNet之后，大批量训练扩展到了3万2千个样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4Ii3um3jqfm5yKKxZAFdmA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | Geoffrey Hinton多伦多大学演讲：卷积神经网络的问题与对策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vCQY3xboVf7PojpkLVUdPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 编译器入门：没有siri的那些年，我们如何实现人机对话？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vOJPxzH_1SUyXzNeE85zHQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 宅男的福音：用GAN自动生成二次元萌妹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/OXN8Y5truLeslX8-Uwgqmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅！MIT2017年度TR35揭晓：阿里AI科学家王刚和柔宇CEO 刘自鸿等6位华人入选！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/mqYHRdukQ03O_qVnpkdsxA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜吴恩达建1.5亿美元AI基金！AI公司日均获得3.68亿元投资！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/aH64O15ifDUOZLGYvGa7VQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜分分钟学会基于深度学习的图像真实风格迁移！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BWBrso7O1O3Rfxa4QWZH4g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜关于机器学习算法 你必须了解的几点内容！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4O1_9ly5DxpdjzQ2Nilcpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI投资｜今日全球5家AI相关公司获投资，微软收购Cycle Computing！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/MdQjltQwydjW9M_6dFeJ5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害！科大讯飞市值奔1000亿，市盈率达400倍成“妖股”！BAT自愧不如！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/VLGMBCtHwgr-OLGBKsjtyA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLAM入门+典型SLAM应用及解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Tfqqs_aOBIObeAMfG-9e4w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时SLAM的未来以及深度学习与SLAM的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/97bIBKTADd2oIUBAabM04Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉目标检测和识别之过去，现在及可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LAy1LKGj5HOh_e9jPgvfQw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊：一个亏损20年的公司，却估值超2万亿，这是为什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YUiSwdg3vM_ce1N2cdctIg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐 ：如何选择一个合适的数据图表？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/XuoeOqGT_mJcFP08ZLq38g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCNN, Fast-RCNN, Faster-RCNN那些你必须知道的事！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JPCQqyzR8xIUyAdk_RI5dA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜谷歌发布TensorFlow 1.3.0版本，都更新了哪些内容？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_3pYh8R8czAESY1RAZE_Cg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 ：数据驱动决策的13种思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Fa7P3v969JRr6OOAyrGptA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害！阿里11篇论文入选IJCAI2017 人工智能领域捷报频传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/6ZEI1FNT8YAE2Ka-DwwlbA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜深度学习概念、架构和tensorflow的思维导图！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kMTMjlLgcR24DT7CXvezsA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策 | 国务院发文：普及中小学阶段人工智能、编程教育！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/80Q5Ykyqwu4gSvnF80qkLQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐｜Pornhub：数据显示90后对大胸的兴趣度低于平均水平！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/o8BKkV9nvBNBGQ6HR6he6w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI投资｜谷歌收购AIMatter！云知声、寒武纪等AI公司获数亿元投资！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/d0avUfji_OSkaVLeQY0dAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火爆了！全球最火爆的人脸识别技术应用： FaceDance Challenge！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/QmlkLUT5UEtmWS_h5v7hGg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android之父：AI是下一个重要操作系统！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ELNeLEgVMheORkpsOr2MLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜23个Python爬虫开源项目代码：爬取微信、淘宝、豆瓣、知乎、微博等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/yR_wENRSbxvfrcYr9O9BuQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜将 ResNet-50 的批量大小扩展到 32k来训练ImageNet！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会数据分析背后的挖掘思维，分析就完成了一半!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/g1PWYFvxyoEZ8uX_GBwKSQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/FUaeBIFUI2RyFIetiK0xbQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ImageNet最后的冠军】颜水成：像素级标注数据集将引领计算机视觉下一个时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/0_eF5-urC7dccKiozUQHHg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云知声再获 3 亿战略投资，将加大人工智能专用芯片 UniOne 研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/GRo20kpLBRojDmSbcAMqGQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【允悲】波士顿动力机器人跪了！搬箱子不成反摔倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ShHzMQyR8tK_GZhkBGIgIg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【彭博】中国称霸AI三大优势，一初创公司将打破商汤单笔融资最高纪录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/TsAfGLJIlag_PxhcmNGBjA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新智元20万读者大调查暨《深度学习》百本赠书获奖名单公布！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/pF9wjwfsyOP1ar9aen6BEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【独家】寒武纪A轮融资1亿美元，成全球AI芯片首个独角兽，阿里参投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/7Qnx4lCcs7b-GfppFVXtWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然语言处理顶会EMNLP最佳论文3项出炉：Facebook智能体创造“语言”获奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dcKD2UplT9yji3fKSATwFg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中科大骆清铭：开启“脑空间信息计划”，连接脑科学与类脑人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8qYBZbHydmZcb-MoJh-R8g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【人脑理解又突破】神经网络绘制大脑神经回路精度达到人类水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/35om1sz3Xm47rktLIwhwFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【中国AI实验室项目巡礼】中大HCPLab：基于注意力机制学习的人脸幻构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/DEJ0z2CahZIrhTE3VXNVvg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【IJCAI 2017】最佳学生论文属华人，领域主席欧美中三分天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/K1sGkGDiYdZrUqMweqWokg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复旦、清华和英特尔中国研究院ICCV新作：完全脱离预训练模型的目标检测方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/c2oMJfE95I1ciEtvdTlb4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【值得收藏的深度学习思维导图】全面梳理基本概念与11大模型关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qR1qagsS9YVxNye5DWG23Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【2017编程语言排行榜第一名】Python爆红的六大原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hB4oT-JhhGDlu-TTAz17Hw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【避免AI错把黑人识别为大猩猩】伯克利大学提出协同反向强化学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/W9yhj7_frLYWJocoBR1TMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Hinton碰撞LeCun】CNN有两大缺陷，要用capsule做下一代CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Tx9JJ0cIo_rH7BDjd_hkvw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【了不起的芯片2】盘点40+公司的深度学习处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/5WczQVX20GDw_obZzqQ7yQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于AI，传统行业CEO必须知道这5件事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/XgmsCNQ8WZbNasotJBdttA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【从头开始GAN】Goodfellow开山之作到DCGAN等变体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/5OG7vTPjfAsHQ3eVPKoLpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【打怪升级】这是一份为数据科学初学者准备的Kaggle竞赛指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/K3EVwRFBJufXK5QKSQsPbQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIT TR 35揭晓：阿里巴巴王刚、吴翰清等六位华人当选，Ian Goodfellow上榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/MDlCtjEPgAyTKI8MNSe1Og</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | 处女作就拿下 KDD 双料最佳论文候选，「半路出家」的他用深度学习研究气候问题（附讲解视频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qh1MoLBA0Ds7rhrPpMaVHw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | Alex Smola论文详解：准确稀疏可解释，三大优点兼具的序列数据预测算法LLA｜ ICML 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Tn5e8SaRiiLgplszz1u9rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 我做了12万条的影评分析，告诉你《战狼Ⅱ》都在说些啥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Hk1UBGrhmZ8ofIf1IAj8XA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访 | 清华胡事民：来CNCC，了解计算机一切领域前沿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/WdoBu7yXdKBp6RFeWOgM4Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 入选MIT TR 35的王刚是谁 他给阿里带来什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/wLsrVAYqkpt1sjnUVdwh-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 已经进驻天猫精灵的阿里KDD论文成果：新型文本语义编码算法conv-RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/u8ft_uqNEhGRqA11Q-Acyw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | Yann LeCun新作，中日韩文本分类到底要用哪种编码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/x_NDEkW7lrXyQd_3ljC3YQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 星际争霸2人工智能研究环境 SC2LE 初体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_sJih2Jgyqa23ZoLsO-kJw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据挖掘最强华人齐聚加拿大，干货满满亮点不断 | KDD 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/X3Q2shX3r6mwlWywBLe60g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | EMNLP 2017 最佳论文揭晓，「男人也爱逛商场」获最佳长论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/0DqX3zCwNQc7inp15_Guqw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态 | 迪士尼也来研究人工智能啦，将AI用于动画制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9LwF-0xqWIjWHp_KMvaHMg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | IJCAI 探营第一天，6个Tutorial ，13个Workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LFWQL10_HO69CM631-PjhA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | CNN 那么多网络有何区别？看这里了解 CNN 发展历程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/iBd8Byrexim_pXBJm7O93g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 如此逼真的高清图像居然是端到端网络生成的？GANs 自叹不如 | ICCV 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/KBBvQuqmJPYyg_CTCu5vtA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | AI 自动生成二次元妹子？或将替代插画师部分工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4rD5WFDAxzztK1aoEzx4MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | Hinton近日做报告，讲解其研究多年至今未发表的工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3BMY3rV-k3eyMlq_kxh57g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 图像学习之如何理解方向梯度直方图（Histogram Of Gradient）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4JGOIqhAFndoB-48vGaSpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://mp.weixin.qq.com/s/1dOAHyQdyiAtvnsyXAFySQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成不了AI高手？因为你根本不懂数据！听听这位老教授多年心血练就的最实用统计学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/N7DE0kvf8THhJQwroHj4vA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从GPU、TPU到FPGA及其它：一文读懂神经网络硬件平台战局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/Cy_vb0PpcvGTDmlMt1VkSw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业界 | Apache MXNet 发布 v0.11.0版，支持苹果Core ML和Keras v1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/iZ0OpE4wYsMHTh6gV2LX3g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专栏 | 深度学习在NLP中的运用？从分词、词性到机器翻译、对话系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/-gnzRjLerqIyLPLBkZNmcA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学界 | 473个模型试验告诉你文本分类中的最好编码方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/i4u4Ty8kC0zzUpmRqj8g7A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Call for Papers | 音频与音乐学术会议ISMIR 2017、CSMT2017 十月苏州开幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/i0ZIkixKaPVr47k3eDE2oQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动生成硬件优化内核：陈天奇等人发布深度学习编译器TVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/7JGLm-hkCZBNDLA98qvWNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教程 | 拟合目标函数后验分布的调参利器：贝叶斯优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/AsZyjwUclEoxxl2VRBekHA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学界 | 自然语言处理领域的前沿技术：EMNLP 2017最佳论文公布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/0L7bcr3GMEcsm24siYQwpQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业界 | 谷歌发布TensorFlow 1.3.0版本，新加多个分类器、回归器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/JdGyMovAMDBuA1imUMUDMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动 | 百万奖金等你来战——蚂蚁开发者大赛盛大开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/FyzAdvhFQWP4kogsS8WxNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需数学背景，读懂ResNet、Inception和Xception三大变革性架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/I94gGXXW_eE5hSHIBOsJFQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业界 | OpenAI开源算法ACKTR与A2C：把可扩展的自然梯度应用到强化学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/R308ohdMU8b7Ap4CLofvDg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业界 | 谷歌提出多图像抠图算法，并弥补水印技术的一致性漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/Y35r_UbNV1bekj9KVvi1_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一周论文 | 关于远程监督，我们来推荐几篇值得读的论文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/4rwPfqD2XjaFuUkKePCrSw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告 | 第四范式入股机器之心，共推AI普及与产业发展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/XZ-Tvyr5--AlpOF_mZCvQg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继1小时训练ImageNet之后，大批量训练扩展到了3万2千个样本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/4Ii3um3jqfm5yKKxZAFdmA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源 | Geoffrey Hinton多伦多大学演讲：卷积神经网络的问题与对策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/vCQY3xboVf7PojpkLVUdPQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教程 | 编译器入门：没有siri的那些年，我们如何实现人机对话？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/vOJPxzH_1SUyXzNeE85zHQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学界 | 宅男的福音：用GAN自动生成二次元萌妹子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/OXN8Y5truLeslX8-Uwgqmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重磅！MIT2017年度TR35揭晓：阿里AI科学家王刚和柔宇CEO 刘自鸿等6位华人入选！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/mqYHRdukQ03O_qVnpkdsxA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新｜吴恩达建1.5亿美元AI基金！AI公司日均获得3.68亿元投资！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/aH64O15ifDUOZLGYvGa7VQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干货｜分分钟学会基于深度学习的图像真实风格迁移！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/BWBrso7O1O3Rfxa4QWZH4g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐｜关于机器学习算法 你必须了解的几点内容！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/4O1_9ly5DxpdjzQ2Nilcpw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI投资｜今日全球5家AI相关公司获投资，微软收购Cycle Computing！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/MdQjltQwydjW9M_6dFeJ5g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厉害！科大讯飞市值奔1000亿，市盈率达400倍成“妖股”！BAT自愧不如！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/VLGMBCtHwgr-OLGBKsjtyA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLAM入门+典型SLAM应用及解决方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/Tfqqs_aOBIObeAMfG-9e4w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时SLAM的未来以及深度学习与SLAM的比较</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/97bIBKTADd2oIUBAabM04Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视觉目标检测和识别之过去，现在及可能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/LAy1LKGj5HOh_e9jPgvfQw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚马逊：一个亏损20年的公司，却估值超2万亿，这是为什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/YUiSwdg3vM_ce1N2cdctIg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐 ：如何选择一个合适的数据图表？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/XuoeOqGT_mJcFP08ZLq38g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCNN, Fast-RCNN, Faster-RCNN那些你必须知道的事！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/JPCQqyzR8xIUyAdk_RI5dA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新｜谷歌发布TensorFlow 1.3.0版本，都更新了哪些内容？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/_3pYh8R8czAESY1RAZE_Cg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干货 ：数据驱动决策的13种思维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/Fa7P3v969JRr6OOAyrGptA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厉害！阿里11篇论文入选IJCAI2017 人工智能领域捷报频传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/6ZEI1FNT8YAE2Ka-DwwlbA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干货｜深度学习概念、架构和tensorflow的思维导图！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/kMTMjlLgcR24DT7CXvezsA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策 | 国务院发文：普及中小学阶段人工智能、编程教育！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/80Q5Ykyqwu4gSvnF80qkLQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐｜Pornhub：数据显示90后对大胸的兴趣度低于平均水平！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/o8BKkV9nvBNBGQ6HR6he6w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI投资｜谷歌收购AIMatter！云知声、寒武纪等AI公司获数亿元投资！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/d0avUfji_OSkaVLeQY0dAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火爆了！全球最火爆的人脸识别技术应用： FaceDance Challenge！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/QmlkLUT5UEtmWS_h5v7hGg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android之父：AI是下一个重要操作系统！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/ELNeLEgVMheORkpsOr2MLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐｜23个Python爬虫开源项目代码：爬取微信、淘宝、豆瓣、知乎、微博等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/yR_wENRSbxvfrcYr9O9BuQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新｜将 ResNet-50 的批量大小扩展到 32k来训练ImageNet！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学会数据分析背后的挖掘思维，分析就完成了一半!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/g1PWYFvxyoEZ8uX_GBwKSQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/FUaeBIFUI2RyFIetiK0xbQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ImageNet最后的冠军】颜水成：像素级标注数据集将引领计算机视觉下一个时代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/0_eF5-urC7dccKiozUQHHg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云知声再获 3 亿战略投资，将加大人工智能专用芯片 UniOne 研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/GRo20kpLBRojDmSbcAMqGQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【允悲】波士顿动力机器人跪了！搬箱子不成反摔倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/ShHzMQyR8tK_GZhkBGIgIg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【彭博】中国称霸AI三大优势，一初创公司将打破商汤单笔融资最高纪录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/TsAfGLJIlag_PxhcmNGBjA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新智元20万读者大调查暨《深度学习》百本赠书获奖名单公布！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/pF9wjwfsyOP1ar9aen6BEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【独家】寒武纪A轮融资1亿美元，成全球AI芯片首个独角兽，阿里参投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/7Qnx4lCcs7b-GfppFVXtWA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然语言处理顶会EMNLP最佳论文3项出炉：Facebook智能体创造“语言”获奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/dcKD2UplT9yji3fKSATwFg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华中科大骆清铭：开启“脑空间信息计划”，连接脑科学与类脑人工智能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/8qYBZbHydmZcb-MoJh-R8g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【人脑理解又突破】神经网络绘制大脑神经回路精度达到人类水平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/35om1sz3Xm47rktLIwhwFA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【中国AI实验室项目巡礼】中大HCPLab：基于注意力机制学习的人脸幻构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/DEJ0z2CahZIrhTE3VXNVvg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【IJCAI 2017】最佳学生论文属华人，领域主席欧美中三分天下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/K1sGkGDiYdZrUqMweqWokg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复旦、清华和英特尔中国研究院ICCV新作：完全脱离预训练模型的目标检测方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/c2oMJfE95I1ciEtvdTlb4A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【值得收藏的深度学习思维导图】全面梳理基本概念与11大模型关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/qR1qagsS9YVxNye5DWG23Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【2017编程语言排行榜第一名】Python爆红的六大原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/hB4oT-JhhGDlu-TTAz17Hw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【避免AI错把黑人识别为大猩猩】伯克利大学提出协同反向强化学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/W9yhj7_frLYWJocoBR1TMQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【Hinton碰撞LeCun】CNN有两大缺陷，要用capsule做下一代CNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/Tx9JJ0cIo_rH7BDjd_hkvw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【了不起的芯片2】盘点40+公司的深度学习处理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/5WczQVX20GDw_obZzqQ7yQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于AI，传统行业CEO必须知道这5件事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/XgmsCNQ8WZbNasotJBdttA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【从头开始GAN】Goodfellow开山之作到DCGAN等变体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/5OG7vTPjfAsHQ3eVPKoLpw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【打怪升级】这是一份为数据科学初学者准备的Kaggle竞赛指南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/K3EVwRFBJufXK5QKSQsPbQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIT TR 35揭晓：阿里巴巴王刚、吴翰清等六位华人当选，Ian Goodfellow上榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/MDlCtjEPgAyTKI8MNSe1Og</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大会 | 处女作就拿下 KDD 双料最佳论文候选，「半路出家」的他用深度学习研究气候问题（附讲解视频）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/qh1MoLBA0Ds7rhrPpMaVHw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学界 | Alex Smola论文详解：准确稀疏可解释，三大优点兼具的序列数据预测算法LLA｜ ICML 2017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/Tn5e8SaRiiLgplszz1u9rw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发 | 我做了12万条的影评分析，告诉你《战狼Ⅱ》都在说些啥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/Hk1UBGrhmZ8ofIf1IAj8XA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专访 | 清华胡事民：来CNCC，了解计算机一切领域前沿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/WdoBu7yXdKBp6RFeWOgM4Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深度 | 入选MIT TR 35的王刚是谁 他给阿里带来什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/wLsrVAYqkpt1sjnUVdwh-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学界 | 已经进驻天猫精灵的阿里KDD论文成果：新型文本语义编码算法conv-RNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/u8ft_uqNEhGRqA11Q-Acyw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学界 | Yann LeCun新作，中日韩文本分类到底要用哪种编码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/x_NDEkW7lrXyQd_3ljC3YQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发 | 星际争霸2人工智能研究环境 SC2LE 初体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/_sJih2Jgyqa23ZoLsO-kJw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据挖掘最强华人齐聚加拿大，干货满满亮点不断 | KDD 2017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/X3Q2shX3r6mwlWywBLe60g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学界 | EMNLP 2017 最佳论文揭晓，「男人也爱逛商场」获最佳长论文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/0DqX3zCwNQc7inp15_Guqw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态 | 迪士尼也来研究人工智能啦，将AI用于动画制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/9LwF-0xqWIjWHp_KMvaHMg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大会 | IJCAI 探营第一天，6个Tutorial ，13个Workshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/LFWQL10_HO69CM631-PjhA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发 | CNN 那么多网络有何区别？看这里了解 CNN 发展历程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/iBd8Byrexim_pXBJm7O93g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深度 | 如此逼真的高清图像居然是端到端网络生成的？GANs 自叹不如 | ICCV 2017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/KBBvQuqmJPYyg_CTCu5vtA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学界 | AI 自动生成二次元妹子？或将替代插画师部分工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/4rD5WFDAxzztK1aoEzx4MQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学界 | Hinton近日做报告，讲解其研究多年至今未发表的工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/3BMY3rV-k3eyMlq_kxh57g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发 | 图像学习之如何理解方向梯度直方图（Histogram Of Gradient）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mp.weixin.qq.com/s/4JGOIqhAFndoB-48vGaSpg</t>
+    <t>一拍脑袋就要用MapReduce？你以为你是Google啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Ga13C1gTSk1adYgcBeJfwA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质课程推荐 | Google AI大神+GPU环境，《计算机视觉》超高性价比课程！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kEgD1mG-xtKLUh4h6X0YTQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马斯克等116名AI大佬紧急上书联合国，呼吁不要打开“机器人武器”的潘多拉魔盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4xG4VWgjcF9o5-6WU9Gvqw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下 | 还没上车？Geek Concert最后30个席位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/0wRxbKrF60NWg6pn2r4qpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从语言学到深度学习NLP，一文概述自然语言处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/TjFzJVOowfceHwJNUItcxQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访 | 电话诈骗层出不穷？一家「接地气」的公司正在用人工智能解决这个社会顽疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8a4hTHJ1F-dUiUI12COJkA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | MXNet 0.11发布，加入动态图接口Gluon（附CMU教授亲笔教程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AFarYRlFIi2ynW8iDWibUQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 自动化机器学习第一步：使用Hyperopt自动选择超参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-n-5Cp_hgkvdmsHGWEIpWw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | 只需1200美元，打造家用型深度学习配置（CPU+GTX 1080）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/a6sfBWqmpBmdKddyBa1RvQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场报道 | IJCAI 2017四大论文奖项揭晓：牛津大学获最佳杰出论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/g_Ub3MUzpS9UQTJyy3qHQA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 神奇的神经机器翻译：从发展脉络到未来前景（附论文资源）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/r9WRkmApBaHvlCQ5F5ypjg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 从头开始：用Python实现带随机梯度下降的Logistic回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/886OM-fUVUQ6IJKHJzbtaA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | Keras+OpenAI强化学习实践：深度Q网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/2lcOfU3X27YYqbWS341jcg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纽约大学：48张PPT详解：深度学习，路在何方？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/p-DWapdZAmkKv9FSKP8J3w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜IJCAI 2017公布四大奖项：牛津获最佳杰出论文奖，CMU获经典论文奖！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/oO2i-INPqliWUHoNODZyew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周鸿祎：360被BAT轮流吊打后，留下心理阴影，不敢再乱叫！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/cvhmBGfOX2mwZfPPhPDgnQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜百度陈翔 ：基于机器学习的搜索语义理解技术！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/rLFm2J6Bao6H5Qj9Fw0wUg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用Python实现CNN长短期记忆网络！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/MQR7c57NL4b5i4MRA2JgWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【AI博士五星指南】入行自评，选大公司还是初创企业（万字长文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/oBy_Xl7FSBUd46H9E8yUbA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepMind视频行为分类竞赛，百度IDL获第一，新算法披露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Ns8oD_HBpFoumMMDbMq8-g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【微软语音识别新突破，错误率降至5.1%】黄学东：新的行业里程碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nB_lwgFXuhhfglPN5k25ag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017智能投资峰会暨新智元百人会8月论坛30日召开，汇聚多位AI、金融领袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/XcUBL7gH90rtiJQBl5mleg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXNet 0.11发布，加入动态图接口Gluon，还有两位CMU教授的亲笔教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/lG_xgrBwt727CYx9iDZ3LA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【盘点影响计算机视觉Top100论文】从ResNet到AlexNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ddTNr-967IahTZ2X1LNSEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Bengio高徒演讲】深度学习三板斧：网络架构、学习算法和时空层级（48PPT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/lSd6Gaf9RrmgZCd_EcQQOg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【破解人类识别文字之谜】对图像中的字母进行无监督学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qaxzSSDuuscwL5tt0QCQ0Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 当上GTA 5主播，沉迷游戏估计没心思反攻人类了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Tt2d-g1X0j4vUw9_fCae7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美中印AI三巨头机器人实力对比：中国能否保住第二？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Aj33NiA3mSXC5FFPgbc41Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两届CVPR最佳论文得主何恺明新作：应对样本的不平衡分布，刷新密集物体检测表现上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/mj14otbEw_E1S23fiwdR8w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | IJCAI主会第一天总结 : 一片祥和之中暗藏3个高潮！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/rfvlHyu0xSLZdrwHGa5hNQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态 | 新里程碑！微软语音到文字转录已经达到人类水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-ofDhwiTzig4oYVIzVasEw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | 多任务深度学习框架在ADAS中的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/g3fpkWvuFtxEly_DZTpDWw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | MXNet 0.11发布，加入动态图接口Gluon，还有两位CMU教授的亲笔教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/VqK45dHUdqGu2rAKvikcJw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IJCAI奖项全公布，华人斩获最佳学生论文奖！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hZcy8IndNTx8U0G2sBG2AQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点｜元学习：实现通用人工智能的关键！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/DlSXg9LL9RboJIFJfX4GRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发｜微软清华公布Open Academic Graph数据集推动数据集成研究，匹配准确率超过98%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ZvUPYOn6_uel2BF6DDMRrA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8956,42 +9244,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9019,6 +9271,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9026,6 +9299,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9411,23 +9699,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42968</v>
+        <v>42969</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="78" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
         <v>NSNG第34周行业资讯</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -9438,22 +9726,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72" t="str">
+      <c r="C5" s="60" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -9479,61 +9767,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="57" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="61" t="str">
+      <c r="B8" s="70" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="60" t="str">
+      <c r="C10" s="69" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="72" t="str">
+      <c r="C11" s="60" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -9560,60 +9848,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="69" t="str">
+      <c r="B13" s="57" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="61" t="str">
+      <c r="B14" s="70" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="60" t="str">
+      <c r="C16" s="69" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="72" t="str">
+      <c r="C17" s="60" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -9639,60 +9927,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="69" t="str">
+      <c r="B19" s="57" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="61" t="str">
+      <c r="B20" s="70" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="60" t="str">
+      <c r="C22" s="69" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="72" t="str">
+      <c r="C23" s="60" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -9718,60 +10006,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="69" t="str">
+      <c r="B25" s="57" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="61" t="str">
+      <c r="B26" s="70" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="60" t="str">
+      <c r="C28" s="69" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="72" t="str">
+      <c r="C29" s="60" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="62"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -9797,60 +10085,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="69" t="str">
+      <c r="B31" s="57" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="61" t="str">
+      <c r="B32" s="70" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="60" t="str">
+      <c r="C34" s="69" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="72" t="str">
+      <c r="C35" s="60" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="74"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -9876,60 +10164,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="69" t="str">
+      <c r="B37" s="57" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="61" t="str">
+      <c r="B38" s="70" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="60" t="str">
+      <c r="C40" s="69" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="72" t="str">
+      <c r="C41" s="60" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="62"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -9955,60 +10243,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="69" t="str">
+      <c r="B43" s="57" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="61" t="str">
+      <c r="B44" s="70" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="60" t="str">
+      <c r="C46" s="69" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="65"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="72" t="str">
+      <c r="C47" s="60" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="62"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -10034,60 +10322,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="69" t="str">
+      <c r="B49" s="57" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="61" t="str">
+      <c r="B50" s="70" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="72"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="60" t="str">
+      <c r="C52" s="69" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="77"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="72" t="str">
+      <c r="C53" s="60" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="74"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -10113,60 +10401,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="69" t="str">
+      <c r="B55" s="57" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="71"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="59"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="61" t="str">
+      <c r="B56" s="70" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="60" t="str">
+      <c r="C58" s="69" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="77"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="72" t="str">
+      <c r="C59" s="60" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="74"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="62"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -10192,60 +10480,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="69" t="str">
+      <c r="B61" s="57" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="59"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="61" t="str">
+      <c r="B62" s="70" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="72"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="57"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="59"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="60" t="str">
+      <c r="C64" s="69" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="60"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="77"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="72" t="str">
+      <c r="C65" s="60" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="74"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="62"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -10271,60 +10559,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="69" t="str">
+      <c r="B67" s="57" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="59"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="61" t="str">
+      <c r="B68" s="70" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="72"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="59"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="60" t="str">
+      <c r="C70" s="69" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="77"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="65"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="72" t="str">
+      <c r="C71" s="60" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="74"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="62"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -10350,60 +10638,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="69" t="str">
+      <c r="B73" s="57" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="59"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="61" t="str">
+      <c r="B74" s="70" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="72"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="57"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="59"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="68"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="60" t="str">
+      <c r="C76" s="69" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="77"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="72" t="str">
+      <c r="C77" s="60" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="62"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -10429,60 +10717,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="69" t="str">
+      <c r="B79" s="57" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="71"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="59"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="61" t="str">
+      <c r="B80" s="70" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="72"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="57"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="59"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="68"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="60" t="str">
+      <c r="C82" s="69" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="60"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="77"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="65"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="72" t="str">
+      <c r="C83" s="60" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="74"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="62"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -10508,60 +10796,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="69" t="str">
+      <c r="B85" s="57" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="71"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="59"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="61" t="str">
+      <c r="B86" s="70" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="72"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="57"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="59"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="68"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="60" t="str">
+      <c r="C88" s="69" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="60"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="77"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="65"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="72" t="str">
+      <c r="C89" s="60" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="74"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="62"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -10587,60 +10875,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="69" t="str">
+      <c r="B91" s="57" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="71"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="59"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="61" t="str">
+      <c r="B92" s="70" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="63"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="72"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="57"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="59"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="68"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="60" t="str">
+      <c r="C94" s="69" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="77"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="65"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="72" t="str">
+      <c r="C95" s="60" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="74"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="62"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -10666,60 +10954,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="69" t="str">
+      <c r="B97" s="57" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="71"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="59"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="61" t="str">
+      <c r="B98" s="70" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="63"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="72"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="59"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="68"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="60" t="str">
+      <c r="C100" s="69" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="60"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="77"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="65"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="72" t="str">
+      <c r="C101" s="60" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="74"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="62"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -10745,60 +11033,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="69" t="str">
+      <c r="B103" s="57" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="71"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="59"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="61" t="str">
+      <c r="B104" s="70" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="63"/>
+      <c r="C104" s="71"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="72"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="57"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="59"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="68"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="60" t="str">
+      <c r="C106" s="69" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="60"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="77"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="65"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="72" t="str">
+      <c r="C107" s="60" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="74"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="62"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -10824,60 +11112,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="69" t="str">
+      <c r="B109" s="57" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="71"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="59"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="61" t="str">
+      <c r="B110" s="70" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="63"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="72"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="57"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="59"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="68"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="60" t="str">
+      <c r="C112" s="69" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="60"/>
-      <c r="E112" s="75"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="77"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="65"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="72" t="str">
+      <c r="C113" s="60" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="74"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="62"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -10903,60 +11191,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="69" t="str">
+      <c r="B115" s="57" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="71"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="59"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="61" t="str">
+      <c r="B116" s="70" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="62"/>
-      <c r="G116" s="63"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="72"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="59"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="68"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="60" t="str">
+      <c r="C118" s="69" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="60"/>
-      <c r="E118" s="75"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="77"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="65"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="72" t="str">
+      <c r="C119" s="60" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="74"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="62"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -10982,60 +11270,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="69" t="str">
+      <c r="B121" s="57" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="70"/>
-      <c r="F121" s="70"/>
-      <c r="G121" s="71"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="58"/>
+      <c r="G121" s="59"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="61" t="str">
+      <c r="B122" s="70" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="62"/>
-      <c r="G122" s="63"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="72"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="57"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="58"/>
-      <c r="G123" s="59"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="68"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="60" t="str">
+      <c r="C124" s="69" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="60"/>
-      <c r="E124" s="75"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="77"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="63"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="65"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="72" t="str">
+      <c r="C125" s="60" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="74"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="62"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -11061,60 +11349,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="69" t="str">
+      <c r="B127" s="57" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="70"/>
-      <c r="D127" s="70"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="70"/>
-      <c r="G127" s="71"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="59"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="61" t="str">
+      <c r="B128" s="70" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="63"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="72"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="57"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="59"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="68"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="60" t="str">
+      <c r="C130" s="69" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="60"/>
-      <c r="E130" s="75"/>
-      <c r="F130" s="76"/>
-      <c r="G130" s="77"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="64"/>
+      <c r="G130" s="65"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="72" t="str">
+      <c r="C131" s="60" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="73"/>
-      <c r="E131" s="73"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="74"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="62"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -11140,60 +11428,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="69" t="str">
+      <c r="B133" s="57" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="70"/>
-      <c r="F133" s="70"/>
-      <c r="G133" s="71"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="58"/>
+      <c r="G133" s="59"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="61" t="str">
+      <c r="B134" s="70" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="63"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="72"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="57"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="58"/>
-      <c r="F135" s="58"/>
-      <c r="G135" s="59"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="68"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="60" t="str">
+      <c r="C136" s="69" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="60"/>
-      <c r="E136" s="75"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="77"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="65"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="72" t="str">
+      <c r="C137" s="60" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="74"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="62"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -11219,60 +11507,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="69" t="str">
+      <c r="B139" s="57" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="71"/>
+      <c r="C139" s="58"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="58"/>
+      <c r="F139" s="58"/>
+      <c r="G139" s="59"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="61" t="str">
+      <c r="B140" s="70" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="62"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="62"/>
-      <c r="F140" s="62"/>
-      <c r="G140" s="63"/>
+      <c r="C140" s="71"/>
+      <c r="D140" s="71"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="72"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="57"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
-      <c r="F141" s="58"/>
-      <c r="G141" s="59"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="68"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="60" t="str">
+      <c r="C142" s="69" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="60"/>
-      <c r="E142" s="75"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="77"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="63"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="65"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="72" t="str">
+      <c r="C143" s="60" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="74"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="62"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -11298,60 +11586,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="69" t="str">
+      <c r="B145" s="57" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="70"/>
-      <c r="F145" s="70"/>
-      <c r="G145" s="71"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="58"/>
+      <c r="G145" s="59"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="61" t="str">
+      <c r="B146" s="70" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="62"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="62"/>
-      <c r="F146" s="62"/>
-      <c r="G146" s="63"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="71"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="72"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="57"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="59"/>
+      <c r="B147" s="66"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="67"/>
+      <c r="G147" s="68"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="60" t="str">
+      <c r="C148" s="69" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="60"/>
-      <c r="E148" s="75"/>
-      <c r="F148" s="76"/>
-      <c r="G148" s="77"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="63"/>
+      <c r="F148" s="64"/>
+      <c r="G148" s="65"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="72" t="str">
+      <c r="C149" s="60" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="73"/>
-      <c r="E149" s="73"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="74"/>
+      <c r="D149" s="61"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="61"/>
+      <c r="G149" s="62"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -11377,60 +11665,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="69" t="str">
+      <c r="B151" s="57" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="70"/>
-      <c r="F151" s="70"/>
-      <c r="G151" s="71"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="59"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="61" t="str">
+      <c r="B152" s="70" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="62"/>
-      <c r="D152" s="62"/>
-      <c r="E152" s="62"/>
-      <c r="F152" s="62"/>
-      <c r="G152" s="63"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="71"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="71"/>
+      <c r="G152" s="72"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="57"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="58"/>
-      <c r="F153" s="58"/>
-      <c r="G153" s="59"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="67"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="68"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="60" t="str">
+      <c r="C154" s="69" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="60"/>
-      <c r="E154" s="75"/>
-      <c r="F154" s="76"/>
-      <c r="G154" s="77"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="64"/>
+      <c r="G154" s="65"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="72" t="str">
+      <c r="C155" s="60" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="73"/>
-      <c r="E155" s="73"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="74"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="61"/>
+      <c r="F155" s="61"/>
+      <c r="G155" s="62"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -11456,60 +11744,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="69" t="str">
+      <c r="B157" s="57" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="70"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="71"/>
+      <c r="C157" s="58"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="58"/>
+      <c r="G157" s="59"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="61" t="str">
+      <c r="B158" s="70" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="62"/>
-      <c r="D158" s="62"/>
-      <c r="E158" s="62"/>
-      <c r="F158" s="62"/>
-      <c r="G158" s="63"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="71"/>
+      <c r="F158" s="71"/>
+      <c r="G158" s="72"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="57"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="59"/>
+      <c r="B159" s="66"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="68"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="60" t="str">
+      <c r="C160" s="69" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="60"/>
-      <c r="E160" s="75"/>
-      <c r="F160" s="76"/>
-      <c r="G160" s="77"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="63"/>
+      <c r="F160" s="64"/>
+      <c r="G160" s="65"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="72" t="str">
+      <c r="C161" s="60" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="73"/>
-      <c r="E161" s="73"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="74"/>
+      <c r="D161" s="61"/>
+      <c r="E161" s="61"/>
+      <c r="F161" s="61"/>
+      <c r="G161" s="62"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -11535,60 +11823,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="69" t="str">
+      <c r="B163" s="57" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="70"/>
-      <c r="D163" s="70"/>
-      <c r="E163" s="70"/>
-      <c r="F163" s="70"/>
-      <c r="G163" s="71"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="58"/>
+      <c r="G163" s="59"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="61" t="str">
+      <c r="B164" s="70" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="62"/>
-      <c r="D164" s="62"/>
-      <c r="E164" s="62"/>
-      <c r="F164" s="62"/>
-      <c r="G164" s="63"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="71"/>
+      <c r="E164" s="71"/>
+      <c r="F164" s="71"/>
+      <c r="G164" s="72"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="57"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="59"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="67"/>
+      <c r="D165" s="67"/>
+      <c r="E165" s="67"/>
+      <c r="F165" s="67"/>
+      <c r="G165" s="68"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="60" t="str">
+      <c r="C166" s="69" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="60"/>
-      <c r="E166" s="75"/>
-      <c r="F166" s="76"/>
-      <c r="G166" s="77"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="63"/>
+      <c r="F166" s="64"/>
+      <c r="G166" s="65"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="72" t="str">
+      <c r="C167" s="60" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="73"/>
-      <c r="E167" s="73"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="74"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="61"/>
+      <c r="G167" s="62"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -11614,60 +11902,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="69" t="str">
+      <c r="B169" s="57" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="70"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="70"/>
-      <c r="F169" s="70"/>
-      <c r="G169" s="71"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="58"/>
+      <c r="G169" s="59"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="61" t="str">
+      <c r="B170" s="70" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="62"/>
-      <c r="D170" s="62"/>
-      <c r="E170" s="62"/>
-      <c r="F170" s="62"/>
-      <c r="G170" s="63"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="72"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="57"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="59"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="67"/>
+      <c r="D171" s="67"/>
+      <c r="E171" s="67"/>
+      <c r="F171" s="67"/>
+      <c r="G171" s="68"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="60" t="str">
+      <c r="C172" s="69" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="60"/>
-      <c r="E172" s="75"/>
-      <c r="F172" s="76"/>
-      <c r="G172" s="77"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="63"/>
+      <c r="F172" s="64"/>
+      <c r="G172" s="65"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="72" t="str">
+      <c r="C173" s="60" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="73"/>
-      <c r="E173" s="73"/>
-      <c r="F173" s="73"/>
-      <c r="G173" s="74"/>
+      <c r="D173" s="61"/>
+      <c r="E173" s="61"/>
+      <c r="F173" s="61"/>
+      <c r="G173" s="62"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -11693,60 +11981,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="69" t="str">
+      <c r="B175" s="57" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="70"/>
-      <c r="D175" s="70"/>
-      <c r="E175" s="70"/>
-      <c r="F175" s="70"/>
-      <c r="G175" s="71"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="59"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="61" t="str">
+      <c r="B176" s="70" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="62"/>
-      <c r="D176" s="62"/>
-      <c r="E176" s="62"/>
-      <c r="F176" s="62"/>
-      <c r="G176" s="63"/>
+      <c r="C176" s="71"/>
+      <c r="D176" s="71"/>
+      <c r="E176" s="71"/>
+      <c r="F176" s="71"/>
+      <c r="G176" s="72"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="57"/>
-      <c r="C177" s="58"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="59"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="67"/>
+      <c r="D177" s="67"/>
+      <c r="E177" s="67"/>
+      <c r="F177" s="67"/>
+      <c r="G177" s="68"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="60" t="str">
+      <c r="C178" s="69" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="60"/>
-      <c r="E178" s="75"/>
-      <c r="F178" s="76"/>
-      <c r="G178" s="77"/>
+      <c r="D178" s="69"/>
+      <c r="E178" s="63"/>
+      <c r="F178" s="64"/>
+      <c r="G178" s="65"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="72" t="str">
+      <c r="C179" s="60" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="73"/>
-      <c r="E179" s="73"/>
-      <c r="F179" s="73"/>
-      <c r="G179" s="74"/>
+      <c r="D179" s="61"/>
+      <c r="E179" s="61"/>
+      <c r="F179" s="61"/>
+      <c r="G179" s="62"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -11772,59 +12060,172 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="69" t="str">
+      <c r="B181" s="57" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="70"/>
-      <c r="D181" s="70"/>
-      <c r="E181" s="70"/>
-      <c r="F181" s="70"/>
-      <c r="G181" s="71"/>
+      <c r="C181" s="58"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="59"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="61" t="str">
+      <c r="B182" s="70" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="62"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="F182" s="62"/>
-      <c r="G182" s="63"/>
+      <c r="C182" s="71"/>
+      <c r="D182" s="71"/>
+      <c r="E182" s="71"/>
+      <c r="F182" s="71"/>
+      <c r="G182" s="72"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="78"/>
-      <c r="C183" s="79"/>
-      <c r="D183" s="79"/>
-      <c r="E183" s="79"/>
-      <c r="F183" s="79"/>
-      <c r="G183" s="80"/>
+      <c r="B183" s="73"/>
+      <c r="C183" s="74"/>
+      <c r="D183" s="74"/>
+      <c r="E183" s="74"/>
+      <c r="F183" s="74"/>
+      <c r="G183" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="E82:G82"/>
     <mergeCell ref="B75:G75"/>
@@ -11849,141 +12250,28 @@
     <mergeCell ref="C137:G137"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18477,10 +18765,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB989"/>
+  <dimension ref="A1:AB1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B739" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E993" sqref="E993"/>
+    <sheetView tabSelected="1" topLeftCell="B978" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1027" sqref="E1027"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -34538,7 +34826,7 @@
         <v>1845</v>
       </c>
       <c r="F907" s="56" t="s">
-        <v>1846</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="908" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34552,10 +34840,10 @@
         <v>40</v>
       </c>
       <c r="E908" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F908" s="56" t="s">
         <v>1847</v>
-      </c>
-      <c r="F908" s="56" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="909" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34569,10 +34857,10 @@
         <v>40</v>
       </c>
       <c r="E909" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F909" s="56" t="s">
         <v>1849</v>
-      </c>
-      <c r="F909" s="56" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="910" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34586,10 +34874,10 @@
         <v>40</v>
       </c>
       <c r="E910" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F910" s="56" t="s">
         <v>1851</v>
-      </c>
-      <c r="F910" s="56" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="911" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34603,10 +34891,10 @@
         <v>40</v>
       </c>
       <c r="E911" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F911" s="56" t="s">
         <v>1853</v>
-      </c>
-      <c r="F911" s="56" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="912" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34620,10 +34908,10 @@
         <v>40</v>
       </c>
       <c r="E912" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F912" s="56" t="s">
         <v>1855</v>
-      </c>
-      <c r="F912" s="56" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="913" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34637,10 +34925,10 @@
         <v>40</v>
       </c>
       <c r="E913" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F913" s="56" t="s">
         <v>1857</v>
-      </c>
-      <c r="F913" s="56" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="914" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34654,10 +34942,10 @@
         <v>40</v>
       </c>
       <c r="E914" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F914" s="56" t="s">
         <v>1859</v>
-      </c>
-      <c r="F914" s="56" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="915" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34671,10 +34959,10 @@
         <v>40</v>
       </c>
       <c r="E915" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F915" s="56" t="s">
         <v>1861</v>
-      </c>
-      <c r="F915" s="56" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="916" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34688,10 +34976,10 @@
         <v>40</v>
       </c>
       <c r="E916" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F916" s="56" t="s">
         <v>1863</v>
-      </c>
-      <c r="F916" s="56" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="917" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34705,10 +34993,10 @@
         <v>43</v>
       </c>
       <c r="E917" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F917" s="56" t="s">
         <v>1865</v>
-      </c>
-      <c r="F917" s="56" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="918" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34722,10 +35010,10 @@
         <v>43</v>
       </c>
       <c r="E918" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F918" s="56" t="s">
         <v>1867</v>
-      </c>
-      <c r="F918" s="56" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="919" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34739,10 +35027,10 @@
         <v>40</v>
       </c>
       <c r="E919" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F919" s="56" t="s">
         <v>1869</v>
-      </c>
-      <c r="F919" s="56" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="920" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34756,10 +35044,10 @@
         <v>40</v>
       </c>
       <c r="E920" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F920" s="56" t="s">
         <v>1871</v>
-      </c>
-      <c r="F920" s="56" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="921" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34773,10 +35061,10 @@
         <v>40</v>
       </c>
       <c r="E921" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F921" s="56" t="s">
         <v>1873</v>
-      </c>
-      <c r="F921" s="56" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="922" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34790,10 +35078,10 @@
         <v>40</v>
       </c>
       <c r="E922" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F922" s="56" t="s">
         <v>1875</v>
-      </c>
-      <c r="F922" s="56" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="923" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34807,10 +35095,10 @@
         <v>40</v>
       </c>
       <c r="E923" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F923" s="56" t="s">
         <v>1877</v>
-      </c>
-      <c r="F923" s="56" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="924" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34824,10 +35112,10 @@
         <v>40</v>
       </c>
       <c r="E924" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F924" s="56" t="s">
         <v>1879</v>
-      </c>
-      <c r="F924" s="56" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="925" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34841,10 +35129,10 @@
         <v>40</v>
       </c>
       <c r="E925" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F925" s="56" t="s">
         <v>1881</v>
-      </c>
-      <c r="F925" s="56" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="926" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34858,10 +35146,10 @@
         <v>40</v>
       </c>
       <c r="E926" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F926" s="56" t="s">
         <v>1883</v>
-      </c>
-      <c r="F926" s="56" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="927" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34875,10 +35163,10 @@
         <v>40</v>
       </c>
       <c r="E927" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F927" s="56" t="s">
         <v>1885</v>
-      </c>
-      <c r="F927" s="56" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="928" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34892,10 +35180,10 @@
         <v>43</v>
       </c>
       <c r="E928" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F928" s="56" t="s">
         <v>1887</v>
-      </c>
-      <c r="F928" s="56" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="929" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34909,10 +35197,10 @@
         <v>43</v>
       </c>
       <c r="E929" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F929" s="56" t="s">
         <v>1889</v>
-      </c>
-      <c r="F929" s="56" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="930" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34926,10 +35214,10 @@
         <v>43</v>
       </c>
       <c r="E930" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F930" s="56" t="s">
         <v>1891</v>
-      </c>
-      <c r="F930" s="56" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="931" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34943,10 +35231,10 @@
         <v>43</v>
       </c>
       <c r="E931" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F931" s="56" t="s">
         <v>1893</v>
-      </c>
-      <c r="F931" s="56" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="932" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34960,10 +35248,10 @@
         <v>43</v>
       </c>
       <c r="E932" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F932" s="56" t="s">
         <v>1895</v>
-      </c>
-      <c r="F932" s="56" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="933" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34977,10 +35265,10 @@
         <v>43</v>
       </c>
       <c r="E933" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F933" s="56" t="s">
         <v>1897</v>
-      </c>
-      <c r="F933" s="56" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="934" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -34994,10 +35282,10 @@
         <v>40</v>
       </c>
       <c r="E934" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F934" s="56" t="s">
         <v>1899</v>
-      </c>
-      <c r="F934" s="56" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="935" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35011,10 +35299,10 @@
         <v>40</v>
       </c>
       <c r="E935" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F935" s="56" t="s">
         <v>1901</v>
-      </c>
-      <c r="F935" s="56" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="936" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35028,10 +35316,10 @@
         <v>40</v>
       </c>
       <c r="E936" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F936" s="56" t="s">
         <v>1903</v>
-      </c>
-      <c r="F936" s="56" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="937" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35045,10 +35333,10 @@
         <v>43</v>
       </c>
       <c r="E937" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F937" s="56" t="s">
         <v>1905</v>
-      </c>
-      <c r="F937" s="56" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="938" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35062,10 +35350,10 @@
         <v>40</v>
       </c>
       <c r="E938" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F938" s="56" t="s">
         <v>1907</v>
-      </c>
-      <c r="F938" s="56" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="939" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35079,10 +35367,10 @@
         <v>40</v>
       </c>
       <c r="E939" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F939" s="56" t="s">
         <v>1909</v>
-      </c>
-      <c r="F939" s="56" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="940" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35096,10 +35384,10 @@
         <v>40</v>
       </c>
       <c r="E940" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F940" s="56" t="s">
         <v>1911</v>
-      </c>
-      <c r="F940" s="56" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="941" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35113,10 +35401,10 @@
         <v>43</v>
       </c>
       <c r="E941" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F941" s="56" t="s">
         <v>1913</v>
-      </c>
-      <c r="F941" s="56" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="942" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35130,10 +35418,10 @@
         <v>40</v>
       </c>
       <c r="E942" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F942" s="56" t="s">
         <v>1915</v>
-      </c>
-      <c r="F942" s="56" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="943" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35147,10 +35435,10 @@
         <v>40</v>
       </c>
       <c r="E943" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F943" s="56" t="s">
         <v>1917</v>
-      </c>
-      <c r="F943" s="56" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="944" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35164,10 +35452,10 @@
         <v>43</v>
       </c>
       <c r="E944" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F944" s="56" t="s">
         <v>1919</v>
-      </c>
-      <c r="F944" s="56" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="945" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35181,10 +35469,10 @@
         <v>40</v>
       </c>
       <c r="E945" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F945" s="56" t="s">
         <v>1921</v>
-      </c>
-      <c r="F945" s="56" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="946" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35198,10 +35486,10 @@
         <v>43</v>
       </c>
       <c r="E946" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F946" s="56" t="s">
         <v>1923</v>
-      </c>
-      <c r="F946" s="56" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="947" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35215,10 +35503,10 @@
         <v>40</v>
       </c>
       <c r="E947" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F947" s="56" t="s">
         <v>1925</v>
-      </c>
-      <c r="F947" s="56" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="948" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35232,10 +35520,10 @@
         <v>40</v>
       </c>
       <c r="E948" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F948" s="56" t="s">
         <v>1927</v>
-      </c>
-      <c r="F948" s="56" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="949" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35249,10 +35537,10 @@
         <v>40</v>
       </c>
       <c r="E949" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F949" s="56" t="s">
         <v>1929</v>
-      </c>
-      <c r="F949" s="56" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="950" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35266,10 +35554,10 @@
         <v>40</v>
       </c>
       <c r="E950" s="1" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F950" s="56" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="951" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35283,10 +35571,10 @@
         <v>40</v>
       </c>
       <c r="E951" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F951" s="56" t="s">
         <v>1932</v>
-      </c>
-      <c r="F951" s="56" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="952" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35300,10 +35588,10 @@
         <v>40</v>
       </c>
       <c r="E952" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F952" s="56" t="s">
         <v>1935</v>
-      </c>
-      <c r="F952" s="56" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="953" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35317,10 +35605,10 @@
         <v>43</v>
       </c>
       <c r="E953" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F953" s="56" t="s">
         <v>1937</v>
-      </c>
-      <c r="F953" s="56" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="954" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35334,10 +35622,10 @@
         <v>40</v>
       </c>
       <c r="E954" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F954" s="56" t="s">
         <v>1939</v>
-      </c>
-      <c r="F954" s="56" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="955" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35351,10 +35639,10 @@
         <v>43</v>
       </c>
       <c r="E955" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F955" s="56" t="s">
         <v>1941</v>
-      </c>
-      <c r="F955" s="56" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="956" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35368,10 +35656,10 @@
         <v>43</v>
       </c>
       <c r="E956" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F956" s="56" t="s">
         <v>1943</v>
-      </c>
-      <c r="F956" s="56" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="957" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35385,10 +35673,10 @@
         <v>43</v>
       </c>
       <c r="E957" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F957" s="56" t="s">
         <v>1945</v>
-      </c>
-      <c r="F957" s="56" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="958" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35402,10 +35690,10 @@
         <v>40</v>
       </c>
       <c r="E958" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F958" s="56" t="s">
         <v>1947</v>
-      </c>
-      <c r="F958" s="56" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="959" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35419,10 +35707,10 @@
         <v>40</v>
       </c>
       <c r="E959" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F959" s="56" t="s">
         <v>1949</v>
-      </c>
-      <c r="F959" s="56" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="960" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35436,10 +35724,10 @@
         <v>40</v>
       </c>
       <c r="E960" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F960" s="56" t="s">
         <v>1951</v>
-      </c>
-      <c r="F960" s="56" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="961" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35453,10 +35741,10 @@
         <v>43</v>
       </c>
       <c r="E961" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F961" s="56" t="s">
         <v>1953</v>
-      </c>
-      <c r="F961" s="56" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="962" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35470,10 +35758,10 @@
         <v>40</v>
       </c>
       <c r="E962" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F962" s="56" t="s">
         <v>1955</v>
-      </c>
-      <c r="F962" s="56" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="963" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35487,10 +35775,10 @@
         <v>40</v>
       </c>
       <c r="E963" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F963" s="56" t="s">
         <v>1957</v>
-      </c>
-      <c r="F963" s="56" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="964" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35504,10 +35792,10 @@
         <v>40</v>
       </c>
       <c r="E964" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F964" s="56" t="s">
         <v>1959</v>
-      </c>
-      <c r="F964" s="56" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="965" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35521,10 +35809,10 @@
         <v>40</v>
       </c>
       <c r="E965" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F965" s="56" t="s">
         <v>1961</v>
-      </c>
-      <c r="F965" s="56" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="966" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35538,10 +35826,10 @@
         <v>40</v>
       </c>
       <c r="E966" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F966" s="56" t="s">
         <v>1963</v>
-      </c>
-      <c r="F966" s="56" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="967" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35555,10 +35843,10 @@
         <v>40</v>
       </c>
       <c r="E967" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F967" s="56" t="s">
         <v>1965</v>
-      </c>
-      <c r="F967" s="56" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="968" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35572,10 +35860,10 @@
         <v>43</v>
       </c>
       <c r="E968" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F968" s="56" t="s">
         <v>1967</v>
-      </c>
-      <c r="F968" s="56" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="969" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35589,10 +35877,10 @@
         <v>43</v>
       </c>
       <c r="E969" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F969" s="56" t="s">
         <v>1969</v>
-      </c>
-      <c r="F969" s="56" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="970" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35606,10 +35894,10 @@
         <v>40</v>
       </c>
       <c r="E970" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F970" s="56" t="s">
         <v>1971</v>
-      </c>
-      <c r="F970" s="56" t="s">
-        <v>1972</v>
       </c>
     </row>
     <row r="971" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
@@ -35623,10 +35911,10 @@
         <v>40</v>
       </c>
       <c r="E971" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F971" s="56" t="s">
         <v>1973</v>
-      </c>
-      <c r="F971" s="56" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="972" spans="2:6" x14ac:dyDescent="0.15">
@@ -35640,10 +35928,10 @@
         <v>43</v>
       </c>
       <c r="E972" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F972" s="56" t="s">
         <v>1975</v>
-      </c>
-      <c r="F972" s="56" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="973" spans="2:6" x14ac:dyDescent="0.15">
@@ -35657,10 +35945,10 @@
         <v>40</v>
       </c>
       <c r="E973" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F973" s="56" t="s">
         <v>1977</v>
-      </c>
-      <c r="F973" s="56" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="974" spans="2:6" x14ac:dyDescent="0.15">
@@ -35674,10 +35962,10 @@
         <v>40</v>
       </c>
       <c r="E974" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F974" s="56" t="s">
         <v>1979</v>
-      </c>
-      <c r="F974" s="56" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="975" spans="2:6" x14ac:dyDescent="0.15">
@@ -35691,10 +35979,10 @@
         <v>40</v>
       </c>
       <c r="E975" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F975" s="56" t="s">
         <v>1981</v>
-      </c>
-      <c r="F975" s="56" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="976" spans="2:6" x14ac:dyDescent="0.15">
@@ -35708,10 +35996,10 @@
         <v>43</v>
       </c>
       <c r="E976" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F976" s="56" t="s">
         <v>1983</v>
-      </c>
-      <c r="F976" s="56" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="977" spans="2:6" x14ac:dyDescent="0.15">
@@ -35725,10 +36013,10 @@
         <v>43</v>
       </c>
       <c r="E977" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F977" s="56" t="s">
         <v>1985</v>
-      </c>
-      <c r="F977" s="56" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="978" spans="2:6" x14ac:dyDescent="0.15">
@@ -35742,10 +36030,10 @@
         <v>40</v>
       </c>
       <c r="E978" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F978" s="56" t="s">
         <v>1987</v>
-      </c>
-      <c r="F978" s="56" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="979" spans="2:6" x14ac:dyDescent="0.15">
@@ -35759,10 +36047,10 @@
         <v>40</v>
       </c>
       <c r="E979" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F979" s="56" t="s">
         <v>1989</v>
-      </c>
-      <c r="F979" s="56" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="980" spans="2:6" x14ac:dyDescent="0.15">
@@ -35776,10 +36064,10 @@
         <v>40</v>
       </c>
       <c r="E980" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F980" s="56" t="s">
         <v>1991</v>
-      </c>
-      <c r="F980" s="56" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="981" spans="2:6" x14ac:dyDescent="0.15">
@@ -35793,10 +36081,10 @@
         <v>40</v>
       </c>
       <c r="E981" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F981" s="56" t="s">
         <v>1993</v>
-      </c>
-      <c r="F981" s="56" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="982" spans="2:6" x14ac:dyDescent="0.15">
@@ -35810,10 +36098,10 @@
         <v>40</v>
       </c>
       <c r="E982" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F982" s="56" t="s">
         <v>1995</v>
-      </c>
-      <c r="F982" s="56" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="983" spans="2:6" x14ac:dyDescent="0.15">
@@ -35827,10 +36115,10 @@
         <v>40</v>
       </c>
       <c r="E983" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F983" s="56" t="s">
         <v>1997</v>
-      </c>
-      <c r="F983" s="56" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="984" spans="2:6" x14ac:dyDescent="0.15">
@@ -35844,10 +36132,10 @@
         <v>40</v>
       </c>
       <c r="E984" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F984" s="56" t="s">
         <v>1999</v>
-      </c>
-      <c r="F984" s="56" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="985" spans="2:6" x14ac:dyDescent="0.15">
@@ -35861,10 +36149,10 @@
         <v>40</v>
       </c>
       <c r="E985" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F985" s="56" t="s">
         <v>2001</v>
-      </c>
-      <c r="F985" s="56" t="s">
-        <v>2002</v>
       </c>
     </row>
     <row r="986" spans="2:6" x14ac:dyDescent="0.15">
@@ -35878,10 +36166,10 @@
         <v>40</v>
       </c>
       <c r="E986" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F986" s="56" t="s">
         <v>2003</v>
-      </c>
-      <c r="F986" s="56" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="987" spans="2:6" x14ac:dyDescent="0.15">
@@ -35895,10 +36183,10 @@
         <v>40</v>
       </c>
       <c r="E987" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F987" s="56" t="s">
         <v>2005</v>
-      </c>
-      <c r="F987" s="56" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="988" spans="2:6" x14ac:dyDescent="0.15">
@@ -35912,10 +36200,10 @@
         <v>40</v>
       </c>
       <c r="E988" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F988" s="56" t="s">
         <v>2007</v>
-      </c>
-      <c r="F988" s="56" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="989" spans="2:6" x14ac:dyDescent="0.15">
@@ -35929,14 +36217,626 @@
         <v>40</v>
       </c>
       <c r="E989" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F989" s="56" t="s">
         <v>2009</v>
       </c>
-      <c r="F989" s="56" t="s">
-        <v>2010</v>
+    </row>
+    <row r="990" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B990" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C990" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F990" s="56" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="991" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B991" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C991" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E991" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F991" s="56" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="992" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B992" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C992" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E992" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F992" s="56" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="993" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B993" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C993" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E993" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F993" s="56" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="994" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B994" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C994" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D994" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E994" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F994" s="56" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="995" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B995" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C995" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D995" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F995" s="56" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="996" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B996" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C996" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D996" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F996" s="56" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="997" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B997" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C997" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D997" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E997" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F997" s="56" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="998" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B998" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C998" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D998" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F998" s="56" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="999" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B999" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C999" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D999" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E999" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F999" s="56" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1000" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1000" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1000" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F1000" s="56" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1001" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1001" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1001" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1001" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F1001" s="56" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1002" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1002" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1002" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1002" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F1002" s="56" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1003" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1003" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1003" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1003" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1003" s="56" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1004" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1004" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1004" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1004" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F1004" s="56" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1005" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1005" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1005" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F1005" s="56" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1006" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1006" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1006" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1006" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F1006" s="56" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1007" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1007" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1007" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1007" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F1007" s="56" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1008" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C1008" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1008" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1008" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F1008" s="56" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1009" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C1009" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1009" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1009" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F1009" s="56" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1010" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C1010" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1010" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1010" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F1010" s="56" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1011" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C1011" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1011" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1011" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F1011" s="56" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1012" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C1012" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1012" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1012" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F1012" s="56" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1013" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1013" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1013" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1013" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1013" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F1013" s="56" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1014" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1014" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1014" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1014" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F1014" s="56" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1015" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1015" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1015" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1015" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F1015" s="56" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1016" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1016" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1016" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1016" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F1016" s="56" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1017" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1017" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1017" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1017" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1017" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F1017" s="56" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1018" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C1018" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1018" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1018" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F1018" s="56" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1019" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C1019" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1019" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1019" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F1019" s="56" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1020" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C1020" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1020" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1020" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F1020" s="56" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1021" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C1021" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1021" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1021" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F1021" s="56" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1022" s="45">
+        <v>42968</v>
+      </c>
+      <c r="C1022" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1022" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1022" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F1022" s="56" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="1023" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1023" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1023" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1023" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1023" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F1023" s="56" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1024" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1024" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1024" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1024" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F1024" s="56" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1025" s="45">
+        <v>42969</v>
+      </c>
+      <c r="C1025" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1025" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1025" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F1025" s="56" t="s">
+        <v>2082</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F971">
+  <autoFilter ref="A1:F1017">
     <filterColumn colId="2">
       <filters>
         <filter val="AI科技评论"/>
@@ -36934,9 +37834,45 @@
     <hyperlink ref="F987" r:id="rId976"/>
     <hyperlink ref="F988" r:id="rId977"/>
     <hyperlink ref="F989" r:id="rId978"/>
+    <hyperlink ref="F990" r:id="rId979"/>
+    <hyperlink ref="F991" r:id="rId980"/>
+    <hyperlink ref="F992" r:id="rId981"/>
+    <hyperlink ref="F993" r:id="rId982"/>
+    <hyperlink ref="F994" r:id="rId983"/>
+    <hyperlink ref="F995" r:id="rId984"/>
+    <hyperlink ref="F996" r:id="rId985"/>
+    <hyperlink ref="F997" r:id="rId986"/>
+    <hyperlink ref="F998" r:id="rId987"/>
+    <hyperlink ref="F999" r:id="rId988"/>
+    <hyperlink ref="F1000" r:id="rId989"/>
+    <hyperlink ref="F1001" r:id="rId990"/>
+    <hyperlink ref="F1002" r:id="rId991"/>
+    <hyperlink ref="F1003" r:id="rId992"/>
+    <hyperlink ref="F1004" r:id="rId993"/>
+    <hyperlink ref="F1005" r:id="rId994"/>
+    <hyperlink ref="F1006" r:id="rId995"/>
+    <hyperlink ref="F1007" r:id="rId996"/>
+    <hyperlink ref="F1008" r:id="rId997"/>
+    <hyperlink ref="F1009" r:id="rId998"/>
+    <hyperlink ref="F1010" r:id="rId999"/>
+    <hyperlink ref="F1011" r:id="rId1000"/>
+    <hyperlink ref="F1012" r:id="rId1001"/>
+    <hyperlink ref="F1013" r:id="rId1002"/>
+    <hyperlink ref="F1014" r:id="rId1003"/>
+    <hyperlink ref="F1015" r:id="rId1004"/>
+    <hyperlink ref="F1016" r:id="rId1005"/>
+    <hyperlink ref="F1017" r:id="rId1006"/>
+    <hyperlink ref="F1018" r:id="rId1007"/>
+    <hyperlink ref="F1019" r:id="rId1008"/>
+    <hyperlink ref="F1020" r:id="rId1009"/>
+    <hyperlink ref="F1021" r:id="rId1010"/>
+    <hyperlink ref="F1022" r:id="rId1011"/>
+    <hyperlink ref="F1023" r:id="rId1012"/>
+    <hyperlink ref="F1024" r:id="rId1013"/>
+    <hyperlink ref="F1025" r:id="rId1014"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId979"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1015"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1017</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1071</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="2083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4452" uniqueCount="2175">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8359,6 +8359,374 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/ZvUPYOn6_uel2BF6DDMRrA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熬过深宫十几载，深度学习上位这五年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/r6Dnv3v6TYwTsAQJTDR0Mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯 | 量子技术正在哪些领域颠覆科技？量子技术国际会议上的五个爆点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/aRmTp5jHmFWqy92fbbdLwA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位情报局 | 地平线、开数科技、法海风控等相关职位招聘ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Jzh0VCFKRVwzyGxdR3biKA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手把手 | 嫌Python太慢？并行运算Process Pools三行代码给你4倍提速！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/QIfxxY6z7y77RDE_8gDEIg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 21世纪的希特勒？我为什么认为AI驱动型政府将成为民主威胁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Fwxj5e3lQk2d5cGEwhdVgw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开课打怪团 | AI下一个风口：无监督学习最新论文解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/UN407qb4BtzbmQUO75fNMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入浅出：GAN原理与应用入门介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YnOF9CCUFvtaiTY8HXYOuw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 微软推出深度学习加速平台「Project Brainwave」：FPGA驱动实时人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/wm1g-VpAyGN0MRaeJ-m1hQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 腾讯音视频实验室Interspeech 2017论文：单通道语音分离中应用深度神经网络的训练优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/H6LrwV9Sc25syHUvz8n5MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 诞生5个AI项目的DeeCamp结束后，创新工场人工智能工程院副院长王咏刚这样说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/IIWJYoauSQBDKV700Rka0g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 香港科技大学提出L2T框架：学习如何迁移学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/fEKc6yFZwTPAHjXJlcHA-w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeff Dean「Hot Chips 2017」演讲：AI对计算机系统设计的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kOCftzSbHe2mvDmlRp-ihA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访 | 「​可爱少女」微软小冰将走向商业化，沈向洋说：微软的战略是云+人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/mtq3RZuVo1yxeJbJQMOL4w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 苹果机器学习期刊「Siri三部曲」之一：通过跨带宽和跨语言初始化提升神经网络声学模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/pimQBFd5uxrZk4dSgUsblg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 阿里IJCAI 2017 Workshop论文：使用深度强化学习方法求解一类新型三维装箱问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YQpuYuzk0jv5OngH5u8bEg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 如何在浏览器使用synaptic.js训练简单的神经网络推荐系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-39_7SbRFChDOOpcpJjVMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害！陌陌主播年收入1600万，比沉溺于约炮的白领们的公司收入还要多！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-CsY1T4jSvcb0kjm_-GcAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜何恺明2017CVPR大会上演讲PPT,非常适合ResNet学习者！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_-SmR628nJMwAkv8MdEBnw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习编译器TVM：自动生成硬件优化内核！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ilWWqOp0dD_upYi5w38uxw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲剧！海归留学花费超100万，月薪不到6000元！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/KTJOtD3VmyyYOJ6IerFpDQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方数智举行成立仪式 开启人工智能“全明星IP”计划！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/69YZA7sdVA2TOfWBhj7Jyw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差距！美国包揽全球Top10的AI名校，中国无一所！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vGo4rc8M_fK0DV6JVUHgXw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源｜MIT的周博磊和FAIR的何恺明演讲视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ax2hf3G7DbpqXnvaZubyPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜深度强化学习(DRL)的3大核心算法和7大挑战内容！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qSDsHxUGjppyLZN3hA28zQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学脑机接口实验室：可用意念玩微信！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/22BfDX2UaxQSV8jcqKd8Aw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13岁造飞机，17岁进MIT，22岁到哈佛读博，她被称“下一个爱因斯坦”！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AGpsijfkMAaHFcQ-bDbCyw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YC夏季DemoDay 50项目路演：7大最性感idea，AI占绝对主流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9fUpaTQz1daALwGJ7om48w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【专访】KDD2018主席熊辉教授：数据挖掘与深度学习结合新趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1B0bAFDBNvWW-kUAiLffIw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE预发：DeepMind主攻的深度强化学习3大核心算法及7大挑战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-JHHOQPB6pKVuge64NkMuQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【阿里与亚马逊必有一战？】4千亿美元俱乐部不再是美国公司专属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/pg10ueJCG90VXY6fQF0YGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【最前沿】百家争鸣的Meta Learning，通用人工智能关键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1ofcX4_zIt2edxiRNf8bkQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【深度学习创作】用《权力的游戏》前五部训练RNN生成第六部（原理解析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/TfKSLyBm3uLQ9rORXGscrw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【深度学习预测极端天气】更好捕捉台风“天鸽”轨迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/X91Gf-lpHIMyDTZO6hKaUQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【资源】深度学习图像处理项目集锦：生成可爱的动漫头像，骡子变斑马等入选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/88tBoAVziGEFXIGfvZZp8g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【杀人机器之争】卫报评马斯克等116名AI专家呼吁禁止“杀手机器人”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Z57Cy3-X7yxmubn-v9cP7Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【融资愈艰】初创公司必须考虑的三件事，1万多轮融资数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/I6JeN_Qajut7CyXye4MDWw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧透！十月，福州，300位计算机大牛带你体验“人工智能改变世界”| CNCC 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/aCT6Pt_m7Pqq2ueaak-UzA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅 | 华人第一位！杨强教授当选 IJCAI 2019 理事会主席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/T6-HaJAj0LQuYdRn_xT6_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 一文看懂谷歌 NYC 算法与优化业务全景（附重点论文下载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/5cZCgtPEdzoV2L6psSSqSw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 如何让医学图像诊断网络具备可解释性？CVPR oral 作者张子钊详解 MDNet 技术细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/rJpVs6n-f92ahtoRXnapAw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 小白学CNN以及Keras的速成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/SQPmNBHGDalU8OPio7_gLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDD Cup 2017双料冠军是如何炼成的？我们向Convolution团队讨教了他们的“成功方法论”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/49p8yxvxrKBYhT-1NqPMEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 迁移学习效果优化不再是难题，杨强教授团队带来自动找到最佳算法的L2T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/h2Ubz9g3MTx-IBxO5OZRdQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 腾讯论文入选Interspeech 2017：在单通道语音分离中应用的深度神经网路的训练优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/DrLdc_IrN1F22i3QuPXdZg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 如何利用 TVM 优化深度学习GPU op？教你用几十行Python代码实现2-3倍提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/IdorYFKQi1dbvTuMQJlgEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | CV学术与工业的深度碰撞，“GAIR大讲堂CVPR哈工大深圳专场”你绝不能错过！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/pz_cswq9F84EwXhj_d65nA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9244,6 +9612,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9271,27 +9675,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9299,21 +9682,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9699,23 +10067,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42969</v>
+        <v>42971</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="66" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
         <v>NSNG第34周行业资讯</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -9726,22 +10094,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="60" t="str">
+      <c r="C5" s="72" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -9767,61 +10135,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="57" t="str">
+      <c r="B7" s="69" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="70" t="str">
+      <c r="B8" s="61" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="69" t="str">
+      <c r="C10" s="60" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="60" t="str">
+      <c r="C11" s="72" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -9848,60 +10216,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="57" t="str">
+      <c r="B13" s="69" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="70" t="str">
+      <c r="B14" s="61" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="69" t="str">
+      <c r="C16" s="60" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="60" t="str">
+      <c r="C17" s="72" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -9927,60 +10295,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="57" t="str">
+      <c r="B19" s="69" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="70" t="str">
+      <c r="B20" s="61" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="69" t="str">
+      <c r="C22" s="60" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="60" t="str">
+      <c r="C23" s="72" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -10006,60 +10374,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="57" t="str">
+      <c r="B25" s="69" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="70" t="str">
+      <c r="B26" s="61" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="69" t="str">
+      <c r="C28" s="60" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="60" t="str">
+      <c r="C29" s="72" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -10085,60 +10453,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="57" t="str">
+      <c r="B31" s="69" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="70" t="str">
+      <c r="B32" s="61" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="69" t="str">
+      <c r="C34" s="60" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="60" t="str">
+      <c r="C35" s="72" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="74"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -10164,60 +10532,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="57" t="str">
+      <c r="B37" s="69" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="70" t="str">
+      <c r="B38" s="61" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="69" t="str">
+      <c r="C40" s="60" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="60" t="str">
+      <c r="C41" s="72" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="62"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="74"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -10243,60 +10611,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="57" t="str">
+      <c r="B43" s="69" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="70" t="str">
+      <c r="B44" s="61" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="69" t="str">
+      <c r="C46" s="60" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="65"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="60" t="str">
+      <c r="C47" s="72" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="62"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="74"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -10322,60 +10690,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="57" t="str">
+      <c r="B49" s="69" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="70" t="str">
+      <c r="B50" s="61" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="72"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="68"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="69" t="str">
+      <c r="C52" s="60" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="77"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="60" t="str">
+      <c r="C53" s="72" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="62"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="74"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -10401,60 +10769,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="57" t="str">
+      <c r="B55" s="69" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="59"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="71"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="70" t="str">
+      <c r="B56" s="61" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="72"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="66"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="68"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="59"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="69" t="str">
+      <c r="C58" s="60" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="77"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="60" t="str">
+      <c r="C59" s="72" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="62"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="74"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -10480,60 +10848,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="57" t="str">
+      <c r="B61" s="69" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="59"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="71"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="70" t="str">
+      <c r="B62" s="61" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="72"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="68"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="59"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="69" t="str">
+      <c r="C64" s="60" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="69"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="77"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="60" t="str">
+      <c r="C65" s="72" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="74"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -10559,60 +10927,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="57" t="str">
+      <c r="B67" s="69" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="59"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="70" t="str">
+      <c r="B68" s="61" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="72"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="66"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="68"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="59"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="69" t="str">
+      <c r="C70" s="60" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="69"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="65"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="77"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="60" t="str">
+      <c r="C71" s="72" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="62"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="74"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -10638,60 +11006,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="57" t="str">
+      <c r="B73" s="69" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="59"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="70" t="str">
+      <c r="B74" s="61" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="72"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="66"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="68"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="59"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="69" t="str">
+      <c r="C76" s="60" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="69"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="77"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="60" t="str">
+      <c r="C77" s="72" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="62"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="74"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -10717,60 +11085,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="57" t="str">
+      <c r="B79" s="69" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="59"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="71"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="70" t="str">
+      <c r="B80" s="61" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="72"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="66"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="68"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="59"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="69" t="str">
+      <c r="C82" s="60" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="69"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="65"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="77"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="60" t="str">
+      <c r="C83" s="72" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="62"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="74"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -10796,60 +11164,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="57" t="str">
+      <c r="B85" s="69" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="59"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="71"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="70" t="str">
+      <c r="B86" s="61" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="72"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="66"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="68"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="59"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="69" t="str">
+      <c r="C88" s="60" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="69"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="65"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="77"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="60" t="str">
+      <c r="C89" s="72" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="62"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="74"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -10875,60 +11243,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="57" t="str">
+      <c r="B91" s="69" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="59"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="71"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="70" t="str">
+      <c r="B92" s="61" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="72"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="63"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="66"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="68"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="59"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="69" t="str">
+      <c r="C94" s="60" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="69"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="65"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="77"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="60" t="str">
+      <c r="C95" s="72" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="62"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="74"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -10954,60 +11322,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="57" t="str">
+      <c r="B97" s="69" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="58"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="59"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="71"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="70" t="str">
+      <c r="B98" s="61" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="72"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="63"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="66"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="68"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="59"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="69" t="str">
+      <c r="C100" s="60" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="69"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="65"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="77"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="60" t="str">
+      <c r="C101" s="72" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="62"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="74"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -11033,60 +11401,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="57" t="str">
+      <c r="B103" s="69" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="59"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="71"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="70" t="str">
+      <c r="B104" s="61" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="71"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="72"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="63"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="66"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="68"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="59"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="69" t="str">
+      <c r="C106" s="60" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="69"/>
-      <c r="E106" s="63"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="65"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="77"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="60" t="str">
+      <c r="C107" s="72" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="61"/>
-      <c r="E107" s="61"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="62"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="74"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -11112,60 +11480,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="57" t="str">
+      <c r="B109" s="69" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="58"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="59"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="71"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="70" t="str">
+      <c r="B110" s="61" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="71"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="72"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="63"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="66"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="68"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="59"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="69" t="str">
+      <c r="C112" s="60" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="69"/>
-      <c r="E112" s="63"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="77"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="60" t="str">
+      <c r="C113" s="72" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="61"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="62"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="74"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -11191,60 +11559,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="57" t="str">
+      <c r="B115" s="69" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="59"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="71"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="70" t="str">
+      <c r="B116" s="61" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="71"/>
-      <c r="D116" s="71"/>
-      <c r="E116" s="71"/>
-      <c r="F116" s="71"/>
-      <c r="G116" s="72"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="63"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="66"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="68"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="59"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="69" t="str">
+      <c r="C118" s="60" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="69"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="65"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="75"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="77"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="60" t="str">
+      <c r="C119" s="72" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="61"/>
-      <c r="E119" s="61"/>
-      <c r="F119" s="61"/>
-      <c r="G119" s="62"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="74"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -11270,60 +11638,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="57" t="str">
+      <c r="B121" s="69" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="58"/>
-      <c r="D121" s="58"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="59"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="71"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="70" t="str">
+      <c r="B122" s="61" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="71"/>
-      <c r="D122" s="71"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="72"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="63"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="66"/>
-      <c r="C123" s="67"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="68"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="58"/>
+      <c r="G123" s="59"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="69" t="str">
+      <c r="C124" s="60" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="69"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="64"/>
-      <c r="G124" s="65"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="75"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="77"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="60" t="str">
+      <c r="C125" s="72" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="61"/>
-      <c r="E125" s="61"/>
-      <c r="F125" s="61"/>
-      <c r="G125" s="62"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="73"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="74"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -11349,60 +11717,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="57" t="str">
+      <c r="B127" s="69" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="59"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="70"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="71"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="70" t="str">
+      <c r="B128" s="61" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="71"/>
-      <c r="D128" s="71"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="71"/>
-      <c r="G128" s="72"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="66"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="68"/>
+      <c r="B129" s="57"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="59"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="69" t="str">
+      <c r="C130" s="60" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="69"/>
-      <c r="E130" s="63"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="65"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="75"/>
+      <c r="F130" s="76"/>
+      <c r="G130" s="77"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="60" t="str">
+      <c r="C131" s="72" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="61"/>
-      <c r="E131" s="61"/>
-      <c r="F131" s="61"/>
-      <c r="G131" s="62"/>
+      <c r="D131" s="73"/>
+      <c r="E131" s="73"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="74"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -11428,60 +11796,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="57" t="str">
+      <c r="B133" s="69" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="58"/>
-      <c r="G133" s="59"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="70"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="71"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="70" t="str">
+      <c r="B134" s="61" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="72"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="62"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="62"/>
+      <c r="G134" s="63"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="66"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="68"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="58"/>
+      <c r="F135" s="58"/>
+      <c r="G135" s="59"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="69" t="str">
+      <c r="C136" s="60" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="69"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="65"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="75"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="77"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="60" t="str">
+      <c r="C137" s="72" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="61"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="61"/>
-      <c r="G137" s="62"/>
+      <c r="D137" s="73"/>
+      <c r="E137" s="73"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="74"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -11507,60 +11875,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="57" t="str">
+      <c r="B139" s="69" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="58"/>
-      <c r="D139" s="58"/>
-      <c r="E139" s="58"/>
-      <c r="F139" s="58"/>
-      <c r="G139" s="59"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="71"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="70" t="str">
+      <c r="B140" s="61" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="71"/>
-      <c r="D140" s="71"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="72"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="63"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="66"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="68"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="58"/>
+      <c r="F141" s="58"/>
+      <c r="G141" s="59"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="69" t="str">
+      <c r="C142" s="60" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="69"/>
-      <c r="E142" s="63"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="65"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="75"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="77"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="60" t="str">
+      <c r="C143" s="72" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="62"/>
+      <c r="D143" s="73"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="74"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -11586,60 +11954,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="57" t="str">
+      <c r="B145" s="69" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
-      <c r="F145" s="58"/>
-      <c r="G145" s="59"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="70"/>
+      <c r="F145" s="70"/>
+      <c r="G145" s="71"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="70" t="str">
+      <c r="B146" s="61" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="71"/>
-      <c r="D146" s="71"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="72"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="63"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="66"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="68"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="58"/>
+      <c r="G147" s="59"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="69" t="str">
+      <c r="C148" s="60" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="69"/>
-      <c r="E148" s="63"/>
-      <c r="F148" s="64"/>
-      <c r="G148" s="65"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="75"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="77"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="60" t="str">
+      <c r="C149" s="72" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="61"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="61"/>
-      <c r="G149" s="62"/>
+      <c r="D149" s="73"/>
+      <c r="E149" s="73"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="74"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -11665,60 +12033,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="57" t="str">
+      <c r="B151" s="69" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="58"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="58"/>
-      <c r="F151" s="58"/>
-      <c r="G151" s="59"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="70"/>
+      <c r="E151" s="70"/>
+      <c r="F151" s="70"/>
+      <c r="G151" s="71"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="70" t="str">
+      <c r="B152" s="61" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="72"/>
+      <c r="C152" s="62"/>
+      <c r="D152" s="62"/>
+      <c r="E152" s="62"/>
+      <c r="F152" s="62"/>
+      <c r="G152" s="63"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="66"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="68"/>
+      <c r="B153" s="57"/>
+      <c r="C153" s="58"/>
+      <c r="D153" s="58"/>
+      <c r="E153" s="58"/>
+      <c r="F153" s="58"/>
+      <c r="G153" s="59"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="69" t="str">
+      <c r="C154" s="60" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="69"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="65"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="75"/>
+      <c r="F154" s="76"/>
+      <c r="G154" s="77"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="60" t="str">
+      <c r="C155" s="72" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="61"/>
-      <c r="E155" s="61"/>
-      <c r="F155" s="61"/>
-      <c r="G155" s="62"/>
+      <c r="D155" s="73"/>
+      <c r="E155" s="73"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="74"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -11744,60 +12112,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="57" t="str">
+      <c r="B157" s="69" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="58"/>
-      <c r="F157" s="58"/>
-      <c r="G157" s="59"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="71"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="70" t="str">
+      <c r="B158" s="61" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="71"/>
-      <c r="D158" s="71"/>
-      <c r="E158" s="71"/>
-      <c r="F158" s="71"/>
-      <c r="G158" s="72"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="62"/>
+      <c r="E158" s="62"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="63"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="66"/>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="68"/>
+      <c r="B159" s="57"/>
+      <c r="C159" s="58"/>
+      <c r="D159" s="58"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="58"/>
+      <c r="G159" s="59"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="69" t="str">
+      <c r="C160" s="60" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="69"/>
-      <c r="E160" s="63"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="65"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="75"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="77"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="60" t="str">
+      <c r="C161" s="72" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="61"/>
-      <c r="E161" s="61"/>
-      <c r="F161" s="61"/>
-      <c r="G161" s="62"/>
+      <c r="D161" s="73"/>
+      <c r="E161" s="73"/>
+      <c r="F161" s="73"/>
+      <c r="G161" s="74"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -11823,60 +12191,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="57" t="str">
+      <c r="B163" s="69" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="58"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="58"/>
-      <c r="F163" s="58"/>
-      <c r="G163" s="59"/>
+      <c r="C163" s="70"/>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70"/>
+      <c r="F163" s="70"/>
+      <c r="G163" s="71"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="70" t="str">
+      <c r="B164" s="61" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="71"/>
-      <c r="D164" s="71"/>
-      <c r="E164" s="71"/>
-      <c r="F164" s="71"/>
-      <c r="G164" s="72"/>
+      <c r="C164" s="62"/>
+      <c r="D164" s="62"/>
+      <c r="E164" s="62"/>
+      <c r="F164" s="62"/>
+      <c r="G164" s="63"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="66"/>
-      <c r="C165" s="67"/>
-      <c r="D165" s="67"/>
-      <c r="E165" s="67"/>
-      <c r="F165" s="67"/>
-      <c r="G165" s="68"/>
+      <c r="B165" s="57"/>
+      <c r="C165" s="58"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="58"/>
+      <c r="F165" s="58"/>
+      <c r="G165" s="59"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="69" t="str">
+      <c r="C166" s="60" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="69"/>
-      <c r="E166" s="63"/>
-      <c r="F166" s="64"/>
-      <c r="G166" s="65"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="75"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="77"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="60" t="str">
+      <c r="C167" s="72" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="61"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="61"/>
-      <c r="G167" s="62"/>
+      <c r="D167" s="73"/>
+      <c r="E167" s="73"/>
+      <c r="F167" s="73"/>
+      <c r="G167" s="74"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -11902,60 +12270,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="57" t="str">
+      <c r="B169" s="69" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="59"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70"/>
+      <c r="G169" s="71"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="70" t="str">
+      <c r="B170" s="61" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="71"/>
-      <c r="D170" s="71"/>
-      <c r="E170" s="71"/>
-      <c r="F170" s="71"/>
-      <c r="G170" s="72"/>
+      <c r="C170" s="62"/>
+      <c r="D170" s="62"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="63"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="66"/>
-      <c r="C171" s="67"/>
-      <c r="D171" s="67"/>
-      <c r="E171" s="67"/>
-      <c r="F171" s="67"/>
-      <c r="G171" s="68"/>
+      <c r="B171" s="57"/>
+      <c r="C171" s="58"/>
+      <c r="D171" s="58"/>
+      <c r="E171" s="58"/>
+      <c r="F171" s="58"/>
+      <c r="G171" s="59"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="69" t="str">
+      <c r="C172" s="60" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="69"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="64"/>
-      <c r="G172" s="65"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="77"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="60" t="str">
+      <c r="C173" s="72" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="61"/>
-      <c r="E173" s="61"/>
-      <c r="F173" s="61"/>
-      <c r="G173" s="62"/>
+      <c r="D173" s="73"/>
+      <c r="E173" s="73"/>
+      <c r="F173" s="73"/>
+      <c r="G173" s="74"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -11981,60 +12349,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="57" t="str">
+      <c r="B175" s="69" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="58"/>
-      <c r="D175" s="58"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="58"/>
-      <c r="G175" s="59"/>
+      <c r="C175" s="70"/>
+      <c r="D175" s="70"/>
+      <c r="E175" s="70"/>
+      <c r="F175" s="70"/>
+      <c r="G175" s="71"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="70" t="str">
+      <c r="B176" s="61" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="71"/>
-      <c r="D176" s="71"/>
-      <c r="E176" s="71"/>
-      <c r="F176" s="71"/>
-      <c r="G176" s="72"/>
+      <c r="C176" s="62"/>
+      <c r="D176" s="62"/>
+      <c r="E176" s="62"/>
+      <c r="F176" s="62"/>
+      <c r="G176" s="63"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="66"/>
-      <c r="C177" s="67"/>
-      <c r="D177" s="67"/>
-      <c r="E177" s="67"/>
-      <c r="F177" s="67"/>
-      <c r="G177" s="68"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="59"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="69" t="str">
+      <c r="C178" s="60" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="69"/>
-      <c r="E178" s="63"/>
-      <c r="F178" s="64"/>
-      <c r="G178" s="65"/>
+      <c r="D178" s="60"/>
+      <c r="E178" s="75"/>
+      <c r="F178" s="76"/>
+      <c r="G178" s="77"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="60" t="str">
+      <c r="C179" s="72" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="61"/>
-      <c r="E179" s="61"/>
-      <c r="F179" s="61"/>
-      <c r="G179" s="62"/>
+      <c r="D179" s="73"/>
+      <c r="E179" s="73"/>
+      <c r="F179" s="73"/>
+      <c r="G179" s="74"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -12060,124 +12428,107 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="57" t="str">
+      <c r="B181" s="69" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="58"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="59"/>
+      <c r="C181" s="70"/>
+      <c r="D181" s="70"/>
+      <c r="E181" s="70"/>
+      <c r="F181" s="70"/>
+      <c r="G181" s="71"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="70" t="str">
+      <c r="B182" s="61" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="71"/>
-      <c r="D182" s="71"/>
-      <c r="E182" s="71"/>
-      <c r="F182" s="71"/>
-      <c r="G182" s="72"/>
+      <c r="C182" s="62"/>
+      <c r="D182" s="62"/>
+      <c r="E182" s="62"/>
+      <c r="F182" s="62"/>
+      <c r="G182" s="63"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="73"/>
-      <c r="C183" s="74"/>
-      <c r="D183" s="74"/>
-      <c r="E183" s="74"/>
-      <c r="F183" s="74"/>
-      <c r="G183" s="75"/>
+      <c r="B183" s="78"/>
+      <c r="C183" s="79"/>
+      <c r="D183" s="79"/>
+      <c r="E183" s="79"/>
+      <c r="F183" s="79"/>
+      <c r="G183" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="C95:G95"/>
@@ -12202,76 +12553,93 @@
     <mergeCell ref="E106:G106"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="E142:G142"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="C137:G137"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18765,10 +19133,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1025"/>
+  <dimension ref="A1:AB1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B978" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E1027" sqref="E1027"/>
+    <sheetView tabSelected="1" topLeftCell="B1056" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F1068" sqref="F1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19550,7 +19918,7 @@
       <c r="AA20" s="47"/>
       <c r="AB20" s="47"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="45">
         <v>42923</v>
@@ -19590,7 +19958,7 @@
       <c r="AA21" s="47"/>
       <c r="AB21" s="47"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="45">
         <v>42923</v>
@@ -19630,7 +19998,7 @@
       <c r="AA22" s="47"/>
       <c r="AB22" s="47"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="45">
         <v>42923</v>
@@ -19670,7 +20038,7 @@
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="45">
         <v>42923</v>
@@ -19710,7 +20078,7 @@
       <c r="AA24" s="47"/>
       <c r="AB24" s="47"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="45">
         <v>42923</v>
@@ -19750,7 +20118,7 @@
       <c r="AA25" s="47"/>
       <c r="AB25" s="47"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="45">
         <v>42923</v>
@@ -19790,7 +20158,7 @@
       <c r="AA26" s="47"/>
       <c r="AB26" s="47"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="33"/>
       <c r="B27" s="45">
         <v>42923</v>
@@ -20228,7 +20596,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="33"/>
       <c r="B52" s="45">
         <v>42924</v>
@@ -20246,7 +20614,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="45">
         <v>42924</v>
@@ -20534,7 +20902,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="33"/>
       <c r="B69" s="45">
         <v>42925</v>
@@ -20552,7 +20920,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="33"/>
       <c r="B70" s="45">
         <v>42925</v>
@@ -20570,7 +20938,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="33"/>
       <c r="B71" s="45">
         <v>42925</v>
@@ -20894,7 +21262,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="33"/>
       <c r="B89" s="45">
         <v>42926</v>
@@ -20912,7 +21280,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="33"/>
       <c r="B90" s="45">
         <v>42926</v>
@@ -20930,7 +21298,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="33"/>
       <c r="B91" s="45">
         <v>42926</v>
@@ -21415,7 +21783,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B119" s="45">
         <v>42927</v>
       </c>
@@ -21432,7 +21800,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B120" s="45">
         <v>42927</v>
       </c>
@@ -21449,7 +21817,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B121" s="45">
         <v>42927</v>
       </c>
@@ -21466,7 +21834,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B122" s="45">
         <v>42927</v>
       </c>
@@ -21704,7 +22072,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="45">
         <v>42928</v>
       </c>
@@ -21721,7 +22089,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B137" s="45">
         <v>42928</v>
       </c>
@@ -21738,7 +22106,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B138" s="45">
         <v>42928</v>
       </c>
@@ -21755,7 +22123,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B139" s="45">
         <v>42928</v>
       </c>
@@ -22061,7 +22429,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B157" s="45">
         <v>42929</v>
       </c>
@@ -22078,7 +22446,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B158" s="45">
         <v>42929</v>
       </c>
@@ -22095,7 +22463,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B159" s="45">
         <v>42929</v>
       </c>
@@ -22112,7 +22480,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="45">
         <v>42929</v>
       </c>
@@ -22809,7 +23177,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B201" s="45">
         <v>42930</v>
       </c>
@@ -22826,7 +23194,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B202" s="45">
         <v>42930</v>
       </c>
@@ -22843,7 +23211,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B203" s="45">
         <v>42930</v>
       </c>
@@ -22860,7 +23228,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B204" s="45">
         <v>42930</v>
       </c>
@@ -22877,7 +23245,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B205" s="45">
         <v>42931</v>
       </c>
@@ -22894,7 +23262,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B206" s="45">
         <v>42931</v>
       </c>
@@ -22911,7 +23279,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B207" s="45">
         <v>42931</v>
       </c>
@@ -23217,7 +23585,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B225" s="45">
         <v>42932</v>
       </c>
@@ -23234,7 +23602,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B226" s="45">
         <v>42932</v>
       </c>
@@ -23251,7 +23619,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B227" s="45">
         <v>42932</v>
       </c>
@@ -23557,7 +23925,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B245" s="45">
         <v>42933</v>
       </c>
@@ -23574,7 +23942,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B246" s="45">
         <v>42933</v>
       </c>
@@ -23591,7 +23959,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B247" s="45">
         <v>42933</v>
       </c>
@@ -23608,7 +23976,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B248" s="45">
         <v>42933</v>
       </c>
@@ -23931,7 +24299,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B267" s="45">
         <v>42934</v>
       </c>
@@ -23948,7 +24316,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B268" s="45">
         <v>42934</v>
       </c>
@@ -23965,7 +24333,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B269" s="45">
         <v>42934</v>
       </c>
@@ -23982,7 +24350,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B270" s="45">
         <v>42934</v>
       </c>
@@ -24288,7 +24656,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B288" s="45">
         <v>42935</v>
       </c>
@@ -24305,7 +24673,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B289" s="45">
         <v>42935</v>
       </c>
@@ -24322,7 +24690,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B290" s="45">
         <v>42935</v>
       </c>
@@ -24339,7 +24707,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B291" s="45">
         <v>42935</v>
       </c>
@@ -24356,7 +24724,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B292" s="45">
         <v>42935</v>
       </c>
@@ -24696,7 +25064,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B312" s="45">
         <v>42936</v>
       </c>
@@ -24713,7 +25081,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B313" s="45">
         <v>42936</v>
       </c>
@@ -24730,7 +25098,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B314" s="45">
         <v>42936</v>
       </c>
@@ -24747,7 +25115,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B315" s="45">
         <v>42936</v>
       </c>
@@ -24951,7 +25319,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B327" s="45">
         <v>42937</v>
       </c>
@@ -24968,7 +25336,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B328" s="45">
         <v>42937</v>
       </c>
@@ -24985,7 +25353,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B329" s="45">
         <v>42937</v>
       </c>
@@ -25002,7 +25370,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B330" s="45">
         <v>42937</v>
       </c>
@@ -25461,7 +25829,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B357" s="45">
         <v>42938</v>
       </c>
@@ -25479,7 +25847,7 @@
       </c>
       <c r="G357" s="56"/>
     </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B358" s="45">
         <v>42938</v>
       </c>
@@ -25496,7 +25864,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B359" s="45">
         <v>42938</v>
       </c>
@@ -25513,7 +25881,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B360" s="45">
         <v>42938</v>
       </c>
@@ -26023,7 +26391,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B390" s="45">
         <v>42939</v>
       </c>
@@ -26040,7 +26408,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B391" s="45">
         <v>42939</v>
       </c>
@@ -26057,7 +26425,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B392" s="45">
         <v>42939</v>
       </c>
@@ -26074,7 +26442,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B393" s="45">
         <v>42940</v>
       </c>
@@ -26091,7 +26459,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B394" s="45">
         <v>42940</v>
       </c>
@@ -26108,7 +26476,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B395" s="45">
         <v>42940</v>
       </c>
@@ -26125,7 +26493,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B396" s="45">
         <v>42940</v>
       </c>
@@ -26142,7 +26510,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B397" s="45">
         <v>42940</v>
       </c>
@@ -26482,7 +26850,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B417" s="45">
         <v>42941</v>
       </c>
@@ -26499,7 +26867,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B418" s="45">
         <v>42941</v>
       </c>
@@ -26516,7 +26884,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B419" s="45">
         <v>42941</v>
       </c>
@@ -26533,7 +26901,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B420" s="45">
         <v>42941</v>
       </c>
@@ -26550,7 +26918,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B421" s="45">
         <v>42941</v>
       </c>
@@ -28488,7 +28856,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B535" s="45">
         <v>42942</v>
       </c>
@@ -28505,7 +28873,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B536" s="45">
         <v>42942</v>
       </c>
@@ -28522,7 +28890,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B537" s="45">
         <v>42942</v>
       </c>
@@ -28539,7 +28907,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B538" s="45">
         <v>42942</v>
       </c>
@@ -28556,7 +28924,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B539" s="45">
         <v>42943</v>
       </c>
@@ -28573,7 +28941,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B540" s="45">
         <v>42943</v>
       </c>
@@ -28590,7 +28958,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B541" s="45">
         <v>42943</v>
       </c>
@@ -28607,7 +28975,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B542" s="45">
         <v>42943</v>
       </c>
@@ -28624,7 +28992,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B543" s="45">
         <v>42943</v>
       </c>
@@ -28641,7 +29009,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B544" s="45">
         <v>42944</v>
       </c>
@@ -28658,7 +29026,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B545" s="45">
         <v>42944</v>
       </c>
@@ -28675,7 +29043,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B546" s="45">
         <v>42944</v>
       </c>
@@ -28692,7 +29060,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B547" s="45">
         <v>42944</v>
       </c>
@@ -28709,7 +29077,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B548" s="45">
         <v>42944</v>
       </c>
@@ -28726,7 +29094,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B549" s="45">
         <v>42945</v>
       </c>
@@ -28743,7 +29111,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B550" s="45">
         <v>42945</v>
       </c>
@@ -28760,7 +29128,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B551" s="45">
         <v>42945</v>
       </c>
@@ -28777,7 +29145,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B552" s="45">
         <v>42945</v>
       </c>
@@ -28794,7 +29162,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B553" s="45">
         <v>42946</v>
       </c>
@@ -28811,7 +29179,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B554" s="45">
         <v>42946</v>
       </c>
@@ -28828,7 +29196,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B555" s="45">
         <v>42946</v>
       </c>
@@ -28845,7 +29213,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="556" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B556" s="45">
         <v>42946</v>
       </c>
@@ -28862,7 +29230,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B557" s="45">
         <v>42947</v>
       </c>
@@ -28879,7 +29247,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="558" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B558" s="45">
         <v>42947</v>
       </c>
@@ -28896,7 +29264,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B559" s="45">
         <v>42947</v>
       </c>
@@ -29134,7 +29502,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="573" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B573" s="45">
         <v>42948</v>
       </c>
@@ -29151,7 +29519,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="574" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B574" s="45">
         <v>42948</v>
       </c>
@@ -29168,7 +29536,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B575" s="45">
         <v>42948</v>
       </c>
@@ -29185,7 +29553,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B576" s="45">
         <v>42948</v>
       </c>
@@ -29508,7 +29876,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="595" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B595" s="45">
         <v>42949</v>
       </c>
@@ -29525,7 +29893,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="596" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B596" s="45">
         <v>42949</v>
       </c>
@@ -29542,7 +29910,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="597" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B597" s="45">
         <v>42949</v>
       </c>
@@ -29559,7 +29927,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="598" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B598" s="45">
         <v>42949</v>
       </c>
@@ -29576,7 +29944,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="599" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B599" s="45">
         <v>42949</v>
       </c>
@@ -30409,7 +30777,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="648" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="648" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B648" s="45">
         <v>42950</v>
       </c>
@@ -30426,7 +30794,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="649" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="649" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B649" s="45">
         <v>42950</v>
       </c>
@@ -30443,7 +30811,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="650" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="650" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B650" s="45">
         <v>42950</v>
       </c>
@@ -30460,7 +30828,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="651" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="651" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B651" s="45">
         <v>42950</v>
       </c>
@@ -30477,7 +30845,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="652" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="652" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B652" s="45">
         <v>42950</v>
       </c>
@@ -30494,7 +30862,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="653" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="653" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B653" s="45">
         <v>42951</v>
       </c>
@@ -30511,7 +30879,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="654" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="654" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B654" s="45">
         <v>42951</v>
       </c>
@@ -30528,7 +30896,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="655" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="655" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B655" s="45">
         <v>42951</v>
       </c>
@@ -30545,7 +30913,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="656" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="656" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B656" s="45">
         <v>42951</v>
       </c>
@@ -30562,7 +30930,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="657" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="657" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B657" s="45">
         <v>42951</v>
       </c>
@@ -30868,7 +31236,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="675" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B675" s="45">
         <v>42952</v>
       </c>
@@ -30885,7 +31253,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="676" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B676" s="45">
         <v>42952</v>
       </c>
@@ -30902,7 +31270,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="677" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B677" s="45">
         <v>42952</v>
       </c>
@@ -30919,7 +31287,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="678" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B678" s="45">
         <v>42952</v>
       </c>
@@ -30936,7 +31304,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="679" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B679" s="45">
         <v>42953</v>
       </c>
@@ -30953,7 +31321,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="680" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="680" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B680" s="45">
         <v>42953</v>
       </c>
@@ -30970,7 +31338,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="681" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="681" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B681" s="45">
         <v>42953</v>
       </c>
@@ -30987,7 +31355,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="682" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B682" s="45">
         <v>42953</v>
       </c>
@@ -31004,7 +31372,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="683" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="683" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B683" s="45">
         <v>42953</v>
       </c>
@@ -31276,7 +31644,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="699" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="699" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B699" s="45">
         <v>42954</v>
       </c>
@@ -31293,7 +31661,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="700" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="700" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B700" s="45">
         <v>42954</v>
       </c>
@@ -31310,7 +31678,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="701" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="701" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B701" s="45">
         <v>42954</v>
       </c>
@@ -31327,7 +31695,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="702" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="702" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B702" s="45">
         <v>42954</v>
       </c>
@@ -31344,7 +31712,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="703" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="703" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B703" s="45">
         <v>42954</v>
       </c>
@@ -31956,7 +32324,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="739" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="739" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B739" s="45">
         <v>42955</v>
       </c>
@@ -31973,7 +32341,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="740" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="740" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B740" s="45">
         <v>42955</v>
       </c>
@@ -31990,7 +32358,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="741" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="741" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B741" s="45">
         <v>42955</v>
       </c>
@@ -32007,7 +32375,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="742" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="742" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B742" s="45">
         <v>42955</v>
       </c>
@@ -32024,7 +32392,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="743" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="743" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B743" s="45">
         <v>42955</v>
       </c>
@@ -32041,7 +32409,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="744" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="744" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B744" s="45">
         <v>42956</v>
       </c>
@@ -32058,7 +32426,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="745" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="745" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B745" s="45">
         <v>42956</v>
       </c>
@@ -32075,7 +32443,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="746" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="746" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B746" s="45">
         <v>42956</v>
       </c>
@@ -32092,7 +32460,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="747" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="747" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B747" s="45">
         <v>42956</v>
       </c>
@@ -32109,7 +32477,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="748" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="748" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B748" s="45">
         <v>42956</v>
       </c>
@@ -32976,7 +33344,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="799" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="799" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B799" s="45">
         <v>42957</v>
       </c>
@@ -32993,7 +33361,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="800" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="800" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B800" s="45">
         <v>42957</v>
       </c>
@@ -33010,7 +33378,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="801" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="801" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B801" s="45">
         <v>42957</v>
       </c>
@@ -33027,7 +33395,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="802" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="802" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B802" s="45">
         <v>42957</v>
       </c>
@@ -33044,7 +33412,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="803" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="803" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B803" s="45">
         <v>42957</v>
       </c>
@@ -33061,7 +33429,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="804" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="804" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B804" s="45">
         <v>42958</v>
       </c>
@@ -33078,7 +33446,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="805" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="805" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B805" s="45">
         <v>42958</v>
       </c>
@@ -33095,7 +33463,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="806" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="806" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B806" s="45">
         <v>42958</v>
       </c>
@@ -33112,7 +33480,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="807" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="807" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B807" s="45">
         <v>42958</v>
       </c>
@@ -33367,7 +33735,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="822" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="822" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B822" s="45">
         <v>42959</v>
       </c>
@@ -33384,7 +33752,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="823" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="823" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B823" s="45">
         <v>42959</v>
       </c>
@@ -33401,7 +33769,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="824" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="824" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B824" s="45">
         <v>42959</v>
       </c>
@@ -33418,7 +33786,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="825" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="825" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B825" s="45">
         <v>42959</v>
       </c>
@@ -33605,7 +33973,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="836" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="836" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B836" s="45">
         <v>42960</v>
       </c>
@@ -33622,7 +33990,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="837" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="837" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B837" s="45">
         <v>42960</v>
       </c>
@@ -33639,7 +34007,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="838" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="838" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B838" s="45">
         <v>42960</v>
       </c>
@@ -33860,7 +34228,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="851" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="851" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B851" s="45">
         <v>42961</v>
       </c>
@@ -33877,7 +34245,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="852" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="852" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B852" s="45">
         <v>42961</v>
       </c>
@@ -34523,7 +34891,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="890" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="890" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B890" s="45">
         <v>42962</v>
       </c>
@@ -34540,7 +34908,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="891" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="891" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B891" s="45">
         <v>42962</v>
       </c>
@@ -34557,7 +34925,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="892" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="892" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B892" s="45">
         <v>42962</v>
       </c>
@@ -34574,7 +34942,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="893" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="893" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B893" s="45">
         <v>42962</v>
       </c>
@@ -34591,7 +34959,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="894" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="894" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B894" s="45">
         <v>42963</v>
       </c>
@@ -34608,7 +34976,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="895" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="895" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B895" s="45">
         <v>42963</v>
       </c>
@@ -34625,7 +34993,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="896" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="896" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B896" s="45">
         <v>42963</v>
       </c>
@@ -34642,7 +35010,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="897" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="897" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B897" s="45">
         <v>42963</v>
       </c>
@@ -34659,7 +35027,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="898" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="898" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B898" s="45">
         <v>42963</v>
       </c>
@@ -35917,7 +36285,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="972" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="972" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B972" s="45">
         <v>42964</v>
       </c>
@@ -35934,7 +36302,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="973" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="973" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B973" s="45">
         <v>42964</v>
       </c>
@@ -35951,7 +36319,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="974" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="974" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B974" s="45">
         <v>42964</v>
       </c>
@@ -35968,7 +36336,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="975" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="975" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B975" s="45">
         <v>42964</v>
       </c>
@@ -35985,7 +36353,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="976" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="976" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B976" s="45">
         <v>42965</v>
       </c>
@@ -36002,7 +36370,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="977" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="977" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B977" s="45">
         <v>42965</v>
       </c>
@@ -36019,7 +36387,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="978" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="978" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B978" s="45">
         <v>42965</v>
       </c>
@@ -36036,7 +36404,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="979" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="979" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B979" s="45">
         <v>42965</v>
       </c>
@@ -36053,7 +36421,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="980" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="980" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B980" s="45">
         <v>42965</v>
       </c>
@@ -36070,7 +36438,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="981" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="981" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B981" s="45">
         <v>42966</v>
       </c>
@@ -36087,7 +36455,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="982" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="982" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B982" s="45">
         <v>42966</v>
       </c>
@@ -36104,7 +36472,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="983" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="983" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B983" s="45">
         <v>42966</v>
       </c>
@@ -36121,7 +36489,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="984" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="984" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B984" s="45">
         <v>42966</v>
       </c>
@@ -36138,7 +36506,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="985" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="985" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B985" s="45">
         <v>42966</v>
       </c>
@@ -36155,7 +36523,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="986" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="986" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B986" s="45">
         <v>42967</v>
       </c>
@@ -36172,7 +36540,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="987" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="987" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B987" s="45">
         <v>42967</v>
       </c>
@@ -36189,7 +36557,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="988" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="988" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B988" s="45">
         <v>42967</v>
       </c>
@@ -36206,7 +36574,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="989" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="989" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B989" s="45">
         <v>42967</v>
       </c>
@@ -36699,7 +37067,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="1018" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1018" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1018" s="45">
         <v>42968</v>
       </c>
@@ -36716,7 +37084,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="1019" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1019" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1019" s="45">
         <v>42968</v>
       </c>
@@ -36733,7 +37101,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="1020" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1020" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1020" s="45">
         <v>42968</v>
       </c>
@@ -36750,7 +37118,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="1021" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1021" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1021" s="45">
         <v>42968</v>
       </c>
@@ -36767,7 +37135,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="1022" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1022" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1022" s="45">
         <v>42968</v>
       </c>
@@ -36784,7 +37152,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="1023" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1023" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1023" s="45">
         <v>42969</v>
       </c>
@@ -36801,7 +37169,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1024" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1024" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1024" s="45">
         <v>42969</v>
       </c>
@@ -36818,7 +37186,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="1025" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1025" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1025" s="45">
         <v>42969</v>
       </c>
@@ -36835,11 +37203,797 @@
         <v>2082</v>
       </c>
     </row>
+    <row r="1026" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1026" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1026" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1026" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F1026" s="56" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1027" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1027" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1027" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F1027" s="56" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1028" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1028" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1028" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F1028" s="56" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1029" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1029" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1029" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F1029" s="56" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1030" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1030" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1030" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1030" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1030" s="56" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1031" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1031" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1031" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F1031" s="56" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1032" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1032" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1032" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1032" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F1032" s="56" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1033" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1033" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1033" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1033" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F1033" s="56" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1034" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1034" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1034" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1034" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F1034" s="56" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1035" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1035" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1035" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1035" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F1035" s="56" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1036" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1036" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1036" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1036" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F1036" s="56" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1037" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1037" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1037" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1037" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F1037" s="56" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1038" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1038" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1038" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1038" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1038" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F1038" s="56" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1039" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1039" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1039" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1039" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F1039" s="56" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1040" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1040" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1040" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1040" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1040" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F1040" s="56" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1041" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1041" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1041" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1041" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F1041" s="56" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1042" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1042" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1042" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1042" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F1042" s="56" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1043" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1043" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1043" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1043" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F1043" s="56" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1044" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1044" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1044" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1044" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F1044" s="56" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1045" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1045" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1045" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1045" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F1045" s="56" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1046" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1046" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1046" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1046" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F1046" s="56" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1047" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1047" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1047" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1047" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F1047" s="56" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1048" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1048" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1048" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1048" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1048" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F1048" s="56" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1049" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1049" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1049" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1049" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F1049" s="56" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1050" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1050" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1050" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1050" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F1050" s="56" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1051" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1051" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1051" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1051" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F1051" s="56" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1052" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1052" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1052" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1052" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1052" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F1052" s="56" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1053" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1053" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1053" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1053" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F1053" s="56" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1054" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1054" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1054" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F1054" s="56" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1055" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1055" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1055" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1055" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1055" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F1055" s="56" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1056" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1056" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1056" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1056" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F1056" s="56" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1057" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1057" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1057" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1057" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1057" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F1057" s="56" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1058" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1058" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1058" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1058" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F1058" s="56" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1059" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1059" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1059" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1059" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1059" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F1059" s="56" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1060" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1060" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1060" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1060" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F1060" s="56" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1061" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1061" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1061" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1061" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F1061" s="56" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1062" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1062" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1062" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1062" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F1062" s="56" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1063" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1063" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1063" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1063" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F1063" s="56" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="1064" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1064" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1064" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1064" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1064" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F1064" s="56" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1065" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1065" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1065" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1065" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1065" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F1065" s="56" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1066" s="45">
+        <v>42970</v>
+      </c>
+      <c r="C1066" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1066" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1066" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F1066" s="56" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1067" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1067" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1067" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1067" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F1067" s="56" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1068" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1068" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1068" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1068" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1068" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F1068" s="56" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1069" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1069" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1069" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1069" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1069" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F1069" s="56" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1070" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1070" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1070" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1070" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1070" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F1070" s="56" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1071" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1071" s="45">
+        <v>42971</v>
+      </c>
+      <c r="C1071" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1071" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1071" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F1071" s="56" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1072" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D1072" s="33"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1017">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:F1071">
+    <filterColumn colId="1">
       <filters>
-        <filter val="AI科技评论"/>
+        <dateGroupItem year="2017" month="8" day="23" dateTimeGrouping="day"/>
+        <dateGroupItem year="2017" month="8" day="24" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -37870,9 +39024,55 @@
     <hyperlink ref="F1023" r:id="rId1012"/>
     <hyperlink ref="F1024" r:id="rId1013"/>
     <hyperlink ref="F1025" r:id="rId1014"/>
+    <hyperlink ref="F1026" r:id="rId1015"/>
+    <hyperlink ref="F1027" r:id="rId1016"/>
+    <hyperlink ref="F1028" r:id="rId1017"/>
+    <hyperlink ref="F1029" r:id="rId1018"/>
+    <hyperlink ref="F1030" r:id="rId1019"/>
+    <hyperlink ref="F1031" r:id="rId1020"/>
+    <hyperlink ref="F1032" r:id="rId1021"/>
+    <hyperlink ref="F1033" r:id="rId1022"/>
+    <hyperlink ref="F1034" r:id="rId1023"/>
+    <hyperlink ref="F1035" r:id="rId1024"/>
+    <hyperlink ref="F1036" r:id="rId1025"/>
+    <hyperlink ref="F1037" r:id="rId1026"/>
+    <hyperlink ref="F1038" r:id="rId1027"/>
+    <hyperlink ref="F1039" r:id="rId1028"/>
+    <hyperlink ref="F1040" r:id="rId1029"/>
+    <hyperlink ref="F1041" r:id="rId1030"/>
+    <hyperlink ref="F1042" r:id="rId1031"/>
+    <hyperlink ref="F1043" r:id="rId1032"/>
+    <hyperlink ref="F1044" r:id="rId1033"/>
+    <hyperlink ref="F1045" r:id="rId1034"/>
+    <hyperlink ref="F1046" r:id="rId1035"/>
+    <hyperlink ref="F1047" r:id="rId1036"/>
+    <hyperlink ref="F1048" r:id="rId1037"/>
+    <hyperlink ref="F1049" r:id="rId1038"/>
+    <hyperlink ref="F1050" r:id="rId1039"/>
+    <hyperlink ref="F1051" r:id="rId1040"/>
+    <hyperlink ref="F1052" r:id="rId1041"/>
+    <hyperlink ref="F1053" r:id="rId1042"/>
+    <hyperlink ref="F1054" r:id="rId1043"/>
+    <hyperlink ref="F1055" r:id="rId1044"/>
+    <hyperlink ref="F1056" r:id="rId1045"/>
+    <hyperlink ref="F1057" r:id="rId1046"/>
+    <hyperlink ref="F1058" r:id="rId1047"/>
+    <hyperlink ref="F1059" r:id="rId1048"/>
+    <hyperlink ref="F1060" r:id="rId1049"/>
+    <hyperlink ref="F1061" r:id="rId1050"/>
+    <hyperlink ref="F1062" r:id="rId1051"/>
+    <hyperlink ref="F1063" r:id="rId1052"/>
+    <hyperlink ref="F1064" r:id="rId1053"/>
+    <hyperlink ref="F1065" r:id="rId1054"/>
+    <hyperlink ref="F1066" r:id="rId1055"/>
+    <hyperlink ref="F1067" r:id="rId1056"/>
+    <hyperlink ref="F1068" r:id="rId1057"/>
+    <hyperlink ref="F1069" r:id="rId1058"/>
+    <hyperlink ref="F1070" r:id="rId1059"/>
+    <hyperlink ref="F1071" r:id="rId1060"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1015"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1061"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1209</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="2351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5004" uniqueCount="2451">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9431,6 +9431,406 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/QJwvjHJcnDtL_CtYDJAM3Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术牛逼也要懂点社交：数据科学家公司生存指南TOP30秘诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dY5WHJ88gqFc5OnLWOEzjw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI大事件 | 中国制造Bitmain进军深度学习芯片市场、时装界MNIST数据库发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ssLP-pdTtHhSMe0gmr-98g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geek Concert完美收官！极客精神未完待续……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/20FGs_JVib8jn-GVUGx7WA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费！你们要的吴恩达深度学习课程【汉化】视频来了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JQgooWsR4uOf7ztlofNx2g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | AI幻灭？八大趋势正在阻碍AI发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Bcot7e0gUiG8CDe4jX2zeQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位情报局 | 拓尔思、驭势科技、西门子医疗优质岗位在线等你来ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/WksOG0jC7doJNRCRQ_X6Mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器之心GitHub项目：从零开始用TensorFlow搭建卷积神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/VlvQmrS7Qi2qq6fTBXKTYw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 英特尔发布Movidius Myriad X VPU：提出神经计算引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1QFTsGTFDJsqZgrnXXvk0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | 斯坦福大学《语音与语言处理》第三版：NLP必读书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-R7KDXE8V4K-FFhcV_iSCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | Fashion-MNIST：替代MNIST手写数字集的图像数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/bG3FJAbdfXIBJKZtL-n3CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球招聘 | 机器之心面试题：深度学习是人工智能的未来吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/KHN-yobte8x4OAy1ZelwoA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特利尔大学开放MILA 2017夏季深度学习与强化学习课程视频（附完整PPT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/EoxLaRtBy5KpZC7jcXeUoQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 神经翻译系统水平远超谷歌、微软，德国创业公司发布翻译器DeepL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dPEYME8_0zFw_xrawjae6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 闪耀墨尔本：IJCAI 2017「腾讯 X 机器之心」青年学者技术分享酒会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/47qL_qjRNA-fq59naNy3Cw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 超级收敛：使用超大学习率超快速训练残差网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4XOI8Dq6fqe8rhtJjeyxeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bi-weekly | 这是机器之心的第一份付费内容产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-aNRJNZpYTTWpjji89rUPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇葩！一AI工程师下载200万GB色情内容，只为学习Python！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dMxEcR8C61IoeNqrol_5OQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实用｜推荐一个计算“造人”成功与否的贝叶斯模型！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hFg1TvNocrMi5CpDtvRLcQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内幕｜揭秘谷歌Waymo如何训练无人驾驶汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vp77vfQBqB4Ly6YlgPKEIg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据｜Facebook上1亿条视频数据告诉你用户喜欢什么！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3mu-3tgk6gGEUMCLBpuMng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利｜腾讯AI Lab联合培养博士生项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/mA_tBFG_eO-m23ArCbeC5Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害｜百度28位离职技术大牛和他们创建的AI公司！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/EFIfd08GU3vJg9L8rtL_fg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费啦！吴恩达和网易合作免费开放deeplearning.ai课程！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/2c-7gpNvWyC0YagpWRsa1Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜斯坦福《语音与语言处理》第三版（免费书下载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/muzKfD7xmoL653gFQ3pD7g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘｜腾讯优图招深度学习应用研发工程师（社招、实习）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JwoNDLVhZkMGmaWg8PGYDg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜新手入行AI最需要掌握的五大技能！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/DAvSzfYP-BY8OQqjD0VvXQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜全球100款最受欢迎的大数据工具，总有一款你需要！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/V7tzw4f_m-mZBN8SqHnIjA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜Yoshua Bengio：目前深度学习和增强学习的交叉应用最火！（附视频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Mrwl5Gqa3pqB4THW7TFRiA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜免费下载价值3800元的文本分析和自然语言课程PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/5KhTWdOk-b84DXmoVr68-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频 | 厉害了！中国将造4000km/h的高速磁悬浮列车！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Jw08tGbZ2gaFazbK3G_eMg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【独家】中国无人驾驶新晋黑马：极客十年终创业，讯飞基金重磅天使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/RFB53YMsGyZYW7Kn4D7VlA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【开源之战】在搜集人类语音数据上，谷歌与火狐展开正面交锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/7vki6XitnIlTwtSXz9dOhQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【机器人“CES”】世界机器人大会最抢眼机器人TOP 7，官方评十大最具成长性技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ec8kLj3eoFbCYt44Cs1OHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Movidius发布最新一代VPU】集成DNN加速器，每秒超过1万亿次运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/77bc2iY0D0C3X2evXVRjuA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【压缩率3000%】上交大ICCV：精度保证下的新型深度网络压缩框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/UYk3YQmFW7-44RUojUqfGg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【h-index Top 1000 计算机科学家】34名图灵奖得主、53 名华人学者上榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/v8S4x7gk7OaiE4Vcrg-Knw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【CNN超越RNN】DeepL机器翻译碾压谷歌、Facebook和微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3Y6nOp77KLrSEmbASXMvJA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【终极收藏】AI领域你不能不关注的大牛、机构、课程、会议、图书（附下载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/7jxW-U4R32YjBbzWobAehQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不依赖离线训练】为什么说持续学习才是AI的关键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/83HufWMDnuXIOCCfgqeDJw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI TOP 10】Facebook“神童”工程师跳槽谷歌；吴恩达深度学习课程上线网易云课堂；谷歌对标苹果发布AR开发工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Z2PiXSF4N7rRemztqyX_IA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华唐杰博士详解亿级学术图谱Open Academic Graph，如何高效精准生成6500万对匹配关系？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/CTvato7t80KkHwEDdWbF7w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家 | 专访IJCAI 2017当地组织委员会主席张成奇教授：大会创3个历史记录的背后秘密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Jo4rD_95oSRA2NINhjSN-Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 大规模分布式存储如何优化？Facebook说自己的方法能把CPU负载降一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Nmq6Rw6p5xsEA7QZwHT3gA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 如何优雅地用TensorFlow预测时间序列：TFTS库详细教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kvU7ssrWKJ-f8ZiSf-ZR-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播 | 解析：深度学习在推荐系统中的应用（内含30万年薪的秘密）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/HxFhnWRiTkPP8Zl8hFYlIg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球15位杰出青年科学家在IJCAI上分享学术成果，其中有哪四位华人学者？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/tbmr0IcBDWHp8xZusEI1vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 不用再学SQL语言了，Salesforce用自然语言就能在数据库中查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dRMtEi539YMKmtwx7GbihQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 谷歌新版语音交互套件 Voice Kit 开放预订，开发者都能用它做什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/OIof_dVAsN41z5cV9CuNAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 200位学术青年齐聚HIT，GAIR大讲堂CVPR哈工大深圳专场总结回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/C-ZoX1P2ktVGRx344f05Dw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | 从零开始码一个皮卡丘检测器-CNN目标检测入门教程(上)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/tGofa-LnIrgr51xCf-jr1Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10322,6 +10722,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10393,9 +10796,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10780,23 +11180,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42976</v>
+        <v>42978</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="67" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
         <v>NSNG第35周行业资讯</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -10807,22 +11207,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72" t="str">
+      <c r="C5" s="73" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -10848,61 +11248,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="70" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="61" t="str">
+      <c r="B8" s="62" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="60" t="str">
+      <c r="C10" s="61" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="72" t="str">
+      <c r="C11" s="73" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -10929,60 +11329,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="69" t="str">
+      <c r="B13" s="70" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="61" t="str">
+      <c r="B14" s="62" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="60" t="str">
+      <c r="C16" s="61" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="72" t="str">
+      <c r="C17" s="73" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -11008,60 +11408,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="69" t="str">
+      <c r="B19" s="70" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="61" t="str">
+      <c r="B20" s="62" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="60" t="str">
+      <c r="C22" s="61" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="72" t="str">
+      <c r="C23" s="73" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -11087,60 +11487,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="69" t="str">
+      <c r="B25" s="70" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="61" t="str">
+      <c r="B26" s="62" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="60" t="str">
+      <c r="C28" s="61" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="72" t="str">
+      <c r="C29" s="73" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -11166,60 +11566,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="69" t="str">
+      <c r="B31" s="70" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="61" t="str">
+      <c r="B32" s="62" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="60" t="str">
+      <c r="C34" s="61" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="72" t="str">
+      <c r="C35" s="73" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -11245,60 +11645,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="69" t="str">
+      <c r="B37" s="70" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="61" t="str">
+      <c r="B38" s="62" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="60" t="str">
+      <c r="C40" s="61" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="72" t="str">
+      <c r="C41" s="73" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -11324,60 +11724,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="69" t="str">
+      <c r="B43" s="70" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="72"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="61" t="str">
+      <c r="B44" s="62" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="60" t="str">
+      <c r="C46" s="61" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="72" t="str">
+      <c r="C47" s="73" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -11403,60 +11803,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="69" t="str">
+      <c r="B49" s="70" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="61" t="str">
+      <c r="B50" s="62" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="60" t="str">
+      <c r="C52" s="61" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="77"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="72" t="str">
+      <c r="C53" s="73" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="75"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -11482,60 +11882,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="69" t="str">
+      <c r="B55" s="70" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="61" t="str">
+      <c r="B56" s="62" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="60" t="str">
+      <c r="C58" s="61" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="77"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="72" t="str">
+      <c r="C59" s="73" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -11561,60 +11961,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="69" t="str">
+      <c r="B61" s="70" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="72"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="61" t="str">
+      <c r="B62" s="62" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="64"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="57"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="59"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="60" t="str">
+      <c r="C64" s="61" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="60"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="77"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="72" t="str">
+      <c r="C65" s="73" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="75"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -11640,60 +12040,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="69" t="str">
+      <c r="B67" s="70" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="72"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="61" t="str">
+      <c r="B68" s="62" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="59"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="60" t="str">
+      <c r="C70" s="61" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="77"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="78"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="72" t="str">
+      <c r="C71" s="73" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="75"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -11719,60 +12119,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="69" t="str">
+      <c r="B73" s="70" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="72"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="61" t="str">
+      <c r="B74" s="62" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="57"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="59"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="60" t="str">
+      <c r="C76" s="61" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="77"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="78"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="72" t="str">
+      <c r="C77" s="73" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="75"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -11798,60 +12198,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="69" t="str">
+      <c r="B79" s="70" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="72"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="61" t="str">
+      <c r="B80" s="62" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="57"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="59"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="60" t="str">
+      <c r="C82" s="61" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="60"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="77"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="78"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="72" t="str">
+      <c r="C83" s="73" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="75"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -11877,60 +12277,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="69" t="str">
+      <c r="B85" s="70" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="72"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="61" t="str">
+      <c r="B86" s="62" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="57"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="59"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="60" t="str">
+      <c r="C88" s="61" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="60"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="77"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="78"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="72" t="str">
+      <c r="C89" s="73" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="75"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -11956,60 +12356,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="69" t="str">
+      <c r="B91" s="70" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="71"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="72"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="61" t="str">
+      <c r="B92" s="62" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="64"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="57"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="59"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="60"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="60" t="str">
+      <c r="C94" s="61" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="77"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="78"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="72" t="str">
+      <c r="C95" s="73" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="74"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="75"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -12035,60 +12435,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="69" t="str">
+      <c r="B97" s="70" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="71"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="72"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="61" t="str">
+      <c r="B98" s="62" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="62"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="63"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="64"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="57"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="59"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="60"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="60" t="str">
+      <c r="C100" s="61" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="60"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="77"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="78"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="72" t="str">
+      <c r="C101" s="73" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
-      <c r="G101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="75"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -12114,60 +12514,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="69" t="str">
+      <c r="B103" s="70" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="71"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="72"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="61" t="str">
+      <c r="B104" s="62" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="63"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="64"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="57"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="59"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="60"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="60" t="str">
+      <c r="C106" s="61" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="60"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="77"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="78"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="72" t="str">
+      <c r="C107" s="73" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="75"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -12193,60 +12593,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="69" t="str">
+      <c r="B109" s="70" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="71"/>
+      <c r="C109" s="71"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="72"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="61" t="str">
+      <c r="B110" s="62" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="63"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="64"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="57"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="59"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="60"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="60" t="str">
+      <c r="C112" s="61" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="60"/>
-      <c r="E112" s="75"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="77"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="78"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="72" t="str">
+      <c r="C113" s="73" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="75"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -12272,60 +12672,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="69" t="str">
+      <c r="B115" s="70" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="70"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="71"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="72"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="61" t="str">
+      <c r="B116" s="62" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="62"/>
-      <c r="G116" s="63"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
+      <c r="G116" s="64"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="57"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="58"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="59"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="60"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="60" t="str">
+      <c r="C118" s="61" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="60"/>
-      <c r="E118" s="75"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="77"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="78"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="72" t="str">
+      <c r="C119" s="73" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="74"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="75"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -12351,60 +12751,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="69" t="str">
+      <c r="B121" s="70" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="70"/>
-      <c r="F121" s="70"/>
-      <c r="G121" s="71"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="72"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="61" t="str">
+      <c r="B122" s="62" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="62"/>
-      <c r="G122" s="63"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="64"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="57"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="58"/>
-      <c r="G123" s="59"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="59"/>
+      <c r="E123" s="59"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="60"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="60" t="str">
+      <c r="C124" s="61" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="60"/>
-      <c r="E124" s="75"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="77"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="78"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="72" t="str">
+      <c r="C125" s="73" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="74"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="75"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -12430,60 +12830,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="69" t="str">
+      <c r="B127" s="70" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="70"/>
-      <c r="D127" s="70"/>
-      <c r="E127" s="70"/>
-      <c r="F127" s="70"/>
-      <c r="G127" s="71"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="72"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="61" t="str">
+      <c r="B128" s="62" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="63"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="64"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="57"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="59"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="60"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="60" t="str">
+      <c r="C130" s="61" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="60"/>
-      <c r="E130" s="75"/>
-      <c r="F130" s="76"/>
-      <c r="G130" s="77"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="76"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="78"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="72" t="str">
+      <c r="C131" s="73" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="73"/>
-      <c r="E131" s="73"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="75"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -12509,60 +12909,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="69" t="str">
+      <c r="B133" s="70" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="70"/>
-      <c r="F133" s="70"/>
-      <c r="G133" s="71"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="72"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="61" t="str">
+      <c r="B134" s="62" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="63"/>
+      <c r="C134" s="63"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="64"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="57"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="58"/>
-      <c r="F135" s="58"/>
-      <c r="G135" s="59"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="60"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="60" t="str">
+      <c r="C136" s="61" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="60"/>
-      <c r="E136" s="75"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="77"/>
+      <c r="D136" s="61"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="78"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="72" t="str">
+      <c r="C137" s="73" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="73"/>
-      <c r="E137" s="73"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="74"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="75"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -12588,60 +12988,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="69" t="str">
+      <c r="B139" s="70" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="71"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="71"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="72"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="61" t="str">
+      <c r="B140" s="62" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="62"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="62"/>
-      <c r="F140" s="62"/>
-      <c r="G140" s="63"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="64"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="57"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
-      <c r="F141" s="58"/>
-      <c r="G141" s="59"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="59"/>
+      <c r="G141" s="60"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="60" t="str">
+      <c r="C142" s="61" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="60"/>
-      <c r="E142" s="75"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="77"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="78"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="72" t="str">
+      <c r="C143" s="73" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="73"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="74"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="74"/>
+      <c r="G143" s="75"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -12667,60 +13067,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="69" t="str">
+      <c r="B145" s="70" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="70"/>
-      <c r="F145" s="70"/>
-      <c r="G145" s="71"/>
+      <c r="C145" s="71"/>
+      <c r="D145" s="71"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="72"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="61" t="str">
+      <c r="B146" s="62" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="62"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="62"/>
-      <c r="F146" s="62"/>
-      <c r="G146" s="63"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="64"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="57"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="59"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="60"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="60" t="str">
+      <c r="C148" s="61" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="60"/>
-      <c r="E148" s="75"/>
-      <c r="F148" s="76"/>
-      <c r="G148" s="77"/>
+      <c r="D148" s="61"/>
+      <c r="E148" s="76"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="78"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="72" t="str">
+      <c r="C149" s="73" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="73"/>
-      <c r="E149" s="73"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="74"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="74"/>
+      <c r="G149" s="75"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -12746,60 +13146,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="69" t="str">
+      <c r="B151" s="70" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="70"/>
-      <c r="F151" s="70"/>
-      <c r="G151" s="71"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="72"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="61" t="str">
+      <c r="B152" s="62" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="62"/>
-      <c r="D152" s="62"/>
-      <c r="E152" s="62"/>
-      <c r="F152" s="62"/>
-      <c r="G152" s="63"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="64"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="57"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="58"/>
-      <c r="F153" s="58"/>
-      <c r="G153" s="59"/>
+      <c r="B153" s="58"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="60"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="60" t="str">
+      <c r="C154" s="61" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="60"/>
-      <c r="E154" s="75"/>
-      <c r="F154" s="76"/>
-      <c r="G154" s="77"/>
+      <c r="D154" s="61"/>
+      <c r="E154" s="76"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="78"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="72" t="str">
+      <c r="C155" s="73" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="73"/>
-      <c r="E155" s="73"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="74"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
+      <c r="G155" s="75"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -12825,60 +13225,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="69" t="str">
+      <c r="B157" s="70" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="70"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="71"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="71"/>
+      <c r="E157" s="71"/>
+      <c r="F157" s="71"/>
+      <c r="G157" s="72"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="61" t="str">
+      <c r="B158" s="62" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="62"/>
-      <c r="D158" s="62"/>
-      <c r="E158" s="62"/>
-      <c r="F158" s="62"/>
-      <c r="G158" s="63"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="63"/>
+      <c r="G158" s="64"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="57"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="59"/>
+      <c r="B159" s="58"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="59"/>
+      <c r="E159" s="59"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="60"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="60" t="str">
+      <c r="C160" s="61" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="60"/>
-      <c r="E160" s="75"/>
-      <c r="F160" s="76"/>
-      <c r="G160" s="77"/>
+      <c r="D160" s="61"/>
+      <c r="E160" s="76"/>
+      <c r="F160" s="77"/>
+      <c r="G160" s="78"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="72" t="str">
+      <c r="C161" s="73" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="73"/>
-      <c r="E161" s="73"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="74"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="74"/>
+      <c r="G161" s="75"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -12904,60 +13304,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="69" t="str">
+      <c r="B163" s="70" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="70"/>
-      <c r="D163" s="70"/>
-      <c r="E163" s="70"/>
-      <c r="F163" s="70"/>
-      <c r="G163" s="71"/>
+      <c r="C163" s="71"/>
+      <c r="D163" s="71"/>
+      <c r="E163" s="71"/>
+      <c r="F163" s="71"/>
+      <c r="G163" s="72"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="61" t="str">
+      <c r="B164" s="62" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="62"/>
-      <c r="D164" s="62"/>
-      <c r="E164" s="62"/>
-      <c r="F164" s="62"/>
-      <c r="G164" s="63"/>
+      <c r="C164" s="63"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="63"/>
+      <c r="F164" s="63"/>
+      <c r="G164" s="64"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="57"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="59"/>
+      <c r="B165" s="58"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="60"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="60" t="str">
+      <c r="C166" s="61" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="60"/>
-      <c r="E166" s="75"/>
-      <c r="F166" s="76"/>
-      <c r="G166" s="77"/>
+      <c r="D166" s="61"/>
+      <c r="E166" s="76"/>
+      <c r="F166" s="77"/>
+      <c r="G166" s="78"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="72" t="str">
+      <c r="C167" s="73" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="73"/>
-      <c r="E167" s="73"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="74"/>
+      <c r="G167" s="75"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -12983,60 +13383,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="69" t="str">
+      <c r="B169" s="70" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="70"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="70"/>
-      <c r="F169" s="70"/>
-      <c r="G169" s="71"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="71"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="71"/>
+      <c r="G169" s="72"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="61" t="str">
+      <c r="B170" s="62" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="62"/>
-      <c r="D170" s="62"/>
-      <c r="E170" s="62"/>
-      <c r="F170" s="62"/>
-      <c r="G170" s="63"/>
+      <c r="C170" s="63"/>
+      <c r="D170" s="63"/>
+      <c r="E170" s="63"/>
+      <c r="F170" s="63"/>
+      <c r="G170" s="64"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="57"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="59"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="60"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="60" t="str">
+      <c r="C172" s="61" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="60"/>
-      <c r="E172" s="75"/>
-      <c r="F172" s="76"/>
-      <c r="G172" s="77"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="76"/>
+      <c r="F172" s="77"/>
+      <c r="G172" s="78"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="72" t="str">
+      <c r="C173" s="73" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="73"/>
-      <c r="E173" s="73"/>
-      <c r="F173" s="73"/>
-      <c r="G173" s="74"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
+      <c r="F173" s="74"/>
+      <c r="G173" s="75"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -13062,60 +13462,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="69" t="str">
+      <c r="B175" s="70" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="70"/>
-      <c r="D175" s="70"/>
-      <c r="E175" s="70"/>
-      <c r="F175" s="70"/>
-      <c r="G175" s="71"/>
+      <c r="C175" s="71"/>
+      <c r="D175" s="71"/>
+      <c r="E175" s="71"/>
+      <c r="F175" s="71"/>
+      <c r="G175" s="72"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="61" t="str">
+      <c r="B176" s="62" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="62"/>
-      <c r="D176" s="62"/>
-      <c r="E176" s="62"/>
-      <c r="F176" s="62"/>
-      <c r="G176" s="63"/>
+      <c r="C176" s="63"/>
+      <c r="D176" s="63"/>
+      <c r="E176" s="63"/>
+      <c r="F176" s="63"/>
+      <c r="G176" s="64"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="57"/>
-      <c r="C177" s="58"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="59"/>
+      <c r="B177" s="58"/>
+      <c r="C177" s="59"/>
+      <c r="D177" s="59"/>
+      <c r="E177" s="59"/>
+      <c r="F177" s="59"/>
+      <c r="G177" s="60"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="60" t="str">
+      <c r="C178" s="61" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="60"/>
-      <c r="E178" s="75"/>
-      <c r="F178" s="76"/>
-      <c r="G178" s="77"/>
+      <c r="D178" s="61"/>
+      <c r="E178" s="76"/>
+      <c r="F178" s="77"/>
+      <c r="G178" s="78"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="72" t="str">
+      <c r="C179" s="73" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="73"/>
-      <c r="E179" s="73"/>
-      <c r="F179" s="73"/>
-      <c r="G179" s="74"/>
+      <c r="D179" s="74"/>
+      <c r="E179" s="74"/>
+      <c r="F179" s="74"/>
+      <c r="G179" s="75"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -13141,34 +13541,34 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="69" t="str">
+      <c r="B181" s="70" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="70"/>
-      <c r="D181" s="70"/>
-      <c r="E181" s="70"/>
-      <c r="F181" s="70"/>
-      <c r="G181" s="71"/>
+      <c r="C181" s="71"/>
+      <c r="D181" s="71"/>
+      <c r="E181" s="71"/>
+      <c r="F181" s="71"/>
+      <c r="G181" s="72"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="61" t="str">
+      <c r="B182" s="62" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="62"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="F182" s="62"/>
-      <c r="G182" s="63"/>
+      <c r="C182" s="63"/>
+      <c r="D182" s="63"/>
+      <c r="E182" s="63"/>
+      <c r="F182" s="63"/>
+      <c r="G182" s="64"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="78"/>
-      <c r="C183" s="79"/>
-      <c r="D183" s="79"/>
-      <c r="E183" s="79"/>
-      <c r="F183" s="79"/>
-      <c r="G183" s="80"/>
+      <c r="B183" s="79"/>
+      <c r="C183" s="80"/>
+      <c r="D183" s="80"/>
+      <c r="E183" s="80"/>
+      <c r="F183" s="80"/>
+      <c r="G183" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="181">
@@ -19846,10 +20246,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1160"/>
+  <dimension ref="A1:AB1209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1024" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E1161" sqref="E1161"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1216" sqref="E1216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -39609,7 +40009,7 @@
       <c r="D1125" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E1125" s="81" t="s">
+      <c r="E1125" s="57" t="s">
         <v>2281</v>
       </c>
       <c r="F1125" s="56" t="s">
@@ -39864,7 +40264,7 @@
       <c r="D1140" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E1140" s="81" t="s">
+      <c r="E1140" s="57" t="s">
         <v>2311</v>
       </c>
       <c r="F1140" s="56" t="s">
@@ -40195,10 +40595,857 @@
       </c>
     </row>
     <row r="1160" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D1160" s="33"/>
+      <c r="B1160" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1160" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1160" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1160" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F1160" s="56" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="1161" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1161" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1161" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1161" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F1161" s="56" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1162" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1162" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1162" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F1162" s="56" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1163" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1163" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1163" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F1163" s="56" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1164" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1164" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1164" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="F1164" s="56" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1165" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1165" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1165" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F1165" s="56" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1166" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1166" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1166" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1166" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F1166" s="56" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1167" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1167" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1167" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1167" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F1167" s="56" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1168" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1168" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1168" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1168" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F1168" s="56" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1169" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1169" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1169" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1169" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F1169" s="56" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1170" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1170" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1170" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1170" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F1170" s="56" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1171" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1171" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1171" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1171" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1171" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F1171" s="56" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1172" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1172" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1172" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1172" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F1172" s="56" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1173" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1173" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1173" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1173" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F1173" s="56" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1174" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1174" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1174" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1174" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1174" s="56" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1175" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1175" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1175" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1175" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F1175" s="56" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="1176" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1176" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1176" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1176" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1176" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="F1176" s="56" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1177" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1177" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1177" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1177" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F1177" s="56" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1178" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1178" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1178" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1178" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F1178" s="56" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1179" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1179" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1179" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1179" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F1179" s="56" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="1180" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1180" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1180" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1180" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1180" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F1180" s="56" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1181" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1181" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1181" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1181" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F1181" s="56" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1182" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1182" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1182" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1182" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1182" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F1182" s="56" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1183" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1183" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1183" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1183" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F1183" s="56" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1184" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1184" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1184" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1184" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1184" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F1184" s="56" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1185" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1185" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1185" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1185" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F1185" s="56" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1186" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1186" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1186" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1186" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F1186" s="56" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1187" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1187" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1187" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1187" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F1187" s="56" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1188" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1188" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1188" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1188" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="F1188" s="56" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1189" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1189" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1189" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1189" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F1189" s="56" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1190" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1190" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1190" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1190" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1190" s="56" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1191" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1191" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1191" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1191" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1191" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F1191" s="56" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="1192" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1192" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1192" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1192" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1192" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F1192" s="56" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1193" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1193" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1193" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1193" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1193" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F1193" s="56" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1194" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1194" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1194" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1194" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1194" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F1194" s="56" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1195" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1195" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1195" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1195" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1195" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="F1195" s="56" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1196" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1196" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1196" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1196" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1196" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F1196" s="56" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1197" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1197" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1197" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1197" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1197" s="57" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F1197" s="56" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1198" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1198" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1198" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1198" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F1198" s="56" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="1199" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1199" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1199" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1199" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1199" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F1199" s="56" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1200" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1200" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1200" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1200" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1200" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="F1200" s="56" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="1201" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1201" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1201" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1201" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1201" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="F1201" s="56" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1202" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1202" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1202" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1202" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1202" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F1202" s="56" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1203" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1203" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1203" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1203" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1203" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F1203" s="56" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1204" s="45">
+        <v>42976</v>
+      </c>
+      <c r="C1204" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1204" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1204" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="F1204" s="56" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1205" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1205" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1205" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1205" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F1205" s="56" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1206" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1206" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1206" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1206" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1206" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F1206" s="56" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1207" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1207" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1207" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1207" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1207" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F1207" s="56" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="1208" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1208" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1208" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1208" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1208" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F1208" s="56" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="1209" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1209" s="45">
+        <v>42977</v>
+      </c>
+      <c r="C1209" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1209" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1209" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F1209" s="56" t="s">
+        <v>2450</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1159"/>
+  <autoFilter ref="A1:F1209"/>
   <sortState ref="A2:J16">
     <sortCondition ref="B2"/>
   </sortState>
@@ -41360,9 +42607,59 @@
     <hyperlink ref="F1152" r:id="rId1146"/>
     <hyperlink ref="F1153" r:id="rId1147"/>
     <hyperlink ref="F1154" r:id="rId1148"/>
+    <hyperlink ref="F1160" r:id="rId1149"/>
+    <hyperlink ref="F1161" r:id="rId1150"/>
+    <hyperlink ref="F1162" r:id="rId1151"/>
+    <hyperlink ref="F1163" r:id="rId1152"/>
+    <hyperlink ref="F1164" r:id="rId1153"/>
+    <hyperlink ref="F1165" r:id="rId1154"/>
+    <hyperlink ref="F1166" r:id="rId1155"/>
+    <hyperlink ref="F1167" r:id="rId1156"/>
+    <hyperlink ref="F1168" r:id="rId1157"/>
+    <hyperlink ref="F1169" r:id="rId1158"/>
+    <hyperlink ref="F1170" r:id="rId1159"/>
+    <hyperlink ref="F1171" r:id="rId1160"/>
+    <hyperlink ref="F1172" r:id="rId1161"/>
+    <hyperlink ref="F1173" r:id="rId1162"/>
+    <hyperlink ref="F1174" r:id="rId1163"/>
+    <hyperlink ref="F1175" r:id="rId1164"/>
+    <hyperlink ref="F1176" r:id="rId1165"/>
+    <hyperlink ref="F1177" r:id="rId1166"/>
+    <hyperlink ref="F1178" r:id="rId1167"/>
+    <hyperlink ref="F1179" r:id="rId1168"/>
+    <hyperlink ref="F1180" r:id="rId1169"/>
+    <hyperlink ref="F1181" r:id="rId1170"/>
+    <hyperlink ref="F1182" r:id="rId1171"/>
+    <hyperlink ref="F1183" r:id="rId1172"/>
+    <hyperlink ref="F1184" r:id="rId1173"/>
+    <hyperlink ref="F1185" r:id="rId1174"/>
+    <hyperlink ref="F1186" r:id="rId1175"/>
+    <hyperlink ref="F1187" r:id="rId1176"/>
+    <hyperlink ref="F1188" r:id="rId1177"/>
+    <hyperlink ref="F1189" r:id="rId1178"/>
+    <hyperlink ref="F1190" r:id="rId1179"/>
+    <hyperlink ref="F1191" r:id="rId1180"/>
+    <hyperlink ref="F1192" r:id="rId1181"/>
+    <hyperlink ref="F1193" r:id="rId1182"/>
+    <hyperlink ref="F1194" r:id="rId1183"/>
+    <hyperlink ref="F1195" r:id="rId1184"/>
+    <hyperlink ref="F1196" r:id="rId1185"/>
+    <hyperlink ref="F1197" r:id="rId1186"/>
+    <hyperlink ref="F1198" r:id="rId1187"/>
+    <hyperlink ref="F1199" r:id="rId1188"/>
+    <hyperlink ref="F1200" r:id="rId1189"/>
+    <hyperlink ref="F1201" r:id="rId1190"/>
+    <hyperlink ref="F1202" r:id="rId1191"/>
+    <hyperlink ref="F1203" r:id="rId1192"/>
+    <hyperlink ref="F1204" r:id="rId1193"/>
+    <hyperlink ref="F1205" r:id="rId1194"/>
+    <hyperlink ref="F1206" r:id="rId1195"/>
+    <hyperlink ref="F1207" r:id="rId1196"/>
+    <hyperlink ref="F1208" r:id="rId1197"/>
+    <hyperlink ref="F1209" r:id="rId1198"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1149"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1199"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1231</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5004" uniqueCount="2451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5092" uniqueCount="2495">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9831,6 +9831,182 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/tGofa-LnIrgr51xCf-jr1Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手把手 | 亲测好用！Google发布了一个新的Tensorflow物体识别API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/EJCwHUzKjmG3k1JPiP029g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑洞 | 哈佛教授公开R语言源码，教你用R制作gif动图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/y0xji_cdUgP-t5F7p27ebg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人都能读懂的无监督学习：什么是聚类和降维？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/uSHLJKB0knVcCY759Ul25w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | PyTorch和TensorFlow哪家强：九项对比读懂各自长项短板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hETnA81WlkMG3rftAHg9bw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点 | Life 3.0：Stuart Russell带你展望AI时代的人类未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ZiMJA7lrYseWnkp1XJU_OA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 超少量数据训练神经网络：IEEE论文提出径向变换实现图像增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ws1R-VPyJY6J18OttBDYog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名 | 机器之心 × PaperWeekly：自然语言处理技术分享会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-K3rX0BRCqtZvZGDevBw2w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 牛！人工智能太火！斯坦福AI博士生接拍香水广告！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/szxLIiLBd_0O67SLhoI39g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜如何使用最流行框架Tensorflow进行时间序列分析？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/zZCEOdNQsPovn_i-C57Z9g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯AI Lab俞栋：基于深度学习技术的声学模型最新进展！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/T2JajqySLzfJRjcaWK3g4Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜TuChart：基于Tushare和Echarts的股票数据视觉化应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/p69x5YyWxMulxx_OwX3nzQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费｜Python数据科学手册（电子书）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AZDrWPuA5egP5QbO_ZLkJQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI版摩尔定律】10张图盘点计算机视觉、语音和文本理解里程碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/eyl0NMa1p_RmQIwnweuBgw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌实习博士访谈：我终于拥有了在大学实验室梦寐以求的算力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/7gfywRXlnIgIc5GCYR2daQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北大团队研发“车脸”识别系统，不看车牌看外观特征实现精确识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/fqpZ8EHgiNupXumvTMSecw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逝世 63 年后，人工智能之父图灵的 147 封信重见天日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/xZr88E9KMW-jXF9dcwDajQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI TOP 10】世界上首个基于活体神经元的AI芯片诞生；Alexa 将与 Cortana 互通；上海将发力人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/uVnQtww7QWJ12-CzWTPwVg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家 | 他耗时一年半对比了473种文本分类模型，选题差点被导师LeCun否定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/r_HkXFvSJKXGeinkwu1TTg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 上海交通大学团队与高文院士ICCV录用论文：精度保证下的新型深度网络压缩框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/uzWtK5JvRTlO4HXYQ9ePOQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利 | 囊中羞涩又想参加高端学术会议？CNCC2017免费门票将于今日截止申请！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/xJgFYRe0WPjK48JrcZCVuw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点 | 论文连中两大CV顶会，这位博士生分享了自己在谷歌实习的研究心得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/O2aqwsGRQhvCKO6Kox2GTw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | 从零开始码一个皮卡丘检测器-CNN目标检测入门教程(下)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/oIrbHVvi3CkNynDWnhtx2g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10725,42 +10901,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10788,6 +10928,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10795,6 +10956,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11180,23 +11356,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42978</v>
+        <v>42979</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="79" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
         <v>NSNG第35周行业资讯</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -11207,22 +11383,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73" t="str">
+      <c r="C5" s="61" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -11248,61 +11424,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="70" t="str">
+      <c r="B7" s="58" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="71" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="61" t="str">
+      <c r="C10" s="70" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="73" t="str">
+      <c r="C11" s="61" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -11329,60 +11505,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="70" t="str">
+      <c r="B13" s="58" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="62" t="str">
+      <c r="B14" s="71" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="61" t="str">
+      <c r="C16" s="70" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="73" t="str">
+      <c r="C17" s="61" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -11408,60 +11584,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="70" t="str">
+      <c r="B19" s="58" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="62" t="str">
+      <c r="B20" s="71" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="61" t="str">
+      <c r="C22" s="70" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="73" t="str">
+      <c r="C23" s="61" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -11487,60 +11663,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="70" t="str">
+      <c r="B25" s="58" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="62" t="str">
+      <c r="B26" s="71" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="61" t="str">
+      <c r="C28" s="70" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="73" t="str">
+      <c r="C29" s="61" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -11566,60 +11742,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="70" t="str">
+      <c r="B31" s="58" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="62" t="str">
+      <c r="B32" s="71" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="61" t="str">
+      <c r="C34" s="70" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="73" t="str">
+      <c r="C35" s="61" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="75"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -11645,60 +11821,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="70" t="str">
+      <c r="B37" s="58" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="72"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="62" t="str">
+      <c r="B38" s="71" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="61" t="str">
+      <c r="C40" s="70" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="78"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="73" t="str">
+      <c r="C41" s="61" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -11724,60 +11900,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="70" t="str">
+      <c r="B43" s="58" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="62" t="str">
+      <c r="B44" s="71" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="60"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="69"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="61" t="str">
+      <c r="C46" s="70" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="78"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="73" t="str">
+      <c r="C47" s="61" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -11803,60 +11979,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="70" t="str">
+      <c r="B49" s="58" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="62" t="str">
+      <c r="B50" s="71" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="69"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="61" t="str">
+      <c r="C52" s="70" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="73" t="str">
+      <c r="C53" s="61" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="75"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -11882,60 +12058,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="70" t="str">
+      <c r="B55" s="58" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="72"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="62" t="str">
+      <c r="B56" s="71" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="73"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="58"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="69"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="61" t="str">
+      <c r="C58" s="70" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="78"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="66"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="73" t="str">
+      <c r="C59" s="61" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="63"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -11961,60 +12137,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="70" t="str">
+      <c r="B61" s="58" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="72"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="62" t="str">
+      <c r="B62" s="71" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="58"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="69"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="61" t="str">
+      <c r="C64" s="70" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="66"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="73" t="str">
+      <c r="C65" s="61" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -12040,60 +12216,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="70" t="str">
+      <c r="B67" s="58" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="72"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="62" t="str">
+      <c r="B68" s="71" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="69"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="61" t="str">
+      <c r="C70" s="70" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="78"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="66"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="73" t="str">
+      <c r="C71" s="61" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="75"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="63"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -12119,60 +12295,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="70" t="str">
+      <c r="B73" s="58" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="72"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="62" t="str">
+      <c r="B74" s="71" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="64"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="58"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="69"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="61" t="str">
+      <c r="C76" s="70" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="61"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="78"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="66"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="73" t="str">
+      <c r="C77" s="61" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -12198,60 +12374,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="70" t="str">
+      <c r="B79" s="58" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="72"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="62" t="str">
+      <c r="B80" s="71" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="73"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="58"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="69"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="61" t="str">
+      <c r="C82" s="70" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="78"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="66"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="73" t="str">
+      <c r="C83" s="61" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="75"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="63"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -12277,60 +12453,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="70" t="str">
+      <c r="B85" s="58" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="72"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="62" t="str">
+      <c r="B86" s="71" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="58"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="69"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="61" t="str">
+      <c r="C88" s="70" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="78"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="66"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="73" t="str">
+      <c r="C89" s="61" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="75"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="63"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -12356,60 +12532,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="70" t="str">
+      <c r="B91" s="58" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="72"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="60"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="62" t="str">
+      <c r="B92" s="71" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="64"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="73"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="58"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="60"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="69"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="61" t="str">
+      <c r="C94" s="70" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="61"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="78"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="66"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="73" t="str">
+      <c r="C95" s="61" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="75"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="63"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -12435,60 +12611,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="70" t="str">
+      <c r="B97" s="58" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="72"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="60"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="62" t="str">
+      <c r="B98" s="71" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="63"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63"/>
-      <c r="G98" s="64"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="73"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="58"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="60"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="69"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="61" t="str">
+      <c r="C100" s="70" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="61"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="78"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="66"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="73" t="str">
+      <c r="C101" s="61" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="75"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="63"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -12514,60 +12690,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="70" t="str">
+      <c r="B103" s="58" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="71"/>
-      <c r="D103" s="71"/>
-      <c r="E103" s="71"/>
-      <c r="F103" s="71"/>
-      <c r="G103" s="72"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="60"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="62" t="str">
+      <c r="B104" s="71" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="63"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="63"/>
-      <c r="F104" s="63"/>
-      <c r="G104" s="64"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="73"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="58"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="60"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="69"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="61" t="str">
+      <c r="C106" s="70" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="61"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="78"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="66"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="73" t="str">
+      <c r="C107" s="61" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="75"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="63"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -12593,60 +12769,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="70" t="str">
+      <c r="B109" s="58" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="71"/>
-      <c r="D109" s="71"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="72"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="60"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="62" t="str">
+      <c r="B110" s="71" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="63"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="63"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="64"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="73"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="58"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="60"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="69"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="61" t="str">
+      <c r="C112" s="70" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="61"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="78"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="66"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="73" t="str">
+      <c r="C113" s="61" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="75"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="63"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -12672,60 +12848,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="70" t="str">
+      <c r="B115" s="58" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="71"/>
-      <c r="D115" s="71"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="72"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="60"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="62" t="str">
+      <c r="B116" s="71" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="63"/>
-      <c r="D116" s="63"/>
-      <c r="E116" s="63"/>
-      <c r="F116" s="63"/>
-      <c r="G116" s="64"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="73"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="58"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="60"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="69"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="61" t="str">
+      <c r="C118" s="70" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="61"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="78"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="66"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="73" t="str">
+      <c r="C119" s="61" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="75"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="63"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -12751,60 +12927,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="70" t="str">
+      <c r="B121" s="58" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="71"/>
-      <c r="D121" s="71"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="72"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="60"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="62" t="str">
+      <c r="B122" s="71" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="63"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="63"/>
-      <c r="F122" s="63"/>
-      <c r="G122" s="64"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="72"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="73"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="58"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="59"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="60"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="69"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="61" t="str">
+      <c r="C124" s="70" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="61"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="78"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="66"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="73" t="str">
+      <c r="C125" s="61" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="75"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="63"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -12830,60 +13006,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="70" t="str">
+      <c r="B127" s="58" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="71"/>
-      <c r="D127" s="71"/>
-      <c r="E127" s="71"/>
-      <c r="F127" s="71"/>
-      <c r="G127" s="72"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="59"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="62" t="str">
+      <c r="B128" s="71" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="64"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="73"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="58"/>
-      <c r="C129" s="59"/>
-      <c r="D129" s="59"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="59"/>
-      <c r="G129" s="60"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="69"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="61" t="str">
+      <c r="C130" s="70" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="61"/>
-      <c r="E130" s="76"/>
-      <c r="F130" s="77"/>
-      <c r="G130" s="78"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="66"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="73" t="str">
+      <c r="C131" s="61" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="75"/>
+      <c r="D131" s="62"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="62"/>
+      <c r="G131" s="63"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -12909,60 +13085,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="70" t="str">
+      <c r="B133" s="58" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="72"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="60"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="62" t="str">
+      <c r="B134" s="71" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="63"/>
-      <c r="D134" s="63"/>
-      <c r="E134" s="63"/>
-      <c r="F134" s="63"/>
-      <c r="G134" s="64"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="73"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="58"/>
-      <c r="C135" s="59"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="60"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="68"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="69"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="61" t="str">
+      <c r="C136" s="70" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="61"/>
-      <c r="E136" s="76"/>
-      <c r="F136" s="77"/>
-      <c r="G136" s="78"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="66"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="73" t="str">
+      <c r="C137" s="61" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="75"/>
+      <c r="D137" s="62"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="62"/>
+      <c r="G137" s="63"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -12988,60 +13164,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="70" t="str">
+      <c r="B139" s="58" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="71"/>
-      <c r="D139" s="71"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="72"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="59"/>
+      <c r="F139" s="59"/>
+      <c r="G139" s="60"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="62" t="str">
+      <c r="B140" s="71" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="63"/>
-      <c r="D140" s="63"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="64"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="73"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="58"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="60"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="69"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="61" t="str">
+      <c r="C142" s="70" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="61"/>
-      <c r="E142" s="76"/>
-      <c r="F142" s="77"/>
-      <c r="G142" s="78"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="66"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="73" t="str">
+      <c r="C143" s="61" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="75"/>
+      <c r="D143" s="62"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="63"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -13067,60 +13243,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="70" t="str">
+      <c r="B145" s="58" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="71"/>
-      <c r="D145" s="71"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="72"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="59"/>
+      <c r="G145" s="60"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="62" t="str">
+      <c r="B146" s="71" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="64"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="73"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="58"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="59"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="60"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="68"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="69"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="61" t="str">
+      <c r="C148" s="70" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="61"/>
-      <c r="E148" s="76"/>
-      <c r="F148" s="77"/>
-      <c r="G148" s="78"/>
+      <c r="D148" s="70"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="66"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="73" t="str">
+      <c r="C149" s="61" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="75"/>
+      <c r="D149" s="62"/>
+      <c r="E149" s="62"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="63"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -13146,60 +13322,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="70" t="str">
+      <c r="B151" s="58" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="71"/>
-      <c r="D151" s="71"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="72"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="60"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="62" t="str">
+      <c r="B152" s="71" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="64"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="72"/>
+      <c r="F152" s="72"/>
+      <c r="G152" s="73"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="58"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="59"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="60"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="69"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="61" t="str">
+      <c r="C154" s="70" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="61"/>
-      <c r="E154" s="76"/>
-      <c r="F154" s="77"/>
-      <c r="G154" s="78"/>
+      <c r="D154" s="70"/>
+      <c r="E154" s="64"/>
+      <c r="F154" s="65"/>
+      <c r="G154" s="66"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="73" t="str">
+      <c r="C155" s="61" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="74"/>
-      <c r="G155" s="75"/>
+      <c r="D155" s="62"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="62"/>
+      <c r="G155" s="63"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -13225,60 +13401,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="70" t="str">
+      <c r="B157" s="58" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="71"/>
-      <c r="D157" s="71"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="71"/>
-      <c r="G157" s="72"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="59"/>
+      <c r="E157" s="59"/>
+      <c r="F157" s="59"/>
+      <c r="G157" s="60"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="62" t="str">
+      <c r="B158" s="71" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="63"/>
-      <c r="G158" s="64"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="72"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="72"/>
+      <c r="G158" s="73"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="58"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="59"/>
-      <c r="E159" s="59"/>
-      <c r="F159" s="59"/>
-      <c r="G159" s="60"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="69"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="61" t="str">
+      <c r="C160" s="70" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="61"/>
-      <c r="E160" s="76"/>
-      <c r="F160" s="77"/>
-      <c r="G160" s="78"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="64"/>
+      <c r="F160" s="65"/>
+      <c r="G160" s="66"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="73" t="str">
+      <c r="C161" s="61" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="74"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="74"/>
-      <c r="G161" s="75"/>
+      <c r="D161" s="62"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="62"/>
+      <c r="G161" s="63"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -13304,60 +13480,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="70" t="str">
+      <c r="B163" s="58" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="71"/>
-      <c r="D163" s="71"/>
-      <c r="E163" s="71"/>
-      <c r="F163" s="71"/>
-      <c r="G163" s="72"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="60"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="62" t="str">
+      <c r="B164" s="71" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="63"/>
-      <c r="D164" s="63"/>
-      <c r="E164" s="63"/>
-      <c r="F164" s="63"/>
-      <c r="G164" s="64"/>
+      <c r="C164" s="72"/>
+      <c r="D164" s="72"/>
+      <c r="E164" s="72"/>
+      <c r="F164" s="72"/>
+      <c r="G164" s="73"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="58"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="59"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="60"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="69"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="61" t="str">
+      <c r="C166" s="70" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="61"/>
-      <c r="E166" s="76"/>
-      <c r="F166" s="77"/>
-      <c r="G166" s="78"/>
+      <c r="D166" s="70"/>
+      <c r="E166" s="64"/>
+      <c r="F166" s="65"/>
+      <c r="G166" s="66"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="73" t="str">
+      <c r="C167" s="61" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="74"/>
-      <c r="G167" s="75"/>
+      <c r="D167" s="62"/>
+      <c r="E167" s="62"/>
+      <c r="F167" s="62"/>
+      <c r="G167" s="63"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -13383,60 +13559,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="70" t="str">
+      <c r="B169" s="58" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="71"/>
-      <c r="D169" s="71"/>
-      <c r="E169" s="71"/>
-      <c r="F169" s="71"/>
-      <c r="G169" s="72"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="59"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="60"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="62" t="str">
+      <c r="B170" s="71" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="63"/>
-      <c r="D170" s="63"/>
-      <c r="E170" s="63"/>
-      <c r="F170" s="63"/>
-      <c r="G170" s="64"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="72"/>
+      <c r="E170" s="72"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="73"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="58"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="60"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="68"/>
+      <c r="G171" s="69"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="61" t="str">
+      <c r="C172" s="70" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="61"/>
-      <c r="E172" s="76"/>
-      <c r="F172" s="77"/>
-      <c r="G172" s="78"/>
+      <c r="D172" s="70"/>
+      <c r="E172" s="64"/>
+      <c r="F172" s="65"/>
+      <c r="G172" s="66"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="73" t="str">
+      <c r="C173" s="61" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="74"/>
-      <c r="E173" s="74"/>
-      <c r="F173" s="74"/>
-      <c r="G173" s="75"/>
+      <c r="D173" s="62"/>
+      <c r="E173" s="62"/>
+      <c r="F173" s="62"/>
+      <c r="G173" s="63"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -13462,60 +13638,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="70" t="str">
+      <c r="B175" s="58" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="71"/>
-      <c r="D175" s="71"/>
-      <c r="E175" s="71"/>
-      <c r="F175" s="71"/>
-      <c r="G175" s="72"/>
+      <c r="C175" s="59"/>
+      <c r="D175" s="59"/>
+      <c r="E175" s="59"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="60"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="62" t="str">
+      <c r="B176" s="71" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="63"/>
-      <c r="D176" s="63"/>
-      <c r="E176" s="63"/>
-      <c r="F176" s="63"/>
-      <c r="G176" s="64"/>
+      <c r="C176" s="72"/>
+      <c r="D176" s="72"/>
+      <c r="E176" s="72"/>
+      <c r="F176" s="72"/>
+      <c r="G176" s="73"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="58"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="59"/>
-      <c r="E177" s="59"/>
-      <c r="F177" s="59"/>
-      <c r="G177" s="60"/>
+      <c r="B177" s="67"/>
+      <c r="C177" s="68"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="68"/>
+      <c r="F177" s="68"/>
+      <c r="G177" s="69"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="61" t="str">
+      <c r="C178" s="70" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="61"/>
-      <c r="E178" s="76"/>
-      <c r="F178" s="77"/>
-      <c r="G178" s="78"/>
+      <c r="D178" s="70"/>
+      <c r="E178" s="64"/>
+      <c r="F178" s="65"/>
+      <c r="G178" s="66"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="73" t="str">
+      <c r="C179" s="61" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="74"/>
-      <c r="E179" s="74"/>
-      <c r="F179" s="74"/>
-      <c r="G179" s="75"/>
+      <c r="D179" s="62"/>
+      <c r="E179" s="62"/>
+      <c r="F179" s="62"/>
+      <c r="G179" s="63"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -13541,59 +13717,172 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="70" t="str">
+      <c r="B181" s="58" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="71"/>
-      <c r="D181" s="71"/>
-      <c r="E181" s="71"/>
-      <c r="F181" s="71"/>
-      <c r="G181" s="72"/>
+      <c r="C181" s="59"/>
+      <c r="D181" s="59"/>
+      <c r="E181" s="59"/>
+      <c r="F181" s="59"/>
+      <c r="G181" s="60"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="62" t="str">
+      <c r="B182" s="71" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="63"/>
-      <c r="D182" s="63"/>
-      <c r="E182" s="63"/>
-      <c r="F182" s="63"/>
-      <c r="G182" s="64"/>
+      <c r="C182" s="72"/>
+      <c r="D182" s="72"/>
+      <c r="E182" s="72"/>
+      <c r="F182" s="72"/>
+      <c r="G182" s="73"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="79"/>
-      <c r="C183" s="80"/>
-      <c r="D183" s="80"/>
-      <c r="E183" s="80"/>
-      <c r="F183" s="80"/>
-      <c r="G183" s="81"/>
+      <c r="B183" s="74"/>
+      <c r="C183" s="75"/>
+      <c r="D183" s="75"/>
+      <c r="E183" s="75"/>
+      <c r="F183" s="75"/>
+      <c r="G183" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="E82:G82"/>
     <mergeCell ref="B75:G75"/>
@@ -13618,141 +13907,28 @@
     <mergeCell ref="C137:G137"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20246,10 +20422,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1209"/>
+  <dimension ref="A1:AB1231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E1216" sqref="E1216"/>
+    <sheetView tabSelected="1" topLeftCell="B1158" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1238" sqref="E1238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -41444,8 +41620,382 @@
         <v>2450</v>
       </c>
     </row>
+    <row r="1210" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1210" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1210" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1210" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1210" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F1210" s="56" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1211" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1211" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1211" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1211" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1211" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F1211" s="56" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="1212" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1212" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1212" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1212" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1212" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F1212" s="56" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="1213" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1213" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1213" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1213" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1213" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="F1213" s="56" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="1214" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1214" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1214" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1214" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1214" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F1214" s="56" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="1215" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1215" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1215" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1215" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1215" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F1215" s="56" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="1216" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1216" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1216" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1216" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1216" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="F1216" s="56" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="1217" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1217" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1217" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1217" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1217" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F1217" s="56" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="1218" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1218" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1218" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1218" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1218" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F1218" s="56" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1219" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1219" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1219" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1219" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1219" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F1219" s="56" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="1220" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1220" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1220" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1220" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1220" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F1220" s="56" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="1221" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1221" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1221" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1221" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1221" s="57" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1221" s="56" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="1222" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1222" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1222" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1222" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1222" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F1222" s="56" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="1223" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1223" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1223" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1223" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1223" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F1223" s="56" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="1224" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1224" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1224" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1224" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1224" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F1224" s="56" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="1225" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1225" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1225" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1225" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1225" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F1225" s="56" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1226" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1226" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1226" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1226" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1226" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F1226" s="56" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="1227" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1227" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1227" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1227" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1227" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="F1227" s="56" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="1228" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1228" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1228" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1228" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1228" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="F1228" s="56" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1229" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1229" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1229" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1229" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1229" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F1229" s="56" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="1230" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1230" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1230" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1230" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1230" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F1230" s="56" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="1231" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1231" s="45">
+        <v>42978</v>
+      </c>
+      <c r="C1231" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1231" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1231" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F1231" s="56" t="s">
+        <v>2494</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1209"/>
+  <autoFilter ref="A1:F1231"/>
   <sortState ref="A2:J16">
     <sortCondition ref="B2"/>
   </sortState>
@@ -42657,9 +43207,31 @@
     <hyperlink ref="F1207" r:id="rId1196"/>
     <hyperlink ref="F1208" r:id="rId1197"/>
     <hyperlink ref="F1209" r:id="rId1198"/>
+    <hyperlink ref="F1210" r:id="rId1199"/>
+    <hyperlink ref="F1211" r:id="rId1200"/>
+    <hyperlink ref="F1212" r:id="rId1201"/>
+    <hyperlink ref="F1213" r:id="rId1202"/>
+    <hyperlink ref="F1214" r:id="rId1203"/>
+    <hyperlink ref="F1215" r:id="rId1204"/>
+    <hyperlink ref="F1216" r:id="rId1205"/>
+    <hyperlink ref="F1217" r:id="rId1206"/>
+    <hyperlink ref="F1218" r:id="rId1207"/>
+    <hyperlink ref="F1219" r:id="rId1208"/>
+    <hyperlink ref="F1220" r:id="rId1209"/>
+    <hyperlink ref="F1221" r:id="rId1210"/>
+    <hyperlink ref="F1222" r:id="rId1211"/>
+    <hyperlink ref="F1223" r:id="rId1212"/>
+    <hyperlink ref="F1224" r:id="rId1213"/>
+    <hyperlink ref="F1225" r:id="rId1214"/>
+    <hyperlink ref="F1226" r:id="rId1215"/>
+    <hyperlink ref="F1227" r:id="rId1216"/>
+    <hyperlink ref="F1228" r:id="rId1217"/>
+    <hyperlink ref="F1229" r:id="rId1218"/>
+    <hyperlink ref="F1230" r:id="rId1219"/>
+    <hyperlink ref="F1231" r:id="rId1220"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1199"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1221"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1296</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5092" uniqueCount="2495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5352" uniqueCount="2625">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10007,6 +10007,526 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/oIrbHVvi3CkNynDWnhtx2g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能的Python背后：这6大原因让它爆火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qgJt2ygmrhGhsXQwez5fFw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开课打怪团 | 无监督学习最新论文解读（直播回顾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/FjiCCKYFb85CgMfiRdfo0Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 | 大数据文摘联合机器之心成立Neurons字幕组，一起玩点不一样的AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/U43lc8ny0DFvCwS65q7wRg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开学了，如何用2017年最后三分之一学会深度学习？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/M5aPMN3dE-oRQVD31ZzvZw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017一本财经智慧金融年度峰会——见证金融黑科技的力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/y_GXhhtR-3zQ1ZRuorojGg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追剧学AI (6) | 概率论在机器学习中的迁移运用，手把手建一个垃圾邮件分类器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/iR9VkctGx55L4HtYf2REtQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开课回顾 | 歌词文本分析中的那些套路（附录像）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/45qAh2YITfW24FaZRndXNg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据文摘招聘全职记者/高级编辑（同职位实习生）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/cA5YVHNtNqmbF5U6oPXPaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三问 Christopher Manning：超越模型存在的语言之美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/lIo00FNLZnUk63rE_OHV1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 谷歌全新神经网络架构Transformer：基于自注意力机制，擅长自然语言理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_UC2jlOfb34tfB_tsEXjMg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 将量化计算和 AI 用于药物固相筛选与设计，晶泰科技拟降低不断攀升的药物研发成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/UL3AvYjIGcFmIqKsC4ZKow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | 神经网络调试手册：从数据集与神经网络说起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/FlDYExlQDXBbASS7hnyTsA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 | 机器之心联合大数据文摘成立Neurons字幕组，一起玩点不一样的AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/bzzv8VOXG-O4YSP86mmI4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从FPS到RTS，一文概述游戏人工智能中的深度学习算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/cCnSvD5oEWZSu48Oyec-Kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访 | 在这场语音交互战事中，不看重论文的阿里iDST在默默做什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-5NExSgdn7AEGxBNgelqWQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | GitHub万星：适用于初学者的TensorFlow代码资源集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Es_5KUnkDzMwf_8WD8aW3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 牛津大学ICCV 2017 Workshop论文：利用GAN的单视角图片3D建模技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 用AI的方式攻破AI：GeekPwn大赛40万悬赏语音合成「机械师」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/lxINIaqpXaPlBuBygrQpxg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LlzIa_7saz7a9Cc5mepeWw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器之心独家解读：华为首款手机端AI芯片麒麟970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1r7G84les7FihqPbSiS0Ng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 如何使用深度学习去除人物图像背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3bAn-ev14lO9uxQzE0Tk0Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 神经优化器搜索：利用强化学习自动搜索最优化方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/OY56lJ_NFf5vVAgKfKyx2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名 | 机器之心邀请你参加一场AI与安全的对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ZLUnL1hoTqxgMX1dhBEBBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜没看过这5个模型，不要说你玩过CNN!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ToogpkDo-DpQaSoRoalnPg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜大规模机器学习框架的四重境界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/y_F6ZoqTY58xl0OnvaVpnw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜谷歌云负载均衡系统瘫痪18个小时！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/uyS67HSmQVrKNCDFpnWbEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴恩达宣布deeplearning.ai中文版课程免费开放啦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/VugXYbJO3ueZXAG9CsUS8Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂亮！大神用数学原理创作出逆天艺术品！惊呆了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/iv03L9TmuPlqAWUMO9KySw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源力量：用57行代码搞定花8000万美元采购车牌识别项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/fDEP82hhj2j9D_EU_-RVFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽悠！谷歌参投，获1亿多美元的“伪智能”公司Juicero宣告关闭！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/T2A92opBpj9tGXOGGy9yuw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET Core 在程序集中集成Razor视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/PQywIsfyGSob3k3qe4COXA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN超越RNN：DeepL机器翻译碾压谷歌、Facebook和微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/zg92TLOAPhPK47nDIzkX-g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael I. Jordan：人工智能的研究充满机会和挑战！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ylhPr4ES7DDjBSkpfOr3JA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为扔下这枚“AI芯弹”，全世界的智能手机都卡（慢）死了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LGI83Nrx6UFyKxpwQv8nYw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐|Bengio的《Deep Learning》中文版免费开放（资料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/N6iY-ZEOmSadbj7tf8QP5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点｜清华大学教授：几乎所有的AI，到现在为止都是胡扯！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/18Gurj8ONc2uGDnSKjd4-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用MobileNet-224压缩25％的神经网络的参数效果更好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/R7HRWMLkF0kEGfC2muDGaA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢人啦！清华大学11名研究生被处分 涉婚外情、偷窥女厕等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/au9B64rOcdVW3jGWAuFqfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【图解】2030年全球深度学习2/3将在中国完成，算力成AI发展最大瓶颈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/R101bDzljN4I3ighp_JYLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI引爆智能投资革命】十大AI领袖与金融专家演讲干货大放送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LH6QbtXkHL51s3LP18jJfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBM谢国彤：认知医疗四大焦点，医药信息学顶会MedInfo2017最佳论文解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YKpNuJHj-ULoUaHb-0OKAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【业界】基于腾讯Angel的LDA*入选VLDB，超越微软LightLDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Ib0Q50c9OsSZRWPQPcIn0g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI Top10】斯坦福 AI 毕业生出演香水广告；中国团队获世界 AI 桥牌赛亚军；Facebook 高管加盟 Uber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4O2NoTcadIzgNnVnk4AtLg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【更正】h-index Top 1000 计算机科学家，这是一份华人学者不完全名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/GXjakEpvtY4JvriF5_xFwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【深度学习Github 10万+源代码分析】Python是第三受欢迎语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/fI38c5vBtw5eMfcXf47HqQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【不含CPU，超越GPU 1000x】Wave公司发布数据流处理架构DPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/bL1PoUjZ_sH2VKcBxI6N5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普京：领导AI者将统领世界，未来战争派无人机上场即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/E0m1vlTNMo-mYkuBt4NsBQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦肯锡3000高管调查：要想利用AI取得成功，你需要知道这10个秘诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/08w6bjnA8pOEHiUXxddFBQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【57行代码搞定8600万美元项目】用开源工具DIY车牌识别系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/iwPI8g2JwabwiCO8kfw8Hw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【内幕】华为发布全球首款AI移动芯片，NPU疑为寒武纪1A处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/T4dNnjkWGZq1czh5XorX2g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【深度神经网络 One-shot Learning】孪生网络少样本精准分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/sAf2fLLnKHOs433pV_6bSQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【天干物燥 小心抠图】深度学习漂亮的图像软分割一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/MnK2LTWR9qEKiiz3OMsSMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【争抢90后】福布斯评美国千禧一代最喜欢的10家公司，微软第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/GQSDR-Mbje0EdU0hI7banA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【实战】GAN网络图像翻译机：图像复原、模糊变清晰、素描变彩图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/3Aq1HXpBzgNdcB130tCKbQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访小 i 机器人CEO朱频频：聊天机器人进入深耕应用场景的时候，什么才是真正的杀手锏？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9N8Xc8HW9Q4vvsuqlwB0tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 全景照片不怕歪！Facebook 用神经网络矫正扭曲的地平线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/57WY28Opdj4mMLa3Zsc3UQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点 | 开学啦！《自然》六年前好文：如何关怀和保养你的导师？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/U3Rvetdb1YCT5OvLA2vrig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 干货满满，阿里天池CIKM2017 Rank4比赛经验分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Yc2rtvdm7cKFDAsdr9przA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手在IROS大会上灵巧度能赶上一岁小孩吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xM4nSeJ3lhtsKS-mhISnjw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 产学跨界就是这么任性！达闼科技CEO黄晓庆担任华科大院长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/GsoXA5dOzJJJ4TFKcfc-Qw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 美国最大点评网站Yelp公开内部数据集，面向学生发起多样挑战赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/J9CT8fNU1ZFwIwZsyMlCvw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | 可能是近期最好玩的深度学习模型了：CycleGAN的原理与实验详解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3Y8XIeRU7cNPUWTuvDGE_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为发布全球首款移动端AI芯片，它将如何打开手机新世界？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Q0I5prQjqu6mwV5HeJyUng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态 | 阿里知识图谱首度曝光：用机器学习构建推理引擎，让千万黑心商家无处可逃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/oQbt8-D8Sz31mea-DtdJLQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 教你一个简单的深度学习方法检测人脸面部特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/UasW0OHVRmQmq0xLQ73CIw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 用PyTorch还是TensorFlow？斯坦福大学CS博士生带来全面解答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LgPO9Hqaxc1g8WusaHYsGw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10901,6 +11421,42 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10928,27 +11484,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10956,21 +11491,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11356,23 +11876,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42979</v>
+        <v>42982</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="79" t="str">
+      <c r="B3" s="67" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
-        <v>NSNG第35周行业资讯</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+        <v>NSNG第36周行业资讯</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -11383,22 +11903,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="61" t="str">
+      <c r="C5" s="73" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -11424,61 +11944,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="58" t="str">
+      <c r="B7" s="70" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="71" t="str">
+      <c r="B8" s="62" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="70" t="str">
+      <c r="C10" s="61" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="61" t="str">
+      <c r="C11" s="73" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -11505,60 +12025,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="58" t="str">
+      <c r="B13" s="70" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="71" t="str">
+      <c r="B14" s="62" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="70" t="str">
+      <c r="C16" s="61" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="61" t="str">
+      <c r="C17" s="73" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -11584,60 +12104,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="58" t="str">
+      <c r="B19" s="70" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="71" t="str">
+      <c r="B20" s="62" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="70" t="str">
+      <c r="C22" s="61" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="61" t="str">
+      <c r="C23" s="73" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -11663,60 +12183,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="58" t="str">
+      <c r="B25" s="70" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="71" t="str">
+      <c r="B26" s="62" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="70" t="str">
+      <c r="C28" s="61" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="61" t="str">
+      <c r="C29" s="73" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -11742,60 +12262,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="58" t="str">
+      <c r="B31" s="70" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="71" t="str">
+      <c r="B32" s="62" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="70" t="str">
+      <c r="C34" s="61" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="61" t="str">
+      <c r="C35" s="73" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -11821,60 +12341,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="58" t="str">
+      <c r="B37" s="70" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="71" t="str">
+      <c r="B38" s="62" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="70" t="str">
+      <c r="C40" s="61" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="61" t="str">
+      <c r="C41" s="73" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -11900,60 +12420,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="58" t="str">
+      <c r="B43" s="70" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="72"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="71" t="str">
+      <c r="B44" s="62" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="69"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="70" t="str">
+      <c r="C46" s="61" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="61" t="str">
+      <c r="C47" s="73" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -11979,60 +12499,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="58" t="str">
+      <c r="B49" s="70" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="71" t="str">
+      <c r="B50" s="62" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="69"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="70" t="str">
+      <c r="C52" s="61" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="61" t="str">
+      <c r="C53" s="73" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="75"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -12058,60 +12578,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="58" t="str">
+      <c r="B55" s="70" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="71" t="str">
+      <c r="B56" s="62" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="67"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="69"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="70" t="str">
+      <c r="C58" s="61" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="70"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="66"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="61" t="str">
+      <c r="C59" s="73" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="63"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -12137,60 +12657,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="58" t="str">
+      <c r="B61" s="70" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="72"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="71" t="str">
+      <c r="B62" s="62" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="64"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="67"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="69"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="70" t="str">
+      <c r="C64" s="61" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="66"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="61" t="str">
+      <c r="C65" s="73" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="75"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -12216,60 +12736,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="58" t="str">
+      <c r="B67" s="70" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="72"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="71" t="str">
+      <c r="B68" s="62" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="67"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="69"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="70" t="str">
+      <c r="C70" s="61" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="70"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="66"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="78"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="61" t="str">
+      <c r="C71" s="73" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="63"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="75"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -12295,60 +12815,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="58" t="str">
+      <c r="B73" s="70" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="72"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="71" t="str">
+      <c r="B74" s="62" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="67"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="69"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="70" t="str">
+      <c r="C76" s="61" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="66"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="78"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="61" t="str">
+      <c r="C77" s="73" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="75"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -12374,60 +12894,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="58" t="str">
+      <c r="B79" s="70" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="72"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="71" t="str">
+      <c r="B80" s="62" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="73"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="67"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="69"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="70" t="str">
+      <c r="C82" s="61" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="70"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="66"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="78"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="61" t="str">
+      <c r="C83" s="73" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="63"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="75"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -12453,60 +12973,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="58" t="str">
+      <c r="B85" s="70" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="72"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="71" t="str">
+      <c r="B86" s="62" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="73"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="67"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="69"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="70" t="str">
+      <c r="C88" s="61" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="70"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="66"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="78"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="61" t="str">
+      <c r="C89" s="73" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="63"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="75"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -12532,60 +13052,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="58" t="str">
+      <c r="B91" s="70" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="60"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="72"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="71" t="str">
+      <c r="B92" s="62" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="73"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="64"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="67"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="69"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="60"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="70" t="str">
+      <c r="C94" s="61" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="66"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="78"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="61" t="str">
+      <c r="C95" s="73" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="63"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="75"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -12611,60 +13131,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="58" t="str">
+      <c r="B97" s="70" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="60"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="72"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="71" t="str">
+      <c r="B98" s="62" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="72"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="73"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="64"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="67"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="69"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="60"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="70" t="str">
+      <c r="C100" s="61" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="70"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="66"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="78"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="61" t="str">
+      <c r="C101" s="73" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="63"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="75"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -12690,60 +13210,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="58" t="str">
+      <c r="B103" s="70" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="59"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="60"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="72"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="71" t="str">
+      <c r="B104" s="62" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="73"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="64"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="67"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="69"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="60"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="70" t="str">
+      <c r="C106" s="61" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="70"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="66"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="78"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="61" t="str">
+      <c r="C107" s="73" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="63"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="75"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -12769,60 +13289,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="58" t="str">
+      <c r="B109" s="70" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="59"/>
-      <c r="D109" s="59"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="60"/>
+      <c r="C109" s="71"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="72"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="71" t="str">
+      <c r="B110" s="62" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="72"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="73"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="64"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="67"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="69"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="60"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="70" t="str">
+      <c r="C112" s="61" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="70"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="66"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="78"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="61" t="str">
+      <c r="C113" s="73" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="63"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="75"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -12848,60 +13368,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="58" t="str">
+      <c r="B115" s="70" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="59"/>
-      <c r="D115" s="59"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="60"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="72"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="71" t="str">
+      <c r="B116" s="62" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="72"/>
-      <c r="D116" s="72"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="72"/>
-      <c r="G116" s="73"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
+      <c r="G116" s="64"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="67"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="69"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="60"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="70" t="str">
+      <c r="C118" s="61" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="70"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="66"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="78"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="61" t="str">
+      <c r="C119" s="73" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="63"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="75"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -12927,60 +13447,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="58" t="str">
+      <c r="B121" s="70" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="59"/>
-      <c r="D121" s="59"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="60"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="72"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="71" t="str">
+      <c r="B122" s="62" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="72"/>
-      <c r="D122" s="72"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="73"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="64"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="67"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68"/>
-      <c r="F123" s="68"/>
-      <c r="G123" s="69"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="59"/>
+      <c r="E123" s="59"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="60"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="70" t="str">
+      <c r="C124" s="61" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="70"/>
-      <c r="E124" s="64"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="66"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="78"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="61" t="str">
+      <c r="C125" s="73" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="62"/>
-      <c r="E125" s="62"/>
-      <c r="F125" s="62"/>
-      <c r="G125" s="63"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="75"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -13006,60 +13526,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="58" t="str">
+      <c r="B127" s="70" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="59"/>
-      <c r="D127" s="59"/>
-      <c r="E127" s="59"/>
-      <c r="F127" s="59"/>
-      <c r="G127" s="60"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="72"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="71" t="str">
+      <c r="B128" s="62" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="72"/>
-      <c r="D128" s="72"/>
-      <c r="E128" s="72"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="73"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="64"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="67"/>
-      <c r="C129" s="68"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="68"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="69"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="60"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="70" t="str">
+      <c r="C130" s="61" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="70"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="66"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="76"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="78"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="61" t="str">
+      <c r="C131" s="73" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
-      <c r="F131" s="62"/>
-      <c r="G131" s="63"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="75"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -13085,60 +13605,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="58" t="str">
+      <c r="B133" s="70" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="59"/>
-      <c r="D133" s="59"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="60"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="72"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="71" t="str">
+      <c r="B134" s="62" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="72"/>
-      <c r="D134" s="72"/>
-      <c r="E134" s="72"/>
-      <c r="F134" s="72"/>
-      <c r="G134" s="73"/>
+      <c r="C134" s="63"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="64"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="67"/>
-      <c r="C135" s="68"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="68"/>
-      <c r="F135" s="68"/>
-      <c r="G135" s="69"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="60"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="70" t="str">
+      <c r="C136" s="61" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="70"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="66"/>
+      <c r="D136" s="61"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="78"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="61" t="str">
+      <c r="C137" s="73" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="62"/>
-      <c r="E137" s="62"/>
-      <c r="F137" s="62"/>
-      <c r="G137" s="63"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="75"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -13164,60 +13684,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="58" t="str">
+      <c r="B139" s="70" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="59"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
-      <c r="G139" s="60"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="71"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="72"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="71" t="str">
+      <c r="B140" s="62" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="72"/>
-      <c r="D140" s="72"/>
-      <c r="E140" s="72"/>
-      <c r="F140" s="72"/>
-      <c r="G140" s="73"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="64"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="67"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="69"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="59"/>
+      <c r="G141" s="60"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="70" t="str">
+      <c r="C142" s="61" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="70"/>
-      <c r="E142" s="64"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="66"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="78"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="61" t="str">
+      <c r="C143" s="73" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="62"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="62"/>
-      <c r="G143" s="63"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="74"/>
+      <c r="G143" s="75"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -13243,60 +13763,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="58" t="str">
+      <c r="B145" s="70" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="59"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="60"/>
+      <c r="C145" s="71"/>
+      <c r="D145" s="71"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="72"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="71" t="str">
+      <c r="B146" s="62" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="72"/>
-      <c r="D146" s="72"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="73"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="64"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="67"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="68"/>
-      <c r="G147" s="69"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="60"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="70" t="str">
+      <c r="C148" s="61" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="70"/>
-      <c r="E148" s="64"/>
-      <c r="F148" s="65"/>
-      <c r="G148" s="66"/>
+      <c r="D148" s="61"/>
+      <c r="E148" s="76"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="78"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="61" t="str">
+      <c r="C149" s="73" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="62"/>
-      <c r="E149" s="62"/>
-      <c r="F149" s="62"/>
-      <c r="G149" s="63"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="74"/>
+      <c r="G149" s="75"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -13322,60 +13842,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="58" t="str">
+      <c r="B151" s="70" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="59"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="60"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="72"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="71" t="str">
+      <c r="B152" s="62" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="72"/>
-      <c r="D152" s="72"/>
-      <c r="E152" s="72"/>
-      <c r="F152" s="72"/>
-      <c r="G152" s="73"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="64"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="67"/>
-      <c r="C153" s="68"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="68"/>
-      <c r="F153" s="68"/>
-      <c r="G153" s="69"/>
+      <c r="B153" s="58"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="60"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="70" t="str">
+      <c r="C154" s="61" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="70"/>
-      <c r="E154" s="64"/>
-      <c r="F154" s="65"/>
-      <c r="G154" s="66"/>
+      <c r="D154" s="61"/>
+      <c r="E154" s="76"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="78"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="61" t="str">
+      <c r="C155" s="73" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="62"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="62"/>
-      <c r="G155" s="63"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
+      <c r="G155" s="75"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -13401,60 +13921,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="58" t="str">
+      <c r="B157" s="70" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="59"/>
-      <c r="D157" s="59"/>
-      <c r="E157" s="59"/>
-      <c r="F157" s="59"/>
-      <c r="G157" s="60"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="71"/>
+      <c r="E157" s="71"/>
+      <c r="F157" s="71"/>
+      <c r="G157" s="72"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="71" t="str">
+      <c r="B158" s="62" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="72"/>
-      <c r="D158" s="72"/>
-      <c r="E158" s="72"/>
-      <c r="F158" s="72"/>
-      <c r="G158" s="73"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="63"/>
+      <c r="G158" s="64"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="67"/>
-      <c r="C159" s="68"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="68"/>
-      <c r="F159" s="68"/>
-      <c r="G159" s="69"/>
+      <c r="B159" s="58"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="59"/>
+      <c r="E159" s="59"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="60"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="70" t="str">
+      <c r="C160" s="61" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="70"/>
-      <c r="E160" s="64"/>
-      <c r="F160" s="65"/>
-      <c r="G160" s="66"/>
+      <c r="D160" s="61"/>
+      <c r="E160" s="76"/>
+      <c r="F160" s="77"/>
+      <c r="G160" s="78"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="61" t="str">
+      <c r="C161" s="73" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="62"/>
-      <c r="E161" s="62"/>
-      <c r="F161" s="62"/>
-      <c r="G161" s="63"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="74"/>
+      <c r="G161" s="75"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -13480,60 +14000,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="58" t="str">
+      <c r="B163" s="70" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="59"/>
-      <c r="D163" s="59"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="59"/>
-      <c r="G163" s="60"/>
+      <c r="C163" s="71"/>
+      <c r="D163" s="71"/>
+      <c r="E163" s="71"/>
+      <c r="F163" s="71"/>
+      <c r="G163" s="72"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="71" t="str">
+      <c r="B164" s="62" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="72"/>
-      <c r="D164" s="72"/>
-      <c r="E164" s="72"/>
-      <c r="F164" s="72"/>
-      <c r="G164" s="73"/>
+      <c r="C164" s="63"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="63"/>
+      <c r="F164" s="63"/>
+      <c r="G164" s="64"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="67"/>
-      <c r="C165" s="68"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="68"/>
-      <c r="F165" s="68"/>
-      <c r="G165" s="69"/>
+      <c r="B165" s="58"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="60"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="70" t="str">
+      <c r="C166" s="61" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="70"/>
-      <c r="E166" s="64"/>
-      <c r="F166" s="65"/>
-      <c r="G166" s="66"/>
+      <c r="D166" s="61"/>
+      <c r="E166" s="76"/>
+      <c r="F166" s="77"/>
+      <c r="G166" s="78"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="61" t="str">
+      <c r="C167" s="73" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="62"/>
-      <c r="E167" s="62"/>
-      <c r="F167" s="62"/>
-      <c r="G167" s="63"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="74"/>
+      <c r="G167" s="75"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -13559,60 +14079,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="58" t="str">
+      <c r="B169" s="70" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="59"/>
-      <c r="D169" s="59"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="60"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="71"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="71"/>
+      <c r="G169" s="72"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="71" t="str">
+      <c r="B170" s="62" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="72"/>
-      <c r="D170" s="72"/>
-      <c r="E170" s="72"/>
-      <c r="F170" s="72"/>
-      <c r="G170" s="73"/>
+      <c r="C170" s="63"/>
+      <c r="D170" s="63"/>
+      <c r="E170" s="63"/>
+      <c r="F170" s="63"/>
+      <c r="G170" s="64"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="67"/>
-      <c r="C171" s="68"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="68"/>
-      <c r="F171" s="68"/>
-      <c r="G171" s="69"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="60"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="70" t="str">
+      <c r="C172" s="61" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="70"/>
-      <c r="E172" s="64"/>
-      <c r="F172" s="65"/>
-      <c r="G172" s="66"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="76"/>
+      <c r="F172" s="77"/>
+      <c r="G172" s="78"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="61" t="str">
+      <c r="C173" s="73" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="62"/>
-      <c r="E173" s="62"/>
-      <c r="F173" s="62"/>
-      <c r="G173" s="63"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
+      <c r="F173" s="74"/>
+      <c r="G173" s="75"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -13638,60 +14158,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="58" t="str">
+      <c r="B175" s="70" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="59"/>
-      <c r="D175" s="59"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="59"/>
-      <c r="G175" s="60"/>
+      <c r="C175" s="71"/>
+      <c r="D175" s="71"/>
+      <c r="E175" s="71"/>
+      <c r="F175" s="71"/>
+      <c r="G175" s="72"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="71" t="str">
+      <c r="B176" s="62" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="72"/>
-      <c r="D176" s="72"/>
-      <c r="E176" s="72"/>
-      <c r="F176" s="72"/>
-      <c r="G176" s="73"/>
+      <c r="C176" s="63"/>
+      <c r="D176" s="63"/>
+      <c r="E176" s="63"/>
+      <c r="F176" s="63"/>
+      <c r="G176" s="64"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="67"/>
-      <c r="C177" s="68"/>
-      <c r="D177" s="68"/>
-      <c r="E177" s="68"/>
-      <c r="F177" s="68"/>
-      <c r="G177" s="69"/>
+      <c r="B177" s="58"/>
+      <c r="C177" s="59"/>
+      <c r="D177" s="59"/>
+      <c r="E177" s="59"/>
+      <c r="F177" s="59"/>
+      <c r="G177" s="60"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="70" t="str">
+      <c r="C178" s="61" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="70"/>
-      <c r="E178" s="64"/>
-      <c r="F178" s="65"/>
-      <c r="G178" s="66"/>
+      <c r="D178" s="61"/>
+      <c r="E178" s="76"/>
+      <c r="F178" s="77"/>
+      <c r="G178" s="78"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="61" t="str">
+      <c r="C179" s="73" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="62"/>
-      <c r="E179" s="62"/>
-      <c r="F179" s="62"/>
-      <c r="G179" s="63"/>
+      <c r="D179" s="74"/>
+      <c r="E179" s="74"/>
+      <c r="F179" s="74"/>
+      <c r="G179" s="75"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -13717,124 +14237,107 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="58" t="str">
+      <c r="B181" s="70" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="59"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="60"/>
+      <c r="C181" s="71"/>
+      <c r="D181" s="71"/>
+      <c r="E181" s="71"/>
+      <c r="F181" s="71"/>
+      <c r="G181" s="72"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="71" t="str">
+      <c r="B182" s="62" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="72"/>
-      <c r="D182" s="72"/>
-      <c r="E182" s="72"/>
-      <c r="F182" s="72"/>
-      <c r="G182" s="73"/>
+      <c r="C182" s="63"/>
+      <c r="D182" s="63"/>
+      <c r="E182" s="63"/>
+      <c r="F182" s="63"/>
+      <c r="G182" s="64"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="74"/>
-      <c r="C183" s="75"/>
-      <c r="D183" s="75"/>
-      <c r="E183" s="75"/>
-      <c r="F183" s="75"/>
-      <c r="G183" s="76"/>
+      <c r="B183" s="79"/>
+      <c r="C183" s="80"/>
+      <c r="D183" s="80"/>
+      <c r="E183" s="80"/>
+      <c r="F183" s="80"/>
+      <c r="G183" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="C95:G95"/>
@@ -13859,76 +14362,93 @@
     <mergeCell ref="E106:G106"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="E142:G142"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="C137:G137"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20422,10 +20942,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1231"/>
+  <dimension ref="A1:AB1296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1158" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E1238" sqref="E1238"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1296" sqref="E1296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -40848,7 +41368,7 @@
       <c r="D1164" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1164" s="1" t="s">
+      <c r="E1164" s="57" t="s">
         <v>2359</v>
       </c>
       <c r="F1164" s="56" t="s">
@@ -41171,7 +41691,7 @@
       <c r="D1183" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E1183" s="1" t="s">
+      <c r="E1183" s="57" t="s">
         <v>2397</v>
       </c>
       <c r="F1183" s="56" t="s">
@@ -41681,7 +42201,7 @@
       <c r="D1213" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E1213" s="1" t="s">
+      <c r="E1213" s="57" t="s">
         <v>2457</v>
       </c>
       <c r="F1213" s="56" t="s">
@@ -41994,8 +42514,1113 @@
         <v>2494</v>
       </c>
     </row>
+    <row r="1232" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1232" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1232" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1232" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1232" s="57" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F1232" s="56" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="1233" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1233" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1233" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1233" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1233" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F1233" s="56" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="1234" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1234" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1234" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1234" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1234" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="F1234" s="56" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1235" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1235" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1235" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1235" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F1235" s="56" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="1236" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1236" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1236" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1236" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1236" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F1236" s="56" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1237" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1237" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1237" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1237" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="F1237" s="56" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1238" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1238" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1238" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1238" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1238" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F1238" s="56" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1239" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1239" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1239" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1239" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F1239" s="56" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1240" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1240" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1240" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1240" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F1240" s="56" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1241" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1241" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1241" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1241" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1241" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F1241" s="56" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="1242" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1242" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1242" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1242" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1242" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F1242" s="56" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1243" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1243" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1243" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1243" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1243" s="57" t="s">
+        <v>2517</v>
+      </c>
+      <c r="F1243" s="56" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="1244" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1244" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1244" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1244" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1244" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="F1244" s="56" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1245" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1245" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1245" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1245" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F1245" s="56" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1246" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1246" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1246" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1246" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1246" s="56" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1247" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1247" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1247" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1247" s="57" t="s">
+        <v>2525</v>
+      </c>
+      <c r="F1247" s="56" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1248" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1248" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1248" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1248" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F1248" s="56" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1249" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1249" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1249" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1249" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1249" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1249" s="56" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1250" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1250" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1250" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1250" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1250" s="57" t="s">
+        <v>2531</v>
+      </c>
+      <c r="F1250" s="56" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1251" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1251" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1251" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1251" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1251" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F1251" s="56" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1252" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1252" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1252" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1252" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1252" s="57" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F1252" s="56" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1253" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1253" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1253" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1253" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1253" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="F1253" s="56" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1254" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1254" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1254" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1254" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1254" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F1254" s="56" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1255" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1255" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1255" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1255" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1255" s="57" t="s">
+        <v>2541</v>
+      </c>
+      <c r="F1255" s="56" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1256" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1256" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1256" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1256" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1256" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="F1256" s="56" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1257" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1257" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1257" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1257" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1257" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F1257" s="56" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1258" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1258" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1258" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1258" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1258" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F1258" s="56" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1259" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1259" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1259" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1259" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1259" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="F1259" s="56" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1260" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1260" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1260" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1260" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1260" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F1260" s="56" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1261" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1261" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1261" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1261" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1261" s="56" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="1262" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1262" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1262" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1262" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1262" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F1262" s="56" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1263" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1263" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1263" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1263" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1263" s="57" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F1263" s="56" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="1264" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1264" s="45">
+        <v>42982</v>
+      </c>
+      <c r="C1264" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1264" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1264" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F1264" s="56" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1265" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1265" s="45">
+        <v>42982</v>
+      </c>
+      <c r="C1265" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1265" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1265" s="57" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F1265" s="56" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1266" s="45">
+        <v>42982</v>
+      </c>
+      <c r="C1266" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1266" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1266" s="57" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F1266" s="56" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1267" s="45">
+        <v>42982</v>
+      </c>
+      <c r="C1267" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1267" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1267" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F1267" s="56" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1268" s="45">
+        <v>42982</v>
+      </c>
+      <c r="C1268" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1268" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1268" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F1268" s="56" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1269" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1269" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1269" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1269" s="57" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F1269" s="56" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1270" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1270" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1270" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1270" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F1270" s="56" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1271" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1271" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1271" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1271" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1271" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F1271" s="56" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1272" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1272" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1272" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1272" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1272" s="56" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1273" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1273" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1273" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1273" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F1273" s="56" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1274" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1274" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1274" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1274" s="57" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F1274" s="56" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1275" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1275" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1275" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1275" s="57" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F1275" s="56" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1276" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1276" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1276" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1276" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1276" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F1276" s="56" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1277" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1277" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1277" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1277" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F1277" s="56" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1278" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1278" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1278" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1278" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F1278" s="56" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1279" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1279" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1279" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1279" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1279" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F1279" s="56" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1280" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1280" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1280" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1280" s="57" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F1280" s="56" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1281" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1281" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1281" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1281" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1281" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F1281" s="56" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1282" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1282" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1282" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1282" s="57" t="s">
+        <v>2595</v>
+      </c>
+      <c r="F1282" s="56" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1283" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1283" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1283" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1283" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F1283" s="56" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1284" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1284" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1284" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1284" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F1284" s="56" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1285" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1285" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1285" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1285" s="57" t="s">
+        <v>2601</v>
+      </c>
+      <c r="F1285" s="56" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1286" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1286" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1286" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1286" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1286" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F1286" s="56" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1287" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1287" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1287" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1287" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1287" s="57" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F1287" s="56" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1288" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1288" s="45">
+        <v>42979</v>
+      </c>
+      <c r="C1288" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1288" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1288" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F1288" s="56" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1289" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1289" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1289" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1289" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1289" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F1289" s="56" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1290" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1290" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1290" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1290" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1290" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F1290" s="56" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="1291" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1291" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1291" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1291" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1291" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F1291" s="56" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="1292" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1292" s="45">
+        <v>42980</v>
+      </c>
+      <c r="C1292" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1292" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1292" s="57" t="s">
+        <v>2615</v>
+      </c>
+      <c r="F1292" s="56" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1293" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1293" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1293" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1293" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1293" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F1293" s="56" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1294" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1294" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1294" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1294" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1294" s="57" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F1294" s="56" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1295" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1295" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1295" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1295" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1295" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F1295" s="56" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1296" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1296" s="45">
+        <v>42981</v>
+      </c>
+      <c r="C1296" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1296" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1296" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F1296" s="56" t="s">
+        <v>2624</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1231"/>
+  <autoFilter ref="A1:F1296"/>
   <sortState ref="A2:J16">
     <sortCondition ref="B2"/>
   </sortState>
@@ -43229,9 +44854,74 @@
     <hyperlink ref="F1229" r:id="rId1218"/>
     <hyperlink ref="F1230" r:id="rId1219"/>
     <hyperlink ref="F1231" r:id="rId1220"/>
+    <hyperlink ref="F1232" r:id="rId1221"/>
+    <hyperlink ref="F1233" r:id="rId1222"/>
+    <hyperlink ref="F1234" r:id="rId1223"/>
+    <hyperlink ref="F1235" r:id="rId1224"/>
+    <hyperlink ref="F1236" r:id="rId1225"/>
+    <hyperlink ref="F1237" r:id="rId1226"/>
+    <hyperlink ref="F1238" r:id="rId1227"/>
+    <hyperlink ref="F1239" r:id="rId1228"/>
+    <hyperlink ref="F1240" r:id="rId1229"/>
+    <hyperlink ref="F1241" r:id="rId1230"/>
+    <hyperlink ref="F1242" r:id="rId1231"/>
+    <hyperlink ref="F1243" r:id="rId1232"/>
+    <hyperlink ref="F1244" r:id="rId1233"/>
+    <hyperlink ref="F1245" r:id="rId1234"/>
+    <hyperlink ref="F1246" r:id="rId1235"/>
+    <hyperlink ref="F1247" r:id="rId1236"/>
+    <hyperlink ref="F1249" r:id="rId1237"/>
+    <hyperlink ref="F1248" r:id="rId1238"/>
+    <hyperlink ref="F1250" r:id="rId1239"/>
+    <hyperlink ref="F1251" r:id="rId1240"/>
+    <hyperlink ref="F1252" r:id="rId1241"/>
+    <hyperlink ref="F1253" r:id="rId1242"/>
+    <hyperlink ref="F1254" r:id="rId1243"/>
+    <hyperlink ref="F1255" r:id="rId1244"/>
+    <hyperlink ref="F1256" r:id="rId1245"/>
+    <hyperlink ref="F1257" r:id="rId1246"/>
+    <hyperlink ref="F1258" r:id="rId1247"/>
+    <hyperlink ref="F1259" r:id="rId1248"/>
+    <hyperlink ref="F1260" r:id="rId1249"/>
+    <hyperlink ref="F1261" r:id="rId1250"/>
+    <hyperlink ref="F1262" r:id="rId1251"/>
+    <hyperlink ref="F1263" r:id="rId1252"/>
+    <hyperlink ref="F1264" r:id="rId1253"/>
+    <hyperlink ref="F1265" r:id="rId1254"/>
+    <hyperlink ref="F1266" r:id="rId1255"/>
+    <hyperlink ref="F1267" r:id="rId1256"/>
+    <hyperlink ref="F1268" r:id="rId1257"/>
+    <hyperlink ref="F1269" r:id="rId1258"/>
+    <hyperlink ref="F1270" r:id="rId1259"/>
+    <hyperlink ref="F1271" r:id="rId1260"/>
+    <hyperlink ref="F1272" r:id="rId1261"/>
+    <hyperlink ref="F1273" r:id="rId1262"/>
+    <hyperlink ref="F1274" r:id="rId1263"/>
+    <hyperlink ref="F1275" r:id="rId1264"/>
+    <hyperlink ref="F1276" r:id="rId1265"/>
+    <hyperlink ref="F1277" r:id="rId1266"/>
+    <hyperlink ref="F1278" r:id="rId1267"/>
+    <hyperlink ref="F1279" r:id="rId1268"/>
+    <hyperlink ref="F1280" r:id="rId1269"/>
+    <hyperlink ref="F1281" r:id="rId1270"/>
+    <hyperlink ref="F1282" r:id="rId1271"/>
+    <hyperlink ref="F1283" r:id="rId1272"/>
+    <hyperlink ref="F1284" r:id="rId1273"/>
+    <hyperlink ref="F1285" r:id="rId1274"/>
+    <hyperlink ref="F1286" r:id="rId1275"/>
+    <hyperlink ref="F1287" r:id="rId1276"/>
+    <hyperlink ref="F1288" r:id="rId1277"/>
+    <hyperlink ref="F1289" r:id="rId1278"/>
+    <hyperlink ref="F1290" r:id="rId1279"/>
+    <hyperlink ref="F1291" r:id="rId1280"/>
+    <hyperlink ref="F1292" r:id="rId1281"/>
+    <hyperlink ref="F1293" r:id="rId1282"/>
+    <hyperlink ref="F1294" r:id="rId1283"/>
+    <hyperlink ref="F1295" r:id="rId1284"/>
+    <hyperlink ref="F1296" r:id="rId1285"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1221"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1286"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1487</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5956" uniqueCount="2927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="3027">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11735,6 +11735,406 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/QK803vs9jB1knXxyfezhYw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码实现！ 教学视频！Python学习者最易上手的机器学习漫游指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/tN7KVBA9GqdjpAjW-_WF8Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前沿 | 谷歌翻译最新突破，“关注机制”让机器读懂词与词的联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/2gxp7A38epQWoy7wK8Nl6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以太坊是什么鬼？！媲美比特币的加密币大揭秘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/qopknJ8l93aJ8iUGzsFhMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI大事件 | IBM和MIT成立联合人工智能研究实验室，谷歌大脑团队将在Reddit上举行AMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BJsWmiNkmKRwI__l0c33dA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果2017发布会直击：是的我们AI论文发的少，但我们有iPhone X啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/u__rzG6rN290tlj0hcsp_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | MIT手把手教你一步步创建自己的R程序包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/W91sppqv3iGtaZPY99suDQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位情报局 | 商汤科技、证通股份、大姨妈相关职位招聘ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ZPfHTRHa3bv-ZKl-uGhd0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想入门机器学习？机器之心为你准备了一份中文资源合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vYVeGKXRVMAz2a2t7QYaNQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 内存带宽与计算能力，谁才是决定深度学习执行性能的关键？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 杜克大学NIPS 2017 Oral论文：分布式深度学习训练算法TernGrad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/y9dVg9YtfWxu6NcW-fxi6Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ToIDncp9dS_qk47PsdZm5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | CMU研究者探索新卷积方法：在实验中可媲美基准CNN（附实验代码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ybI8kJPRn7sH-hJbc5uqnw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播 | 创新·变革·突破——2017中国人工智能峰会（CAIS 2017）明日开幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/KUY2A5_1ICNNxHbN7QdtEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆款论文提出简单循环单元SRU：像CNN一样快速训练RNN（附开源代码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/0TLaC8ACXAFEK5aMNK9O-Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 从芝加哥大学辍学，扎进医疗行业，他创办的推想科技想用AI帮医生提升效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/q37JtY3oaTLXfMheg6fA7w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 极限元语音算法专家刘斌：基于深度学习的语音生成问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/CVBSvQwnDqT-IVCZV7idog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 如何基于TensorFlow使用LSTM和CNN实现时序分类任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/pSE2V8wD3_KHMI71kLTXng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 用量子计算辅助深度学习：研究者提出量子辅助Helmholtz机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Fb6EsXz8avFkGY7sMdNF6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年7大最受欢迎的AI编程语言：Python第一!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dmjG5XO71K7F_KO0uQMZRg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争议｜LGBT群体抗议——斯坦福发布“同性恋识别”算法！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/oqRmk96d_IK534XVO8moxQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何看穿数据可视化的谎言？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1aCsv1y2heopjnEAEY_Cfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源｜人脸检测的C / C ++源代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/KTLzq6JJxmgIgOwwEEqCRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一步一步带你用TensorFlow玩转LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/dHkmDvFVUGmt4Ch-gv3s1g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017上半年无监督特征学习研究成果汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kbqTHIOzAj1aERl4tm-kVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于机器学习你必须了解的十个真相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/5QX_5MZPdi9urikyvDhF_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习的入门“秘籍”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/IYKV40kOzu4ZFcGPMLV5IQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【世界知名量子科学家加盟阿里】施尧耘出任阿里云量子技术首席科学家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dvnomN0w3XZoUvQlPlQC_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【专访】国家超级计算无锡中心主任杨广文：神威·太湖之光将加大对深度学习的支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BXX8v6P534zq-3EqtdAoIQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软与谷歌的“云计算争霸赛”：人工智能才是关键看点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/NkiRCmmFsRwl-2S9UMcNeQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【精度平均最高80%】机器学习+全基因组测序，准确预测人体特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/XAD8B0PgDkGzgqk5SyzjBg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017最受欢迎人工智能编程语言：Python第一，R并未上榜‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_6PYHf5FYnzyEAfP4YO4IA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【截胡谷歌】全球首款量产无人驾驶汽车发布，通用汽车抢滩L4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/5P3ypPxWwykue7N6mreCwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【像训练CNN一样快速训练RNN】全新RNN实现，比优化后的LSTM快10倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/gGGXKT2fTn2xPPvo7PE8IA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【麦肯锡】人机结合：制造自动化新时代中印受影响最大，至少2.38亿人会被淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/NJ65-iCOAZdc5XN8Lzs0Vg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Science：AI如何能在谈判时比人类更好，何时代表我们谈判？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/m372k_K9FN5Zx9X2iLgpGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃森哲：AI将是新的UI，未来绝大部分交互界面没有屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YN0EoIrpF4bhUO6j7BP2Ig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【iPhone X重磅发布】携A11人工智能芯片登场,人脸识别9大特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kttLjl7DDxB0XVE97pmv_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【专访微软黄学东】0.1%，0.2%与0.3%，语音识别军备竞赛中小数点差距有何意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/5K5yZfWwsVoGus-s2yjkwA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【强化学习实战】基于gym和tensorflow的强化学习算法实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Bx5Djj-RE0jPJ7LjyQ7GPg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习的IR“之争”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/jjT0x99ht8xtfWmzL-0R1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个公众号想告诉你：科学真的很有趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/pmQl7yszHqiFwGeWny8-Dw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为AI首席科学家裴健：产业AI化的核心是数据及对它的挖掘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/B-M1hu3-9JSmArWTJRGTpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | 六张图带你全方位看懂EMNLP 2017，神经网络和深度学习占总投稿论文2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/5HJ18Re2QNXtiiQOp-0zNw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 国科大人工智能技术学院揭牌，第一批研究生正式入学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/6i7oEv3kn_-Hjc6IoWbwFg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | 如何用TensorFlow生成令人惊艳的分形图案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ClbLkmnLdUgKIKs8X36iaA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 艾伦人工智能研究院开源AllenNLP，基于PyTorch轻松构建NLP模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Z5YS7rcNU9KPOXm5KjjPFg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMNLP最佳长论文作者独家解读：别让机器学习放大性别偏见，其实男人也喜欢购物！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8_cGxH0_740jjO3eluetHw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 如何提高NIPS论文命中率？这里有一份详细的分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9hy_6K9B34ctzhMm0q17IA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点 | 人工智能应该如何监管？华盛顿大学教授 Oren Etzioni 给出了他的“人工智能三定律”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/QVyCQ1wvkzqC1bzfRVF99Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | AIDL4活动议程正式发布：北航王蕴红教授领衔《智能感知与交互》即将在中科院自动化所举办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Oht_x9YThiG6XaWeAaR0Jw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | TensorFlow新功能解锁：用户可以在TensorBoard中增加自定义可视化插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/KzHaqP0ECZK6WUDTGUx3Dg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12629,42 +13029,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -12692,6 +13056,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12699,6 +13084,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13084,23 +13484,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42989</v>
+        <v>42991</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="79" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
         <v>NSNG第37周行业资讯</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -13111,22 +13511,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73" t="str">
+      <c r="C5" s="61" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -13152,61 +13552,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="70" t="str">
+      <c r="B7" s="58" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="71" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="61" t="str">
+      <c r="C10" s="70" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="73" t="str">
+      <c r="C11" s="61" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -13233,60 +13633,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="70" t="str">
+      <c r="B13" s="58" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="62" t="str">
+      <c r="B14" s="71" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="61" t="str">
+      <c r="C16" s="70" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="73" t="str">
+      <c r="C17" s="61" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -13312,60 +13712,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="70" t="str">
+      <c r="B19" s="58" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="62" t="str">
+      <c r="B20" s="71" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="61" t="str">
+      <c r="C22" s="70" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="73" t="str">
+      <c r="C23" s="61" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -13391,60 +13791,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="70" t="str">
+      <c r="B25" s="58" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="62" t="str">
+      <c r="B26" s="71" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="61" t="str">
+      <c r="C28" s="70" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="73" t="str">
+      <c r="C29" s="61" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -13470,60 +13870,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="70" t="str">
+      <c r="B31" s="58" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="62" t="str">
+      <c r="B32" s="71" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="61" t="str">
+      <c r="C34" s="70" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="73" t="str">
+      <c r="C35" s="61" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="75"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -13549,60 +13949,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="70" t="str">
+      <c r="B37" s="58" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="72"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="62" t="str">
+      <c r="B38" s="71" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="61" t="str">
+      <c r="C40" s="70" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="78"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="73" t="str">
+      <c r="C41" s="61" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -13628,60 +14028,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="70" t="str">
+      <c r="B43" s="58" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="62" t="str">
+      <c r="B44" s="71" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="60"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="69"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="61" t="str">
+      <c r="C46" s="70" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="78"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="73" t="str">
+      <c r="C47" s="61" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -13707,60 +14107,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="70" t="str">
+      <c r="B49" s="58" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="62" t="str">
+      <c r="B50" s="71" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="69"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="61" t="str">
+      <c r="C52" s="70" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="73" t="str">
+      <c r="C53" s="61" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="75"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -13786,60 +14186,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="70" t="str">
+      <c r="B55" s="58" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="72"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="62" t="str">
+      <c r="B56" s="71" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="73"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="58"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="69"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="61" t="str">
+      <c r="C58" s="70" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="78"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="66"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="73" t="str">
+      <c r="C59" s="61" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="63"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -13865,60 +14265,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="70" t="str">
+      <c r="B61" s="58" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="72"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="62" t="str">
+      <c r="B62" s="71" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="58"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="69"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="61" t="str">
+      <c r="C64" s="70" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="66"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="73" t="str">
+      <c r="C65" s="61" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -13944,60 +14344,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="70" t="str">
+      <c r="B67" s="58" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="72"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="62" t="str">
+      <c r="B68" s="71" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="69"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="61" t="str">
+      <c r="C70" s="70" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="78"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="66"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="73" t="str">
+      <c r="C71" s="61" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="75"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="63"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -14023,60 +14423,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="70" t="str">
+      <c r="B73" s="58" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="72"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="62" t="str">
+      <c r="B74" s="71" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="64"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="58"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="69"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="61" t="str">
+      <c r="C76" s="70" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="61"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="78"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="66"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="73" t="str">
+      <c r="C77" s="61" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -14102,60 +14502,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="70" t="str">
+      <c r="B79" s="58" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="72"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="62" t="str">
+      <c r="B80" s="71" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="73"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="58"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="69"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="61" t="str">
+      <c r="C82" s="70" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="78"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="66"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="73" t="str">
+      <c r="C83" s="61" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="75"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="63"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -14181,60 +14581,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="70" t="str">
+      <c r="B85" s="58" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="72"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="62" t="str">
+      <c r="B86" s="71" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="58"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="69"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="61" t="str">
+      <c r="C88" s="70" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="78"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="66"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="73" t="str">
+      <c r="C89" s="61" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="75"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="63"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -14260,60 +14660,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="70" t="str">
+      <c r="B91" s="58" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="72"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="60"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="62" t="str">
+      <c r="B92" s="71" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="64"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="73"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="58"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="60"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="69"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="61" t="str">
+      <c r="C94" s="70" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="61"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="78"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="66"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="73" t="str">
+      <c r="C95" s="61" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="75"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="63"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -14339,60 +14739,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="70" t="str">
+      <c r="B97" s="58" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="72"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="60"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="62" t="str">
+      <c r="B98" s="71" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="63"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63"/>
-      <c r="G98" s="64"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="73"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="58"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="60"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="69"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="61" t="str">
+      <c r="C100" s="70" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="61"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="78"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="66"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="73" t="str">
+      <c r="C101" s="61" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="75"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="63"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -14418,60 +14818,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="70" t="str">
+      <c r="B103" s="58" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="71"/>
-      <c r="D103" s="71"/>
-      <c r="E103" s="71"/>
-      <c r="F103" s="71"/>
-      <c r="G103" s="72"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="60"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="62" t="str">
+      <c r="B104" s="71" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="63"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="63"/>
-      <c r="F104" s="63"/>
-      <c r="G104" s="64"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="73"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="58"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="60"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="69"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="61" t="str">
+      <c r="C106" s="70" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="61"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="78"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="66"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="73" t="str">
+      <c r="C107" s="61" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="75"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="63"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -14497,60 +14897,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="70" t="str">
+      <c r="B109" s="58" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="71"/>
-      <c r="D109" s="71"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="72"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="60"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="62" t="str">
+      <c r="B110" s="71" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="63"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="63"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="64"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="73"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="58"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="60"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="69"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="61" t="str">
+      <c r="C112" s="70" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="61"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="78"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="66"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="73" t="str">
+      <c r="C113" s="61" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="75"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="63"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -14576,60 +14976,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="70" t="str">
+      <c r="B115" s="58" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="71"/>
-      <c r="D115" s="71"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="72"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="60"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="62" t="str">
+      <c r="B116" s="71" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="63"/>
-      <c r="D116" s="63"/>
-      <c r="E116" s="63"/>
-      <c r="F116" s="63"/>
-      <c r="G116" s="64"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="73"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="58"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="60"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="69"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="61" t="str">
+      <c r="C118" s="70" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="61"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="78"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="66"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="73" t="str">
+      <c r="C119" s="61" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="75"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="63"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -14655,60 +15055,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="70" t="str">
+      <c r="B121" s="58" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="71"/>
-      <c r="D121" s="71"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="72"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="60"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="62" t="str">
+      <c r="B122" s="71" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="63"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="63"/>
-      <c r="F122" s="63"/>
-      <c r="G122" s="64"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="72"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="73"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="58"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="59"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="60"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="69"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="61" t="str">
+      <c r="C124" s="70" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="61"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="78"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="66"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="73" t="str">
+      <c r="C125" s="61" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="75"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="63"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -14734,60 +15134,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="70" t="str">
+      <c r="B127" s="58" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="71"/>
-      <c r="D127" s="71"/>
-      <c r="E127" s="71"/>
-      <c r="F127" s="71"/>
-      <c r="G127" s="72"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="59"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="62" t="str">
+      <c r="B128" s="71" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="64"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="73"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="58"/>
-      <c r="C129" s="59"/>
-      <c r="D129" s="59"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="59"/>
-      <c r="G129" s="60"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="69"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="61" t="str">
+      <c r="C130" s="70" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="61"/>
-      <c r="E130" s="76"/>
-      <c r="F130" s="77"/>
-      <c r="G130" s="78"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="66"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="73" t="str">
+      <c r="C131" s="61" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="75"/>
+      <c r="D131" s="62"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="62"/>
+      <c r="G131" s="63"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -14813,60 +15213,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="70" t="str">
+      <c r="B133" s="58" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="72"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="60"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="62" t="str">
+      <c r="B134" s="71" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="63"/>
-      <c r="D134" s="63"/>
-      <c r="E134" s="63"/>
-      <c r="F134" s="63"/>
-      <c r="G134" s="64"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="73"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="58"/>
-      <c r="C135" s="59"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="60"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="68"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="69"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="61" t="str">
+      <c r="C136" s="70" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="61"/>
-      <c r="E136" s="76"/>
-      <c r="F136" s="77"/>
-      <c r="G136" s="78"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="66"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="73" t="str">
+      <c r="C137" s="61" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="75"/>
+      <c r="D137" s="62"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="62"/>
+      <c r="G137" s="63"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -14892,60 +15292,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="70" t="str">
+      <c r="B139" s="58" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="71"/>
-      <c r="D139" s="71"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="72"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="59"/>
+      <c r="F139" s="59"/>
+      <c r="G139" s="60"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="62" t="str">
+      <c r="B140" s="71" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="63"/>
-      <c r="D140" s="63"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="64"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="73"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="58"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="60"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="69"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="61" t="str">
+      <c r="C142" s="70" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="61"/>
-      <c r="E142" s="76"/>
-      <c r="F142" s="77"/>
-      <c r="G142" s="78"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="66"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="73" t="str">
+      <c r="C143" s="61" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="75"/>
+      <c r="D143" s="62"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="63"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -14971,60 +15371,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="70" t="str">
+      <c r="B145" s="58" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="71"/>
-      <c r="D145" s="71"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="72"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="59"/>
+      <c r="G145" s="60"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="62" t="str">
+      <c r="B146" s="71" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="64"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="73"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="58"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="59"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="60"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="68"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="69"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="61" t="str">
+      <c r="C148" s="70" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="61"/>
-      <c r="E148" s="76"/>
-      <c r="F148" s="77"/>
-      <c r="G148" s="78"/>
+      <c r="D148" s="70"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="66"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="73" t="str">
+      <c r="C149" s="61" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="75"/>
+      <c r="D149" s="62"/>
+      <c r="E149" s="62"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="63"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -15050,60 +15450,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="70" t="str">
+      <c r="B151" s="58" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="71"/>
-      <c r="D151" s="71"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="72"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="60"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="62" t="str">
+      <c r="B152" s="71" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="64"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="72"/>
+      <c r="F152" s="72"/>
+      <c r="G152" s="73"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="58"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="59"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="60"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="69"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="61" t="str">
+      <c r="C154" s="70" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="61"/>
-      <c r="E154" s="76"/>
-      <c r="F154" s="77"/>
-      <c r="G154" s="78"/>
+      <c r="D154" s="70"/>
+      <c r="E154" s="64"/>
+      <c r="F154" s="65"/>
+      <c r="G154" s="66"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="73" t="str">
+      <c r="C155" s="61" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="74"/>
-      <c r="G155" s="75"/>
+      <c r="D155" s="62"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="62"/>
+      <c r="G155" s="63"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -15129,60 +15529,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="70" t="str">
+      <c r="B157" s="58" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="71"/>
-      <c r="D157" s="71"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="71"/>
-      <c r="G157" s="72"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="59"/>
+      <c r="E157" s="59"/>
+      <c r="F157" s="59"/>
+      <c r="G157" s="60"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="62" t="str">
+      <c r="B158" s="71" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="63"/>
-      <c r="G158" s="64"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="72"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="72"/>
+      <c r="G158" s="73"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="58"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="59"/>
-      <c r="E159" s="59"/>
-      <c r="F159" s="59"/>
-      <c r="G159" s="60"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="69"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="61" t="str">
+      <c r="C160" s="70" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="61"/>
-      <c r="E160" s="76"/>
-      <c r="F160" s="77"/>
-      <c r="G160" s="78"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="64"/>
+      <c r="F160" s="65"/>
+      <c r="G160" s="66"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="73" t="str">
+      <c r="C161" s="61" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="74"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="74"/>
-      <c r="G161" s="75"/>
+      <c r="D161" s="62"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="62"/>
+      <c r="G161" s="63"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -15208,60 +15608,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="70" t="str">
+      <c r="B163" s="58" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="71"/>
-      <c r="D163" s="71"/>
-      <c r="E163" s="71"/>
-      <c r="F163" s="71"/>
-      <c r="G163" s="72"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="60"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="62" t="str">
+      <c r="B164" s="71" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="63"/>
-      <c r="D164" s="63"/>
-      <c r="E164" s="63"/>
-      <c r="F164" s="63"/>
-      <c r="G164" s="64"/>
+      <c r="C164" s="72"/>
+      <c r="D164" s="72"/>
+      <c r="E164" s="72"/>
+      <c r="F164" s="72"/>
+      <c r="G164" s="73"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="58"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="59"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="60"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="69"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="61" t="str">
+      <c r="C166" s="70" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="61"/>
-      <c r="E166" s="76"/>
-      <c r="F166" s="77"/>
-      <c r="G166" s="78"/>
+      <c r="D166" s="70"/>
+      <c r="E166" s="64"/>
+      <c r="F166" s="65"/>
+      <c r="G166" s="66"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="73" t="str">
+      <c r="C167" s="61" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="74"/>
-      <c r="G167" s="75"/>
+      <c r="D167" s="62"/>
+      <c r="E167" s="62"/>
+      <c r="F167" s="62"/>
+      <c r="G167" s="63"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -15287,60 +15687,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="70" t="str">
+      <c r="B169" s="58" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="71"/>
-      <c r="D169" s="71"/>
-      <c r="E169" s="71"/>
-      <c r="F169" s="71"/>
-      <c r="G169" s="72"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="59"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="60"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="62" t="str">
+      <c r="B170" s="71" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="63"/>
-      <c r="D170" s="63"/>
-      <c r="E170" s="63"/>
-      <c r="F170" s="63"/>
-      <c r="G170" s="64"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="72"/>
+      <c r="E170" s="72"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="73"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="58"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="60"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="68"/>
+      <c r="G171" s="69"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="61" t="str">
+      <c r="C172" s="70" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="61"/>
-      <c r="E172" s="76"/>
-      <c r="F172" s="77"/>
-      <c r="G172" s="78"/>
+      <c r="D172" s="70"/>
+      <c r="E172" s="64"/>
+      <c r="F172" s="65"/>
+      <c r="G172" s="66"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="73" t="str">
+      <c r="C173" s="61" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="74"/>
-      <c r="E173" s="74"/>
-      <c r="F173" s="74"/>
-      <c r="G173" s="75"/>
+      <c r="D173" s="62"/>
+      <c r="E173" s="62"/>
+      <c r="F173" s="62"/>
+      <c r="G173" s="63"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -15366,60 +15766,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="70" t="str">
+      <c r="B175" s="58" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="71"/>
-      <c r="D175" s="71"/>
-      <c r="E175" s="71"/>
-      <c r="F175" s="71"/>
-      <c r="G175" s="72"/>
+      <c r="C175" s="59"/>
+      <c r="D175" s="59"/>
+      <c r="E175" s="59"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="60"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="62" t="str">
+      <c r="B176" s="71" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="63"/>
-      <c r="D176" s="63"/>
-      <c r="E176" s="63"/>
-      <c r="F176" s="63"/>
-      <c r="G176" s="64"/>
+      <c r="C176" s="72"/>
+      <c r="D176" s="72"/>
+      <c r="E176" s="72"/>
+      <c r="F176" s="72"/>
+      <c r="G176" s="73"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="58"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="59"/>
-      <c r="E177" s="59"/>
-      <c r="F177" s="59"/>
-      <c r="G177" s="60"/>
+      <c r="B177" s="67"/>
+      <c r="C177" s="68"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="68"/>
+      <c r="F177" s="68"/>
+      <c r="G177" s="69"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="61" t="str">
+      <c r="C178" s="70" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="61"/>
-      <c r="E178" s="76"/>
-      <c r="F178" s="77"/>
-      <c r="G178" s="78"/>
+      <c r="D178" s="70"/>
+      <c r="E178" s="64"/>
+      <c r="F178" s="65"/>
+      <c r="G178" s="66"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="73" t="str">
+      <c r="C179" s="61" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="74"/>
-      <c r="E179" s="74"/>
-      <c r="F179" s="74"/>
-      <c r="G179" s="75"/>
+      <c r="D179" s="62"/>
+      <c r="E179" s="62"/>
+      <c r="F179" s="62"/>
+      <c r="G179" s="63"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -15445,59 +15845,172 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="70" t="str">
+      <c r="B181" s="58" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="71"/>
-      <c r="D181" s="71"/>
-      <c r="E181" s="71"/>
-      <c r="F181" s="71"/>
-      <c r="G181" s="72"/>
+      <c r="C181" s="59"/>
+      <c r="D181" s="59"/>
+      <c r="E181" s="59"/>
+      <c r="F181" s="59"/>
+      <c r="G181" s="60"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="62" t="str">
+      <c r="B182" s="71" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="63"/>
-      <c r="D182" s="63"/>
-      <c r="E182" s="63"/>
-      <c r="F182" s="63"/>
-      <c r="G182" s="64"/>
+      <c r="C182" s="72"/>
+      <c r="D182" s="72"/>
+      <c r="E182" s="72"/>
+      <c r="F182" s="72"/>
+      <c r="G182" s="73"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="79"/>
-      <c r="C183" s="80"/>
-      <c r="D183" s="80"/>
-      <c r="E183" s="80"/>
-      <c r="F183" s="80"/>
-      <c r="G183" s="81"/>
+      <c r="B183" s="74"/>
+      <c r="C183" s="75"/>
+      <c r="D183" s="75"/>
+      <c r="E183" s="75"/>
+      <c r="F183" s="75"/>
+      <c r="G183" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="E82:G82"/>
     <mergeCell ref="B75:G75"/>
@@ -15522,141 +16035,28 @@
     <mergeCell ref="C137:G137"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22150,10 +22550,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1447"/>
+  <dimension ref="A1:AB1497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1388" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E1441" sqref="E1441"/>
+    <sheetView tabSelected="1" topLeftCell="B1447" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B1493" sqref="B1493:B1497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -47132,7 +47532,7 @@
       <c r="D1432" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E1432" s="1" t="s">
+      <c r="E1432" s="57" t="s">
         <v>2896</v>
       </c>
       <c r="F1432" s="56" t="s">
@@ -47394,8 +47794,858 @@
         <v>2926</v>
       </c>
     </row>
+    <row r="1448" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1448" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1448" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1448" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1448" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="F1448" s="56" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="1449" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1449" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1449" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1449" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1449" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F1449" s="56" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="1450" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1450" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1450" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1450" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1450" s="57" t="s">
+        <v>2931</v>
+      </c>
+      <c r="F1450" s="56" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="1451" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1451" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1451" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1451" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1451" s="57" t="s">
+        <v>2933</v>
+      </c>
+      <c r="F1451" s="56" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="1452" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1452" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1452" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1452" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1452" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1452" s="56" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="1453" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1453" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1453" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1453" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1453" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F1453" s="56" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="1454" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1454" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1454" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1454" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1454" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F1454" s="56" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="1455" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1455" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1455" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1455" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1455" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F1455" s="56" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="1456" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1456" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1456" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1456" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1456" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F1456" s="56" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="1457" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1457" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1457" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1457" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1457" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F1457" s="56" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="1458" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1458" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1458" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1458" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1458" s="57" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F1458" s="56" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="1459" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1459" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1459" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1459" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1459" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="F1459" s="56" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="1460" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1460" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1460" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1460" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1460" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="F1460" s="56" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1461" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1461" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1461" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1461" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1461" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="F1461" s="56" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="1462" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1462" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1462" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1462" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1462" s="57" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F1462" s="56" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="1463" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1463" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1463" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1463" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1463" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F1463" s="56" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="1464" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1464" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1464" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1464" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1464" s="57" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F1464" s="56" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="1465" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1465" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1465" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1465" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1465" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F1465" s="56" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="1466" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1466" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1466" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1466" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1466" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="F1466" s="56" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="1467" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1467" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1467" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1467" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1467" s="57" t="s">
+        <v>2965</v>
+      </c>
+      <c r="F1467" s="56" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="1468" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1468" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1468" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1468" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1468" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="F1468" s="56" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1469" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1469" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1469" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1469" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1469" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="F1469" s="56" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="1470" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1470" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1470" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1470" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1470" s="57" t="s">
+        <v>2971</v>
+      </c>
+      <c r="F1470" s="56" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="1471" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1471" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1471" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1471" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1471" s="57" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1471" s="56" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="1472" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1472" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1472" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1472" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1472" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="F1472" s="56" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1473" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1473" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1473" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1473" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F1473" s="56" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="1474" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1474" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1474" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1474" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1474" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F1474" s="56" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="1475" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1475" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1475" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1475" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1475" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F1475" s="56" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="1476" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1476" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1476" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1476" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1476" s="57" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F1476" s="56" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="1477" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1477" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1477" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1477" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1477" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F1477" s="56" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="1478" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1478" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1478" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1478" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1478" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F1478" s="56" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="1479" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1479" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1479" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1479" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1479" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="F1479" s="56" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="1480" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1480" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1480" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1480" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1480" s="57" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F1480" s="56" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="1481" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1481" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1481" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1481" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1481" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="F1481" s="56" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="1482" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1482" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1482" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1482" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1482" s="57" t="s">
+        <v>2995</v>
+      </c>
+      <c r="F1482" s="56" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="1483" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1483" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1483" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1483" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1483" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="F1483" s="56" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="1484" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1484" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1484" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1484" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1484" s="57" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F1484" s="56" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1485" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1485" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1485" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1485" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1485" s="57" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F1485" s="56" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1486" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1486" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1486" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1486" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1486" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F1486" s="56" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="1487" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1487" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1487" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1487" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1487" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="F1487" s="56" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="1488" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1488" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1488" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1488" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1488" s="57" t="s">
+        <v>3007</v>
+      </c>
+      <c r="F1488" s="56" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="1489" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1489" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1489" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1489" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1489" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="F1489" s="56" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="1490" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1490" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1490" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1490" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1490" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="F1490" s="56" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="1491" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1491" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1491" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1491" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1491" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="F1491" s="56" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="1492" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1492" s="45">
+        <v>42989</v>
+      </c>
+      <c r="C1492" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1492" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1492" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F1492" s="56" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="1493" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1493" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1493" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1493" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1493" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="F1493" s="56" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1494" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1494" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1494" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1494" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1494" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F1494" s="56" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="1495" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1495" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1495" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1495" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1495" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F1495" s="56" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="1496" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1496" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1496" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1496" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1496" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="F1496" s="56" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="1497" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1497" s="45">
+        <v>42990</v>
+      </c>
+      <c r="C1497" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1497" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1497" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="F1497" s="56" t="s">
+        <v>3026</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1433">
+  <autoFilter ref="A1:F1487">
     <filterColumn colId="2">
       <filters>
         <filter val="AI科技评论"/>
@@ -48851,9 +50101,59 @@
     <hyperlink ref="F1445" r:id="rId1434"/>
     <hyperlink ref="F1446" r:id="rId1435"/>
     <hyperlink ref="F1447" r:id="rId1436"/>
+    <hyperlink ref="F1448" r:id="rId1437"/>
+    <hyperlink ref="F1449" r:id="rId1438"/>
+    <hyperlink ref="F1450" r:id="rId1439"/>
+    <hyperlink ref="F1451" r:id="rId1440"/>
+    <hyperlink ref="F1452" r:id="rId1441"/>
+    <hyperlink ref="F1453" r:id="rId1442"/>
+    <hyperlink ref="F1454" r:id="rId1443"/>
+    <hyperlink ref="F1455" r:id="rId1444"/>
+    <hyperlink ref="F1456" r:id="rId1445"/>
+    <hyperlink ref="F1457" r:id="rId1446"/>
+    <hyperlink ref="F1458" r:id="rId1447"/>
+    <hyperlink ref="F1459" r:id="rId1448"/>
+    <hyperlink ref="F1460" r:id="rId1449"/>
+    <hyperlink ref="F1461" r:id="rId1450"/>
+    <hyperlink ref="F1462" r:id="rId1451"/>
+    <hyperlink ref="F1463" r:id="rId1452"/>
+    <hyperlink ref="F1464" r:id="rId1453"/>
+    <hyperlink ref="F1465" r:id="rId1454"/>
+    <hyperlink ref="F1466" r:id="rId1455"/>
+    <hyperlink ref="F1467" r:id="rId1456"/>
+    <hyperlink ref="F1468" r:id="rId1457"/>
+    <hyperlink ref="F1469" r:id="rId1458"/>
+    <hyperlink ref="F1470" r:id="rId1459"/>
+    <hyperlink ref="F1471" r:id="rId1460"/>
+    <hyperlink ref="F1472" r:id="rId1461"/>
+    <hyperlink ref="F1473" r:id="rId1462"/>
+    <hyperlink ref="F1474" r:id="rId1463"/>
+    <hyperlink ref="F1475" r:id="rId1464"/>
+    <hyperlink ref="F1476" r:id="rId1465"/>
+    <hyperlink ref="F1477" r:id="rId1466"/>
+    <hyperlink ref="F1478" r:id="rId1467"/>
+    <hyperlink ref="F1479" r:id="rId1468"/>
+    <hyperlink ref="F1480" r:id="rId1469"/>
+    <hyperlink ref="F1481" r:id="rId1470"/>
+    <hyperlink ref="F1482" r:id="rId1471"/>
+    <hyperlink ref="F1483" r:id="rId1472"/>
+    <hyperlink ref="F1484" r:id="rId1473"/>
+    <hyperlink ref="F1485" r:id="rId1474"/>
+    <hyperlink ref="F1486" r:id="rId1475"/>
+    <hyperlink ref="F1487" r:id="rId1476"/>
+    <hyperlink ref="F1488" r:id="rId1477"/>
+    <hyperlink ref="F1489" r:id="rId1478"/>
+    <hyperlink ref="F1490" r:id="rId1479"/>
+    <hyperlink ref="F1491" r:id="rId1480"/>
+    <hyperlink ref="F1492" r:id="rId1481"/>
+    <hyperlink ref="F1493" r:id="rId1482"/>
+    <hyperlink ref="F1494" r:id="rId1483"/>
+    <hyperlink ref="F1495" r:id="rId1484"/>
+    <hyperlink ref="F1496" r:id="rId1485"/>
+    <hyperlink ref="F1497" r:id="rId1486"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1437"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1487"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1487</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1580</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156" uniqueCount="3027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6544" uniqueCount="3218">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12135,6 +12135,770 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/KzHaqP0ECZK6WUDTGUx3Dg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手把手 | 30行JavaScript代码，教你分分钟创建神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Ez9zn6HN4tX_QFpGDWs_rA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 百度硅谷AI Lab负责人离职，吴恩达新公司发招聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ToGtwf-v-2uvndMVBAS93w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵览iPhone X所有新特性：从3D人脸识别到A11Bionic神经引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nXxo7Y3SyaA6_Zoz6uXXkw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | NIPS 2017论文接收列表公布：清华、北大、腾讯、百度论文盘点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/my56l6Vsf9jnJEcPFUR_4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 英特尔推出Myriad™ X芯片：将人工智能引入边缘计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/z_NeoGeZvq0Rn5XNSMtDwA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 浪潮副总裁胡雷钧：AI 对计算能力的需求无上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/HZGmqTUj5buQxIDYqJxrdw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名 | 机器之心邀请您参加硅谷人工智能前沿大会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/mOKJtR5FrkG6cQCosDAFGQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周工作80小时惹热议，吴恩达deeplearning.ai项目成为创业公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/xIZT6SjRrn2m2TwLTFmrOg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访 | 卡内基梅隆大学：人工智能引领「钢铁城」匹兹堡的蜕变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/S57MODkLREj1sgxaMKIkqw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>​业界 | 平安科技的人工智能实践：声纹识别和自动定损赋能金融AI，拥有20余项新金融科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/jH3aG_mZH18dClrsT9K95g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点 | 从数据科学的角度，看斯坦福神经网络检测性取向的研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4eIEekYEpralQt3UDCMKLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 堆叠解卷积网络实现图像语义分割顶尖效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ceCC7Q6yr0QKESeZXi6lWQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅｜iPhone X配置生物神经网络芯片黑科技，具有人脸识别9大特征！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/syM85ueEstpSidp3xQaStQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜SRU训练速度非常棒，比优化后的LSTM快10倍！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/WWQMJyJE5iHb-HjH7XXAhg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用｜如何利用机器学习预测房价？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/OaRn8RcquiSDS2PbEHkpAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础｜双数组Trie树(DoubleArrayTrie)Java实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/J7C70ASC6GZJqmqut0Z6Ag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实战｜用Python统计新浪微博各种表情使用频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/V1EVdhX6-c1VNGNBgscFeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【重磅直播】Jeff Dean领衔谷歌大脑在线答疑16大问题，看好3大方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/EB3xyqiRNArHrJyTjeli5Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度硅谷人工智能实验室主任Coates离职，曾是吴恩达博士生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vh1iK09HLLa8KQe026x7Jw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【吴恩达Quora最新问答】任何人都能成为机器学习专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BeJMo5D3DH4fFvd0i2n25Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【10大专利看iPhone未来】全息图、虚拟卷轴，移动AR……苹果还有哪些黑科技？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/xF3emTQhvm02J97rPcjIEg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量子计算时代的机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8Gnk2bidyQ89VvKEcWKABw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果Face ID不只是人脸识别，更重要的是那层深度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/RtNOscoIRlg9rz0yHOWGtw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | NIPS 2017录用结果全公布，清华北大10篇，BAT 4篇（附详细名单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/0AQ-Kwp4WwIhvfOr1bl_3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | Python赶超R语言，成为数据科学、机器学习平台中最热门语言？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/NDacPvMRfiXJoKYqNIus3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 全国社会媒体处理大会（SMP）将于明日召开，一文详解四天议程精华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AQSsm4hhpHAQmT3RxksKPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | 让AI帮你上分！——使用机器学习来挑选Dota2补位英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「AI识别的是同性恋，警醒的是所有人的隐私安全」，斯坦福作者回应论文争议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/MvP60hH1W7NDQyVC_P-s1w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | Jeff Dean撰文：谷歌大脑是如何完成科研使命的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/re_5T7VNrp0wJGet6osoxA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态 | 百度硅谷AI实验室主任 Adam Coates 离职，曾师从吴恩达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/DdYukHyXtyPLIl4MT2BRpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | 数学王国的凯撒大帝：哈佛大学终身教授丘成桐 | CNCC 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/gy7piuuh2MpHRFQTLTX4QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 知名量子科学家施尧耘加入阿里云：探索终极计算能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/FbtzoziCvTtpFk0iGVkNjw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万字长文：读博之前，我希望有人告诉过我这些（计算机／NLP／机器学习方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/p0WHgIJMEpee94Q2O5enlQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NASA加速应用机器学习探测太空，英特尔携Nervana参与其中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Gbxlp5UYHSnIxehdEPVTdA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neurons字幕组 | 2分钟告诉你飞秒成像的秘密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/P56bj5QAEMc4Ocn-FpW7xQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michael I. Jordan：我们并非处于人工智能的大爆炸时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/I8948yLFTEyG0n8fQeO2zQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI说人“画” | 如何用“贝叶斯理论”优(zhuang)雅(bi)地决策？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/9ivQ46airObx5gxsY_dWbQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅发布 | 牛津大学Deep NLP深度自然语言处理课程（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_6I0xhUhyAjHVPdq65ixWw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | 王海峰首谈百度AI战略布局（附PPT下载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/u5IJdBPajr4ekDLciTD5iA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从三大神经网络，测试对比TensorFlow、MXNet、CNTK、Theano四个框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为诺亚方舟实验室主任李航离职，即将加入今日头条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/DuwoMS9M9sgyWZcIKLiKQA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研 | 推出两款32线激光雷达的速腾聚创，重点仍是打磨16线和固态研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/zykZicwYq1Ws445-0Dr3JA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 腾讯AI Lab副主任俞栋：过去两年基于深度学习的声学模型进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/cYBMy4TIhcutvrAt0y70Ow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 2017 中国人工智能峰会：产业发展趋势与行业技术进步路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/jiivzPF0AIxAberW129USg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 面向工程师的机器学习简介：理论、算法、概念全覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/FVuLzwn9fKSN-FhDUnk0ow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦肯锡汽车行业报告：通向自动驾驶之路的五大障碍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Yo19wftMZ7KZssPgF8ef1Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点 | Geoffrey Hinton：放弃反向传播，我们的人工智能需要重头再来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/OQvBL_M_iF-NXZenFn7OLQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访 | 9种人脸情绪识别、22类人脸属性、15类皮肤质量识别，竹间智能要让情感机器人更理解人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/i1P6i4ddpHFm5OoCmfhUbQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 百度云「掌门人」张亚勤：不要求做最大的云，但要做最聪明的云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/NSFnD8JZzB8DeJww29t5Yw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/CHKEkSEFldva_d-7dGBmcg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/qLax1Jb0OOfFOU68wn_2PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | 初学者指南：神经网络在自然语言处理中的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/M_ZN0YuvegAnc2GXCZTt9Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 打破人脸识别谣言，看iPhone X FaceID背后的技术与商业前景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Lh79IjzJQ6vDm7aIWGwt7g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | Docker Compose + GPU + TensorFlow 所产生的奇妙火花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/zeZs48XbYJGhvOoIysZ8QA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 清华大学NIPS 2017 Spotlight论文：通过在单纯形上软门限投影的加速随机贪心坐标下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/0V8B-u5_bRM5Fu9oOAYjqw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新：美国中情局利用AI技术通过社交数据收集情报！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_N0WXycqPy6oSqnSVcfaoA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Iwxs3-fXDJiITQOvdyI95A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘｜吴恩达的公司招机器学习工程师，每周需工作70-90小时！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ZdGDiFLdOI21-P6atwFn_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃隆·马斯克：唯有坚持才能证明自己才是正确的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9FUqfWC_mEWE3rRWHVenZg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜深度强化学习在面向任务的对话管理中的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/uDFsWebfLmka-zZX3Y_8kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐：35个热门又实用的开源 AI 项目！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/tZoD4RfkDDDBxTgqDJvI3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜中文通用百科知识图谱（CN-DBpedia）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Nh7XJOLNBDdpibopVG4MrQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅析Axiomatic Clustering算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4NDVjCXprHQvcH2Qji_5Rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传华为李航博士加盟今日头条！将担任什么职务呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/SWnxxffSbssTd9rOn9GcVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全解：目标检测，图像分类、分割、生成……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nK__d-PV6DY5mDfA_UgDmQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅！Geoffrey Hinton提出capsule 概念，推翻反向传播！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_sMLFqds41_dLS-3I7xCUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜北航122名首批人工智能专业研究生正式开学！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/BRkOuJYF1i-0z50zSfddjA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物识别“最不安全”：一次丢失，终生被盗，处处被盗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_p6tjjd20eq_SQF0Yd9BNQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙大：微信10万+可认定为一级学术期刊发文！你怎么看？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/u93ZxTprHgzaNWbBPJtF6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【重磅】百度云智峰会发布XPU和ABC一体机，深度对话张亚勤尹世明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9Vco-abdNIyu5wfX1fDoVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海峰首谈百度AI战略布局（PPT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/cemhHeZQTb1hW5qM8sdQlw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取经清华-青腾未来科技学堂，可能是史上科技含金量最高的一次开课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/iIGTG7WcsZ6FFZ9dVtWNlw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI学会“以牙还牙”】OpenAI发布多智能体深度强化学习新算法LOLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/GNbCu1lbOmwJDCU3vgMbtQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【腾讯 AI Lab副主任俞栋】过去两年基于深度学习的声学模型的进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/mNZhpFkeie0AanLkKzO9gQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【大神Hinton】深度学习要另起炉灶，彻底抛弃反向传播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BLNLk1VAcaHpDBypogcs9A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【李航确认加入今日头条】微软华为BAT，最新一轮AI掌门人争夺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/t7oCvlSRQ8IahuxhhUpqhQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一文读懂量子机器学习：量子算法基石已经奠定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/XWFnRSj_y-W7VHctgQLpdA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【榜单】计算机科学中最重要的32个算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JWK477yOxcxHbGRJBZ2aFQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【实战】重现DeepMind星际争霸强化学习算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/z_S4o-FiQqWOxUUKyLQkrQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【一张图看疯狂的NIPS 2017】十年数据盘点今年NIPS多项“历史之最”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/NWNOmGfk0rivXs6XQ0wghw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【马斯克荐书】生命3.0：生活在AI时代的我们该如何做人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qYF0iUkRpySmktcgVH2onw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【北马助跑】KDD 2017：体育运动分析中的数据挖掘与机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ADsVsFrCRsUx5lIQtl3Nag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【破解DeepMind的游戏人工智能】AI现在只看2分钟视频就能创建游戏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/XA8ovYoD_NUtHOvS9qTTNw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI改变标准化考试，2550亿美元教育技术市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1aS4d03hSBFM1Owh4aLMeQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习理论研究已进入瓶颈期？看看李飞飞们怎么说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3YjphuduEkBbpaRVHEOkNQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 腾讯 AI Lab副主任俞栋：过去两年基于深度学习的声学模型进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/eQv0KUbNz1oqtXGgu88pCg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 堪比春运！NIPS 门票一小时内！统统！卖完了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/6dR1nXEQEyeK_40pBRgBdA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | TensorFlow Agents日前开源，轻松在TF中构建并行强化学习算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/OMopk2k0n1Bj_VheASMPbA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 史上最强城市计算天团集结，你想了解的城市大数据知识点都在这里了 | CCF-ADL重磅预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/UHf6AyzLgREaWJ_upKYDNw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家 | 上海科技大学屠可伟团队：小谈无监督依存句法解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Reu6FWV5foK25-aOjQSy9A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | 美国工程院院士庄炳湟演讲全文：深度神经网络相比早期只是宽度和深度的增加，为何需要60年？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Gww4ICrSfKSJEDWvaQWAdw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点 | 李开复谈未来工作：虽然会被AI取代，但谁说人类非得工作不可？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/h8l9J_Cm05MygaokkdbkUQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 如何在Kaggle中高效搜索数据集？快吃下这枚安利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/80fXiGvLa-tDHHWJHB1TTg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周志华CAIS大会现场演讲：人工智能时代什么最贵？人才！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/i_k07gEmqLKva62bB1wZwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅 | Geffory Hinton：深度学习进入平台期？不，深度学习需要的是“推倒重来”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1Q0DVb0UzVgZC5GAgQvwMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | Michael Jordan在BAIR blog发文详解：如何有效避开鞍点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/u_WncVKUNmGEqqMaVCZa3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 计算机视觉中，究竟有哪些好用的目标跟踪算法（上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ZUpIQ4NFcuHE0U8ZCpY0-w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 人机交互专家齐聚，告诉你如何打造真正“自然”的人机交互 | CCF-ADL 重磅预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YZcWKRqrEhHUMexZgM6_kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13484,7 +14248,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42991</v>
+        <v>42996</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -13494,7 +14258,7 @@
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="79" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
-        <v>NSNG第37周行业资讯</v>
+        <v>NSNG第38周行业资讯</v>
       </c>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
@@ -22550,10 +23314,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1497"/>
+  <dimension ref="A1:AB1600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1447" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B1493" sqref="B1493:B1497"/>
+    <sheetView tabSelected="1" topLeftCell="B1497" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1595" sqref="E1595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -48399,7 +49163,7 @@
       <c r="D1483" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E1483" s="1" t="s">
+      <c r="E1483" s="57" t="s">
         <v>2997</v>
       </c>
       <c r="F1483" s="56" t="s">
@@ -48569,7 +49333,7 @@
       <c r="D1493" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E1493" s="1" t="s">
+      <c r="E1493" s="57" t="s">
         <v>3017</v>
       </c>
       <c r="F1493" s="56" t="s">
@@ -48586,7 +49350,7 @@
       <c r="D1494" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E1494" s="1" t="s">
+      <c r="E1494" s="57" t="s">
         <v>3019</v>
       </c>
       <c r="F1494" s="56" t="s">
@@ -48603,7 +49367,7 @@
       <c r="D1495" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E1495" s="1" t="s">
+      <c r="E1495" s="57" t="s">
         <v>3021</v>
       </c>
       <c r="F1495" s="56" t="s">
@@ -48644,8 +49408,1675 @@
         <v>3026</v>
       </c>
     </row>
+    <row r="1498" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1498" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1498" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1498" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1498" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="F1498" s="56" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="1499" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1499" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1499" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1499" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1499" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F1499" s="56" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="1500" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1500" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1500" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1500" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1500" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="F1500" s="56" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="1501" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1501" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1501" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1501" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1501" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F1501" s="56" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="1502" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1502" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1502" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1502" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1502" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F1502" s="56" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="1503" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1503" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1503" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1503" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1503" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="F1503" s="56" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="1504" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1504" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1504" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1504" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1504" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="F1504" s="56" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="1505" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1505" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1505" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1505" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1505" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="F1505" s="56" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="1506" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1506" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1506" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1506" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1506" s="57" t="s">
+        <v>3043</v>
+      </c>
+      <c r="F1506" s="56" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="1507" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1507" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1507" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1507" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1507" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F1507" s="56" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="1508" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1508" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1508" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1508" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1508" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="F1508" s="56" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="1509" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1509" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1509" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1509" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1509" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F1509" s="56" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="1510" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1510" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1510" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1510" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1510" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="F1510" s="56" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="1511" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1511" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1511" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1511" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1511" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="F1511" s="56" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="1512" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1512" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1512" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1512" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1512" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="F1512" s="56" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="1513" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1513" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1513" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1513" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1513" s="57" t="s">
+        <v>3057</v>
+      </c>
+      <c r="F1513" s="56" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="1514" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1514" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1514" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1514" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1514" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="F1514" s="56" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="1515" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1515" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1515" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1515" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1515" s="57" t="s">
+        <v>3061</v>
+      </c>
+      <c r="F1515" s="56" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="1516" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1516" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1516" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1516" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1516" s="57" t="s">
+        <v>3063</v>
+      </c>
+      <c r="F1516" s="56" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="1517" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1517" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1517" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1517" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1517" s="57" t="s">
+        <v>3065</v>
+      </c>
+      <c r="F1517" s="56" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="1518" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1518" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1518" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1518" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1518" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F1518" s="56" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="1519" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1519" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1519" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1519" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1519" s="57" t="s">
+        <v>3069</v>
+      </c>
+      <c r="F1519" s="56" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="1520" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1520" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1520" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1520" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1520" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="F1520" s="56" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="1521" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1521" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1521" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1521" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1521" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="F1521" s="56" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1522" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1522" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1522" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1522" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="F1522" s="56" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="1523" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1523" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1523" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1523" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1523" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="F1523" s="56" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="1524" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1524" s="45">
+        <v>42991</v>
+      </c>
+      <c r="C1524" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1524" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1524" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="F1524" s="56" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="1525" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1525" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1525" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1525" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1525" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="F1525" s="56" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="1526" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1526" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1526" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1526" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1526" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="F1526" s="56" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="1527" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1527" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1527" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1527" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1527" s="57" t="s">
+        <v>3084</v>
+      </c>
+      <c r="F1527" s="56" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="1528" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1528" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1528" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1528" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1528" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F1528" s="56" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="1529" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1529" s="45">
+        <v>42992</v>
+      </c>
+      <c r="C1529" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1529" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1529" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="F1529" s="56" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="1530" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1530" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1530" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1530" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1530" s="57" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F1530" s="56" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="1531" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1531" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1531" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1531" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1531" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="F1531" s="56" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="1532" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1532" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1532" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1532" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1532" s="57" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F1532" s="56" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="1533" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1533" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1533" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1533" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1533" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F1533" s="56" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="1534" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1534" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1534" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1534" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1534" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="F1534" s="56" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="1535" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1535" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1535" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1535" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1535" s="57" t="s">
+        <v>3100</v>
+      </c>
+      <c r="F1535" s="56" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="1536" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1536" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1536" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1536" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1536" s="57" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F1536" s="56" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1537" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1537" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1537" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1537" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="F1537" s="56" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1538" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1538" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1538" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1538" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="F1538" s="56" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1539" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1539" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1539" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1539" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="F1539" s="56" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1540" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1540" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1540" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1540" s="1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="F1540" s="56" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1541" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1541" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1541" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1541" s="57" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F1541" s="56" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="1542" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1542" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1542" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1542" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1542" s="57" t="s">
+        <v>3115</v>
+      </c>
+      <c r="F1542" s="56" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1543" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1543" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1543" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1543" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1543" s="57" t="s">
+        <v>3117</v>
+      </c>
+      <c r="F1543" s="56" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1544" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1544" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1544" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1544" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="F1544" s="56" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1545" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1545" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1545" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1545" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="F1545" s="56" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1546" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1546" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1546" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1546" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F1546" s="56" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1547" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1547" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1547" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1547" s="57" t="s">
+        <v>3104</v>
+      </c>
+      <c r="F1547" s="56" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="1548" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1548" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1548" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1548" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1548" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="F1548" s="56" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1549" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1549" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1549" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1549" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="F1549" s="56" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1550" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1550" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1550" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1550" s="57" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F1550" s="56" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="1551" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1551" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1551" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1551" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1551" s="57" t="s">
+        <v>3131</v>
+      </c>
+      <c r="F1551" s="56" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1552" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1552" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1552" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1552" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="F1552" s="56" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1553" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1553" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1553" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1553" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F1553" s="56" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1554" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1554" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1554" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1554" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="F1554" s="56" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1555" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1555" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1555" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1555" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="F1555" s="56" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1556" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1556" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1556" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1556" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1556" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F1556" s="56" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1557" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1557" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1557" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1557" s="57" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F1557" s="56" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1558" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1558" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1558" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1558" s="57" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F1558" s="56" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1559" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1559" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1559" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1559" s="57" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F1559" s="56" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1560" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1560" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1560" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1560" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F1560" s="56" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="1561" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1561" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1561" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1561" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1561" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F1561" s="56" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1562" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1562" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1562" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1562" s="57" t="s">
+        <v>3152</v>
+      </c>
+      <c r="F1562" s="56" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1563" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1563" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1563" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1563" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="F1563" s="56" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1564" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1564" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1564" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1564" s="1" t="s">
+        <v>3156</v>
+      </c>
+      <c r="F1564" s="56" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1565" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1565" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1565" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1565" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="F1565" s="56" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1566" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1566" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1566" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1566" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="F1566" s="56" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="1567" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1567" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1567" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1567" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1567" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="F1567" s="56" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1568" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1568" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1568" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1568" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F1568" s="56" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="1569" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1569" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1569" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1569" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1569" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="F1569" s="56" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="1570" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1570" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1570" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1570" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1570" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="F1570" s="56" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="1571" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1571" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1571" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1571" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1571" s="57" t="s">
+        <v>3170</v>
+      </c>
+      <c r="F1571" s="56" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1572" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1572" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1572" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1572" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1572" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="F1572" s="56" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="1573" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1573" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1573" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1573" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1573" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="F1573" s="56" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="1574" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1574" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1574" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1574" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1574" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="F1574" s="56" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="1575" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1575" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1575" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1575" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1575" s="1" t="s">
+        <v>3178</v>
+      </c>
+      <c r="F1575" s="56" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1576" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1576" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1576" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1576" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1576" s="57" t="s">
+        <v>3180</v>
+      </c>
+      <c r="F1576" s="56" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="1577" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1577" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1577" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1577" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1577" s="57" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F1577" s="56" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1578" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1578" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1578" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1578" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1578" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="F1578" s="56" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="1579" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1579" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1579" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1579" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1579" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="F1579" s="56" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1580" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1580" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1580" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1580" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1580" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="F1580" s="56" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="1581" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1581" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1581" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1581" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1581" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="F1581" s="56" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="1582" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1582" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1582" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1582" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1582" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F1582" s="56" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="1583" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1583" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1583" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1583" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1583" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="F1583" s="56" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="1584" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1584" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1584" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1584" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1584" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="F1584" s="56" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="1585" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1585" s="45">
+        <v>42993</v>
+      </c>
+      <c r="C1585" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1585" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1585" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="F1585" s="56" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1586" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1586" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1586" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1586" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1586" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F1586" s="56" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="1587" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1587" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1587" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1587" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1587" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F1587" s="56" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="1588" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1588" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1588" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1588" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1588" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="F1588" s="56" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="1589" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1589" s="45">
+        <v>42994</v>
+      </c>
+      <c r="C1589" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1589" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1589" s="57" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F1589" s="56" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="1590" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1590" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1590" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1590" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1590" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F1590" s="56" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1591" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1591" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1591" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1591" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1591" s="57" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F1591" s="56" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="1592" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1592" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1592" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1592" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1592" s="57" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F1592" s="56" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="1593" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1593" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1593" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1593" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1593" s="57" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F1593" s="56" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1594" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1594" s="45">
+        <v>42995</v>
+      </c>
+      <c r="C1594" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1594" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1594" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F1594" s="56" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="1595" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C1595" s="33"/>
+    </row>
+    <row r="1596" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C1596" s="33"/>
+    </row>
+    <row r="1597" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C1597" s="33"/>
+    </row>
+    <row r="1598" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C1598" s="33"/>
+    </row>
+    <row r="1599" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C1599" s="33"/>
+    </row>
+    <row r="1600" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C1600" s="33"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1487">
+  <autoFilter ref="A1:F1580">
     <filterColumn colId="2">
       <filters>
         <filter val="AI科技评论"/>
@@ -50151,9 +52582,106 @@
     <hyperlink ref="F1495" r:id="rId1484"/>
     <hyperlink ref="F1496" r:id="rId1485"/>
     <hyperlink ref="F1497" r:id="rId1486"/>
+    <hyperlink ref="F1498" r:id="rId1487"/>
+    <hyperlink ref="F1499" r:id="rId1488"/>
+    <hyperlink ref="F1500" r:id="rId1489"/>
+    <hyperlink ref="F1501" r:id="rId1490"/>
+    <hyperlink ref="F1502" r:id="rId1491"/>
+    <hyperlink ref="F1503" r:id="rId1492"/>
+    <hyperlink ref="F1504" r:id="rId1493"/>
+    <hyperlink ref="F1505" r:id="rId1494"/>
+    <hyperlink ref="F1506" r:id="rId1495"/>
+    <hyperlink ref="F1507" r:id="rId1496"/>
+    <hyperlink ref="F1508" r:id="rId1497"/>
+    <hyperlink ref="F1509" r:id="rId1498"/>
+    <hyperlink ref="F1510" r:id="rId1499"/>
+    <hyperlink ref="F1511" r:id="rId1500"/>
+    <hyperlink ref="F1512" r:id="rId1501"/>
+    <hyperlink ref="F1513" r:id="rId1502"/>
+    <hyperlink ref="F1514" r:id="rId1503"/>
+    <hyperlink ref="F1515" r:id="rId1504"/>
+    <hyperlink ref="F1516" r:id="rId1505"/>
+    <hyperlink ref="F1517" r:id="rId1506"/>
+    <hyperlink ref="F1518" r:id="rId1507"/>
+    <hyperlink ref="F1519" r:id="rId1508"/>
+    <hyperlink ref="F1520" r:id="rId1509"/>
+    <hyperlink ref="F1521" r:id="rId1510"/>
+    <hyperlink ref="F1522" r:id="rId1511"/>
+    <hyperlink ref="F1523" r:id="rId1512"/>
+    <hyperlink ref="F1524" r:id="rId1513"/>
+    <hyperlink ref="F1525" r:id="rId1514"/>
+    <hyperlink ref="F1526" r:id="rId1515"/>
+    <hyperlink ref="F1527" r:id="rId1516"/>
+    <hyperlink ref="F1528" r:id="rId1517"/>
+    <hyperlink ref="F1529" r:id="rId1518"/>
+    <hyperlink ref="F1530" r:id="rId1519"/>
+    <hyperlink ref="F1531" r:id="rId1520"/>
+    <hyperlink ref="F1532" r:id="rId1521"/>
+    <hyperlink ref="F1533" r:id="rId1522"/>
+    <hyperlink ref="F1534" r:id="rId1523"/>
+    <hyperlink ref="F1535" r:id="rId1524"/>
+    <hyperlink ref="F1536" r:id="rId1525"/>
+    <hyperlink ref="F1537" r:id="rId1526"/>
+    <hyperlink ref="F1538" r:id="rId1527"/>
+    <hyperlink ref="F1539" r:id="rId1528"/>
+    <hyperlink ref="F1540" r:id="rId1529"/>
+    <hyperlink ref="F1541" r:id="rId1530"/>
+    <hyperlink ref="F1542" r:id="rId1531"/>
+    <hyperlink ref="F1543" r:id="rId1532"/>
+    <hyperlink ref="F1544" r:id="rId1533"/>
+    <hyperlink ref="F1545" r:id="rId1534"/>
+    <hyperlink ref="F1546" r:id="rId1535"/>
+    <hyperlink ref="F1547" r:id="rId1536"/>
+    <hyperlink ref="F1548" r:id="rId1537"/>
+    <hyperlink ref="F1549" r:id="rId1538"/>
+    <hyperlink ref="F1550" r:id="rId1539"/>
+    <hyperlink ref="F1551" r:id="rId1540"/>
+    <hyperlink ref="F1552" r:id="rId1541"/>
+    <hyperlink ref="F1553" r:id="rId1542"/>
+    <hyperlink ref="F1554" r:id="rId1543"/>
+    <hyperlink ref="F1555" r:id="rId1544"/>
+    <hyperlink ref="F1556" r:id="rId1545"/>
+    <hyperlink ref="F1557" r:id="rId1546"/>
+    <hyperlink ref="F1558" r:id="rId1547"/>
+    <hyperlink ref="F1559" r:id="rId1548"/>
+    <hyperlink ref="F1560" r:id="rId1549"/>
+    <hyperlink ref="F1561" r:id="rId1550"/>
+    <hyperlink ref="F1562" r:id="rId1551"/>
+    <hyperlink ref="F1563" r:id="rId1552"/>
+    <hyperlink ref="F1564" r:id="rId1553"/>
+    <hyperlink ref="F1565" r:id="rId1554"/>
+    <hyperlink ref="F1566" r:id="rId1555"/>
+    <hyperlink ref="F1567" r:id="rId1556"/>
+    <hyperlink ref="F1568" r:id="rId1557"/>
+    <hyperlink ref="F1569" r:id="rId1558"/>
+    <hyperlink ref="F1570" r:id="rId1559"/>
+    <hyperlink ref="F1571" r:id="rId1560"/>
+    <hyperlink ref="F1572" r:id="rId1561"/>
+    <hyperlink ref="F1573" r:id="rId1562"/>
+    <hyperlink ref="F1574" r:id="rId1563"/>
+    <hyperlink ref="F1575" r:id="rId1564"/>
+    <hyperlink ref="F1576" r:id="rId1565"/>
+    <hyperlink ref="F1577" r:id="rId1566"/>
+    <hyperlink ref="F1578" r:id="rId1567"/>
+    <hyperlink ref="F1579" r:id="rId1568"/>
+    <hyperlink ref="F1580" r:id="rId1569"/>
+    <hyperlink ref="F1581" r:id="rId1570"/>
+    <hyperlink ref="F1582" r:id="rId1571"/>
+    <hyperlink ref="F1583" r:id="rId1572"/>
+    <hyperlink ref="F1584" r:id="rId1573"/>
+    <hyperlink ref="F1585" r:id="rId1574"/>
+    <hyperlink ref="F1586" r:id="rId1575"/>
+    <hyperlink ref="F1587" r:id="rId1576"/>
+    <hyperlink ref="F1588" r:id="rId1577"/>
+    <hyperlink ref="F1589" r:id="rId1578"/>
+    <hyperlink ref="F1590" r:id="rId1579"/>
+    <hyperlink ref="F1591" r:id="rId1580"/>
+    <hyperlink ref="F1592" r:id="rId1581"/>
+    <hyperlink ref="F1593" r:id="rId1582"/>
+    <hyperlink ref="F1594" r:id="rId1583"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1487"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1584"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1580</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1636</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6544" uniqueCount="3218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6712" uniqueCount="3302">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12899,6 +12899,342 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/YZcWKRqrEhHUMexZgM6_kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决机器学习问题有通法！看这一篇就够了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Nbwii7Di_h5Ewy5p5xzBdQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋招VIP线下特训 | 国庆七天集训营，挑战年薪30万（人工智能/大数据方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/UtZL1RYbrbf3hexHZodLGQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | Active Learning: 一个降低深度学习时间，空间，经济成本的解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9kMz-eNRwC51Fi0-7BfKzA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴恩达导师Michael I. Jordan刚去清华手写版书讲了三天课，这有一份他的课程笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/CstxmVnf6iHAnBksAH14Gw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI大事件 | Geoffrey Hinton决定抛弃反向传播，预期策略梯度算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_JQoXUG0CYN_NWymZGpW9w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习目标检测模型全面综述：Faster R-CNN、R-FCN和SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/nGSaQXm8AczYodtmHD1qNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演讲 | 周志华：关于人工智能的探讨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hk3cLSojEQn9g37W5MCJCQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | Nature：能自主学习的人工突触，为无监督学习开辟新的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/aCWAU2RXk9fTzfFqOyjqUw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 机遇与挑战：用强化学习自动搜索优化算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nYOOwVoijl1p4V0A7yaI3w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名 | 分享会：当谈论起第三波人工智能创业浪潮的时候我们应该谈论什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/UQrSL0uelL-3suChlxtOdQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120万美元机器24分钟训练ImageNet，UC Berkeley展示全新并行处理方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/rhtrN2qDspGkpJYDAVSX7w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 发力自主机器人，90年代着手AI的西门子如何在智能时代扭转乾坤？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/I2ukced9PFN1UE_xYh34-Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 贝叶斯学习与未来人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/pHAbxeYBI2q6pUHNrAt1og</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前沿 | 人类第一次实现用光存储信息：悉尼大学将光子计算推向现实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/QVMoBPbmFenSOqTSLxIeqQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试说白了，还不是让面试官爱上你？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/imP7FWarBlmJIpLPnrXy-g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次！华裔女科学家钱璐璐，发明仅20纳米的DNA机器人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hIkB--mLpfVdrLY6C0pkuw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实战｜大数据告诉你：90后应该如何选择买房？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1Wru4asP1DqB28Zf-ODfFw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法｜学习人工智能算法，你必须掌握的32个算法！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/TUOzZiuMEe1pdZH44xq15g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜如何用FPGA加速卷积神经网络(CNN)？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/K_dohaZbCISZlxe1Utu50w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏公司老板出2000万！为跳楼自杀的程序员声张正义！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nEyWa6oGsP9F-NI7uw5K3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实战｜如何利用深度学习诊断心脏病？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/0IAdT2cP_OIGwwXmMaCFfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李彦宏谈AI：过去靠勤劳，未来靠智慧！董明珠投资150亿造机器人!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/7loEjSa8HMTCorm97YQ0rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费｜欢迎加入《全球人工智能研究院》AI技术专家社群和平台！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qN8BGdkZtFjX2uPKXR-WJg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费｜欢迎AI企业高管和投资人加入《全球人工智能研究院》！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/2-XUd1Y6fQkX3iQhcY7hwA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【深度学习框架大PK】褚晓文教授：五大深度学习框架三类神经网络全面测评（23PPT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hRH7hVsaQBqf0vhD_BqBgg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI芯片争夺战】谷歌TPU率队，颠覆3350亿美元的半导体行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kPrZ0PuevXEJjVB7RXs70g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【专家痛陈AI医学影像三大难点】数据规模小、标注质量差、懂算法的不懂医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/NQmSKimkkqLPOeGzAdLgOg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【机器人面试官】想拿百万年薪，可能要机器人说了算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/owen-Lv-4-jGtwGPCHrs_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Python成为高收入国家增长最快的语言】开发者生态系统十大语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/IMMvPeW-Sb_NDHe-Eak6gq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【24分钟训练完ImageNet创纪录】ResNet仅需120万美元挑战Facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8AnaVOJhXIDbLcjUrZQnug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeCun ：一味模仿人脑将阻碍AI的发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/eYjpBoPAovATYfPmmAKYPg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook开源PyTorch版本fairseq翻译模型，训练速度提高50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AZCgCsf-09o50-H7Fr-xHg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合谷歌Waymo，英特尔无人驾驶迎来最重要合作伙伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/FPkx7QkYjXtdwEldnn0CSw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科大周涛教授：当时代发生巨变，一定要站在能够产生重大成果的地方 | SMP 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/mJMI1jukCaDgvRb3B9STqg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | Yann LeCun的“层级损失函数”：牧羊犬和摩天大楼，哪个更像哈巴狗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kecGJqzgjrw-vmUNauPcTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | IROS 2017上，这些厂商将会给我们展示什么样的黑科技？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/WHhwma_zBNW3014Ic3fMbw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 计算机视觉中，究竟有哪些好用的目标跟踪算法（下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Fjy3AtT0qEI46vMS9HZnQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话LSTM之父Jürgen Schmidhuber：为什么我觉得“AI奴役人类”的说法很愚蠢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/uC9QCY6snvCMhWT7-U1Iag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家 | 下一个被邀请进微信群的人是谁？清华腾讯IJCAI论文一作解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/N4bAOHua7-XlkW_H2iRniw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 与港科大合作，只是滴滴吸引科研人才的一小步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9YbcQp6RFo7AMKjJHpjQ2w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | SMP 2017圆满闭幕，中英最佳论文花落谁家？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/v0qE_QQcOiGoI8u3SxfIng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | Facebook开源 PyTorch版 fairseq，准确性最高、速度比循环神经网络快9倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nvZ2Aq_48dr5y-AndGP9pg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13793,6 +14129,42 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13820,27 +14192,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13848,21 +14199,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14248,23 +14584,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42996</v>
+        <v>42998</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="79" t="str">
+      <c r="B3" s="67" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
         <v>NSNG第38周行业资讯</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -14275,22 +14611,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="61" t="str">
+      <c r="C5" s="73" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -14316,61 +14652,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="58" t="str">
+      <c r="B7" s="70" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="71" t="str">
+      <c r="B8" s="62" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="70" t="str">
+      <c r="C10" s="61" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="61" t="str">
+      <c r="C11" s="73" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -14397,60 +14733,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="58" t="str">
+      <c r="B13" s="70" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="71" t="str">
+      <c r="B14" s="62" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="70" t="str">
+      <c r="C16" s="61" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="61" t="str">
+      <c r="C17" s="73" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -14476,60 +14812,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="58" t="str">
+      <c r="B19" s="70" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="71" t="str">
+      <c r="B20" s="62" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="70" t="str">
+      <c r="C22" s="61" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="61" t="str">
+      <c r="C23" s="73" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -14555,60 +14891,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="58" t="str">
+      <c r="B25" s="70" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="71" t="str">
+      <c r="B26" s="62" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="70" t="str">
+      <c r="C28" s="61" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="61" t="str">
+      <c r="C29" s="73" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -14634,60 +14970,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="58" t="str">
+      <c r="B31" s="70" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="71" t="str">
+      <c r="B32" s="62" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="70" t="str">
+      <c r="C34" s="61" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="61" t="str">
+      <c r="C35" s="73" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -14713,60 +15049,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="58" t="str">
+      <c r="B37" s="70" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="71" t="str">
+      <c r="B38" s="62" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="70" t="str">
+      <c r="C40" s="61" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="61" t="str">
+      <c r="C41" s="73" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -14792,60 +15128,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="58" t="str">
+      <c r="B43" s="70" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="72"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="71" t="str">
+      <c r="B44" s="62" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="69"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="70" t="str">
+      <c r="C46" s="61" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="61" t="str">
+      <c r="C47" s="73" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -14871,60 +15207,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="58" t="str">
+      <c r="B49" s="70" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="71" t="str">
+      <c r="B50" s="62" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="69"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="70" t="str">
+      <c r="C52" s="61" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="61" t="str">
+      <c r="C53" s="73" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="75"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -14950,60 +15286,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="58" t="str">
+      <c r="B55" s="70" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="71" t="str">
+      <c r="B56" s="62" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="67"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="69"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="70" t="str">
+      <c r="C58" s="61" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="70"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="66"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="61" t="str">
+      <c r="C59" s="73" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="63"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -15029,60 +15365,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="58" t="str">
+      <c r="B61" s="70" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="72"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="71" t="str">
+      <c r="B62" s="62" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="64"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="67"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="69"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="70" t="str">
+      <c r="C64" s="61" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="66"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="61" t="str">
+      <c r="C65" s="73" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="75"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -15108,60 +15444,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="58" t="str">
+      <c r="B67" s="70" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="72"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="71" t="str">
+      <c r="B68" s="62" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="67"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="69"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="70" t="str">
+      <c r="C70" s="61" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="70"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="66"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="78"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="61" t="str">
+      <c r="C71" s="73" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="63"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="75"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -15187,60 +15523,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="58" t="str">
+      <c r="B73" s="70" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="72"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="71" t="str">
+      <c r="B74" s="62" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="67"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="69"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="60"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="70" t="str">
+      <c r="C76" s="61" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="66"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="78"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="61" t="str">
+      <c r="C77" s="73" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="75"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -15266,60 +15602,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="58" t="str">
+      <c r="B79" s="70" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="72"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="71" t="str">
+      <c r="B80" s="62" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="73"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="64"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="67"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="69"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="70" t="str">
+      <c r="C82" s="61" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="70"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="66"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="78"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="61" t="str">
+      <c r="C83" s="73" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="63"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="75"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -15345,60 +15681,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="58" t="str">
+      <c r="B85" s="70" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="72"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="71" t="str">
+      <c r="B86" s="62" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="73"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="67"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="69"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="70" t="str">
+      <c r="C88" s="61" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="70"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="66"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="78"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="61" t="str">
+      <c r="C89" s="73" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="63"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="75"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -15424,60 +15760,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="58" t="str">
+      <c r="B91" s="70" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="60"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="72"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="71" t="str">
+      <c r="B92" s="62" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="73"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="64"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="67"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="69"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="60"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="70" t="str">
+      <c r="C94" s="61" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="66"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="78"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="61" t="str">
+      <c r="C95" s="73" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="63"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="75"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -15503,60 +15839,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="58" t="str">
+      <c r="B97" s="70" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="60"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="72"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="71" t="str">
+      <c r="B98" s="62" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="72"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="73"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="64"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="67"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="69"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="60"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="70" t="str">
+      <c r="C100" s="61" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="70"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="66"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="78"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="61" t="str">
+      <c r="C101" s="73" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="63"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="75"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -15582,60 +15918,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="58" t="str">
+      <c r="B103" s="70" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="59"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="60"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="72"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="71" t="str">
+      <c r="B104" s="62" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="73"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="64"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="67"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="69"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="60"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="70" t="str">
+      <c r="C106" s="61" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="70"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="66"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="78"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="61" t="str">
+      <c r="C107" s="73" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="63"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="75"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -15661,60 +15997,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="58" t="str">
+      <c r="B109" s="70" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="59"/>
-      <c r="D109" s="59"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="60"/>
+      <c r="C109" s="71"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="72"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="71" t="str">
+      <c r="B110" s="62" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="72"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="73"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="64"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="67"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="69"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="60"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="70" t="str">
+      <c r="C112" s="61" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="70"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="66"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="78"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="61" t="str">
+      <c r="C113" s="73" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="63"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="75"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -15740,60 +16076,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="58" t="str">
+      <c r="B115" s="70" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="59"/>
-      <c r="D115" s="59"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="60"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="72"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="71" t="str">
+      <c r="B116" s="62" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="72"/>
-      <c r="D116" s="72"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="72"/>
-      <c r="G116" s="73"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
+      <c r="G116" s="64"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="67"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="69"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="60"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="70" t="str">
+      <c r="C118" s="61" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="70"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="66"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="78"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="61" t="str">
+      <c r="C119" s="73" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="63"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="75"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -15819,60 +16155,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="58" t="str">
+      <c r="B121" s="70" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="59"/>
-      <c r="D121" s="59"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="60"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="72"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="71" t="str">
+      <c r="B122" s="62" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="72"/>
-      <c r="D122" s="72"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="73"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="64"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="67"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68"/>
-      <c r="F123" s="68"/>
-      <c r="G123" s="69"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="59"/>
+      <c r="E123" s="59"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="60"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="70" t="str">
+      <c r="C124" s="61" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="70"/>
-      <c r="E124" s="64"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="66"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="78"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="61" t="str">
+      <c r="C125" s="73" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="62"/>
-      <c r="E125" s="62"/>
-      <c r="F125" s="62"/>
-      <c r="G125" s="63"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="75"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -15898,60 +16234,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="58" t="str">
+      <c r="B127" s="70" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="59"/>
-      <c r="D127" s="59"/>
-      <c r="E127" s="59"/>
-      <c r="F127" s="59"/>
-      <c r="G127" s="60"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="72"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="71" t="str">
+      <c r="B128" s="62" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="72"/>
-      <c r="D128" s="72"/>
-      <c r="E128" s="72"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="73"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="64"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="67"/>
-      <c r="C129" s="68"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="68"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="69"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="60"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="70" t="str">
+      <c r="C130" s="61" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="70"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="66"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="76"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="78"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="61" t="str">
+      <c r="C131" s="73" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
-      <c r="F131" s="62"/>
-      <c r="G131" s="63"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="75"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -15977,60 +16313,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="58" t="str">
+      <c r="B133" s="70" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="59"/>
-      <c r="D133" s="59"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="60"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="72"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="71" t="str">
+      <c r="B134" s="62" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="72"/>
-      <c r="D134" s="72"/>
-      <c r="E134" s="72"/>
-      <c r="F134" s="72"/>
-      <c r="G134" s="73"/>
+      <c r="C134" s="63"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="64"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="67"/>
-      <c r="C135" s="68"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="68"/>
-      <c r="F135" s="68"/>
-      <c r="G135" s="69"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="60"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="70" t="str">
+      <c r="C136" s="61" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="70"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="66"/>
+      <c r="D136" s="61"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="78"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="61" t="str">
+      <c r="C137" s="73" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="62"/>
-      <c r="E137" s="62"/>
-      <c r="F137" s="62"/>
-      <c r="G137" s="63"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="75"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -16056,60 +16392,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="58" t="str">
+      <c r="B139" s="70" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="59"/>
-      <c r="D139" s="59"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
-      <c r="G139" s="60"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="71"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="72"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="71" t="str">
+      <c r="B140" s="62" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="72"/>
-      <c r="D140" s="72"/>
-      <c r="E140" s="72"/>
-      <c r="F140" s="72"/>
-      <c r="G140" s="73"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="64"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="67"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="69"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="59"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="59"/>
+      <c r="G141" s="60"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="70" t="str">
+      <c r="C142" s="61" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="70"/>
-      <c r="E142" s="64"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="66"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="78"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="61" t="str">
+      <c r="C143" s="73" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="62"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="62"/>
-      <c r="G143" s="63"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="74"/>
+      <c r="G143" s="75"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -16135,60 +16471,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="58" t="str">
+      <c r="B145" s="70" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="59"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="60"/>
+      <c r="C145" s="71"/>
+      <c r="D145" s="71"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="72"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="71" t="str">
+      <c r="B146" s="62" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="72"/>
-      <c r="D146" s="72"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="73"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="64"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="67"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="68"/>
-      <c r="G147" s="69"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="60"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="70" t="str">
+      <c r="C148" s="61" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="70"/>
-      <c r="E148" s="64"/>
-      <c r="F148" s="65"/>
-      <c r="G148" s="66"/>
+      <c r="D148" s="61"/>
+      <c r="E148" s="76"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="78"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="61" t="str">
+      <c r="C149" s="73" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="62"/>
-      <c r="E149" s="62"/>
-      <c r="F149" s="62"/>
-      <c r="G149" s="63"/>
+      <c r="D149" s="74"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="74"/>
+      <c r="G149" s="75"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -16214,60 +16550,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="58" t="str">
+      <c r="B151" s="70" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="59"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="60"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="72"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="71" t="str">
+      <c r="B152" s="62" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="72"/>
-      <c r="D152" s="72"/>
-      <c r="E152" s="72"/>
-      <c r="F152" s="72"/>
-      <c r="G152" s="73"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="64"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="67"/>
-      <c r="C153" s="68"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="68"/>
-      <c r="F153" s="68"/>
-      <c r="G153" s="69"/>
+      <c r="B153" s="58"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="60"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="70" t="str">
+      <c r="C154" s="61" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="70"/>
-      <c r="E154" s="64"/>
-      <c r="F154" s="65"/>
-      <c r="G154" s="66"/>
+      <c r="D154" s="61"/>
+      <c r="E154" s="76"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="78"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="61" t="str">
+      <c r="C155" s="73" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="62"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="62"/>
-      <c r="G155" s="63"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
+      <c r="G155" s="75"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -16293,60 +16629,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="58" t="str">
+      <c r="B157" s="70" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="59"/>
-      <c r="D157" s="59"/>
-      <c r="E157" s="59"/>
-      <c r="F157" s="59"/>
-      <c r="G157" s="60"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="71"/>
+      <c r="E157" s="71"/>
+      <c r="F157" s="71"/>
+      <c r="G157" s="72"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="71" t="str">
+      <c r="B158" s="62" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="72"/>
-      <c r="D158" s="72"/>
-      <c r="E158" s="72"/>
-      <c r="F158" s="72"/>
-      <c r="G158" s="73"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="63"/>
+      <c r="G158" s="64"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="67"/>
-      <c r="C159" s="68"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="68"/>
-      <c r="F159" s="68"/>
-      <c r="G159" s="69"/>
+      <c r="B159" s="58"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="59"/>
+      <c r="E159" s="59"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="60"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="70" t="str">
+      <c r="C160" s="61" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="70"/>
-      <c r="E160" s="64"/>
-      <c r="F160" s="65"/>
-      <c r="G160" s="66"/>
+      <c r="D160" s="61"/>
+      <c r="E160" s="76"/>
+      <c r="F160" s="77"/>
+      <c r="G160" s="78"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="61" t="str">
+      <c r="C161" s="73" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="62"/>
-      <c r="E161" s="62"/>
-      <c r="F161" s="62"/>
-      <c r="G161" s="63"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="74"/>
+      <c r="G161" s="75"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -16372,60 +16708,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="58" t="str">
+      <c r="B163" s="70" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="59"/>
-      <c r="D163" s="59"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="59"/>
-      <c r="G163" s="60"/>
+      <c r="C163" s="71"/>
+      <c r="D163" s="71"/>
+      <c r="E163" s="71"/>
+      <c r="F163" s="71"/>
+      <c r="G163" s="72"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="71" t="str">
+      <c r="B164" s="62" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="72"/>
-      <c r="D164" s="72"/>
-      <c r="E164" s="72"/>
-      <c r="F164" s="72"/>
-      <c r="G164" s="73"/>
+      <c r="C164" s="63"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="63"/>
+      <c r="F164" s="63"/>
+      <c r="G164" s="64"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="67"/>
-      <c r="C165" s="68"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="68"/>
-      <c r="F165" s="68"/>
-      <c r="G165" s="69"/>
+      <c r="B165" s="58"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="60"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="70" t="str">
+      <c r="C166" s="61" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="70"/>
-      <c r="E166" s="64"/>
-      <c r="F166" s="65"/>
-      <c r="G166" s="66"/>
+      <c r="D166" s="61"/>
+      <c r="E166" s="76"/>
+      <c r="F166" s="77"/>
+      <c r="G166" s="78"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="61" t="str">
+      <c r="C167" s="73" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="62"/>
-      <c r="E167" s="62"/>
-      <c r="F167" s="62"/>
-      <c r="G167" s="63"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="74"/>
+      <c r="G167" s="75"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -16451,60 +16787,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="58" t="str">
+      <c r="B169" s="70" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="59"/>
-      <c r="D169" s="59"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="60"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="71"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="71"/>
+      <c r="G169" s="72"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="71" t="str">
+      <c r="B170" s="62" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="72"/>
-      <c r="D170" s="72"/>
-      <c r="E170" s="72"/>
-      <c r="F170" s="72"/>
-      <c r="G170" s="73"/>
+      <c r="C170" s="63"/>
+      <c r="D170" s="63"/>
+      <c r="E170" s="63"/>
+      <c r="F170" s="63"/>
+      <c r="G170" s="64"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="67"/>
-      <c r="C171" s="68"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="68"/>
-      <c r="F171" s="68"/>
-      <c r="G171" s="69"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="60"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="70" t="str">
+      <c r="C172" s="61" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="70"/>
-      <c r="E172" s="64"/>
-      <c r="F172" s="65"/>
-      <c r="G172" s="66"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="76"/>
+      <c r="F172" s="77"/>
+      <c r="G172" s="78"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="61" t="str">
+      <c r="C173" s="73" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="62"/>
-      <c r="E173" s="62"/>
-      <c r="F173" s="62"/>
-      <c r="G173" s="63"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
+      <c r="F173" s="74"/>
+      <c r="G173" s="75"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -16530,60 +16866,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="58" t="str">
+      <c r="B175" s="70" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="59"/>
-      <c r="D175" s="59"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="59"/>
-      <c r="G175" s="60"/>
+      <c r="C175" s="71"/>
+      <c r="D175" s="71"/>
+      <c r="E175" s="71"/>
+      <c r="F175" s="71"/>
+      <c r="G175" s="72"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="71" t="str">
+      <c r="B176" s="62" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="72"/>
-      <c r="D176" s="72"/>
-      <c r="E176" s="72"/>
-      <c r="F176" s="72"/>
-      <c r="G176" s="73"/>
+      <c r="C176" s="63"/>
+      <c r="D176" s="63"/>
+      <c r="E176" s="63"/>
+      <c r="F176" s="63"/>
+      <c r="G176" s="64"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="67"/>
-      <c r="C177" s="68"/>
-      <c r="D177" s="68"/>
-      <c r="E177" s="68"/>
-      <c r="F177" s="68"/>
-      <c r="G177" s="69"/>
+      <c r="B177" s="58"/>
+      <c r="C177" s="59"/>
+      <c r="D177" s="59"/>
+      <c r="E177" s="59"/>
+      <c r="F177" s="59"/>
+      <c r="G177" s="60"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="70" t="str">
+      <c r="C178" s="61" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="70"/>
-      <c r="E178" s="64"/>
-      <c r="F178" s="65"/>
-      <c r="G178" s="66"/>
+      <c r="D178" s="61"/>
+      <c r="E178" s="76"/>
+      <c r="F178" s="77"/>
+      <c r="G178" s="78"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="61" t="str">
+      <c r="C179" s="73" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="62"/>
-      <c r="E179" s="62"/>
-      <c r="F179" s="62"/>
-      <c r="G179" s="63"/>
+      <c r="D179" s="74"/>
+      <c r="E179" s="74"/>
+      <c r="F179" s="74"/>
+      <c r="G179" s="75"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -16609,124 +16945,107 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="58" t="str">
+      <c r="B181" s="70" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="59"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="60"/>
+      <c r="C181" s="71"/>
+      <c r="D181" s="71"/>
+      <c r="E181" s="71"/>
+      <c r="F181" s="71"/>
+      <c r="G181" s="72"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="71" t="str">
+      <c r="B182" s="62" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="72"/>
-      <c r="D182" s="72"/>
-      <c r="E182" s="72"/>
-      <c r="F182" s="72"/>
-      <c r="G182" s="73"/>
+      <c r="C182" s="63"/>
+      <c r="D182" s="63"/>
+      <c r="E182" s="63"/>
+      <c r="F182" s="63"/>
+      <c r="G182" s="64"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="74"/>
-      <c r="C183" s="75"/>
-      <c r="D183" s="75"/>
-      <c r="E183" s="75"/>
-      <c r="F183" s="75"/>
-      <c r="G183" s="76"/>
+      <c r="B183" s="79"/>
+      <c r="C183" s="80"/>
+      <c r="D183" s="80"/>
+      <c r="E183" s="80"/>
+      <c r="F183" s="80"/>
+      <c r="G183" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="C95:G95"/>
@@ -16751,76 +17070,93 @@
     <mergeCell ref="E106:G106"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="E142:G142"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="C137:G137"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23314,10 +23650,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1600"/>
+  <dimension ref="A1:AB1636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1497" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E1595" sqref="E1595"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1636" sqref="E1636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -24099,7 +24435,7 @@
       <c r="AA20" s="47"/>
       <c r="AB20" s="47"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="45">
         <v>42923</v>
@@ -24139,7 +24475,7 @@
       <c r="AA21" s="47"/>
       <c r="AB21" s="47"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="45">
         <v>42923</v>
@@ -24179,7 +24515,7 @@
       <c r="AA22" s="47"/>
       <c r="AB22" s="47"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="45">
         <v>42923</v>
@@ -24219,7 +24555,7 @@
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="45">
         <v>42923</v>
@@ -24259,7 +24595,7 @@
       <c r="AA24" s="47"/>
       <c r="AB24" s="47"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="45">
         <v>42923</v>
@@ -24299,7 +24635,7 @@
       <c r="AA25" s="47"/>
       <c r="AB25" s="47"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="45">
         <v>42923</v>
@@ -24339,7 +24675,7 @@
       <c r="AA26" s="47"/>
       <c r="AB26" s="47"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="33"/>
       <c r="B27" s="45">
         <v>42923</v>
@@ -24777,7 +25113,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="33"/>
       <c r="B52" s="45">
         <v>42924</v>
@@ -24795,7 +25131,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="45">
         <v>42924</v>
@@ -25083,7 +25419,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="33"/>
       <c r="B69" s="45">
         <v>42925</v>
@@ -25101,7 +25437,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="33"/>
       <c r="B70" s="45">
         <v>42925</v>
@@ -25119,7 +25455,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="33"/>
       <c r="B71" s="45">
         <v>42925</v>
@@ -25443,7 +25779,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="33"/>
       <c r="B89" s="45">
         <v>42926</v>
@@ -25461,7 +25797,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="33"/>
       <c r="B90" s="45">
         <v>42926</v>
@@ -25479,7 +25815,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="33"/>
       <c r="B91" s="45">
         <v>42926</v>
@@ -25964,7 +26300,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B119" s="45">
         <v>42927</v>
       </c>
@@ -25981,7 +26317,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B120" s="45">
         <v>42927</v>
       </c>
@@ -25998,7 +26334,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B121" s="45">
         <v>42927</v>
       </c>
@@ -26015,7 +26351,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B122" s="45">
         <v>42927</v>
       </c>
@@ -26253,7 +26589,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="45">
         <v>42928</v>
       </c>
@@ -26270,7 +26606,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B137" s="45">
         <v>42928</v>
       </c>
@@ -26287,7 +26623,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B138" s="45">
         <v>42928</v>
       </c>
@@ -26304,7 +26640,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B139" s="45">
         <v>42928</v>
       </c>
@@ -26610,7 +26946,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B157" s="45">
         <v>42929</v>
       </c>
@@ -26627,7 +26963,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B158" s="45">
         <v>42929</v>
       </c>
@@ -26644,7 +26980,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B159" s="45">
         <v>42929</v>
       </c>
@@ -26661,7 +26997,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="45">
         <v>42929</v>
       </c>
@@ -27358,7 +27694,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B201" s="45">
         <v>42930</v>
       </c>
@@ -27375,7 +27711,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B202" s="45">
         <v>42930</v>
       </c>
@@ -27392,7 +27728,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B203" s="45">
         <v>42930</v>
       </c>
@@ -27409,7 +27745,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B204" s="45">
         <v>42930</v>
       </c>
@@ -27426,7 +27762,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B205" s="45">
         <v>42931</v>
       </c>
@@ -27443,7 +27779,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B206" s="45">
         <v>42931</v>
       </c>
@@ -27460,7 +27796,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B207" s="45">
         <v>42931</v>
       </c>
@@ -27766,7 +28102,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B225" s="45">
         <v>42932</v>
       </c>
@@ -27783,7 +28119,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B226" s="45">
         <v>42932</v>
       </c>
@@ -27800,7 +28136,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B227" s="45">
         <v>42932</v>
       </c>
@@ -28106,7 +28442,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B245" s="45">
         <v>42933</v>
       </c>
@@ -28123,7 +28459,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B246" s="45">
         <v>42933</v>
       </c>
@@ -28140,7 +28476,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B247" s="45">
         <v>42933</v>
       </c>
@@ -28157,7 +28493,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B248" s="45">
         <v>42933</v>
       </c>
@@ -28480,7 +28816,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B267" s="45">
         <v>42934</v>
       </c>
@@ -28497,7 +28833,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B268" s="45">
         <v>42934</v>
       </c>
@@ -28514,7 +28850,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B269" s="45">
         <v>42934</v>
       </c>
@@ -28531,7 +28867,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B270" s="45">
         <v>42934</v>
       </c>
@@ -28837,7 +29173,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B288" s="45">
         <v>42935</v>
       </c>
@@ -28854,7 +29190,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B289" s="45">
         <v>42935</v>
       </c>
@@ -28871,7 +29207,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B290" s="45">
         <v>42935</v>
       </c>
@@ -28888,7 +29224,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B291" s="45">
         <v>42935</v>
       </c>
@@ -28905,7 +29241,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B292" s="45">
         <v>42935</v>
       </c>
@@ -29245,7 +29581,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B312" s="45">
         <v>42936</v>
       </c>
@@ -29262,7 +29598,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B313" s="45">
         <v>42936</v>
       </c>
@@ -29279,7 +29615,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B314" s="45">
         <v>42936</v>
       </c>
@@ -29296,7 +29632,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B315" s="45">
         <v>42936</v>
       </c>
@@ -29500,7 +29836,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B327" s="45">
         <v>42937</v>
       </c>
@@ -29517,7 +29853,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B328" s="45">
         <v>42937</v>
       </c>
@@ -29534,7 +29870,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B329" s="45">
         <v>42937</v>
       </c>
@@ -29551,7 +29887,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B330" s="45">
         <v>42937</v>
       </c>
@@ -30010,7 +30346,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B357" s="45">
         <v>42938</v>
       </c>
@@ -30028,7 +30364,7 @@
       </c>
       <c r="G357" s="56"/>
     </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B358" s="45">
         <v>42938</v>
       </c>
@@ -30045,7 +30381,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B359" s="45">
         <v>42938</v>
       </c>
@@ -30062,7 +30398,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B360" s="45">
         <v>42938</v>
       </c>
@@ -30572,7 +30908,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B390" s="45">
         <v>42939</v>
       </c>
@@ -30589,7 +30925,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B391" s="45">
         <v>42939</v>
       </c>
@@ -30606,7 +30942,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B392" s="45">
         <v>42939</v>
       </c>
@@ -30623,7 +30959,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B393" s="45">
         <v>42940</v>
       </c>
@@ -30640,7 +30976,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B394" s="45">
         <v>42940</v>
       </c>
@@ -30657,7 +30993,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B395" s="45">
         <v>42940</v>
       </c>
@@ -30674,7 +31010,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B396" s="45">
         <v>42940</v>
       </c>
@@ -30691,7 +31027,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B397" s="45">
         <v>42940</v>
       </c>
@@ -31031,7 +31367,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B417" s="45">
         <v>42941</v>
       </c>
@@ -31048,7 +31384,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B418" s="45">
         <v>42941</v>
       </c>
@@ -31065,7 +31401,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="419" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B419" s="45">
         <v>42941</v>
       </c>
@@ -31082,7 +31418,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B420" s="45">
         <v>42941</v>
       </c>
@@ -31099,7 +31435,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="421" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B421" s="45">
         <v>42941</v>
       </c>
@@ -33037,7 +33373,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="535" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B535" s="45">
         <v>42942</v>
       </c>
@@ -33054,7 +33390,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="536" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B536" s="45">
         <v>42942</v>
       </c>
@@ -33071,7 +33407,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="537" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B537" s="45">
         <v>42942</v>
       </c>
@@ -33088,7 +33424,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="538" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B538" s="45">
         <v>42942</v>
       </c>
@@ -33105,7 +33441,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="539" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B539" s="45">
         <v>42943</v>
       </c>
@@ -33122,7 +33458,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="540" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B540" s="45">
         <v>42943</v>
       </c>
@@ -33139,7 +33475,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="541" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B541" s="45">
         <v>42943</v>
       </c>
@@ -33156,7 +33492,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="542" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B542" s="45">
         <v>42943</v>
       </c>
@@ -33173,7 +33509,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="543" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B543" s="45">
         <v>42943</v>
       </c>
@@ -33190,7 +33526,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="544" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B544" s="45">
         <v>42944</v>
       </c>
@@ -33207,7 +33543,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="545" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B545" s="45">
         <v>42944</v>
       </c>
@@ -33224,7 +33560,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="546" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B546" s="45">
         <v>42944</v>
       </c>
@@ -33241,7 +33577,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="547" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B547" s="45">
         <v>42944</v>
       </c>
@@ -33258,7 +33594,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="548" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B548" s="45">
         <v>42944</v>
       </c>
@@ -33275,7 +33611,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="549" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B549" s="45">
         <v>42945</v>
       </c>
@@ -33292,7 +33628,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="550" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B550" s="45">
         <v>42945</v>
       </c>
@@ -33309,7 +33645,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="551" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B551" s="45">
         <v>42945</v>
       </c>
@@ -33326,7 +33662,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="552" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B552" s="45">
         <v>42945</v>
       </c>
@@ -33343,7 +33679,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="553" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B553" s="45">
         <v>42946</v>
       </c>
@@ -33360,7 +33696,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="554" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B554" s="45">
         <v>42946</v>
       </c>
@@ -33377,7 +33713,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="555" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B555" s="45">
         <v>42946</v>
       </c>
@@ -33394,7 +33730,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="556" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B556" s="45">
         <v>42946</v>
       </c>
@@ -33411,7 +33747,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="557" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B557" s="45">
         <v>42947</v>
       </c>
@@ -33428,7 +33764,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="558" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B558" s="45">
         <v>42947</v>
       </c>
@@ -33445,7 +33781,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="559" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B559" s="45">
         <v>42947</v>
       </c>
@@ -33683,7 +34019,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="573" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B573" s="45">
         <v>42948</v>
       </c>
@@ -33700,7 +34036,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="574" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B574" s="45">
         <v>42948</v>
       </c>
@@ -33717,7 +34053,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="575" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B575" s="45">
         <v>42948</v>
       </c>
@@ -33734,7 +34070,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="576" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B576" s="45">
         <v>42948</v>
       </c>
@@ -34057,7 +34393,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="595" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B595" s="45">
         <v>42949</v>
       </c>
@@ -34074,7 +34410,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="596" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B596" s="45">
         <v>42949</v>
       </c>
@@ -34091,7 +34427,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="597" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B597" s="45">
         <v>42949</v>
       </c>
@@ -34108,7 +34444,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="598" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B598" s="45">
         <v>42949</v>
       </c>
@@ -34125,7 +34461,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="599" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B599" s="45">
         <v>42949</v>
       </c>
@@ -34958,7 +35294,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="648" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="648" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B648" s="45">
         <v>42950</v>
       </c>
@@ -34975,7 +35311,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="649" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="649" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B649" s="45">
         <v>42950</v>
       </c>
@@ -34992,7 +35328,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="650" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="650" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B650" s="45">
         <v>42950</v>
       </c>
@@ -35009,7 +35345,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="651" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="651" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B651" s="45">
         <v>42950</v>
       </c>
@@ -35026,7 +35362,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="652" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="652" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B652" s="45">
         <v>42950</v>
       </c>
@@ -35043,7 +35379,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="653" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="653" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B653" s="45">
         <v>42951</v>
       </c>
@@ -35060,7 +35396,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="654" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="654" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B654" s="45">
         <v>42951</v>
       </c>
@@ -35077,7 +35413,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="655" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="655" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B655" s="45">
         <v>42951</v>
       </c>
@@ -35094,7 +35430,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="656" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="656" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B656" s="45">
         <v>42951</v>
       </c>
@@ -35111,7 +35447,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="657" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="657" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B657" s="45">
         <v>42951</v>
       </c>
@@ -35417,7 +35753,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="675" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B675" s="45">
         <v>42952</v>
       </c>
@@ -35434,7 +35770,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="676" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B676" s="45">
         <v>42952</v>
       </c>
@@ -35451,7 +35787,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="677" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B677" s="45">
         <v>42952</v>
       </c>
@@ -35468,7 +35804,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="678" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B678" s="45">
         <v>42952</v>
       </c>
@@ -35485,7 +35821,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="679" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B679" s="45">
         <v>42953</v>
       </c>
@@ -35502,7 +35838,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="680" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="680" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B680" s="45">
         <v>42953</v>
       </c>
@@ -35519,7 +35855,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="681" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="681" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B681" s="45">
         <v>42953</v>
       </c>
@@ -35536,7 +35872,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="682" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B682" s="45">
         <v>42953</v>
       </c>
@@ -35553,7 +35889,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="683" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="683" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B683" s="45">
         <v>42953</v>
       </c>
@@ -35825,7 +36161,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="699" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="699" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B699" s="45">
         <v>42954</v>
       </c>
@@ -35842,7 +36178,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="700" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="700" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B700" s="45">
         <v>42954</v>
       </c>
@@ -35859,7 +36195,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="701" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="701" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B701" s="45">
         <v>42954</v>
       </c>
@@ -35876,7 +36212,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="702" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="702" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B702" s="45">
         <v>42954</v>
       </c>
@@ -35893,7 +36229,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="703" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="703" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B703" s="45">
         <v>42954</v>
       </c>
@@ -36505,7 +36841,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="739" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="739" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B739" s="45">
         <v>42955</v>
       </c>
@@ -36522,7 +36858,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="740" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="740" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B740" s="45">
         <v>42955</v>
       </c>
@@ -36539,7 +36875,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="741" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="741" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B741" s="45">
         <v>42955</v>
       </c>
@@ -36556,7 +36892,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="742" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="742" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B742" s="45">
         <v>42955</v>
       </c>
@@ -36573,7 +36909,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="743" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="743" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B743" s="45">
         <v>42955</v>
       </c>
@@ -36590,7 +36926,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="744" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="744" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B744" s="45">
         <v>42956</v>
       </c>
@@ -36607,7 +36943,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="745" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="745" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B745" s="45">
         <v>42956</v>
       </c>
@@ -36624,7 +36960,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="746" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="746" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B746" s="45">
         <v>42956</v>
       </c>
@@ -36641,7 +36977,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="747" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="747" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B747" s="45">
         <v>42956</v>
       </c>
@@ -36658,7 +36994,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="748" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="748" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B748" s="45">
         <v>42956</v>
       </c>
@@ -37525,7 +37861,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="799" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="799" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B799" s="45">
         <v>42957</v>
       </c>
@@ -37542,7 +37878,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="800" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="800" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B800" s="45">
         <v>42957</v>
       </c>
@@ -37559,7 +37895,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="801" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="801" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B801" s="45">
         <v>42957</v>
       </c>
@@ -37576,7 +37912,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="802" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="802" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B802" s="45">
         <v>42957</v>
       </c>
@@ -37593,7 +37929,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="803" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="803" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B803" s="45">
         <v>42957</v>
       </c>
@@ -37610,7 +37946,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="804" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="804" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B804" s="45">
         <v>42958</v>
       </c>
@@ -37627,7 +37963,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="805" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="805" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B805" s="45">
         <v>42958</v>
       </c>
@@ -37644,7 +37980,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="806" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="806" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B806" s="45">
         <v>42958</v>
       </c>
@@ -37661,7 +37997,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="807" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="807" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B807" s="45">
         <v>42958</v>
       </c>
@@ -37916,7 +38252,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="822" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="822" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B822" s="45">
         <v>42959</v>
       </c>
@@ -37933,7 +38269,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="823" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="823" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B823" s="45">
         <v>42959</v>
       </c>
@@ -37950,7 +38286,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="824" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="824" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B824" s="45">
         <v>42959</v>
       </c>
@@ -37967,7 +38303,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="825" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="825" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B825" s="45">
         <v>42959</v>
       </c>
@@ -38154,7 +38490,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="836" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="836" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B836" s="45">
         <v>42960</v>
       </c>
@@ -38171,7 +38507,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="837" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="837" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B837" s="45">
         <v>42960</v>
       </c>
@@ -38188,7 +38524,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="838" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="838" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B838" s="45">
         <v>42960</v>
       </c>
@@ -38409,7 +38745,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="851" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="851" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B851" s="45">
         <v>42961</v>
       </c>
@@ -38426,7 +38762,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="852" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="852" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B852" s="45">
         <v>42961</v>
       </c>
@@ -39072,7 +39408,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="890" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="890" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B890" s="45">
         <v>42962</v>
       </c>
@@ -39089,7 +39425,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="891" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="891" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B891" s="45">
         <v>42962</v>
       </c>
@@ -39106,7 +39442,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="892" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="892" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B892" s="45">
         <v>42962</v>
       </c>
@@ -39123,7 +39459,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="893" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="893" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B893" s="45">
         <v>42962</v>
       </c>
@@ -39140,7 +39476,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="894" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="894" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B894" s="45">
         <v>42963</v>
       </c>
@@ -39157,7 +39493,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="895" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="895" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B895" s="45">
         <v>42963</v>
       </c>
@@ -39174,7 +39510,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="896" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="896" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B896" s="45">
         <v>42963</v>
       </c>
@@ -39191,7 +39527,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="897" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="897" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B897" s="45">
         <v>42963</v>
       </c>
@@ -39208,7 +39544,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="898" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="898" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B898" s="45">
         <v>42963</v>
       </c>
@@ -40466,7 +40802,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="972" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="972" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B972" s="45">
         <v>42964</v>
       </c>
@@ -40483,7 +40819,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="973" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="973" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B973" s="45">
         <v>42964</v>
       </c>
@@ -40500,7 +40836,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="974" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="974" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B974" s="45">
         <v>42964</v>
       </c>
@@ -40517,7 +40853,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="975" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="975" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B975" s="45">
         <v>42964</v>
       </c>
@@ -40534,7 +40870,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="976" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="976" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B976" s="45">
         <v>42965</v>
       </c>
@@ -40551,7 +40887,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="977" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="977" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B977" s="45">
         <v>42965</v>
       </c>
@@ -40568,7 +40904,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="978" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="978" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B978" s="45">
         <v>42965</v>
       </c>
@@ -40585,7 +40921,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="979" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="979" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B979" s="45">
         <v>42965</v>
       </c>
@@ -40602,7 +40938,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="980" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="980" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B980" s="45">
         <v>42965</v>
       </c>
@@ -40619,7 +40955,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="981" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="981" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B981" s="45">
         <v>42966</v>
       </c>
@@ -40636,7 +40972,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="982" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="982" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B982" s="45">
         <v>42966</v>
       </c>
@@ -40653,7 +40989,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="983" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="983" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B983" s="45">
         <v>42966</v>
       </c>
@@ -40670,7 +41006,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="984" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="984" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B984" s="45">
         <v>42966</v>
       </c>
@@ -40687,7 +41023,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="985" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="985" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B985" s="45">
         <v>42966</v>
       </c>
@@ -40704,7 +41040,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="986" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="986" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B986" s="45">
         <v>42967</v>
       </c>
@@ -40721,7 +41057,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="987" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="987" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B987" s="45">
         <v>42967</v>
       </c>
@@ -40738,7 +41074,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="988" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="988" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B988" s="45">
         <v>42967</v>
       </c>
@@ -40755,7 +41091,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="989" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="989" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B989" s="45">
         <v>42967</v>
       </c>
@@ -41248,7 +41584,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="1018" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1018" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1018" s="45">
         <v>42968</v>
       </c>
@@ -41265,7 +41601,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="1019" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1019" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1019" s="45">
         <v>42968</v>
       </c>
@@ -41282,7 +41618,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="1020" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1020" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1020" s="45">
         <v>42968</v>
       </c>
@@ -41299,7 +41635,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="1021" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1021" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1021" s="45">
         <v>42968</v>
       </c>
@@ -41316,7 +41652,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="1022" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1022" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1022" s="45">
         <v>42968</v>
       </c>
@@ -41333,7 +41669,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="1023" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1023" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1023" s="45">
         <v>42969</v>
       </c>
@@ -41350,7 +41686,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1024" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1024" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1024" s="45">
         <v>42969</v>
       </c>
@@ -41367,7 +41703,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="1025" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1025" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1025" s="45">
         <v>42969</v>
       </c>
@@ -41996,7 +42332,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="1062" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1062" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1062" s="45">
         <v>42970</v>
       </c>
@@ -42013,7 +42349,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="1063" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1063" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1063" s="45">
         <v>42970</v>
       </c>
@@ -42030,7 +42366,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="1064" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1064" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1064" s="45">
         <v>42970</v>
       </c>
@@ -42047,7 +42383,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="1065" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1065" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1065" s="45">
         <v>42970</v>
       </c>
@@ -42064,7 +42400,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="1066" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1066" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1066" s="45">
         <v>42970</v>
       </c>
@@ -42081,7 +42417,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="1067" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1067" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1067" s="45">
         <v>42971</v>
       </c>
@@ -42098,7 +42434,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="1068" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1068" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1068" s="45">
         <v>42971</v>
       </c>
@@ -42115,7 +42451,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="1069" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1069" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1069" s="45">
         <v>42971</v>
       </c>
@@ -42132,7 +42468,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="1070" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1070" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1070" s="45">
         <v>42971</v>
       </c>
@@ -42149,7 +42485,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="1071" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1071" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1071" s="45">
         <v>42971</v>
       </c>
@@ -43339,7 +43675,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="1141" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1141" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1141" s="45">
         <v>42972</v>
       </c>
@@ -43356,7 +43692,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="1142" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1142" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1142" s="45">
         <v>42972</v>
       </c>
@@ -43373,7 +43709,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="1143" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1143" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1143" s="45">
         <v>42972</v>
       </c>
@@ -43390,7 +43726,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="1144" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1144" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1144" s="45">
         <v>42972</v>
       </c>
@@ -43407,7 +43743,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="1145" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1145" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1145" s="45">
         <v>42972</v>
       </c>
@@ -43424,7 +43760,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="1146" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1146" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1146" s="45">
         <v>42973</v>
       </c>
@@ -43441,7 +43777,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="1147" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1147" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1147" s="45">
         <v>42973</v>
       </c>
@@ -43458,7 +43794,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="1148" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1148" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1148" s="45">
         <v>42973</v>
       </c>
@@ -43475,7 +43811,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="1149" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1149" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1149" s="45">
         <v>42973</v>
       </c>
@@ -43492,7 +43828,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1150" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1150" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1150" s="45">
         <v>42973</v>
       </c>
@@ -43509,7 +43845,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="1151" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1151" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1151" s="45">
         <v>42974</v>
       </c>
@@ -43526,7 +43862,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="1152" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1152" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1152" s="45">
         <v>42974</v>
       </c>
@@ -43543,7 +43879,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="1153" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1153" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1153" s="45">
         <v>42974</v>
       </c>
@@ -43560,7 +43896,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="1154" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1154" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1154" s="45">
         <v>42974</v>
       </c>
@@ -43577,7 +43913,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="1155" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1155" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1155" s="45">
         <v>42975</v>
       </c>
@@ -43594,7 +43930,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="1156" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1156" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1156" s="45">
         <v>42975</v>
       </c>
@@ -43611,7 +43947,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="1157" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1157" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1157" s="45">
         <v>42975</v>
       </c>
@@ -43628,7 +43964,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="1158" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1158" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1158" s="45">
         <v>42975</v>
       </c>
@@ -43645,7 +43981,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="1159" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1159" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1159" s="45">
         <v>42975</v>
       </c>
@@ -44342,7 +44678,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="1200" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1200" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1200" s="45">
         <v>42976</v>
       </c>
@@ -44359,7 +44695,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="1201" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1201" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1201" s="45">
         <v>42976</v>
       </c>
@@ -44376,7 +44712,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="1202" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1202" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1202" s="45">
         <v>42976</v>
       </c>
@@ -44393,7 +44729,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="1203" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1203" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1203" s="45">
         <v>42976</v>
       </c>
@@ -44410,7 +44746,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="1204" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1204" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1204" s="45">
         <v>42976</v>
       </c>
@@ -44427,7 +44763,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="1205" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1205" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1205" s="45">
         <v>42977</v>
       </c>
@@ -44444,7 +44780,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="1206" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1206" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1206" s="45">
         <v>42977</v>
       </c>
@@ -44461,7 +44797,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="1207" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1207" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1207" s="45">
         <v>42977</v>
       </c>
@@ -44478,7 +44814,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1208" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1208" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1208" s="45">
         <v>42977</v>
       </c>
@@ -44495,7 +44831,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="1209" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1209" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1209" s="45">
         <v>42977</v>
       </c>
@@ -44801,7 +45137,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="1227" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1227" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1227" s="45">
         <v>42978</v>
       </c>
@@ -44818,7 +45154,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="1228" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1228" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1228" s="45">
         <v>42978</v>
       </c>
@@ -44835,7 +45171,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="1229" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1229" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1229" s="45">
         <v>42978</v>
       </c>
@@ -44852,7 +45188,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="1230" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1230" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1230" s="45">
         <v>42978</v>
       </c>
@@ -44869,7 +45205,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="1231" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1231" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1231" s="45">
         <v>42978</v>
       </c>
@@ -45787,7 +46123,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="1285" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1285" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1285" s="45">
         <v>42979</v>
       </c>
@@ -45804,7 +46140,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="1286" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1286" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1286" s="45">
         <v>42979</v>
       </c>
@@ -45821,7 +46157,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="1287" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1287" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1287" s="45">
         <v>42979</v>
       </c>
@@ -45838,7 +46174,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="1288" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1288" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1288" s="45">
         <v>42979</v>
       </c>
@@ -45855,7 +46191,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="1289" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1289" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1289" s="45">
         <v>42980</v>
       </c>
@@ -45872,7 +46208,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="1290" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1290" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1290" s="45">
         <v>42980</v>
       </c>
@@ -45889,7 +46225,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="1291" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1291" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1291" s="45">
         <v>42980</v>
       </c>
@@ -45906,7 +46242,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="1292" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1292" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1292" s="45">
         <v>42980</v>
       </c>
@@ -45923,7 +46259,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="1293" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1293" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1293" s="45">
         <v>42981</v>
       </c>
@@ -45940,7 +46276,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="1294" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1294" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1294" s="45">
         <v>42981</v>
       </c>
@@ -45957,7 +46293,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="1295" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1295" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1295" s="45">
         <v>42981</v>
       </c>
@@ -45974,7 +46310,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="1296" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1296" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1296" s="45">
         <v>42981</v>
       </c>
@@ -46603,7 +46939,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="1333" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1333" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1333" s="45">
         <v>42982</v>
       </c>
@@ -46620,7 +46956,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="1334" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1334" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1334" s="45">
         <v>42982</v>
       </c>
@@ -46637,7 +46973,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="1335" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1335" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1335" s="45">
         <v>42982</v>
       </c>
@@ -46654,7 +46990,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="1336" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1336" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1336" s="45">
         <v>42982</v>
       </c>
@@ -46671,7 +47007,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="1337" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1337" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1337" s="45">
         <v>42983</v>
       </c>
@@ -46688,7 +47024,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="1338" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1338" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1338" s="45">
         <v>42983</v>
       </c>
@@ -46705,7 +47041,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="1339" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1339" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1339" s="45">
         <v>42983</v>
       </c>
@@ -46722,7 +47058,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="1340" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1340" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1340" s="45">
         <v>42983</v>
       </c>
@@ -46739,7 +47075,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="1341" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1341" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1341" s="45">
         <v>42983</v>
       </c>
@@ -47436,7 +47772,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="1382" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1382" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1382" s="45">
         <v>42984</v>
       </c>
@@ -47453,7 +47789,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="1383" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1383" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1383" s="45">
         <v>42984</v>
       </c>
@@ -47470,7 +47806,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="1384" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1384" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1384" s="45">
         <v>42984</v>
       </c>
@@ -47487,7 +47823,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="1385" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1385" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1385" s="45">
         <v>42984</v>
       </c>
@@ -47504,7 +47840,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="1386" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1386" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1386" s="45">
         <v>42984</v>
       </c>
@@ -47521,7 +47857,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="1387" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1387" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1387" s="45">
         <v>42985</v>
       </c>
@@ -47538,7 +47874,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="1388" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1388" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1388" s="45">
         <v>42985</v>
       </c>
@@ -47555,7 +47891,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="1389" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1389" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1389" s="45">
         <v>42985</v>
       </c>
@@ -47572,7 +47908,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="1390" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1390" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1390" s="45">
         <v>42985</v>
       </c>
@@ -47589,7 +47925,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="1391" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1391" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1391" s="45">
         <v>42985</v>
       </c>
@@ -48320,7 +48656,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="1434" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1434" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1434" s="45">
         <v>42986</v>
       </c>
@@ -48337,7 +48673,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="1435" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1435" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1435" s="45">
         <v>42986</v>
       </c>
@@ -48354,7 +48690,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="1436" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1436" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1436" s="45">
         <v>42986</v>
       </c>
@@ -48371,7 +48707,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="1437" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1437" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1437" s="45">
         <v>42986</v>
       </c>
@@ -48388,7 +48724,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="1438" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1438" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1438" s="45">
         <v>42986</v>
       </c>
@@ -48405,7 +48741,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="1439" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1439" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1439" s="45">
         <v>42987</v>
       </c>
@@ -48422,7 +48758,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="1440" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1440" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1440" s="45">
         <v>42987</v>
       </c>
@@ -48439,7 +48775,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="1441" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1441" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1441" s="45">
         <v>42987</v>
       </c>
@@ -48456,7 +48792,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="1442" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1442" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1442" s="45">
         <v>42987</v>
       </c>
@@ -48473,7 +48809,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="1443" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1443" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1443" s="45">
         <v>42988</v>
       </c>
@@ -48490,7 +48826,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="1444" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1444" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1444" s="45">
         <v>42988</v>
       </c>
@@ -48507,7 +48843,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="1445" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1445" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1445" s="45">
         <v>42988</v>
       </c>
@@ -48524,7 +48860,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="1446" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1446" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1446" s="45">
         <v>42988</v>
       </c>
@@ -48541,7 +48877,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="1447" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1447" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1447" s="45">
         <v>42988</v>
       </c>
@@ -49238,7 +49574,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="1488" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1488" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1488" s="45">
         <v>42989</v>
       </c>
@@ -49255,7 +49591,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="1489" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1489" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1489" s="45">
         <v>42989</v>
       </c>
@@ -49272,7 +49608,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="1490" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1490" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1490" s="45">
         <v>42989</v>
       </c>
@@ -49289,7 +49625,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="1491" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1491" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1491" s="45">
         <v>42989</v>
       </c>
@@ -49306,7 +49642,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="1492" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1492" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1492" s="45">
         <v>42989</v>
       </c>
@@ -49323,7 +49659,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="1493" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1493" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1493" s="45">
         <v>42990</v>
       </c>
@@ -49340,7 +49676,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="1494" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1494" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1494" s="45">
         <v>42990</v>
       </c>
@@ -49357,7 +49693,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="1495" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1495" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1495" s="45">
         <v>42990</v>
       </c>
@@ -49374,7 +49710,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="1496" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1496" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1496" s="45">
         <v>42990</v>
       </c>
@@ -49391,7 +49727,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="1497" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1497" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1497" s="45">
         <v>42990</v>
       </c>
@@ -49782,7 +50118,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="1520" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1520" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1520" s="45">
         <v>42991</v>
       </c>
@@ -49799,7 +50135,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="1521" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1521" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1521" s="45">
         <v>42991</v>
       </c>
@@ -49816,7 +50152,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="1522" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1522" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1522" s="45">
         <v>42991</v>
       </c>
@@ -49833,7 +50169,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="1523" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1523" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1523" s="45">
         <v>42991</v>
       </c>
@@ -49850,7 +50186,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="1524" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1524" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1524" s="45">
         <v>42991</v>
       </c>
@@ -49867,7 +50203,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="1525" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1525" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1525" s="45">
         <v>42992</v>
       </c>
@@ -49884,7 +50220,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="1526" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1526" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1526" s="45">
         <v>42992</v>
       </c>
@@ -49901,7 +50237,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="1527" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1527" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1527" s="45">
         <v>42992</v>
       </c>
@@ -49918,7 +50254,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="1528" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1528" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1528" s="45">
         <v>42992</v>
       </c>
@@ -49935,7 +50271,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="1529" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1529" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1529" s="45">
         <v>42992</v>
       </c>
@@ -50819,7 +51155,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="1581" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1581" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1581" s="45">
         <v>42993</v>
       </c>
@@ -50836,7 +51172,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="1582" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1582" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1582" s="45">
         <v>42993</v>
       </c>
@@ -50853,7 +51189,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="1583" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1583" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1583" s="45">
         <v>42993</v>
       </c>
@@ -50870,7 +51206,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="1584" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1584" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1584" s="45">
         <v>42993</v>
       </c>
@@ -50887,7 +51223,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="1585" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1585" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1585" s="45">
         <v>42993</v>
       </c>
@@ -50904,7 +51240,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="1586" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1586" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1586" s="45">
         <v>42994</v>
       </c>
@@ -50921,7 +51257,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="1587" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1587" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1587" s="45">
         <v>42994</v>
       </c>
@@ -50938,7 +51274,7 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="1588" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1588" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1588" s="45">
         <v>42994</v>
       </c>
@@ -50955,7 +51291,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="1589" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1589" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1589" s="45">
         <v>42994</v>
       </c>
@@ -50972,7 +51308,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="1590" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1590" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1590" s="45">
         <v>42995</v>
       </c>
@@ -50989,7 +51325,7 @@
         <v>3209</v>
       </c>
     </row>
-    <row r="1591" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1591" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1591" s="45">
         <v>42995</v>
       </c>
@@ -51006,7 +51342,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="1592" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1592" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1592" s="45">
         <v>42995</v>
       </c>
@@ -51023,7 +51359,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="1593" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1593" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1593" s="45">
         <v>42995</v>
       </c>
@@ -51040,7 +51376,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="1594" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1594" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1594" s="45">
         <v>42995</v>
       </c>
@@ -51058,28 +51394,725 @@
       </c>
     </row>
     <row r="1595" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C1595" s="33"/>
+      <c r="B1595" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1595" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1595" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1595" s="57" t="s">
+        <v>3218</v>
+      </c>
+      <c r="F1595" s="56" t="s">
+        <v>3219</v>
+      </c>
     </row>
     <row r="1596" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C1596" s="33"/>
+      <c r="B1596" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1596" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1596" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1596" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F1596" s="56" t="s">
+        <v>3221</v>
+      </c>
     </row>
     <row r="1597" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C1597" s="33"/>
+      <c r="B1597" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1597" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1597" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1597" s="57" t="s">
+        <v>3222</v>
+      </c>
+      <c r="F1597" s="56" t="s">
+        <v>3223</v>
+      </c>
     </row>
     <row r="1598" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C1598" s="33"/>
+      <c r="B1598" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1598" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1598" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1598" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F1598" s="56" t="s">
+        <v>3225</v>
+      </c>
     </row>
     <row r="1599" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C1599" s="33"/>
+      <c r="B1599" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1599" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1599" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1599" s="57" t="s">
+        <v>3226</v>
+      </c>
+      <c r="F1599" s="56" t="s">
+        <v>3227</v>
+      </c>
     </row>
     <row r="1600" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C1600" s="33"/>
+      <c r="B1600" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1600" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1600" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1600" s="57" t="s">
+        <v>3228</v>
+      </c>
+      <c r="F1600" s="56" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1601" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1601" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1601" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1601" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1601" s="57" t="s">
+        <v>3230</v>
+      </c>
+      <c r="F1601" s="56" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="1602" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1602" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1602" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1602" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1602" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="F1602" s="56" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1603" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1603" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1603" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1603" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1603" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="F1603" s="56" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1604" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1604" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1604" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1604" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1604" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="F1604" s="56" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="1605" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1605" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1605" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1605" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1605" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="F1605" s="56" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="1606" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1606" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1606" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1606" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1606" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F1606" s="56" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="1607" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1607" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1607" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1607" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1607" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F1607" s="56" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="1608" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1608" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1608" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1608" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1608" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F1608" s="56" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="1609" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1609" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1609" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1609" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1609" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="F1609" s="56" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1610" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1610" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1610" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1610" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1610" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F1610" s="56" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="1611" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1611" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1611" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1611" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1611" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F1611" s="56" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="1612" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1612" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1612" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1612" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1612" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="F1612" s="56" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="1613" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1613" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1613" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1613" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1613" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F1613" s="56" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="1614" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1614" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1614" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1614" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1614" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="F1614" s="56" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="1615" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1615" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1615" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1615" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1615" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="F1615" s="56" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="1616" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1616" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1616" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1616" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1616" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="F1616" s="56" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="1617" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1617" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1617" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1617" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1617" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="F1617" s="56" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="1618" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1618" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1618" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1618" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1618" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F1618" s="56" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="1619" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1619" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1619" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1619" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1619" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="F1619" s="56" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="1620" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1620" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1620" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1620" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1620" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="F1620" s="56" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1621" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1621" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1621" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1621" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1621" s="57" t="s">
+        <v>3270</v>
+      </c>
+      <c r="F1621" s="56" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="1622" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1622" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1622" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1622" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1622" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="F1622" s="56" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="1623" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1623" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1623" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1623" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1623" s="57" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F1623" s="56" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1624" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1624" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1624" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1624" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1624" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="F1624" s="56" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1625" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1625" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1625" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1625" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1625" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F1625" s="56" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="1626" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1626" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1626" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1626" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1626" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F1626" s="56" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1627" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1627" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1627" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1627" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1627" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="F1627" s="56" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="1628" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1628" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1628" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1628" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1628" s="57" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F1628" s="56" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="1629" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1629" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1629" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1629" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1629" s="57" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F1629" s="56" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="1630" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1630" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1630" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1630" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1630" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="F1630" s="56" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1631" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1631" s="45">
+        <v>42996</v>
+      </c>
+      <c r="C1631" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1631" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1631" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F1631" s="56" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="1632" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1632" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1632" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1632" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1632" s="57" t="s">
+        <v>3292</v>
+      </c>
+      <c r="F1632" s="56" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="1633" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1633" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1633" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1633" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1633" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F1633" s="56" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="1634" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1634" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1634" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1634" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1634" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F1634" s="56" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="1635" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1635" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1635" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1635" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1635" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F1635" s="56" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="1636" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1636" s="45">
+        <v>42997</v>
+      </c>
+      <c r="C1636" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1636" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1636" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F1636" s="56" t="s">
+        <v>3301</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1580">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:F1636">
+    <filterColumn colId="1">
       <filters>
-        <filter val="AI科技评论"/>
+        <dateGroupItem year="2017" month="9" day="18" dateTimeGrouping="day"/>
+        <dateGroupItem year="2017" month="9" day="19" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -52679,9 +53712,51 @@
     <hyperlink ref="F1592" r:id="rId1581"/>
     <hyperlink ref="F1593" r:id="rId1582"/>
     <hyperlink ref="F1594" r:id="rId1583"/>
+    <hyperlink ref="F1595" r:id="rId1584"/>
+    <hyperlink ref="F1596" r:id="rId1585"/>
+    <hyperlink ref="F1597" r:id="rId1586"/>
+    <hyperlink ref="F1598" r:id="rId1587"/>
+    <hyperlink ref="F1599" r:id="rId1588"/>
+    <hyperlink ref="F1600" r:id="rId1589"/>
+    <hyperlink ref="F1601" r:id="rId1590"/>
+    <hyperlink ref="F1602" r:id="rId1591"/>
+    <hyperlink ref="F1603" r:id="rId1592"/>
+    <hyperlink ref="F1604" r:id="rId1593"/>
+    <hyperlink ref="F1605" r:id="rId1594"/>
+    <hyperlink ref="F1606" r:id="rId1595"/>
+    <hyperlink ref="F1607" r:id="rId1596"/>
+    <hyperlink ref="F1608" r:id="rId1597"/>
+    <hyperlink ref="F1609" r:id="rId1598"/>
+    <hyperlink ref="F1610" r:id="rId1599"/>
+    <hyperlink ref="F1611" r:id="rId1600"/>
+    <hyperlink ref="F1612" r:id="rId1601"/>
+    <hyperlink ref="F1613" r:id="rId1602"/>
+    <hyperlink ref="F1614" r:id="rId1603"/>
+    <hyperlink ref="F1615" r:id="rId1604"/>
+    <hyperlink ref="F1616" r:id="rId1605"/>
+    <hyperlink ref="F1617" r:id="rId1606"/>
+    <hyperlink ref="F1618" r:id="rId1607"/>
+    <hyperlink ref="F1619" r:id="rId1608"/>
+    <hyperlink ref="F1620" r:id="rId1609"/>
+    <hyperlink ref="F1621" r:id="rId1610"/>
+    <hyperlink ref="F1622" r:id="rId1611"/>
+    <hyperlink ref="F1623" r:id="rId1612"/>
+    <hyperlink ref="F1624" r:id="rId1613"/>
+    <hyperlink ref="F1625" r:id="rId1614"/>
+    <hyperlink ref="F1626" r:id="rId1615"/>
+    <hyperlink ref="F1627" r:id="rId1616"/>
+    <hyperlink ref="F1628" r:id="rId1617"/>
+    <hyperlink ref="F1629" r:id="rId1618"/>
+    <hyperlink ref="F1630" r:id="rId1619"/>
+    <hyperlink ref="F1631" r:id="rId1620"/>
+    <hyperlink ref="F1632" r:id="rId1621"/>
+    <hyperlink ref="F1633" r:id="rId1622"/>
+    <hyperlink ref="F1634" r:id="rId1623"/>
+    <hyperlink ref="F1635" r:id="rId1624"/>
+    <hyperlink ref="F1636" r:id="rId1625"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1584"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1626"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1636</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1723</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6712" uniqueCount="3302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7144" uniqueCount="3518">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13235,6 +13235,870 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/nvZ2Aq_48dr5y-AndGP9pg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开课 | 牛津大学深度自然语言处理DeepNLP课程配套作业讲解（附代码与录像）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kyV9qG3GOdalWZq-FlSVOQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据工程师的没落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/CJkjW4PKKJ-f_-p1EwRbAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位情报局第六期 | 今日头条、旷视(Face++)、天眼查相关职位招聘ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/S1Bl57xK0kPyOxMAJIxd5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechCrunch炉边对话吴恩达：不回应70hr招聘要求，看好小公司AI驱动（附视频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/EeEJX-7MCEHV_Toy76YqVg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐 | 学习经济学最好的网站，趁现在关注还来得及！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/lfgfI4yq4U8oe2iJWr8__Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑洞 | 横扫围棋界的AlphaGo竟然出纪录片了！介意剧透者慎点……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/7T10qd4j2T14ZCR6ITWksQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高盛最新调查：Python超过汉语成为未来最重要技能，你准备学哪种编程语言？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AlYzMr8YtklQXZQIA0_2ew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI说人“画” | 说说我用神经网络找小哥哥的那些事儿……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_Sv-hvvfXPZhln2W6dbOXw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访马云：下一个星辰大海是百货商店（附访谈视频）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ZA-SEqiq2GoE7BN1ydvigw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neurons字幕组 | 2分钟带你了解如何把人类表情迁移到大猩猩上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/MMsD9pcK05EDrr6ITyuUxg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德勤财务机器人正式上岗，工作视频曝光，效率惊人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dfVNrpXEv0qeZTl5gfd5GA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛津xDeepMind自然语言处理课程汉化视频 | 词向量与词汇语义学（上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/WYdMrNFn_uXIN-5BX6jqeQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从贝叶斯定理到概率分布：综述概率论基本定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/psMlGLOZcmX-SmEKr2gUOg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 遗传算法自动编写软件：新研究让AI开始代替程序员工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/fCrJ4aJmwe57tt9_VmEZhA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | NIPS 2017前瞻：腾讯AI Lab八篇论文入选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ALPBG39qxElSLwT8-PDfZg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 详解珠算：清华大学开源的贝叶斯深度学习库（论文公布）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Zd4rFU7Lebr4zmzxThNyVw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bi-weekly | 谷歌正在研制不需要电池的手机；劳斯莱斯加入自动驾驶轮船战局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/t841I2sENKeW2TFOHvBidg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被Geoffrey Hinton抛弃，反向传播为何饱受质疑？（附BP推导）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BZPqDx1x4GXbpZ77_MaE1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 深度学习 + OpenCV，Python实现实时视频目标检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/UOJsoB_YwBunj0YNShF11w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | 从语言建模到隐马尔可夫模型：一文详述计算语言学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/09hgydIFDse_A4LA-qrhIg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 田渊栋等人论文：何时卷积滤波器容易学习？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vUK2NneOs8OR0vcJEZNbrA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 2017蚂蚁开发者大赛决赛团队公布！10月决战云栖小镇！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/GjIbNREEgjveNcpyNdiwmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭开深度学习黑箱：希伯来大学计算机科学教授提出「信息瓶颈」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/cesmzbpzX8vVqsAmYFKrMg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 复现深度强化学习结果所面临的挑战与建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-iJ0dirQzub7EA5LHU76jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 | @AI开发者，你有没有一个梦想，关于改变世界？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/swS7ZYvUaz93ImWG5U4c-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名 | 国庆深度强化学习实战特训营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AQixmp9KpXwGCxHJ6-KEfQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅析Geoffrey Hinton最近提出的Capsule计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1Rek6q-M8pmH5SjYjtPkrA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程 | 深度学习：自动编码器基础和类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/QuDa__mi1NX1wOxo5Ki94A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前沿 | 如何解决深度学习中的多体问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/e4hriDvTRLkg-mIifVWayw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 百度Apollo1.5开放五大核心能力，17位新成员加入Apollo生态圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/uRiA23itycBwHVrKpfIpEg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 海康威视联合提出注意力聚焦网络FAN：提升场景文本识别精确度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qTnFQK0CkvdJfZaKj2wUtQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解读决策树和随机森林的内部工作机制？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/DTDH2m21Gz1UQ2tW64kPZg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源 | 从最小二乘到DNN：六段代码了解深度学习简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/EFg9ggOKvOSYU54zBgj5rA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专栏 | 深思考：实现人机多轮交互突破是攻克图灵测试的核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vgejlnsBlOKMMRt-M3-d-w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 哈佛大学提出在云、边缘与终端设备上的分布式深度神经网络DDNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ASqpPSIgW_bcFPBfRYz7Xg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劲爆！王力宏《A.I. 爱》MV首发：Sophia扮新娘；李开复老师献上第一次！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nM56p8QdDfX5AskT3FHC6Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货|程序员必须知道的十大基础实用算法及其讲解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ygtyEZd00PbidsxSrusN-w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜Python 的十大重要特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/pgGokR-PwsUdQo67EYjoqQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB Insights报告|2017人工智能现状、创业图景与未来展望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/mW09lyvZaz1bv_fBB36kUg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实战！视觉SLAM中的直接法在智能驾驶中的应用实践！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/09v9gj1cmf4zIJAGqHnJWw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜斯坦福大学机器学习：神经网络的表示！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/me2GcFFUhW1OXlc5A-hbuQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrew Ng (吴恩达) 深度学习课程学习小结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nTtoDeieZEy5TG48z6HcCg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南大学吴小俊：深度学习不能代表人工智能的全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dylMBeFKtK_tiaSw-7mY_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜NIPS 2017 腾讯AI Lab入选8篇论文，含1篇Oral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hBAKaBGzgl2AklhVFF-zEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python成为高收入国家增加最快的语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/yrtkmUK66EgNCng_0bRbaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云发布自研商用关系型数据库POLARDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/eIdSPwc6tNwEj_Tpz-xx8w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度Apollo1.5:夜间恶劣视觉环境下也能精准识别障碍物!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/swVCxSNpCtK22dkEYXeStg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用 MapReduce 解决与云计算相关的 Big Data 问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ZjrwODvmTsy1FsZQappn8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python高性能计算库——Numba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/5peMiGXNnviAjMP76tV3pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜图灵奖获奖者姚期智：中国AI弱点在系统和理论！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/PRFnqS2LoHdhsQNVuFvgGg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货：手把手教你在音频分类DCASE2017比赛中夺冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/cvSz5Pxe3z54Tl5z3WTbQA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前沿｜揭开黑箱：希伯来大学计算机科学教授提出「信息瓶颈」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kgVA1IJ9yXgWQb4HePQHbw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实战｜基于自然语言识别下的流失用户预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Gzoxa4jjWzprsSn9yRVlOg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害！1年时间微软AI研究人才从5000人增长到8000人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ol33iwmt3usWgdk3MbhVDw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜“寻根问祖”深度学习只需六段代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ytw-dI9iaJboXtqk4caUBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜MIT等机构的工程师如何让机器学习算法解释自己的决策？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/6hCO9PikczaU3NXhPssdDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜游戏代理框架，帮助您创建AI来玩任何您拥有的游戏！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/sYXVqnk5p8tvl6s0EIkr3w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜7步让你从零开始掌握Python机器学习！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/MUMQuZLDE5iyogLnIIBaMw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦肯锡全球调研160个案例，发布5个行业34个AI应用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/U0ZJAi8nF5Wg7SJywNS9Uw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐 | 一文看懂迁移学习：从基础概念到技术研究！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/J8ZmIVKd-4X3hMGGIJWoDQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅｜英国芯片巨头Imagination被苹果放弃后，被49亿元卖掉！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/oYWgDtGw-HlmSvTFreB1Pg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭秘｜人工智能Libratus如何击败德州扑克顶级玩家？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nHFqDvPReozc9KtCPfxEDg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Science】破解密码“AlphaGo”诞生，训练Gan破解27%LinkedIn测试集密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Jhc-n3W-qWEeqKRUyBfRFg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI系统首次实现真正自主编程】利用遗传算法，完爆初级程序员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/wvcpx41O2763OgA8uYSFHw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【投资人不懂AI】为什么说AI创业不是4、5个人的团队就能搞定的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/p9rJ0Te7uaEQ3m0-CCzY_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI解放排队】使用GPU机器学习的快速ID识别技术，效率提升50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/UTPjzCh8wEkCBXCONbTBTQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【免费深度学习课程】谷歌大脑技术负责人开设，从机器学习迈向深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/F_LpFuvbpouv8udIeKTDNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【投票】谁是2017年全球人工智能最有影响力的华人？你说了算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/CpSd5JgCnXrfSG3lwQLb3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透视Facebook算法帝国 ，我们只是工程思维的螺丝钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/bvGH8S6bZNLanaRbxIksdg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【中信研报】AI群“芯”逐鹿，英伟达、谷歌、寒武纪等25家公司实力拆解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/_63HX6PDCDHF3CNvud2oBQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的智慧算法存在吗？一篇机器翻译的文章试图求解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/WPmKGO3cB0jZy2EKUGLWfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推想科技完成1.2亿元B轮融资，创医学影像人工智能行业单笔最大融资额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/wUNzFm3oIb2xIfNleC8E-w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【深度】“信息瓶颈”理论揭示深度学习本质，Hinton说他要看1万遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/pdv-T69rz4jO47CMf-Cuhg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国首篇Science机器人子刊！北航软体机器人实验室四年成果登上封面长篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/vTLDEbGXx1IiTH2YUyRd7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tesla与AMD合作自驾车AI芯片，是深度合作还是炒作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/tDlQ0EScbfsQk7S2javfVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【资源】用深度学习解决自然语言处理中的7大问题，文本分类、语言建模、机器翻译等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BcUB3bXrPJF0WQetWs7Law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球肝脏肿瘤病灶区CT图像分割挑战大赛，联想E-Health夺得冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ggnzI_MaVw11P2FVnNHekA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【世界最大人脸对齐数据集】ICCV 2017：距离解决人脸对齐已不远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/s5HL6y2P9_KqpSAQg08URw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6段Python代码刻画深度学习历史：从最小二乘法到深度神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YCNnfR9XAP0i-Qs-DIpOCg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【微软AI已达8000人】加大AI赌注，联手亚马逊，与谷歌苹果抗衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/OXIo7nru0zoqlPom4rwx5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马云在彭博全球商业论坛：力挺AI，第三次世界大战不是人和AI之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nN5TKjkfVHF5yi6_kXa7Mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分钟视频讲解DeepMind论文：AI在复杂环境中学习运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/iXmjuBh2zzno7-D9ClYbSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Nature重磅】清华段路明组发现深度学习和量子物理重要关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9ZQc3RqCCcWYDplZ4RU2oA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月机器学习文章Top10：星际2、Dota2皆入选，ML教程居榜首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/6ZojW8fGfGciPQ3ldLPKmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【辟谣】AMD芯片制造商否认与特斯拉合作开发无人车AI芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/TjIRgbzqScR8vsw_Mp6bDQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一文读懂AI发展史里程碑事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/xJAtS_n-CtTYOw4Jlv9nhA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用 Python 分析《红楼梦》，后四十回是曹雪芹所写吗？（开源）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/a7TLJD1-k3AlJ_ENPoJpwA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高盛解读：中国人工智能崛起，BAT领头，百花齐放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/OVJ2ohRGBqpgQllBy7nsLw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度 | BAIR论文：通过“元学习”和“一次性学习”算法，让机器人快速掌握新技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/PNih5NAaxSQWBGFtS86qCw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | NIPS 2017 腾讯AI Lab 八篇论文入选，含1篇Oral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/r-cxs8tu4JSjp13yLWUYsA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态 | 滴滴CTO张博港科大演讲：详解未来交通变革的三层“折叠”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/YHX2A4cVsiVm872urh2vBw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告 | 智能感知与交互在产学研领域都有哪些前沿进展？AIDL讲习班将带给你答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/H8O214qLKqrqxhoM29514A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeff Dean两年AMA全盘点：26个关于谷歌大脑和机器学习未来的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AWtsnixnPFQ92uoXJCdNcg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家 | EMNLP 2017 录用论文作者解读：深度残差网络下的弱监督关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/E-3LicwjZc_7qw7cu4qhoQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预告 | 火爆！NIPS 2017注册已满，没机会去前方参会怎么办？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/A_eH0eWwzMR990IV3pNdfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 继AI生成二次元头像之后，新一代线稿上色AI来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/iHunApSy0d_fl813DYFIYA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访刘挺、唐杰、沈华伟：六年来SMP如何基于兴趣驱动促进学科发展？| SMP 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Y1B14_VnMk-fG7J2EqWEQg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 手握2亿美金，专挑“硬骨头”？MIT The Engine公布第一批“改变世界”的被投公司名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/EZ6oWo6HTG5Nl6Aiz0ANaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 刚刚，微软刷新了SQuAD记录...你猜啥时候会被刷下来？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/TFbhwbPruOh-TXc54BXtNg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 标题党太吓人？这篇文章会告诉你DeepMind关系推理网络的真实面貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/coM0gUi94RQh0d-a_S9ZGg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 基于GANs的图像编辑方法——学术青年分享会今晚8点等你哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LKy94PGtgBJ4eKkXKnq3_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学黄民烈博士：如何让聊天机器人理解人类情感？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/zYAOStoGFmVEa_r76lye8Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 计算芯片革命来临？英伟达谷歌入局紧逼英特尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/8_eyW7NLRBGcJkO0MdduDQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态 | 码农福音！CASIL开发代码移植系统，CTRL+C/V快速编程不再是梦想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Qf-tWmYWyh82r48CswttHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | Keras版faster-rcnn算法详解（RPN计算）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/yEwu7WrZARupG0dWOAuvnQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内首届中文人机对话技术评测赛果出炉，两项任务冠军团队都分享了哪些技术细节？｜SMP 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dG0kx2XWy1LEsukq4gC_IQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 效果超过SGD和Adam，谷歌大脑的「神经网络优化器搜索」自动找到更好的训练优化器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vjsqNbPm0iamkIZtsJpfNQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI听 | Hinton：反向传播要被彻底放弃了！游戏商Unity推出 ML 训练环境，24分钟训练ImageNet……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/2ZPIKStqDh2GZtcmeZM3pQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14129,42 +14993,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -14192,6 +15020,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14199,6 +15048,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14584,23 +15448,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>42998</v>
+        <v>43003</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="79" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
-        <v>NSNG第38周行业资讯</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+        <v>NSNG第39周行业资讯</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -14611,22 +15475,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73" t="str">
+      <c r="C5" s="61" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -14652,61 +15516,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="70" t="str">
+      <c r="B7" s="58" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="71" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="61" t="str">
+      <c r="C10" s="70" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="73" t="str">
+      <c r="C11" s="61" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -14733,60 +15597,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="70" t="str">
+      <c r="B13" s="58" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="62" t="str">
+      <c r="B14" s="71" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="61" t="str">
+      <c r="C16" s="70" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="73" t="str">
+      <c r="C17" s="61" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -14812,60 +15676,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="70" t="str">
+      <c r="B19" s="58" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="62" t="str">
+      <c r="B20" s="71" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="61" t="str">
+      <c r="C22" s="70" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="73" t="str">
+      <c r="C23" s="61" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -14891,60 +15755,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="70" t="str">
+      <c r="B25" s="58" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="62" t="str">
+      <c r="B26" s="71" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="61" t="str">
+      <c r="C28" s="70" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="73" t="str">
+      <c r="C29" s="61" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -14970,60 +15834,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="70" t="str">
+      <c r="B31" s="58" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="62" t="str">
+      <c r="B32" s="71" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="61" t="str">
+      <c r="C34" s="70" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="73" t="str">
+      <c r="C35" s="61" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="75"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -15049,60 +15913,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="70" t="str">
+      <c r="B37" s="58" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="72"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="62" t="str">
+      <c r="B38" s="71" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="61" t="str">
+      <c r="C40" s="70" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="78"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="73" t="str">
+      <c r="C41" s="61" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -15128,60 +15992,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="70" t="str">
+      <c r="B43" s="58" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="62" t="str">
+      <c r="B44" s="71" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="60"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="69"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="61" t="str">
+      <c r="C46" s="70" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="78"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="73" t="str">
+      <c r="C47" s="61" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -15207,60 +16071,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="70" t="str">
+      <c r="B49" s="58" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="62" t="str">
+      <c r="B50" s="71" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="69"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="61" t="str">
+      <c r="C52" s="70" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="73" t="str">
+      <c r="C53" s="61" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="75"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -15286,60 +16150,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="70" t="str">
+      <c r="B55" s="58" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="72"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="62" t="str">
+      <c r="B56" s="71" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="73"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="58"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="69"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="61" t="str">
+      <c r="C58" s="70" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="78"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="66"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="73" t="str">
+      <c r="C59" s="61" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="63"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -15365,60 +16229,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="70" t="str">
+      <c r="B61" s="58" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="72"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="60"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="62" t="str">
+      <c r="B62" s="71" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="58"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="60"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="69"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="61" t="str">
+      <c r="C64" s="70" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="66"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="73" t="str">
+      <c r="C65" s="61" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -15444,60 +16308,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="70" t="str">
+      <c r="B67" s="58" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="72"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="62" t="str">
+      <c r="B68" s="71" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="73"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="60"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="69"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="61" t="str">
+      <c r="C70" s="70" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="78"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="66"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="73" t="str">
+      <c r="C71" s="61" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="75"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="63"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -15523,60 +16387,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="70" t="str">
+      <c r="B73" s="58" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="72"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="60"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="62" t="str">
+      <c r="B74" s="71" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="64"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="58"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="69"/>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="61" t="str">
+      <c r="C76" s="70" t="str">
         <f>行业资讯整理!B14</f>
         <v/>
       </c>
-      <c r="D76" s="61"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="78"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="66"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="73" t="str">
+      <c r="C77" s="61" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
@@ -15602,60 +16466,60 @@
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="70" t="str">
+      <c r="B79" s="58" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="72"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="60"/>
     </row>
     <row r="80" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="62" t="str">
+      <c r="B80" s="71" t="str">
         <f>VLOOKUP(C76,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="73"/>
     </row>
     <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="58"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="69"/>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="61" t="str">
+      <c r="C82" s="70" t="str">
         <f>行业资讯整理!B15</f>
         <v/>
       </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="78"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="66"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B83" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="73" t="str">
+      <c r="C83" s="61" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
-      <c r="G83" s="75"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="63"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
@@ -15681,60 +16545,60 @@
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="70" t="str">
+      <c r="B85" s="58" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="72"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
     </row>
     <row r="86" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="62" t="str">
+      <c r="B86" s="71" t="str">
         <f>VLOOKUP(C82,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
     </row>
     <row r="87" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="58"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="69"/>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="61" t="str">
+      <c r="C88" s="70" t="str">
         <f>行业资讯整理!B16</f>
         <v/>
       </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="78"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="66"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="73" t="str">
+      <c r="C89" s="61" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="75"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="63"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="9" t="s">
@@ -15760,60 +16624,60 @@
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B91" s="70" t="str">
+      <c r="B91" s="58" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="72"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="60"/>
     </row>
     <row r="92" spans="2:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="62" t="str">
+      <c r="B92" s="71" t="str">
         <f>VLOOKUP(C88,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="64"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="73"/>
     </row>
     <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="58"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="60"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="69"/>
     </row>
     <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="61" t="str">
+      <c r="C94" s="70" t="str">
         <f>行业资讯整理!B17</f>
         <v/>
       </c>
-      <c r="D94" s="61"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="78"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="66"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B95" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="73" t="str">
+      <c r="C95" s="61" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="75"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="63"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="9" t="s">
@@ -15839,60 +16703,60 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B97" s="70" t="str">
+      <c r="B97" s="58" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="72"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="60"/>
     </row>
     <row r="98" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="62" t="str">
+      <c r="B98" s="71" t="str">
         <f>VLOOKUP(C94,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C98" s="63"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63"/>
-      <c r="G98" s="64"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="73"/>
     </row>
     <row r="99" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="58"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="60"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="69"/>
     </row>
     <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="61" t="str">
+      <c r="C100" s="70" t="str">
         <f>行业资讯整理!B18</f>
         <v/>
       </c>
-      <c r="D100" s="61"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="78"/>
+      <c r="D100" s="70"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="66"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="73" t="str">
+      <c r="C101" s="61" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="75"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="63"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="9" t="s">
@@ -15918,60 +16782,60 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B103" s="70" t="str">
+      <c r="B103" s="58" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C103" s="71"/>
-      <c r="D103" s="71"/>
-      <c r="E103" s="71"/>
-      <c r="F103" s="71"/>
-      <c r="G103" s="72"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="60"/>
     </row>
     <row r="104" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="62" t="str">
+      <c r="B104" s="71" t="str">
         <f>VLOOKUP(C100,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C104" s="63"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="63"/>
-      <c r="F104" s="63"/>
-      <c r="G104" s="64"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="73"/>
     </row>
     <row r="105" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="58"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="60"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="69"/>
     </row>
     <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="61" t="str">
+      <c r="C106" s="70" t="str">
         <f>行业资讯整理!B19</f>
         <v/>
       </c>
-      <c r="D106" s="61"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="78"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="66"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="73" t="str">
+      <c r="C107" s="61" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="75"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="63"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="9" t="s">
@@ -15997,60 +16861,60 @@
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B109" s="70" t="str">
+      <c r="B109" s="58" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C109" s="71"/>
-      <c r="D109" s="71"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="72"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="60"/>
     </row>
     <row r="110" spans="2:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="62" t="str">
+      <c r="B110" s="71" t="str">
         <f>VLOOKUP(C106,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C110" s="63"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="63"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="64"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="73"/>
     </row>
     <row r="111" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="58"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="59"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="60"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="69"/>
     </row>
     <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="61" t="str">
+      <c r="C112" s="70" t="str">
         <f>行业资讯整理!B20</f>
         <v/>
       </c>
-      <c r="D112" s="61"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="78"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="66"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C113" s="73" t="str">
+      <c r="C113" s="61" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="75"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="63"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="9" t="s">
@@ -16076,60 +16940,60 @@
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="70" t="str">
+      <c r="B115" s="58" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C115" s="71"/>
-      <c r="D115" s="71"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="72"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="60"/>
     </row>
     <row r="116" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="62" t="str">
+      <c r="B116" s="71" t="str">
         <f>VLOOKUP(C112,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C116" s="63"/>
-      <c r="D116" s="63"/>
-      <c r="E116" s="63"/>
-      <c r="F116" s="63"/>
-      <c r="G116" s="64"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="73"/>
     </row>
     <row r="117" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="58"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="60"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="69"/>
     </row>
     <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="61" t="str">
+      <c r="C118" s="70" t="str">
         <f>行业资讯整理!B21</f>
         <v/>
       </c>
-      <c r="D118" s="61"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="78"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="66"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="73" t="str">
+      <c r="C119" s="61" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="75"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="63"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="9" t="s">
@@ -16155,60 +17019,60 @@
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="70" t="str">
+      <c r="B121" s="58" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C121" s="71"/>
-      <c r="D121" s="71"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="72"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="60"/>
     </row>
     <row r="122" spans="2:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="62" t="str">
+      <c r="B122" s="71" t="str">
         <f>VLOOKUP(C118,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C122" s="63"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="63"/>
-      <c r="F122" s="63"/>
-      <c r="G122" s="64"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="72"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="73"/>
     </row>
     <row r="123" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="58"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="59"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="60"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="69"/>
     </row>
     <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="61" t="str">
+      <c r="C124" s="70" t="str">
         <f>行业资讯整理!B22</f>
         <v/>
       </c>
-      <c r="D124" s="61"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="78"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="66"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="73" t="str">
+      <c r="C125" s="61" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="75"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="63"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="9" t="s">
@@ -16234,60 +17098,60 @@
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="70" t="str">
+      <c r="B127" s="58" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C127" s="71"/>
-      <c r="D127" s="71"/>
-      <c r="E127" s="71"/>
-      <c r="F127" s="71"/>
-      <c r="G127" s="72"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="59"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="62" t="str">
+      <c r="B128" s="71" t="str">
         <f>VLOOKUP(C124,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="64"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="73"/>
     </row>
     <row r="129" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="58"/>
-      <c r="C129" s="59"/>
-      <c r="D129" s="59"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="59"/>
-      <c r="G129" s="60"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="69"/>
     </row>
     <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="61" t="str">
+      <c r="C130" s="70" t="str">
         <f>行业资讯整理!B23</f>
         <v/>
       </c>
-      <c r="D130" s="61"/>
-      <c r="E130" s="76"/>
-      <c r="F130" s="77"/>
-      <c r="G130" s="78"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="66"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="73" t="str">
+      <c r="C131" s="61" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="75"/>
+      <c r="D131" s="62"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="62"/>
+      <c r="G131" s="63"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="9" t="s">
@@ -16313,60 +17177,60 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="70" t="str">
+      <c r="B133" s="58" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="72"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="60"/>
     </row>
     <row r="134" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="62" t="str">
+      <c r="B134" s="71" t="str">
         <f>VLOOKUP(C130,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C134" s="63"/>
-      <c r="D134" s="63"/>
-      <c r="E134" s="63"/>
-      <c r="F134" s="63"/>
-      <c r="G134" s="64"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="73"/>
     </row>
     <row r="135" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="58"/>
-      <c r="C135" s="59"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="60"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="68"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="69"/>
     </row>
     <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="61" t="str">
+      <c r="C136" s="70" t="str">
         <f>行业资讯整理!B24</f>
         <v/>
       </c>
-      <c r="D136" s="61"/>
-      <c r="E136" s="76"/>
-      <c r="F136" s="77"/>
-      <c r="G136" s="78"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="66"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C137" s="73" t="str">
+      <c r="C137" s="61" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="75"/>
+      <c r="D137" s="62"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="62"/>
+      <c r="G137" s="63"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="9" t="s">
@@ -16392,60 +17256,60 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="70" t="str">
+      <c r="B139" s="58" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C139" s="71"/>
-      <c r="D139" s="71"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="72"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="59"/>
+      <c r="F139" s="59"/>
+      <c r="G139" s="60"/>
     </row>
     <row r="140" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="62" t="str">
+      <c r="B140" s="71" t="str">
         <f>VLOOKUP(C136,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C140" s="63"/>
-      <c r="D140" s="63"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="64"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="73"/>
     </row>
     <row r="141" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="58"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="59"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="60"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="69"/>
     </row>
     <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="61" t="str">
+      <c r="C142" s="70" t="str">
         <f>行业资讯整理!B25</f>
         <v/>
       </c>
-      <c r="D142" s="61"/>
-      <c r="E142" s="76"/>
-      <c r="F142" s="77"/>
-      <c r="G142" s="78"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="66"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="73" t="str">
+      <c r="C143" s="61" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="75"/>
+      <c r="D143" s="62"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="63"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="9" t="s">
@@ -16471,60 +17335,60 @@
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="70" t="str">
+      <c r="B145" s="58" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C145" s="71"/>
-      <c r="D145" s="71"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="72"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="59"/>
+      <c r="G145" s="60"/>
     </row>
     <row r="146" spans="2:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="62" t="str">
+      <c r="B146" s="71" t="str">
         <f>VLOOKUP(C142,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="64"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="73"/>
     </row>
     <row r="147" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="58"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="59"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="60"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="68"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="69"/>
     </row>
     <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="61" t="str">
+      <c r="C148" s="70" t="str">
         <f>行业资讯整理!B26</f>
         <v/>
       </c>
-      <c r="D148" s="61"/>
-      <c r="E148" s="76"/>
-      <c r="F148" s="77"/>
-      <c r="G148" s="78"/>
+      <c r="D148" s="70"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="66"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="73" t="str">
+      <c r="C149" s="61" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="75"/>
+      <c r="D149" s="62"/>
+      <c r="E149" s="62"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="63"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="9" t="s">
@@ -16550,60 +17414,60 @@
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="70" t="str">
+      <c r="B151" s="58" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C151" s="71"/>
-      <c r="D151" s="71"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="72"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="60"/>
     </row>
     <row r="152" spans="2:7" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="62" t="str">
+      <c r="B152" s="71" t="str">
         <f>VLOOKUP(C148,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="64"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="72"/>
+      <c r="F152" s="72"/>
+      <c r="G152" s="73"/>
     </row>
     <row r="153" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="58"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="59"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="60"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="69"/>
     </row>
     <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="61" t="str">
+      <c r="C154" s="70" t="str">
         <f>行业资讯整理!B27</f>
         <v/>
       </c>
-      <c r="D154" s="61"/>
-      <c r="E154" s="76"/>
-      <c r="F154" s="77"/>
-      <c r="G154" s="78"/>
+      <c r="D154" s="70"/>
+      <c r="E154" s="64"/>
+      <c r="F154" s="65"/>
+      <c r="G154" s="66"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="73" t="str">
+      <c r="C155" s="61" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="74"/>
-      <c r="G155" s="75"/>
+      <c r="D155" s="62"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="62"/>
+      <c r="G155" s="63"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="9" t="s">
@@ -16629,60 +17493,60 @@
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="70" t="str">
+      <c r="B157" s="58" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C157" s="71"/>
-      <c r="D157" s="71"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="71"/>
-      <c r="G157" s="72"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="59"/>
+      <c r="E157" s="59"/>
+      <c r="F157" s="59"/>
+      <c r="G157" s="60"/>
     </row>
     <row r="158" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="62" t="str">
+      <c r="B158" s="71" t="str">
         <f>VLOOKUP(C154,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="63"/>
-      <c r="G158" s="64"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="72"/>
+      <c r="E158" s="72"/>
+      <c r="F158" s="72"/>
+      <c r="G158" s="73"/>
     </row>
     <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="58"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="59"/>
-      <c r="E159" s="59"/>
-      <c r="F159" s="59"/>
-      <c r="G159" s="60"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="69"/>
     </row>
     <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="61" t="str">
+      <c r="C160" s="70" t="str">
         <f>行业资讯整理!B28</f>
         <v/>
       </c>
-      <c r="D160" s="61"/>
-      <c r="E160" s="76"/>
-      <c r="F160" s="77"/>
-      <c r="G160" s="78"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="64"/>
+      <c r="F160" s="65"/>
+      <c r="G160" s="66"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="73" t="str">
+      <c r="C161" s="61" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D161" s="74"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="74"/>
-      <c r="G161" s="75"/>
+      <c r="D161" s="62"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="62"/>
+      <c r="G161" s="63"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="9" t="s">
@@ -16708,60 +17572,60 @@
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B163" s="70" t="str">
+      <c r="B163" s="58" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C163" s="71"/>
-      <c r="D163" s="71"/>
-      <c r="E163" s="71"/>
-      <c r="F163" s="71"/>
-      <c r="G163" s="72"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="60"/>
     </row>
     <row r="164" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="62" t="str">
+      <c r="B164" s="71" t="str">
         <f>VLOOKUP(C160,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C164" s="63"/>
-      <c r="D164" s="63"/>
-      <c r="E164" s="63"/>
-      <c r="F164" s="63"/>
-      <c r="G164" s="64"/>
+      <c r="C164" s="72"/>
+      <c r="D164" s="72"/>
+      <c r="E164" s="72"/>
+      <c r="F164" s="72"/>
+      <c r="G164" s="73"/>
     </row>
     <row r="165" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="58"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="59"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="60"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="69"/>
     </row>
     <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="61" t="str">
+      <c r="C166" s="70" t="str">
         <f>行业资讯整理!B29</f>
         <v/>
       </c>
-      <c r="D166" s="61"/>
-      <c r="E166" s="76"/>
-      <c r="F166" s="77"/>
-      <c r="G166" s="78"/>
+      <c r="D166" s="70"/>
+      <c r="E166" s="64"/>
+      <c r="F166" s="65"/>
+      <c r="G166" s="66"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C167" s="73" t="str">
+      <c r="C167" s="61" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="74"/>
-      <c r="G167" s="75"/>
+      <c r="D167" s="62"/>
+      <c r="E167" s="62"/>
+      <c r="F167" s="62"/>
+      <c r="G167" s="63"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="9" t="s">
@@ -16787,60 +17651,60 @@
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B169" s="70" t="str">
+      <c r="B169" s="58" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C169" s="71"/>
-      <c r="D169" s="71"/>
-      <c r="E169" s="71"/>
-      <c r="F169" s="71"/>
-      <c r="G169" s="72"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="59"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="60"/>
     </row>
     <row r="170" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="62" t="str">
+      <c r="B170" s="71" t="str">
         <f>VLOOKUP(C166,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C170" s="63"/>
-      <c r="D170" s="63"/>
-      <c r="E170" s="63"/>
-      <c r="F170" s="63"/>
-      <c r="G170" s="64"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="72"/>
+      <c r="E170" s="72"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="73"/>
     </row>
     <row r="171" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="58"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="60"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="68"/>
+      <c r="G171" s="69"/>
     </row>
     <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="61" t="str">
+      <c r="C172" s="70" t="str">
         <f>行业资讯整理!B30</f>
         <v/>
       </c>
-      <c r="D172" s="61"/>
-      <c r="E172" s="76"/>
-      <c r="F172" s="77"/>
-      <c r="G172" s="78"/>
+      <c r="D172" s="70"/>
+      <c r="E172" s="64"/>
+      <c r="F172" s="65"/>
+      <c r="G172" s="66"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="73" t="str">
+      <c r="C173" s="61" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D173" s="74"/>
-      <c r="E173" s="74"/>
-      <c r="F173" s="74"/>
-      <c r="G173" s="75"/>
+      <c r="D173" s="62"/>
+      <c r="E173" s="62"/>
+      <c r="F173" s="62"/>
+      <c r="G173" s="63"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="9" t="s">
@@ -16866,60 +17730,60 @@
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B175" s="70" t="str">
+      <c r="B175" s="58" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C175" s="71"/>
-      <c r="D175" s="71"/>
-      <c r="E175" s="71"/>
-      <c r="F175" s="71"/>
-      <c r="G175" s="72"/>
+      <c r="C175" s="59"/>
+      <c r="D175" s="59"/>
+      <c r="E175" s="59"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="60"/>
     </row>
     <row r="176" spans="2:7" ht="132" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="62" t="str">
+      <c r="B176" s="71" t="str">
         <f>VLOOKUP(C172,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C176" s="63"/>
-      <c r="D176" s="63"/>
-      <c r="E176" s="63"/>
-      <c r="F176" s="63"/>
-      <c r="G176" s="64"/>
+      <c r="C176" s="72"/>
+      <c r="D176" s="72"/>
+      <c r="E176" s="72"/>
+      <c r="F176" s="72"/>
+      <c r="G176" s="73"/>
     </row>
     <row r="177" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="58"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="59"/>
-      <c r="E177" s="59"/>
-      <c r="F177" s="59"/>
-      <c r="G177" s="60"/>
+      <c r="B177" s="67"/>
+      <c r="C177" s="68"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="68"/>
+      <c r="F177" s="68"/>
+      <c r="G177" s="69"/>
     </row>
     <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="61" t="str">
+      <c r="C178" s="70" t="str">
         <f>行业资讯整理!B31</f>
         <v/>
       </c>
-      <c r="D178" s="61"/>
-      <c r="E178" s="76"/>
-      <c r="F178" s="77"/>
-      <c r="G178" s="78"/>
+      <c r="D178" s="70"/>
+      <c r="E178" s="64"/>
+      <c r="F178" s="65"/>
+      <c r="G178" s="66"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C179" s="73" t="str">
+      <c r="C179" s="61" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D179" s="74"/>
-      <c r="E179" s="74"/>
-      <c r="F179" s="74"/>
-      <c r="G179" s="75"/>
+      <c r="D179" s="62"/>
+      <c r="E179" s="62"/>
+      <c r="F179" s="62"/>
+      <c r="G179" s="63"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="9" t="s">
@@ -16945,59 +17809,172 @@
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B181" s="70" t="str">
+      <c r="B181" s="58" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C181" s="71"/>
-      <c r="D181" s="71"/>
-      <c r="E181" s="71"/>
-      <c r="F181" s="71"/>
-      <c r="G181" s="72"/>
+      <c r="C181" s="59"/>
+      <c r="D181" s="59"/>
+      <c r="E181" s="59"/>
+      <c r="F181" s="59"/>
+      <c r="G181" s="60"/>
     </row>
     <row r="182" spans="2:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="62" t="str">
+      <c r="B182" s="71" t="str">
         <f>VLOOKUP(C178,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C182" s="63"/>
-      <c r="D182" s="63"/>
-      <c r="E182" s="63"/>
-      <c r="F182" s="63"/>
-      <c r="G182" s="64"/>
+      <c r="C182" s="72"/>
+      <c r="D182" s="72"/>
+      <c r="E182" s="72"/>
+      <c r="F182" s="72"/>
+      <c r="G182" s="73"/>
     </row>
     <row r="183" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="79"/>
-      <c r="C183" s="80"/>
-      <c r="D183" s="80"/>
-      <c r="E183" s="80"/>
-      <c r="F183" s="80"/>
-      <c r="G183" s="81"/>
+      <c r="B183" s="74"/>
+      <c r="C183" s="75"/>
+      <c r="D183" s="75"/>
+      <c r="E183" s="75"/>
+      <c r="F183" s="75"/>
+      <c r="G183" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C173:G173"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="E82:G82"/>
     <mergeCell ref="B75:G75"/>
@@ -17022,141 +17999,28 @@
     <mergeCell ref="C137:G137"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B182:G182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C173:G173"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B171:G171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="B127:G127"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23650,10 +24514,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1636"/>
+  <dimension ref="A1:AB1744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E1636" sqref="E1636"/>
+    <sheetView tabSelected="1" topLeftCell="B1634" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1740" sqref="E1740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -51393,7 +52257,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="1595" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1595" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1595" s="45">
         <v>42996</v>
       </c>
@@ -51410,7 +52274,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="1596" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1596" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1596" s="45">
         <v>42996</v>
       </c>
@@ -51427,7 +52291,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="1597" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1597" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1597" s="45">
         <v>42996</v>
       </c>
@@ -51444,7 +52308,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="1598" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1598" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1598" s="45">
         <v>42997</v>
       </c>
@@ -51461,7 +52325,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="1599" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1599" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1599" s="45">
         <v>42997</v>
       </c>
@@ -51478,7 +52342,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="1600" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1600" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1600" s="45">
         <v>42996</v>
       </c>
@@ -51495,7 +52359,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="1601" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1601" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1601" s="45">
         <v>42996</v>
       </c>
@@ -51512,7 +52376,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="1602" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1602" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1602" s="45">
         <v>42996</v>
       </c>
@@ -51529,7 +52393,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="1603" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1603" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1603" s="45">
         <v>42996</v>
       </c>
@@ -51546,7 +52410,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="1604" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1604" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1604" s="45">
         <v>42996</v>
       </c>
@@ -51563,7 +52427,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="1605" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1605" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1605" s="45">
         <v>42997</v>
       </c>
@@ -51580,7 +52444,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="1606" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1606" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1606" s="45">
         <v>42997</v>
       </c>
@@ -51597,7 +52461,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="1607" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1607" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1607" s="45">
         <v>42997</v>
       </c>
@@ -51614,7 +52478,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="1608" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1608" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1608" s="45">
         <v>42997</v>
       </c>
@@ -51631,7 +52495,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="1609" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1609" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1609" s="45">
         <v>42997</v>
       </c>
@@ -51648,7 +52512,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="1610" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1610" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1610" s="45">
         <v>42996</v>
       </c>
@@ -51665,7 +52529,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="1611" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1611" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1611" s="45">
         <v>42996</v>
       </c>
@@ -51682,7 +52546,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="1612" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1612" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1612" s="45">
         <v>42996</v>
       </c>
@@ -51699,7 +52563,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="1613" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1613" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1613" s="45">
         <v>42996</v>
       </c>
@@ -51716,7 +52580,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="1614" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1614" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1614" s="45">
         <v>42997</v>
       </c>
@@ -51733,7 +52597,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="1615" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1615" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1615" s="45">
         <v>42997</v>
       </c>
@@ -51750,7 +52614,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="1616" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1616" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1616" s="45">
         <v>42997</v>
       </c>
@@ -51767,7 +52631,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1617" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1617" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1617" s="45">
         <v>42997</v>
       </c>
@@ -51784,7 +52648,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="1618" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1618" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1618" s="45">
         <v>42997</v>
       </c>
@@ -51801,7 +52665,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="1619" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1619" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1619" s="45">
         <v>42996</v>
       </c>
@@ -51818,7 +52682,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="1620" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1620" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1620" s="45">
         <v>42996</v>
       </c>
@@ -51835,7 +52699,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="1621" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1621" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1621" s="45">
         <v>42996</v>
       </c>
@@ -51852,7 +52716,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="1622" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1622" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1622" s="45">
         <v>42996</v>
       </c>
@@ -51869,7 +52733,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="1623" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1623" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1623" s="45">
         <v>42996</v>
       </c>
@@ -51886,7 +52750,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="1624" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1624" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1624" s="45">
         <v>42997</v>
       </c>
@@ -51903,7 +52767,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="1625" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1625" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1625" s="45">
         <v>42997</v>
       </c>
@@ -51920,7 +52784,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="1626" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1626" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1626" s="45">
         <v>42997</v>
       </c>
@@ -51937,7 +52801,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="1627" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1627" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1627" s="45">
         <v>42997</v>
       </c>
@@ -52107,12 +52971,1853 @@
         <v>3301</v>
       </c>
     </row>
+    <row r="1637" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1637" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1637" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1637" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1637" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F1637" s="56" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="1638" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1638" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1638" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1638" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1638" s="57" t="s">
+        <v>3304</v>
+      </c>
+      <c r="F1638" s="56" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="1639" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1639" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1639" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1639" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1639" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="F1639" s="56" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1640" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1640" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1640" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1640" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1640" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F1640" s="56" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="1641" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1641" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1641" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1641" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1641" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="F1641" s="56" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1642" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1642" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1642" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1642" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1642" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="F1642" s="56" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="1643" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1643" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1643" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1643" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1643" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="F1643" s="56" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="1644" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1644" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1644" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1644" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1644" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="F1644" s="56" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="1645" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1645" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1645" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1645" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1645" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="F1645" s="56" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1646" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1646" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1646" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1646" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1646" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F1646" s="56" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="1647" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1647" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1647" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1647" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1647" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="F1647" s="56" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="1648" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1648" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1648" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1648" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1648" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F1648" s="56" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="1649" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1649" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1649" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1649" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1649" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="F1649" s="56" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1650" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1650" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1650" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1650" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1650" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="F1650" s="56" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1651" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1651" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1651" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1651" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F1651" s="56" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1652" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1652" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1652" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1652" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1652" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F1652" s="56" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1653" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1653" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1653" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1653" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1653" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F1653" s="56" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1654" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1654" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1654" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1654" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1654" s="57" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F1654" s="56" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="1655" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1655" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1655" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1655" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1655" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F1655" s="56" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1656" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1656" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1656" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1656" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1656" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F1656" s="56" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1657" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1657" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1657" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1657" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1657" s="57" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F1657" s="56" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1658" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1658" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1658" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1658" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1658" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F1658" s="56" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1659" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1659" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1659" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1659" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1659" s="57" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F1659" s="56" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1660" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1660" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1660" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1660" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1660" s="57" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F1660" s="56" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1661" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1661" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1661" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1661" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1661" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F1661" s="56" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1662" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1662" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1662" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1662" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1662" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="F1662" s="56" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1663" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1663" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1663" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1663" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1663" s="57" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F1663" s="56" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1664" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1664" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1664" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1664" s="57" t="s">
+        <v>3356</v>
+      </c>
+      <c r="F1664" s="56" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1665" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1665" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1665" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1665" s="57" t="s">
+        <v>3358</v>
+      </c>
+      <c r="F1665" s="56" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1666" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1666" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1666" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1666" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="F1666" s="56" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1667" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1667" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1667" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1667" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1667" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F1667" s="56" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="1668" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1668" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1668" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1668" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1668" s="57" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F1668" s="56" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1669" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1669" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1669" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1669" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1669" s="57" t="s">
+        <v>3366</v>
+      </c>
+      <c r="F1669" s="56" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1670" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1670" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1670" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1670" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1670" s="57" t="s">
+        <v>3368</v>
+      </c>
+      <c r="F1670" s="56" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1671" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1671" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1671" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1671" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1671" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="F1671" s="56" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="1672" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1672" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1672" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1672" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1672" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="F1672" s="56" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="1673" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1673" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1673" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1673" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1673" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F1673" s="56" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1674" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1674" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1674" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1674" s="57" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F1674" s="56" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1675" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1675" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1675" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1675" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F1675" s="56" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1676" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1676" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1676" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1676" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="F1676" s="56" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1677" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1677" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1677" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1677" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F1677" s="56" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1678" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1678" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1678" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1678" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1678" s="57" t="s">
+        <v>3384</v>
+      </c>
+      <c r="F1678" s="56" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1679" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1679" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1679" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1679" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1679" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="F1679" s="56" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="1680" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1680" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1680" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1680" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1680" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="F1680" s="56" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="1681" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1681" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1681" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1681" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1681" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="F1681" s="56" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1682" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1682" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1682" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1682" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1682" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F1682" s="56" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="1683" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1683" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1683" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1683" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1683" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="F1683" s="56" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="1684" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1684" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1684" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1684" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1684" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="F1684" s="56" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="1685" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1685" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1685" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1685" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1685" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="F1685" s="56" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="1686" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1686" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1686" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1686" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1686" s="57" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F1686" s="56" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="1687" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1687" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1687" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1687" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1687" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="F1687" s="56" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="1688" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1688" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1688" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1688" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1688" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F1688" s="56" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="1689" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1689" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1689" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1689" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1689" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F1689" s="56" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1690" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1690" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1690" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1690" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1690" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F1690" s="56" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1691" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1691" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1691" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1691" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1691" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="F1691" s="56" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="1692" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1692" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1692" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1692" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1692" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="F1692" s="56" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1693" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1693" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1693" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1693" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1693" s="1" t="s">
+        <v>3414</v>
+      </c>
+      <c r="F1693" s="56" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="1694" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1694" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1694" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1694" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1694" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="F1694" s="56" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1695" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1695" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1695" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1695" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1695" s="57" t="s">
+        <v>3418</v>
+      </c>
+      <c r="F1695" s="56" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="1696" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1696" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1696" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1696" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1696" s="57" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F1696" s="56" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="1697" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1697" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1697" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1697" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1697" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F1697" s="56" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="1698" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1698" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1698" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1698" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1698" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="F1698" s="56" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="1699" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1699" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1699" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1699" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1699" s="57" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F1699" s="56" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="1700" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1700" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1700" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1700" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1700" s="57" t="s">
+        <v>3428</v>
+      </c>
+      <c r="F1700" s="56" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="1701" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1701" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1701" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1701" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1701" s="57" t="s">
+        <v>3430</v>
+      </c>
+      <c r="F1701" s="56" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1702" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1702" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1702" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1702" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1702" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F1702" s="56" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1703" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1703" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1703" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1703" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1703" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="F1703" s="56" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1704" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1704" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1704" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1704" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1704" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F1704" s="56" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1705" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1705" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1705" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1705" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1705" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="F1705" s="56" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1706" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1706" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1706" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1706" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1706" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1706" s="56" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1707" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1707" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1707" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1707" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1707" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="F1707" s="56" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="1708" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1708" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1708" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1708" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1708" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="F1708" s="56" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="1709" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1709" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1709" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1709" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1709" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F1709" s="56" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1710" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1710" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1710" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1710" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1710" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F1710" s="56" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1711" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1711" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1711" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1711" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1711" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="F1711" s="56" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1712" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1712" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1712" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1712" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1712" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="F1712" s="56" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1713" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1713" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1713" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1713" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1713" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="F1713" s="56" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1714" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1714" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1714" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1714" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1714" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F1714" s="56" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="1715" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1715" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1715" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1715" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1715" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="F1715" s="56" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1716" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1716" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1716" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1716" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1716" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F1716" s="56" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1717" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1717" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1717" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1717" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1717" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="F1717" s="56" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1718" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1718" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1718" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1718" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1718" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="F1718" s="56" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1719" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1719" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1719" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1719" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1719" s="57" t="s">
+        <v>3466</v>
+      </c>
+      <c r="F1719" s="56" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="1720" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1720" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1720" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1720" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1720" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F1720" s="56" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1721" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1721" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1721" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1721" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1721" s="57" t="s">
+        <v>3470</v>
+      </c>
+      <c r="F1721" s="56" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="1722" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1722" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1722" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1722" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1722" s="57" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F1722" s="56" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="1723" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1723" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1723" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1723" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1723" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="F1723" s="56" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="1724" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1724" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1724" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1724" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1724" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="F1724" s="56" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="1725" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1725" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1725" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1725" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1725" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="F1725" s="56" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="1726" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1726" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1726" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1726" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1726" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="F1726" s="56" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="1727" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1727" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1727" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1727" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1727" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="F1727" s="56" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="1728" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1728" s="45">
+        <v>42998</v>
+      </c>
+      <c r="C1728" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1728" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1728" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="F1728" s="56" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="1729" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1729" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1729" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1729" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1729" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="F1729" s="56" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="1730" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1730" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1730" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1730" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1730" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F1730" s="56" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="1731" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1731" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1731" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1731" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1731" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="F1731" s="56" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="1732" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1732" s="45">
+        <v>42999</v>
+      </c>
+      <c r="C1732" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1732" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1732" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="F1732" s="56" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1733" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1733" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1733" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1733" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1733" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="F1733" s="56" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="1734" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1734" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1734" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1734" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1734" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="F1734" s="56" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="1735" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1735" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1735" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1735" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1735" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="F1735" s="56" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1736" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1736" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1736" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1736" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1736" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="F1736" s="56" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1737" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1737" s="45">
+        <v>43000</v>
+      </c>
+      <c r="C1737" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1737" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1737" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="F1737" s="56" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="1738" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1738" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1738" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1738" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1738" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="F1738" s="56" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="1739" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1739" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1739" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1739" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1739" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="F1739" s="56" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="1740" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1740" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1740" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1740" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1740" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F1740" s="56" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="1741" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1741" s="45">
+        <v>43001</v>
+      </c>
+      <c r="C1741" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1741" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1741" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="F1741" s="56" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="1742" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1742" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1742" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1742" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1742" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="F1742" s="56" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="1743" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1743" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1743" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1743" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1743" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="F1743" s="56" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="1744" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1744" s="45">
+        <v>43002</v>
+      </c>
+      <c r="C1744" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1744" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1744" s="57" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F1744" s="56" t="s">
+        <v>3517</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1636">
+  <autoFilter ref="A1:F1723">
     <filterColumn colId="1">
       <filters>
         <dateGroupItem year="2017" month="9" day="18" dateTimeGrouping="day"/>
         <dateGroupItem year="2017" month="9" day="19" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="AI科技评论"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -53754,9 +56459,117 @@
     <hyperlink ref="F1634" r:id="rId1623"/>
     <hyperlink ref="F1635" r:id="rId1624"/>
     <hyperlink ref="F1636" r:id="rId1625"/>
+    <hyperlink ref="F1637" r:id="rId1626"/>
+    <hyperlink ref="F1638" r:id="rId1627"/>
+    <hyperlink ref="F1639" r:id="rId1628"/>
+    <hyperlink ref="F1640" r:id="rId1629"/>
+    <hyperlink ref="F1641" r:id="rId1630"/>
+    <hyperlink ref="F1642" r:id="rId1631"/>
+    <hyperlink ref="F1643" r:id="rId1632"/>
+    <hyperlink ref="F1644" r:id="rId1633"/>
+    <hyperlink ref="F1645" r:id="rId1634"/>
+    <hyperlink ref="F1646" r:id="rId1635"/>
+    <hyperlink ref="F1647" r:id="rId1636"/>
+    <hyperlink ref="F1648" r:id="rId1637"/>
+    <hyperlink ref="F1649" r:id="rId1638"/>
+    <hyperlink ref="F1650" r:id="rId1639"/>
+    <hyperlink ref="F1651" r:id="rId1640"/>
+    <hyperlink ref="F1652" r:id="rId1641"/>
+    <hyperlink ref="F1653" r:id="rId1642"/>
+    <hyperlink ref="F1654" r:id="rId1643"/>
+    <hyperlink ref="F1655" r:id="rId1644"/>
+    <hyperlink ref="F1656" r:id="rId1645"/>
+    <hyperlink ref="F1657" r:id="rId1646"/>
+    <hyperlink ref="F1658" r:id="rId1647"/>
+    <hyperlink ref="F1659" r:id="rId1648"/>
+    <hyperlink ref="F1660" r:id="rId1649"/>
+    <hyperlink ref="F1661" r:id="rId1650"/>
+    <hyperlink ref="F1662" r:id="rId1651"/>
+    <hyperlink ref="F1663" r:id="rId1652"/>
+    <hyperlink ref="F1664" r:id="rId1653"/>
+    <hyperlink ref="F1665" r:id="rId1654"/>
+    <hyperlink ref="F1666" r:id="rId1655"/>
+    <hyperlink ref="F1667" r:id="rId1656"/>
+    <hyperlink ref="F1668" r:id="rId1657"/>
+    <hyperlink ref="F1669" r:id="rId1658"/>
+    <hyperlink ref="F1670" r:id="rId1659"/>
+    <hyperlink ref="F1671" r:id="rId1660"/>
+    <hyperlink ref="F1672" r:id="rId1661"/>
+    <hyperlink ref="F1673" r:id="rId1662"/>
+    <hyperlink ref="F1674" r:id="rId1663"/>
+    <hyperlink ref="F1675" r:id="rId1664"/>
+    <hyperlink ref="F1676" r:id="rId1665"/>
+    <hyperlink ref="F1677" r:id="rId1666"/>
+    <hyperlink ref="F1678" r:id="rId1667"/>
+    <hyperlink ref="F1679" r:id="rId1668"/>
+    <hyperlink ref="F1680" r:id="rId1669"/>
+    <hyperlink ref="F1681" r:id="rId1670"/>
+    <hyperlink ref="F1682" r:id="rId1671"/>
+    <hyperlink ref="F1683" r:id="rId1672"/>
+    <hyperlink ref="F1684" r:id="rId1673"/>
+    <hyperlink ref="F1685" r:id="rId1674"/>
+    <hyperlink ref="F1686" r:id="rId1675"/>
+    <hyperlink ref="F1687" r:id="rId1676"/>
+    <hyperlink ref="F1688" r:id="rId1677"/>
+    <hyperlink ref="F1689" r:id="rId1678"/>
+    <hyperlink ref="F1690" r:id="rId1679"/>
+    <hyperlink ref="F1691" r:id="rId1680"/>
+    <hyperlink ref="F1692" r:id="rId1681"/>
+    <hyperlink ref="F1693" r:id="rId1682"/>
+    <hyperlink ref="F1694" r:id="rId1683"/>
+    <hyperlink ref="F1695" r:id="rId1684"/>
+    <hyperlink ref="F1696" r:id="rId1685"/>
+    <hyperlink ref="F1697" r:id="rId1686"/>
+    <hyperlink ref="F1698" r:id="rId1687"/>
+    <hyperlink ref="F1699" r:id="rId1688"/>
+    <hyperlink ref="F1700" r:id="rId1689"/>
+    <hyperlink ref="F1701" r:id="rId1690"/>
+    <hyperlink ref="F1702" r:id="rId1691"/>
+    <hyperlink ref="F1703" r:id="rId1692"/>
+    <hyperlink ref="F1704" r:id="rId1693"/>
+    <hyperlink ref="F1705" r:id="rId1694"/>
+    <hyperlink ref="F1706" r:id="rId1695"/>
+    <hyperlink ref="F1707" r:id="rId1696"/>
+    <hyperlink ref="F1708" r:id="rId1697"/>
+    <hyperlink ref="F1709" r:id="rId1698"/>
+    <hyperlink ref="F1710" r:id="rId1699"/>
+    <hyperlink ref="F1711" r:id="rId1700"/>
+    <hyperlink ref="F1712" r:id="rId1701"/>
+    <hyperlink ref="F1713" r:id="rId1702"/>
+    <hyperlink ref="F1714" r:id="rId1703"/>
+    <hyperlink ref="F1715" r:id="rId1704"/>
+    <hyperlink ref="F1716" r:id="rId1705"/>
+    <hyperlink ref="F1717" r:id="rId1706"/>
+    <hyperlink ref="F1718" r:id="rId1707"/>
+    <hyperlink ref="F1719" r:id="rId1708"/>
+    <hyperlink ref="F1720" r:id="rId1709"/>
+    <hyperlink ref="F1721" r:id="rId1710"/>
+    <hyperlink ref="F1722" r:id="rId1711"/>
+    <hyperlink ref="F1723" r:id="rId1712"/>
+    <hyperlink ref="F1724" r:id="rId1713"/>
+    <hyperlink ref="F1725" r:id="rId1714"/>
+    <hyperlink ref="F1726" r:id="rId1715"/>
+    <hyperlink ref="F1727" r:id="rId1716"/>
+    <hyperlink ref="F1728" r:id="rId1717"/>
+    <hyperlink ref="F1729" r:id="rId1718"/>
+    <hyperlink ref="F1730" r:id="rId1719"/>
+    <hyperlink ref="F1731" r:id="rId1720"/>
+    <hyperlink ref="F1732" r:id="rId1721"/>
+    <hyperlink ref="F1733" r:id="rId1722"/>
+    <hyperlink ref="F1734" r:id="rId1723"/>
+    <hyperlink ref="F1735" r:id="rId1724"/>
+    <hyperlink ref="F1736" r:id="rId1725"/>
+    <hyperlink ref="F1737" r:id="rId1726"/>
+    <hyperlink ref="F1738" r:id="rId1727"/>
+    <hyperlink ref="F1739" r:id="rId1728"/>
+    <hyperlink ref="F1740" r:id="rId1729"/>
+    <hyperlink ref="F1741" r:id="rId1730"/>
+    <hyperlink ref="F1742" r:id="rId1731"/>
+    <hyperlink ref="F1743" r:id="rId1732"/>
+    <hyperlink ref="F1744" r:id="rId1733"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1626"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1734"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1723</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1765</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7144" uniqueCount="3518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7248" uniqueCount="3562">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14099,6 +14099,182 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/2ZPIKStqDh2GZtcmeZM3pQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定不收藏？十张机器学习和深度学习工程师必备速查表！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-AmCccRNDBDDpxdQqWc_Rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书单推荐 | 数据挖掘和统计科学自学十大必备读物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/SPgmimjKWY5IDzmsaibirg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arXiv的优缺点如此明显，未来是否应该引入评论与同行评议？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/jYj-ZhM6xUsmHxHelo9Vdw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入门 | 神经网络训练中，Epoch、Batch Size和迭代傻傻分不清?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/XfqJpDGorfpXu8DJ0TJEmA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 神经混合模型：提升模型性能，显著降低困惑度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/27Mbw2ViT8eJPJasD6tdfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 一封走进未来的邀请函</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Wz6togpwslALPkMV74ZsHg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/U0ZJAi8nF5Wg7SJywNS9Uw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/J8ZmIVKd-4X3hMGGIJWoDQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜机器学习利器——决策树和随机森林！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/LC41Mk7Sjm30qr1KXsZd8Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜官方发布：TensorFlow 数据集和估算器介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/a68brFJthczgwiFoUBh30A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜每个数据科学专家都应该知道的六个概率分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/X0nSqiQoJpEur7PM1tM-0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新｜百度发布移动端深度学习框架MDL，支持iOS和Android系统！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/UjL7_vICytBVYCl7r8v0-w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告｜医疗AI人才短缺 薪资20-300万元之间！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Gyuwl8vcl6zOJ70VP1BbAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40张图看懂扑克AI对抗人类30年历史，解密冷扑大师前世今生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/SAp0alFSLKN1CHX0_vdTjg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【深度解读】华为回应NPU IP归属问题，麒麟970全面对标iPhone8 Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/y9U7HBNPVX6OHEFFgWvk_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【迁移学习】 6张图像vs13000张图像，超越2013 Kaggle猫狗识别竞赛领先水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/qYoTgqwjaUlEycuk9LlonA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【阿法狗只是小儿科】5年内，AI将问鼎星际争霸，横扫人类玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/3ZVI9EaAG41wPKSrS1_h8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【白硕】当人工智能遇到区块链，是惊鸿一瞥还是天长地久？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/HCF5rtAuhPuw789r6yMPIg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电商交易欺诈层出不穷，如何用深度学习系统布下天罗地网？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BwIqjv7VPRwYaQan7F8zXA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | 周少华Kevin：医学影像分析顶会 MICCAI 17有哪些惊喜？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/TqDytSCIE6EuTBJECIxlrA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 百度开源移动端深度学习框架MDL，可在苹果安卓系统自由切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/EOGiicWwDOiK8n6ms3kvDQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态 | IROS 2017来了！和AI科技评论一起逛最具影响力的机器人学术大会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/AlwcCQ3JIA5HAli6pqQmhw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | 如何配置一台适用于深度学习的工作站？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ke4dUpCMEh3lXgfDoqqekg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15448,7 +15624,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43003</v>
+        <v>43004</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -24514,10 +24690,10 @@
   <sheetPr codeName="Sheet3" filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1744"/>
+  <dimension ref="A1:AB1770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1634" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E1740" sqref="E1740"/>
+    <sheetView tabSelected="1" topLeftCell="B1730" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1776" sqref="E1776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -52818,7 +52994,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="1628" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1628" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1628" s="45">
         <v>42996</v>
       </c>
@@ -52835,7 +53011,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="1629" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1629" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1629" s="45">
         <v>42996</v>
       </c>
@@ -52852,7 +53028,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="1630" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1630" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1630" s="45">
         <v>42996</v>
       </c>
@@ -52869,7 +53045,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="1631" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1631" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1631" s="45">
         <v>42996</v>
       </c>
@@ -52886,7 +53062,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="1632" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1632" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1632" s="45">
         <v>42997</v>
       </c>
@@ -52903,7 +53079,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="1633" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1633" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1633" s="45">
         <v>42997</v>
       </c>
@@ -52920,7 +53096,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="1634" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1634" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1634" s="45">
         <v>42997</v>
       </c>
@@ -52937,7 +53113,7 @@
         <v>3297</v>
       </c>
     </row>
-    <row r="1635" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1635" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1635" s="45">
         <v>42997</v>
       </c>
@@ -52954,7 +53130,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="1636" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1636" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B1636" s="45">
         <v>42997</v>
       </c>
@@ -54807,12 +54983,457 @@
         <v>3517</v>
       </c>
     </row>
+    <row r="1745" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1745" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1745" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1745" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1745" s="1" t="s">
+        <v>3518</v>
+      </c>
+      <c r="F1745" s="56" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="1746" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1746" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1746" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1746" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1746" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="F1746" s="56" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="1747" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1747" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1747" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1747" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1747" s="57" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F1747" s="56" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="1748" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1748" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1748" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1748" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1748" s="57" t="s">
+        <v>3524</v>
+      </c>
+      <c r="F1748" s="56" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="1749" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1749" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1749" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1749" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1749" s="57" t="s">
+        <v>3526</v>
+      </c>
+      <c r="F1749" s="56" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="1750" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1750" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1750" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1750" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1750" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="F1750" s="56" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="1751" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1751" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1751" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1751" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1751" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="F1751" s="56" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1752" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1752" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1752" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1752" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1752" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="F1752" s="56" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="1753" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1753" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1753" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1753" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1753" s="57" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F1753" s="56" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="1754" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1754" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1754" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1754" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1754" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F1754" s="56" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="1755" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1755" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1755" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1755" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1755" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="F1755" s="56" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="1756" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1756" s="45">
+        <v>43004</v>
+      </c>
+      <c r="C1756" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1756" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1756" s="1" t="s">
+        <v>3532</v>
+      </c>
+      <c r="F1756" s="56" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="1757" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1757" s="45">
+        <v>43004</v>
+      </c>
+      <c r="C1757" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1757" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1757" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F1757" s="56" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="1758" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1758" s="45">
+        <v>43004</v>
+      </c>
+      <c r="C1758" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1758" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1758" s="57" t="s">
+        <v>3536</v>
+      </c>
+      <c r="F1758" s="56" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="1759" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1759" s="45">
+        <v>43004</v>
+      </c>
+      <c r="C1759" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1759" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1759" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="F1759" s="56" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="1760" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1760" s="45">
+        <v>43004</v>
+      </c>
+      <c r="C1760" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1760" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1760" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F1760" s="56" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="1761" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1761" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1761" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1761" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1761" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F1761" s="56" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="1762" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1762" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1762" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1762" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1762" s="1" t="s">
+        <v>3544</v>
+      </c>
+      <c r="F1762" s="56" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="1763" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1763" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1763" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1763" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1763" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="F1763" s="56" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="1764" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1764" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1764" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1764" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1764" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="F1764" s="56" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="1765" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B1765" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1765" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1765" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1765" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="F1765" s="56" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="1766" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1766" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1766" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1766" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1766" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="F1766" s="56" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="1767" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1767" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1767" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1767" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1767" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="F1767" s="56" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="1768" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1768" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1768" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1768" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1768" s="1" t="s">
+        <v>3556</v>
+      </c>
+      <c r="F1768" s="56" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="1769" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1769" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1769" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1769" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1769" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="F1769" s="56" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="1770" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1770" s="45">
+        <v>43003</v>
+      </c>
+      <c r="C1770" s="33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1770" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1770" s="57" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F1770" s="56" t="s">
+        <v>3561</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1723">
+  <autoFilter ref="A1:F1765">
     <filterColumn colId="1">
       <filters>
-        <dateGroupItem year="2017" month="9" day="18" dateTimeGrouping="day"/>
-        <dateGroupItem year="2017" month="9" day="19" dateTimeGrouping="day"/>
+        <dateGroupItem year="2017" month="9" day="20" dateTimeGrouping="day"/>
+        <dateGroupItem year="2017" month="9" day="21" dateTimeGrouping="day"/>
+        <dateGroupItem year="2017" month="9" day="22" dateTimeGrouping="day"/>
+        <dateGroupItem year="2017" month="9" day="23" dateTimeGrouping="day"/>
+        <dateGroupItem year="2017" month="9" day="24" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -56567,9 +57188,35 @@
     <hyperlink ref="F1742" r:id="rId1731"/>
     <hyperlink ref="F1743" r:id="rId1732"/>
     <hyperlink ref="F1744" r:id="rId1733"/>
+    <hyperlink ref="F1745" r:id="rId1734"/>
+    <hyperlink ref="F1746" r:id="rId1735"/>
+    <hyperlink ref="F1747" r:id="rId1736"/>
+    <hyperlink ref="F1748" r:id="rId1737"/>
+    <hyperlink ref="F1749" r:id="rId1738"/>
+    <hyperlink ref="F1750" r:id="rId1739"/>
+    <hyperlink ref="F1751" r:id="rId1740"/>
+    <hyperlink ref="F1752" r:id="rId1741"/>
+    <hyperlink ref="F1753" r:id="rId1742"/>
+    <hyperlink ref="F1754" r:id="rId1743"/>
+    <hyperlink ref="F1755" r:id="rId1744"/>
+    <hyperlink ref="F1756" r:id="rId1745"/>
+    <hyperlink ref="F1757" r:id="rId1746"/>
+    <hyperlink ref="F1758" r:id="rId1747"/>
+    <hyperlink ref="F1759" r:id="rId1748"/>
+    <hyperlink ref="F1760" r:id="rId1749"/>
+    <hyperlink ref="F1761" r:id="rId1750"/>
+    <hyperlink ref="F1762" r:id="rId1751"/>
+    <hyperlink ref="F1763" r:id="rId1752"/>
+    <hyperlink ref="F1764" r:id="rId1753"/>
+    <hyperlink ref="F1765" r:id="rId1754"/>
+    <hyperlink ref="F1766" r:id="rId1755"/>
+    <hyperlink ref="F1767" r:id="rId1756"/>
+    <hyperlink ref="F1768" r:id="rId1757"/>
+    <hyperlink ref="F1769" r:id="rId1758"/>
+    <hyperlink ref="F1770" r:id="rId1759"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1734"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1760"/>
 </worksheet>
 </file>
 

--- a/微信公众号信息整合1.0.xlsx
+++ b/微信公众号信息整合1.0.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1765</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日资讯收集!$A$1:$F$1836</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">行业资讯周报!$B$2:$G$183</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7248" uniqueCount="3562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="3694">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14275,6 +14275,534 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s/ke4dUpCMEh3lXgfDoqqekg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时, 从权游到自动驾驶, 英伟达创始人黄仁勋北京演讲说得最多的是“省钱”！(精华ppt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/VJmXb3FciqGwBvOJSQbwew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI大事件 | 谷歌的计算引擎鸟枪换炮用上了更快的GPU，基于Python的亚马逊AWS深度学习AMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vSJZJ82etuSGWe_m10TEPQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标检测101：一文带你读懂深度学习框架下的目标检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JjsAnB_OxKS1Af9XAtw5sA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位情报局第七期 | 青云QingCloud、永洪科技、海云数据相关职位招聘ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BSRBeTdBExsflROHwotlyA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手把手 | 如何训练一个简单的音频识别网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hquOoKeeHQXqWcHM6Bkvbw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商汤CEO徐立：AI城市中，基于GPU计算能力的人工智能商业场景、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/oI6sMse1E3tPEozKJuU82Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英伟达GTC中国站开幕：宣布TensorRT3、自动机器处理器Xavier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/9xAGSP7V5zlOjTBZFfBloA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界｜互娱、电商、广告？Video++在用AI帮助视频和直播创收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/hKnIzJKKnpI-NitnJYLmAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 英特尔推出神经形态测试芯片Loihi：可自学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/OzLabX4IpajfEn9-ypKfuA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 英伟达开源硬件加速项目NVDLA：一种标准化的推断加速框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/-EF5PTIvxUAaOFHhsNbDXg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 从剪枝法到低秩分解，手机端语言模型的神经网络压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1o8NUAFBZLi4a69UrBv8GA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文格式排版你真的做对了吗? 常用格式及其LaTeX书写方法介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/yCfBWx37D_lVogHO2RBOfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | Kirin 970完爆A11，但华为手机的真正利器是HiAI移动计算平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/z1Hb2wq60gj1FRvyUhnGsA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 黄仁勋全面解读英伟达发展战略：打造面向未来的AI技术平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/cyULt3NNSEogHj_30vdquw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入门 | 一文概览深度学习中的卷积结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/zXkuXfHuiKtvDk9Ku0Ektg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 百度提出问答模型GNR：检索速度提高25倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/nIMk-xl8Wzy1ANcT3ApAng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从概率论到多分类问题：综述贝叶斯统计分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/rTpmFvgRC-cKbVxQkygdNQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专访 | 微软全球技术院士黄学东：「超人」语音识别模型只是优秀产品的其中一环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/tXu5UVZ1VUS6Yi4OVSq9OQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 用知识图谱+NLP，海知智能努力让机器人的开发像发微信一样简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/D4_Z9jJ8QwXLAft_hCfKnA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前沿 | 「变形金刚」面世：MIT推出微型可变形态机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/xR3SHLq6W2wldNTAcrbLTg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 结合遗传算法与DNN的EDEN：自动搜索神经网络架构与超参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/sxnI5n5ACT6UHC6VDdUwQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【黄仁勋北京演讲】GPU帝国启幕，发布可编程AI 推理加速器TensorRT 3（PPT实录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vDxxv0FxTsz8oSh-xFbCBg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景驰科技完成Pre-A轮5200万美元融资， 启明创投，英伟达投资 | 专访</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/RW3yc7eRQnzuE4_EXK91LQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然语言处理终极方向：深度学习用于自然语言处理的5大优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/tE7Pg_UtgCynw9d6njoUsA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普京：机器人可能会吃掉我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/KR3wFvlkD55XhwuMw7IobA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英特尔研发神经元芯片，模拟人脑自学习能效提升1000倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/4wndJZy5vP047llUdEHJWg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【黄仁勋是华人AI界新王者么】2017AITop 10企业巨星、新星、VC和创新榜单你来选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/2qtNVVCnvQL1nlfTbB1AKQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问黄仁勋：5年内GPU定会赢过TPU，中国计算机产业已居世界一流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/tg2MK6gZn37wZTrN-_Wd7Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Bengio一人署名论文】提出“意识RNN”，用4页纸进军通用AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/CcJqhOYP6QW-d2n-YIFM-w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度开源移动端深度学习框架MDL，手机部署CNN支持iOS GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/_mrYI7McMBUx0lEh4rNiYQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传特斯拉与英伟达分道扬镳，英特尔成特斯拉车载多媒体系统新芯片供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/iNtbwY-vHtqLtGR2BCgKjA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【周志华深度森林第二弹】首个基于森林的自编码器，性能优于DNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/dEmox_pi6KGXwFoevbv14Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【深度】中国顶级AI Lab探访：今日头条、讯飞、阿里、腾讯、姚班都在做什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ZCf_7n_jI9iW14Oxe32J1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AI VS人类】医生水平大PK: 人工智能四胜三平一负绝对领先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/Cbn_Hn8nI5KVu-zXTgEFYw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可视化NIPs等AI顶级会议影响力：大约20%论文从未被引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/95Pnzj2fUHcr8iGjnfpjRw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业公司如何宣布融资，才能有效增加知名度并吸引人才？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/MtO3S6kixA60O3LyL2yU4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害｜黄仁勋狂怼CPU:摩尔定律已死 未来属于GPU!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/JFD-f0yzKQwksGPM6pI02w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜研究人脸识别技术必须知道的十个基本概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/GonPGy6EK5O9OK0hj0HOLQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜投资者梳理AI芯片产业，一文秒懂AI芯片生态！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-FwuhibwwG6CFUcZXNBTFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用TensorFlow和TensorBoard从零开始构建ConvNet（CNN）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/yc1ssCzaPzI4UUsl4jl5Yw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家分享|为什么要用深度学习来做个性化推荐CTR预估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/eNI28-GPEhqpf9OqRyQmoQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意！深度学习不仅存在“黑盒”，还存在不少缺点！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/Sgovvts1n2eBX_kwvWp7CQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜CS224n研究热点：自动组合神经网络做问答系统！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/eDA6-BqPmjGBOPsOom0VIw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货｜Python Ubuntu虚拟机深度学习入门！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/ddj8r40c6-Xg91bel__8Zg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜我最讨厌pandas这11个方面的问题！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/n4LMxtfPkTiRD2ETEvy-Lg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害｜柔宇科技新增D轮融资约8亿美元！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/VPyqzWD1anCPVPtJeW5KFw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉了！醉了！京东给周志华老师颁发“文学奖”！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kbZBmkiY8dGO89ZctNR5NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜大规模机器学习系统中的No Free Lunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/2YFjtQn9c8g7mgH5tl-egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利！NVIDIA深度学习学院进入中国，帮助企业培训AI人才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/GuwLOX0rIQ3y3yNiEiTuKw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS224n研究热点8 谷歌的多语种神经网络翻译系统！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/2dTCvWujgJ71Dsbm-pGcrA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐｜9大不得不看的深度学习课程！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/C56CLLU3G6Up_Wiuz_kxXA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄仁勋在GTC上带来什么惊喜？除了TensorRT 3，还有英伟达在自动驾驶的最新动向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/1Z7J-XoAI26Ws5Ms86knCQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | 七位国内最顶尖的计算学者齐聚CCF ADL，讲解驱动城市智能未来的技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/kaXSekCvIF9L_-k-JgOLOw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界 | 英特尔发布自动学习芯片Loihi，通用计算效率快1000倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/PShI3curk4r3XpEI6W_mzA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | UIUC访问学者沈志强今晚8点分享：在小规模数据集上，怎样从头开始训练鲁棒的目标检测器？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/2iXmQ8SxGOrVmTgXuB8mZg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | 第30届IROS正式开幕，深度学习当道的机器人会议都有什么精彩亮点？（多图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/-AbmAxHb5bYGhwS8eSpwLw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李飞飞：为什么计算机视觉对机器人如此重要？ | IROS 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/BcnEqHEYR0Roni1q8tRctQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干货 | NIPS 2017录用论文先睹为快！GAIR大讲堂NIPS清华专场精彩回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/eLrpdZtPh99X9y4bjaWqeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 | 微软 Ignite2017 大会探秘，Azure机器学习三大工具正式发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/lcCFnwNAiZj9zm2dYl-u3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动 | 今晚8点 ICCV 2017论文直播：性能保障的高阶残差量化网络加速方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/cNED1aB_DppEQBcRXh0zHg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | 集结号吹响，国内NLP最高水平会议CCL/NLP-NABD下月南京召开！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/zqQRxUdfDCfCcdeo6OO_ZQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李飞飞：在物体识别之后，计算机视觉还要多久才能理解这个世界？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/vLFWgynxMb80FlfMSY6WdQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播 | 如何让对抗网络GAN生成更高质量的文本？LeakGAN现身说法：“对抗中，你可能需要一个间谍！”（今晚8点直播）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/TTDo6ZrkIfS-YwqGpxKoPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大会 | IROS多项奖项公布！中国队伍称雄抓取竞赛，华人学生获最佳学生论文奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/uq_jgWr12zEAXAzXAeRUMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学界 | 百度SVAIL推出高效问答模型GNR，比双向注意流快24.7倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/9xY5KX2aSXtVa-NysyvruA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态 | 滴滴出行与上海交通大学共建联合实验室，加速产学研合作进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s/6OOPz_7GvCanlJWp0Q123w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15169,6 +15697,42 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -15196,27 +15760,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15224,21 +15767,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15624,23 +16152,23 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43004</v>
+        <v>43007</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="79" t="str">
+      <c r="B3" s="67" t="str">
         <f ca="1">"NSNG第"&amp;WEEKNUM(C2,2)-1&amp;"周行业资讯"</f>
         <v>NSNG第39周行业资讯</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
@@ -15651,22 +16179,22 @@
         <v/>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="61" t="str">
+      <c r="C5" s="73" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
@@ -15692,61 +16220,61 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="58" t="str">
+      <c r="B7" s="70" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="2:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="71" t="str">
+      <c r="B8" s="62" t="str">
         <f>VLOOKUP(C4,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="70" t="str">
+      <c r="C10" s="61" t="str">
         <f>行业资讯整理!B3</f>
         <v/>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="61" t="str">
+      <c r="C11" s="73" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -15773,60 +16301,60 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="58" t="str">
+      <c r="B13" s="70" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="71" t="str">
+      <c r="B14" s="62" t="str">
         <f>VLOOKUP(C10,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="70" t="str">
+      <c r="C16" s="61" t="str">
         <f>行业资讯整理!B4</f>
         <v/>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="61" t="str">
+      <c r="C17" s="73" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
@@ -15852,60 +16380,60 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="58" t="str">
+      <c r="B19" s="70" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
     </row>
     <row r="20" spans="2:7" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="71" t="str">
+      <c r="B20" s="62" t="str">
         <f>VLOOKUP(C16,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="70" t="str">
+      <c r="C22" s="61" t="str">
         <f>行业资讯整理!B5</f>
         <v/>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="61" t="str">
+      <c r="C23" s="73" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
@@ -15931,60 +16459,60 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="58" t="str">
+      <c r="B25" s="70" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
     </row>
     <row r="26" spans="2:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="71" t="str">
+      <c r="B26" s="62" t="str">
         <f>VLOOKUP(C22,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="70" t="str">
+      <c r="C28" s="61" t="str">
         <f>行业资讯整理!B6</f>
         <v/>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="61" t="str">
+      <c r="C29" s="73" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="9" t="s">
@@ -16010,60 +16538,60 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="58" t="str">
+      <c r="B31" s="70" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
     </row>
     <row r="32" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="71" t="str">
+      <c r="B32" s="62" t="str">
         <f>VLOOKUP(C28,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
     </row>
     <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="70" t="str">
+      <c r="C34" s="61" t="str">
         <f>行业资讯整理!B7</f>
         <v/>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="61" t="str">
+      <c r="C35" s="73" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
@@ -16089,60 +16617,60 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="58" t="str">
+      <c r="B37" s="70" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
     </row>
     <row r="38" spans="2:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="71" t="str">
+      <c r="B38" s="62" t="str">
         <f>VLOOKUP(C34,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
     </row>
     <row r="39" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="70" t="str">
+      <c r="C40" s="61" t="str">
         <f>行业资讯整理!B8</f>
         <v/>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="61" t="str">
+      <c r="C41" s="73" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
@@ -16168,60 +16696,60 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="58" t="str">
+      <c r="B43" s="70" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="72"/>
     </row>
     <row r="44" spans="2:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="71" t="str">
+      <c r="B44" s="62" t="str">
         <f>VLOOKUP(C40,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
     </row>
     <row r="45" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="69"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="70" t="str">
+      <c r="C46" s="61" t="str">
         <f>行业资讯整理!B9</f>
         <v/>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="61" t="str">
+      <c r="C47" s="73" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
@@ -16247,60 +16775,60 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="58" t="str">
+      <c r="B49" s="70" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
     </row>
     <row r="50" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="71" t="str">
+      <c r="B50" s="62" t="str">
         <f>VLOOKUP(C46,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
     </row>
     <row r="51" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="69"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="70" t="str">
+      <c r="C52" s="61" t="str">
         <f>行业资讯整理!B10</f>
         <v/>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="61" t="str">
+      <c r="C53" s="73" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="75"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="9" t="s">
@@ -16326,60 +16854,60 @@
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="58" t="str">
+      <c r="B55" s="70" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72"/>
     </row>
     <row r="56" spans="2:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="71" t="str">
+      <c r="B56" s="62" t="str">
         <f>VLOOKUP(C52,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
     </row>
     <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="67"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="69"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="70" t="str">
+      <c r="C58" s="61" t="str">
         <f>行业资讯整理!B11</f>
         <v/>
       </c>
-      <c r="D58" s="70"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="66"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="61" t="str">
+      <c r="C59" s="73" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="63"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="9" t="s">
@@ -16405,60 +16933,60 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="58" t="str">
+      <c r="B61" s="70" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="60"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="72"/>
     </row>
     <row r="62" spans="2:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="71" t="str">
+      <c r="B62" s="62" t="str">
         <f>VLOOKUP(C58,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="64"/>
     </row>
     <row r="63" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="67"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="69"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="60"/>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="70" t="str">
+      <c r="C64" s="61" t="str">
         <f>行业资讯整理!B12</f>
         <v/>
       </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="66"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B65" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="61" t="str">
+      <c r="C65" s="73" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="75"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
@@ -16484,60 +17012,60 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="58" t="str">
+      <c r="B67" s="70" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="60"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="72"/>
     </row>
     <row r="68" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="71" t="str">
+      <c r="B68" s="62" t="str">
         <f>VLOOKUP(C64,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="73"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="64"/>
     </row>
     <row r="69" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="67"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="69"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="60"/>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="70" t="str">
+      <c r="C70" s="61" t="str">
         <f>行业资讯整理!B13</f>
         <v/>
       </c>
-      <c r="D70" s="70"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="66"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="78"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="61" t="str">
+      <c r="C71" s="73" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,10,FALSE)</f>
         <v/>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="63"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="75"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="9" t="s">
@@ -16563,60 +17091,60 @@
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="58" t="str">
+      <c r="B73" s="70" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,8,FALSE)</f>
         <v/>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="72"/>
     </row>
     <row r="74" spans="2:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="71" t="str">
+      <c r="B74" s="62" t="str">
         <f>VLOOKUP(C70,行业资讯整理!$B$2:$K$31,9,FALSE)</f>
         <v/>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="64"/>
     </row>
     <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="67"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="69"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <